--- a/sspmi/data.xlsx
+++ b/sspmi/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="285" windowWidth="14535" windowHeight="7365" tabRatio="748" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="285" windowWidth="14535" windowHeight="7365" tabRatio="748" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="16" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4388" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="1022">
   <si>
     <t>distribution_identifier</t>
   </si>
@@ -3210,6 +3210,9 @@
   </si>
   <si>
     <t>población, tasa, mortalidad, natalidad, alumnos, empleo, depósitos, préstamos, gastos, recursos, datos provinciales</t>
+  </si>
+  <si>
+    <t>2017-09-26</t>
   </si>
 </sst>
 </file>
@@ -4749,7 +4752,7 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5220,9 +5223,6 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="40" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6279,11 +6279,11 @@
   <dimension ref="A1:AA97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" sqref="A1:XFD1"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9176,8 +9176,8 @@
   </sheetPr>
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showGridLines="0" topLeftCell="D14" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10082,10 +10082,10 @@
         <v>32</v>
       </c>
       <c r="L15" s="48" t="s">
-        <v>897</v>
+        <v>1021</v>
       </c>
       <c r="M15" s="48" t="s">
-        <v>897</v>
+        <v>1021</v>
       </c>
       <c r="N15" s="65" t="s">
         <v>33</v>
@@ -10141,11 +10141,11 @@
       <c r="K16" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="171" t="s">
-        <v>897</v>
-      </c>
-      <c r="M16" s="171" t="s">
-        <v>897</v>
+      <c r="L16" s="48" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M16" s="48" t="s">
+        <v>1021</v>
       </c>
       <c r="N16" s="169" t="s">
         <v>33</v>
@@ -10153,10 +10153,10 @@
       <c r="O16" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="172" t="s">
+      <c r="P16" s="171" t="s">
         <v>965</v>
       </c>
-      <c r="Q16" s="173" t="s">
+      <c r="Q16" s="172" t="s">
         <v>38</v>
       </c>
       <c r="R16" s="49"/>
@@ -10187,12 +10187,12 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="K32" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E14" sqref="E14"/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35:N36"/>
+      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11462,20 +11462,24 @@
       <c r="E35" s="67" t="s">
         <v>968</v>
       </c>
-      <c r="F35" s="173" t="s">
+      <c r="F35" s="172" t="s">
         <v>898</v>
       </c>
-      <c r="G35" s="174" t="s">
+      <c r="G35" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="173" t="s">
+      <c r="H35" s="172" t="s">
         <v>38</v>
       </c>
       <c r="I35" s="56"/>
       <c r="J35" s="49"/>
       <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
+      <c r="L35" s="48" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M35" s="48" t="s">
+        <v>1021</v>
+      </c>
       <c r="N35" s="49"/>
     </row>
     <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.2">
@@ -11494,20 +11498,24 @@
       <c r="E36" s="67" t="s">
         <v>970</v>
       </c>
-      <c r="F36" s="173" t="s">
+      <c r="F36" s="172" t="s">
         <v>898</v>
       </c>
-      <c r="G36" s="174" t="s">
+      <c r="G36" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="H36" s="173" t="s">
+      <c r="H36" s="172" t="s">
         <v>38</v>
       </c>
       <c r="I36" s="56"/>
       <c r="J36" s="49"/>
       <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
+      <c r="L36" s="48" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M36" s="48" t="s">
+        <v>1021</v>
+      </c>
       <c r="N36" s="49"/>
     </row>
   </sheetData>
@@ -22481,740 +22489,740 @@
       <c r="H423" s="61"/>
     </row>
     <row r="424" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A424" s="180" t="s">
+      <c r="A424" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B424" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C424" s="176" t="s">
+      <c r="C424" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D424" s="178" t="s">
+      <c r="D424" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E424" s="177" t="s">
+      <c r="E424" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="F424" s="175" t="s">
+      <c r="F424" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="G424" s="175" t="s">
+      <c r="G424" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="H424" s="175"/>
+      <c r="H424" s="174"/>
     </row>
     <row r="425" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A425" s="180" t="s">
+      <c r="A425" s="179" t="s">
         <v>963</v>
       </c>
-      <c r="B425" s="175" t="s">
+      <c r="B425" s="174" t="s">
         <v>964</v>
       </c>
-      <c r="C425" s="176" t="s">
+      <c r="C425" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D425" s="177" t="s">
+      <c r="D425" s="176" t="s">
         <v>968</v>
       </c>
-      <c r="E425" s="177" t="s">
+      <c r="E425" s="176" t="s">
         <v>971</v>
       </c>
-      <c r="F425" s="175" t="s">
+      <c r="F425" s="174" t="s">
         <v>972</v>
       </c>
-      <c r="G425" s="175" t="s">
+      <c r="G425" s="174" t="s">
         <v>973</v>
       </c>
-      <c r="H425" s="175"/>
+      <c r="H425" s="174"/>
     </row>
     <row r="426" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A426" s="180" t="s">
+      <c r="A426" s="179" t="s">
         <v>963</v>
       </c>
-      <c r="B426" s="175" t="s">
+      <c r="B426" s="174" t="s">
         <v>964</v>
       </c>
-      <c r="C426" s="176" t="s">
+      <c r="C426" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D426" s="177" t="s">
+      <c r="D426" s="176" t="s">
         <v>968</v>
       </c>
-      <c r="E426" s="177" t="s">
+      <c r="E426" s="176" t="s">
         <v>974</v>
       </c>
-      <c r="F426" s="175" t="s">
+      <c r="F426" s="174" t="s">
         <v>972</v>
       </c>
-      <c r="G426" s="175" t="s">
+      <c r="G426" s="174" t="s">
         <v>975</v>
       </c>
-      <c r="H426" s="175"/>
+      <c r="H426" s="174"/>
     </row>
     <row r="427" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A427" s="180" t="s">
+      <c r="A427" s="179" t="s">
         <v>963</v>
       </c>
-      <c r="B427" s="175" t="s">
+      <c r="B427" s="174" t="s">
         <v>964</v>
       </c>
-      <c r="C427" s="176" t="s">
+      <c r="C427" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D427" s="177" t="s">
+      <c r="D427" s="176" t="s">
         <v>968</v>
       </c>
-      <c r="E427" s="177" t="s">
+      <c r="E427" s="176" t="s">
         <v>976</v>
       </c>
-      <c r="F427" s="175" t="s">
+      <c r="F427" s="174" t="s">
         <v>972</v>
       </c>
-      <c r="G427" s="175" t="s">
+      <c r="G427" s="174" t="s">
         <v>977</v>
       </c>
-      <c r="H427" s="175"/>
+      <c r="H427" s="174"/>
     </row>
     <row r="428" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A428" s="180" t="s">
+      <c r="A428" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B428" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C428" s="176" t="s">
+      <c r="C428" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D428" s="178" t="s">
+      <c r="D428" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E428" s="177" t="s">
+      <c r="E428" s="176" t="s">
         <v>978</v>
       </c>
-      <c r="F428" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G428" s="175" t="s">
+      <c r="F428" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G428" s="174" t="s">
         <v>979</v>
       </c>
-      <c r="H428" s="181" t="s">
+      <c r="H428" s="180" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A429" s="180" t="s">
+      <c r="A429" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B429" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C429" s="176" t="s">
+      <c r="C429" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D429" s="178" t="s">
+      <c r="D429" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E429" s="177" t="s">
+      <c r="E429" s="176" t="s">
         <v>980</v>
       </c>
-      <c r="F429" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G429" s="175" t="s">
+      <c r="F429" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G429" s="174" t="s">
         <v>981</v>
       </c>
-      <c r="H429" s="181" t="s">
+      <c r="H429" s="180" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="430" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A430" s="180" t="s">
+      <c r="A430" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B430" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C430" s="176" t="s">
+      <c r="C430" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D430" s="178" t="s">
+      <c r="D430" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E430" s="177" t="s">
+      <c r="E430" s="176" t="s">
         <v>982</v>
       </c>
-      <c r="F430" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G430" s="175" t="s">
+      <c r="F430" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G430" s="174" t="s">
         <v>983</v>
       </c>
-      <c r="H430" s="181" t="s">
+      <c r="H430" s="180" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="431" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A431" s="180" t="s">
+      <c r="A431" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B431" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C431" s="176" t="s">
+      <c r="C431" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D431" s="178" t="s">
+      <c r="D431" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E431" s="177" t="s">
+      <c r="E431" s="176" t="s">
         <v>984</v>
       </c>
-      <c r="F431" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G431" s="175" t="s">
+      <c r="F431" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G431" s="174" t="s">
         <v>985</v>
       </c>
-      <c r="H431" s="175" t="s">
+      <c r="H431" s="174" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="432" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A432" s="180" t="s">
+      <c r="A432" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B432" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C432" s="176" t="s">
+      <c r="C432" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D432" s="178" t="s">
+      <c r="D432" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E432" s="177" t="s">
+      <c r="E432" s="176" t="s">
         <v>986</v>
       </c>
-      <c r="F432" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G432" s="175" t="s">
+      <c r="F432" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G432" s="174" t="s">
         <v>987</v>
       </c>
-      <c r="H432" s="181" t="s">
+      <c r="H432" s="180" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="433" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A433" s="180" t="s">
+      <c r="A433" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B433" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C433" s="176" t="s">
+      <c r="C433" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D433" s="178" t="s">
+      <c r="D433" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E433" s="177" t="s">
+      <c r="E433" s="176" t="s">
         <v>988</v>
       </c>
-      <c r="F433" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G433" s="175" t="s">
+      <c r="F433" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G433" s="174" t="s">
         <v>989</v>
       </c>
-      <c r="H433" s="181" t="s">
+      <c r="H433" s="180" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="434" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A434" s="180" t="s">
+      <c r="A434" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B434" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C434" s="176" t="s">
+      <c r="C434" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D434" s="178" t="s">
+      <c r="D434" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E434" s="177" t="s">
+      <c r="E434" s="176" t="s">
         <v>990</v>
       </c>
-      <c r="F434" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G434" s="175" t="s">
+      <c r="F434" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G434" s="174" t="s">
         <v>991</v>
       </c>
-      <c r="H434" s="181" t="s">
+      <c r="H434" s="180" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="435" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A435" s="180" t="s">
+      <c r="A435" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B435" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C435" s="176" t="s">
+      <c r="C435" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D435" s="178" t="s">
+      <c r="D435" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E435" s="177" t="s">
+      <c r="E435" s="176" t="s">
         <v>992</v>
       </c>
-      <c r="F435" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G435" s="175" t="s">
+      <c r="F435" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G435" s="174" t="s">
         <v>993</v>
       </c>
-      <c r="H435" s="181" t="s">
+      <c r="H435" s="180" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="436" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A436" s="180" t="s">
+      <c r="A436" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B436" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C436" s="176" t="s">
+      <c r="C436" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D436" s="178" t="s">
+      <c r="D436" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E436" s="177" t="s">
+      <c r="E436" s="176" t="s">
         <v>994</v>
       </c>
-      <c r="F436" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G436" s="175" t="s">
+      <c r="F436" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G436" s="174" t="s">
         <v>995</v>
       </c>
-      <c r="H436" s="175" t="s">
+      <c r="H436" s="174" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="437" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A437" s="180" t="s">
+      <c r="A437" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B437" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C437" s="176" t="s">
+      <c r="C437" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D437" s="178" t="s">
+      <c r="D437" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E437" s="177" t="s">
+      <c r="E437" s="176" t="s">
         <v>996</v>
       </c>
-      <c r="F437" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G437" s="175" t="s">
+      <c r="F437" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G437" s="174" t="s">
         <v>997</v>
       </c>
-      <c r="H437" s="175" t="s">
+      <c r="H437" s="174" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="438" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A438" s="180" t="s">
+      <c r="A438" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B438" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C438" s="176" t="s">
+      <c r="C438" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D438" s="178" t="s">
+      <c r="D438" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E438" s="177" t="s">
+      <c r="E438" s="176" t="s">
         <v>998</v>
       </c>
-      <c r="F438" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G438" s="175" t="s">
+      <c r="F438" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G438" s="174" t="s">
         <v>999</v>
       </c>
-      <c r="H438" s="175" t="s">
+      <c r="H438" s="174" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="439" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A439" s="180" t="s">
+      <c r="A439" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B439" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C439" s="176" t="s">
+      <c r="C439" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D439" s="178" t="s">
+      <c r="D439" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E439" s="177" t="s">
+      <c r="E439" s="176" t="s">
         <v>1000</v>
       </c>
-      <c r="F439" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G439" s="175" t="s">
+      <c r="F439" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G439" s="174" t="s">
         <v>1001</v>
       </c>
-      <c r="H439" s="182" t="s">
+      <c r="H439" s="181" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="440" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A440" s="180" t="s">
+      <c r="A440" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B440" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C440" s="176" t="s">
+      <c r="C440" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D440" s="178" t="s">
+      <c r="D440" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E440" s="177" t="s">
+      <c r="E440" s="176" t="s">
         <v>1002</v>
       </c>
-      <c r="F440" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G440" s="175" t="s">
+      <c r="F440" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G440" s="174" t="s">
         <v>1003</v>
       </c>
-      <c r="H440" s="179" t="s">
+      <c r="H440" s="178" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="441" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A441" s="180" t="s">
+      <c r="A441" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B441" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C441" s="176" t="s">
+      <c r="C441" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D441" s="178" t="s">
+      <c r="D441" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E441" s="177" t="s">
+      <c r="E441" s="176" t="s">
         <v>1004</v>
       </c>
-      <c r="F441" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G441" s="175" t="s">
+      <c r="F441" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G441" s="174" t="s">
         <v>1005</v>
       </c>
-      <c r="H441" s="179" t="s">
+      <c r="H441" s="178" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="442" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A442" s="180" t="s">
+      <c r="A442" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B442" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C442" s="176" t="s">
+      <c r="C442" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D442" s="178" t="s">
+      <c r="D442" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E442" s="177" t="s">
+      <c r="E442" s="176" t="s">
         <v>1006</v>
       </c>
-      <c r="F442" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G442" s="175" t="s">
+      <c r="F442" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G442" s="174" t="s">
         <v>1007</v>
       </c>
-      <c r="H442" s="179" t="s">
+      <c r="H442" s="178" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="443" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A443" s="180" t="s">
+      <c r="A443" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B443" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C443" s="176" t="s">
+      <c r="C443" s="175" t="s">
         <v>967</v>
       </c>
-      <c r="D443" s="178" t="s">
+      <c r="D443" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E443" s="177" t="s">
+      <c r="E443" s="176" t="s">
         <v>1008</v>
       </c>
-      <c r="F443" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G443" s="175" t="s">
+      <c r="F443" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G443" s="174" t="s">
         <v>1009</v>
       </c>
-      <c r="H443" s="179" t="s">
+      <c r="H443" s="178" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="444" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A444" s="180" t="s">
+      <c r="A444" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B444" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C444" s="176" t="s">
+      <c r="C444" s="175" t="s">
         <v>969</v>
       </c>
-      <c r="D444" s="178" t="s">
+      <c r="D444" s="177" t="s">
         <v>970</v>
       </c>
-      <c r="E444" s="177" t="s">
+      <c r="E444" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="F444" s="175" t="s">
+      <c r="F444" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="G444" s="175" t="s">
+      <c r="G444" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="H444" s="175"/>
+      <c r="H444" s="174"/>
     </row>
     <row r="445" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A445" s="180" t="s">
+      <c r="A445" s="179" t="s">
         <v>963</v>
       </c>
-      <c r="B445" s="175" t="s">
+      <c r="B445" s="174" t="s">
         <v>964</v>
       </c>
-      <c r="C445" s="176" t="s">
+      <c r="C445" s="175" t="s">
         <v>969</v>
       </c>
-      <c r="D445" s="177" t="s">
+      <c r="D445" s="176" t="s">
         <v>970</v>
       </c>
-      <c r="E445" s="177" t="s">
+      <c r="E445" s="176" t="s">
         <v>971</v>
       </c>
-      <c r="F445" s="175" t="s">
+      <c r="F445" s="174" t="s">
         <v>972</v>
       </c>
-      <c r="G445" s="175" t="s">
+      <c r="G445" s="174" t="s">
         <v>973</v>
       </c>
-      <c r="H445" s="175"/>
+      <c r="H445" s="174"/>
     </row>
     <row r="446" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A446" s="180" t="s">
+      <c r="A446" s="179" t="s">
         <v>963</v>
       </c>
-      <c r="B446" s="175" t="s">
+      <c r="B446" s="174" t="s">
         <v>964</v>
       </c>
-      <c r="C446" s="176" t="s">
+      <c r="C446" s="175" t="s">
         <v>969</v>
       </c>
-      <c r="D446" s="177" t="s">
+      <c r="D446" s="176" t="s">
         <v>970</v>
       </c>
-      <c r="E446" s="177" t="s">
+      <c r="E446" s="176" t="s">
         <v>974</v>
       </c>
-      <c r="F446" s="175" t="s">
+      <c r="F446" s="174" t="s">
         <v>972</v>
       </c>
-      <c r="G446" s="175" t="s">
+      <c r="G446" s="174" t="s">
         <v>975</v>
       </c>
-      <c r="H446" s="175"/>
+      <c r="H446" s="174"/>
     </row>
     <row r="447" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A447" s="180" t="s">
+      <c r="A447" s="179" t="s">
         <v>963</v>
       </c>
-      <c r="B447" s="175" t="s">
+      <c r="B447" s="174" t="s">
         <v>964</v>
       </c>
-      <c r="C447" s="176" t="s">
+      <c r="C447" s="175" t="s">
         <v>969</v>
       </c>
-      <c r="D447" s="177" t="s">
+      <c r="D447" s="176" t="s">
         <v>970</v>
       </c>
-      <c r="E447" s="177" t="s">
+      <c r="E447" s="176" t="s">
         <v>976</v>
       </c>
-      <c r="F447" s="175" t="s">
+      <c r="F447" s="174" t="s">
         <v>972</v>
       </c>
-      <c r="G447" s="175" t="s">
+      <c r="G447" s="174" t="s">
         <v>977</v>
       </c>
-      <c r="H447" s="175"/>
+      <c r="H447" s="174"/>
     </row>
     <row r="448" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A448" s="180" t="s">
+      <c r="A448" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B448" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C448" s="176" t="s">
+      <c r="C448" s="175" t="s">
         <v>969</v>
       </c>
-      <c r="D448" s="178" t="s">
+      <c r="D448" s="177" t="s">
         <v>970</v>
       </c>
-      <c r="E448" s="177" t="s">
+      <c r="E448" s="176" t="s">
         <v>1000</v>
       </c>
-      <c r="F448" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G448" s="175" t="s">
+      <c r="F448" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G448" s="174" t="s">
         <v>1010</v>
       </c>
-      <c r="H448" s="182" t="s">
+      <c r="H448" s="181" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="449" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A449" s="180" t="s">
+      <c r="A449" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B449" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C449" s="176" t="s">
+      <c r="C449" s="175" t="s">
         <v>969</v>
       </c>
-      <c r="D449" s="178" t="s">
+      <c r="D449" s="177" t="s">
         <v>970</v>
       </c>
-      <c r="E449" s="177" t="s">
+      <c r="E449" s="176" t="s">
         <v>1011</v>
       </c>
-      <c r="F449" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G449" s="175" t="s">
+      <c r="F449" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G449" s="174" t="s">
         <v>1012</v>
       </c>
-      <c r="H449" s="181" t="s">
+      <c r="H449" s="180" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="450" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A450" s="180" t="s">
+      <c r="A450" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B450" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C450" s="176" t="s">
+      <c r="C450" s="175" t="s">
         <v>969</v>
       </c>
-      <c r="D450" s="178" t="s">
+      <c r="D450" s="177" t="s">
         <v>970</v>
       </c>
-      <c r="E450" s="177" t="s">
+      <c r="E450" s="176" t="s">
         <v>1013</v>
       </c>
-      <c r="F450" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G450" s="175" t="s">
+      <c r="F450" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G450" s="174" t="s">
         <v>1014</v>
       </c>
-      <c r="H450" s="181" t="s">
+      <c r="H450" s="180" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="451" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A451" s="180" t="s">
+      <c r="A451" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B451" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C451" s="176" t="s">
+      <c r="C451" s="175" t="s">
         <v>969</v>
       </c>
-      <c r="D451" s="178" t="s">
+      <c r="D451" s="177" t="s">
         <v>970</v>
       </c>
-      <c r="E451" s="177" t="s">
+      <c r="E451" s="176" t="s">
         <v>1015</v>
       </c>
-      <c r="F451" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G451" s="175" t="s">
+      <c r="F451" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G451" s="174" t="s">
         <v>1016</v>
       </c>
-      <c r="H451" s="181" t="s">
+      <c r="H451" s="180" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="452" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A452" s="180" t="s">
+      <c r="A452" s="179" t="s">
         <v>963</v>
       </c>
       <c r="B452" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C452" s="176" t="s">
+      <c r="C452" s="175" t="s">
         <v>969</v>
       </c>
-      <c r="D452" s="178" t="s">
+      <c r="D452" s="177" t="s">
         <v>970</v>
       </c>
-      <c r="E452" s="177" t="s">
+      <c r="E452" s="176" t="s">
         <v>1017</v>
       </c>
-      <c r="F452" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G452" s="175" t="s">
+      <c r="F452" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G452" s="174" t="s">
         <v>1018</v>
       </c>
-      <c r="H452" s="181" t="s">
+      <c r="H452" s="180" t="s">
         <v>947</v>
       </c>
     </row>

--- a/sspmi/data.xlsx
+++ b/sspmi/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="285" windowWidth="14535" windowHeight="7365" tabRatio="748" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="285" windowWidth="14535" windowHeight="7365" tabRatio="748" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="16" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4388" uniqueCount="1021">
   <si>
     <t>distribution_identifier</t>
   </si>
@@ -3210,9 +3210,6 @@
   </si>
   <si>
     <t>población, tasa, mortalidad, natalidad, alumnos, empleo, depósitos, préstamos, gastos, recursos, datos provinciales</t>
-  </si>
-  <si>
-    <t>2017-09-26</t>
   </si>
 </sst>
 </file>
@@ -4752,7 +4749,7 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5223,6 +5220,9 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="40" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6279,11 +6279,11 @@
   <dimension ref="A1:AA97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" sqref="A1:XFD1"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9176,8 +9176,8 @@
   </sheetPr>
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D14" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10082,10 +10082,10 @@
         <v>32</v>
       </c>
       <c r="L15" s="48" t="s">
-        <v>1021</v>
+        <v>897</v>
       </c>
       <c r="M15" s="48" t="s">
-        <v>1021</v>
+        <v>897</v>
       </c>
       <c r="N15" s="65" t="s">
         <v>33</v>
@@ -10141,11 +10141,11 @@
       <c r="K16" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="48" t="s">
-        <v>1021</v>
-      </c>
-      <c r="M16" s="48" t="s">
-        <v>1021</v>
+      <c r="L16" s="171" t="s">
+        <v>897</v>
+      </c>
+      <c r="M16" s="171" t="s">
+        <v>897</v>
       </c>
       <c r="N16" s="169" t="s">
         <v>33</v>
@@ -10153,10 +10153,10 @@
       <c r="O16" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="171" t="s">
+      <c r="P16" s="172" t="s">
         <v>965</v>
       </c>
-      <c r="Q16" s="172" t="s">
+      <c r="Q16" s="173" t="s">
         <v>38</v>
       </c>
       <c r="R16" s="49"/>
@@ -10187,12 +10187,12 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K32" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E14" sqref="E14"/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
-      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35:N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11462,24 +11462,20 @@
       <c r="E35" s="67" t="s">
         <v>968</v>
       </c>
-      <c r="F35" s="172" t="s">
+      <c r="F35" s="173" t="s">
         <v>898</v>
       </c>
-      <c r="G35" s="173" t="s">
+      <c r="G35" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="172" t="s">
+      <c r="H35" s="173" t="s">
         <v>38</v>
       </c>
       <c r="I35" s="56"/>
       <c r="J35" s="49"/>
       <c r="K35" s="49"/>
-      <c r="L35" s="48" t="s">
-        <v>1021</v>
-      </c>
-      <c r="M35" s="48" t="s">
-        <v>1021</v>
-      </c>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
       <c r="N35" s="49"/>
     </row>
     <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.2">
@@ -11498,24 +11494,20 @@
       <c r="E36" s="67" t="s">
         <v>970</v>
       </c>
-      <c r="F36" s="172" t="s">
+      <c r="F36" s="173" t="s">
         <v>898</v>
       </c>
-      <c r="G36" s="173" t="s">
+      <c r="G36" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="H36" s="172" t="s">
+      <c r="H36" s="173" t="s">
         <v>38</v>
       </c>
       <c r="I36" s="56"/>
       <c r="J36" s="49"/>
       <c r="K36" s="49"/>
-      <c r="L36" s="48" t="s">
-        <v>1021</v>
-      </c>
-      <c r="M36" s="48" t="s">
-        <v>1021</v>
-      </c>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
       <c r="N36" s="49"/>
     </row>
   </sheetData>
@@ -22489,740 +22481,740 @@
       <c r="H423" s="61"/>
     </row>
     <row r="424" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A424" s="179" t="s">
+      <c r="A424" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B424" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C424" s="175" t="s">
+      <c r="C424" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D424" s="177" t="s">
+      <c r="D424" s="178" t="s">
         <v>968</v>
       </c>
-      <c r="E424" s="176" t="s">
+      <c r="E424" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="F424" s="174" t="s">
+      <c r="F424" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="G424" s="174" t="s">
+      <c r="G424" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="H424" s="174"/>
+      <c r="H424" s="175"/>
     </row>
     <row r="425" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A425" s="179" t="s">
+      <c r="A425" s="180" t="s">
         <v>963</v>
       </c>
-      <c r="B425" s="174" t="s">
+      <c r="B425" s="175" t="s">
         <v>964</v>
       </c>
-      <c r="C425" s="175" t="s">
+      <c r="C425" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D425" s="176" t="s">
+      <c r="D425" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E425" s="176" t="s">
+      <c r="E425" s="177" t="s">
         <v>971</v>
       </c>
-      <c r="F425" s="174" t="s">
+      <c r="F425" s="175" t="s">
         <v>972</v>
       </c>
-      <c r="G425" s="174" t="s">
+      <c r="G425" s="175" t="s">
         <v>973</v>
       </c>
-      <c r="H425" s="174"/>
+      <c r="H425" s="175"/>
     </row>
     <row r="426" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A426" s="179" t="s">
+      <c r="A426" s="180" t="s">
         <v>963</v>
       </c>
-      <c r="B426" s="174" t="s">
+      <c r="B426" s="175" t="s">
         <v>964</v>
       </c>
-      <c r="C426" s="175" t="s">
+      <c r="C426" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D426" s="176" t="s">
+      <c r="D426" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E426" s="176" t="s">
+      <c r="E426" s="177" t="s">
         <v>974</v>
       </c>
-      <c r="F426" s="174" t="s">
+      <c r="F426" s="175" t="s">
         <v>972</v>
       </c>
-      <c r="G426" s="174" t="s">
+      <c r="G426" s="175" t="s">
         <v>975</v>
       </c>
-      <c r="H426" s="174"/>
+      <c r="H426" s="175"/>
     </row>
     <row r="427" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A427" s="179" t="s">
+      <c r="A427" s="180" t="s">
         <v>963</v>
       </c>
-      <c r="B427" s="174" t="s">
+      <c r="B427" s="175" t="s">
         <v>964</v>
       </c>
-      <c r="C427" s="175" t="s">
+      <c r="C427" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D427" s="176" t="s">
+      <c r="D427" s="177" t="s">
         <v>968</v>
       </c>
-      <c r="E427" s="176" t="s">
+      <c r="E427" s="177" t="s">
         <v>976</v>
       </c>
-      <c r="F427" s="174" t="s">
+      <c r="F427" s="175" t="s">
         <v>972</v>
       </c>
-      <c r="G427" s="174" t="s">
+      <c r="G427" s="175" t="s">
         <v>977</v>
       </c>
-      <c r="H427" s="174"/>
+      <c r="H427" s="175"/>
     </row>
     <row r="428" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A428" s="179" t="s">
+      <c r="A428" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B428" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C428" s="175" t="s">
+      <c r="C428" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D428" s="177" t="s">
+      <c r="D428" s="178" t="s">
         <v>968</v>
       </c>
-      <c r="E428" s="176" t="s">
+      <c r="E428" s="177" t="s">
         <v>978</v>
       </c>
-      <c r="F428" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G428" s="174" t="s">
+      <c r="F428" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G428" s="175" t="s">
         <v>979</v>
       </c>
-      <c r="H428" s="180" t="s">
+      <c r="H428" s="181" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A429" s="179" t="s">
+      <c r="A429" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B429" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C429" s="175" t="s">
+      <c r="C429" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D429" s="177" t="s">
+      <c r="D429" s="178" t="s">
         <v>968</v>
       </c>
-      <c r="E429" s="176" t="s">
+      <c r="E429" s="177" t="s">
         <v>980</v>
       </c>
-      <c r="F429" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G429" s="174" t="s">
+      <c r="F429" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G429" s="175" t="s">
         <v>981</v>
       </c>
-      <c r="H429" s="180" t="s">
+      <c r="H429" s="181" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="430" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A430" s="179" t="s">
+      <c r="A430" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B430" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C430" s="175" t="s">
+      <c r="C430" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D430" s="177" t="s">
+      <c r="D430" s="178" t="s">
         <v>968</v>
       </c>
-      <c r="E430" s="176" t="s">
+      <c r="E430" s="177" t="s">
         <v>982</v>
       </c>
-      <c r="F430" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G430" s="174" t="s">
+      <c r="F430" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G430" s="175" t="s">
         <v>983</v>
       </c>
-      <c r="H430" s="180" t="s">
+      <c r="H430" s="181" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="431" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A431" s="179" t="s">
+      <c r="A431" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B431" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C431" s="175" t="s">
+      <c r="C431" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D431" s="177" t="s">
+      <c r="D431" s="178" t="s">
         <v>968</v>
       </c>
-      <c r="E431" s="176" t="s">
+      <c r="E431" s="177" t="s">
         <v>984</v>
       </c>
-      <c r="F431" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G431" s="174" t="s">
+      <c r="F431" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G431" s="175" t="s">
         <v>985</v>
       </c>
-      <c r="H431" s="174" t="s">
+      <c r="H431" s="175" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="432" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A432" s="179" t="s">
+      <c r="A432" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B432" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C432" s="175" t="s">
+      <c r="C432" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D432" s="177" t="s">
+      <c r="D432" s="178" t="s">
         <v>968</v>
       </c>
-      <c r="E432" s="176" t="s">
+      <c r="E432" s="177" t="s">
         <v>986</v>
       </c>
-      <c r="F432" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G432" s="174" t="s">
+      <c r="F432" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G432" s="175" t="s">
         <v>987</v>
       </c>
-      <c r="H432" s="180" t="s">
+      <c r="H432" s="181" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="433" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A433" s="179" t="s">
+      <c r="A433" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B433" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C433" s="175" t="s">
+      <c r="C433" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D433" s="177" t="s">
+      <c r="D433" s="178" t="s">
         <v>968</v>
       </c>
-      <c r="E433" s="176" t="s">
+      <c r="E433" s="177" t="s">
         <v>988</v>
       </c>
-      <c r="F433" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G433" s="174" t="s">
+      <c r="F433" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G433" s="175" t="s">
         <v>989</v>
       </c>
-      <c r="H433" s="180" t="s">
+      <c r="H433" s="181" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="434" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A434" s="179" t="s">
+      <c r="A434" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B434" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C434" s="175" t="s">
+      <c r="C434" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D434" s="177" t="s">
+      <c r="D434" s="178" t="s">
         <v>968</v>
       </c>
-      <c r="E434" s="176" t="s">
+      <c r="E434" s="177" t="s">
         <v>990</v>
       </c>
-      <c r="F434" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G434" s="174" t="s">
+      <c r="F434" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G434" s="175" t="s">
         <v>991</v>
       </c>
-      <c r="H434" s="180" t="s">
+      <c r="H434" s="181" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="435" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A435" s="179" t="s">
+      <c r="A435" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B435" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C435" s="175" t="s">
+      <c r="C435" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D435" s="177" t="s">
+      <c r="D435" s="178" t="s">
         <v>968</v>
       </c>
-      <c r="E435" s="176" t="s">
+      <c r="E435" s="177" t="s">
         <v>992</v>
       </c>
-      <c r="F435" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G435" s="174" t="s">
+      <c r="F435" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G435" s="175" t="s">
         <v>993</v>
       </c>
-      <c r="H435" s="180" t="s">
+      <c r="H435" s="181" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="436" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A436" s="179" t="s">
+      <c r="A436" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B436" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C436" s="175" t="s">
+      <c r="C436" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D436" s="177" t="s">
+      <c r="D436" s="178" t="s">
         <v>968</v>
       </c>
-      <c r="E436" s="176" t="s">
+      <c r="E436" s="177" t="s">
         <v>994</v>
       </c>
-      <c r="F436" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G436" s="174" t="s">
+      <c r="F436" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G436" s="175" t="s">
         <v>995</v>
       </c>
-      <c r="H436" s="174" t="s">
+      <c r="H436" s="175" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="437" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A437" s="179" t="s">
+      <c r="A437" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B437" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C437" s="175" t="s">
+      <c r="C437" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D437" s="177" t="s">
+      <c r="D437" s="178" t="s">
         <v>968</v>
       </c>
-      <c r="E437" s="176" t="s">
+      <c r="E437" s="177" t="s">
         <v>996</v>
       </c>
-      <c r="F437" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G437" s="174" t="s">
+      <c r="F437" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G437" s="175" t="s">
         <v>997</v>
       </c>
-      <c r="H437" s="174" t="s">
+      <c r="H437" s="175" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="438" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A438" s="179" t="s">
+      <c r="A438" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B438" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C438" s="175" t="s">
+      <c r="C438" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D438" s="177" t="s">
+      <c r="D438" s="178" t="s">
         <v>968</v>
       </c>
-      <c r="E438" s="176" t="s">
+      <c r="E438" s="177" t="s">
         <v>998</v>
       </c>
-      <c r="F438" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G438" s="174" t="s">
+      <c r="F438" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G438" s="175" t="s">
         <v>999</v>
       </c>
-      <c r="H438" s="174" t="s">
+      <c r="H438" s="175" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="439" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A439" s="179" t="s">
+      <c r="A439" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B439" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C439" s="175" t="s">
+      <c r="C439" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D439" s="177" t="s">
+      <c r="D439" s="178" t="s">
         <v>968</v>
       </c>
-      <c r="E439" s="176" t="s">
+      <c r="E439" s="177" t="s">
         <v>1000</v>
       </c>
-      <c r="F439" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G439" s="174" t="s">
+      <c r="F439" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G439" s="175" t="s">
         <v>1001</v>
       </c>
-      <c r="H439" s="181" t="s">
+      <c r="H439" s="182" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="440" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A440" s="179" t="s">
+      <c r="A440" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B440" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C440" s="175" t="s">
+      <c r="C440" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D440" s="177" t="s">
+      <c r="D440" s="178" t="s">
         <v>968</v>
       </c>
-      <c r="E440" s="176" t="s">
+      <c r="E440" s="177" t="s">
         <v>1002</v>
       </c>
-      <c r="F440" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G440" s="174" t="s">
+      <c r="F440" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G440" s="175" t="s">
         <v>1003</v>
       </c>
-      <c r="H440" s="178" t="s">
+      <c r="H440" s="179" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="441" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A441" s="179" t="s">
+      <c r="A441" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B441" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C441" s="175" t="s">
+      <c r="C441" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D441" s="177" t="s">
+      <c r="D441" s="178" t="s">
         <v>968</v>
       </c>
-      <c r="E441" s="176" t="s">
+      <c r="E441" s="177" t="s">
         <v>1004</v>
       </c>
-      <c r="F441" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G441" s="174" t="s">
+      <c r="F441" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G441" s="175" t="s">
         <v>1005</v>
       </c>
-      <c r="H441" s="178" t="s">
+      <c r="H441" s="179" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="442" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A442" s="179" t="s">
+      <c r="A442" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B442" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C442" s="175" t="s">
+      <c r="C442" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D442" s="177" t="s">
+      <c r="D442" s="178" t="s">
         <v>968</v>
       </c>
-      <c r="E442" s="176" t="s">
+      <c r="E442" s="177" t="s">
         <v>1006</v>
       </c>
-      <c r="F442" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G442" s="174" t="s">
+      <c r="F442" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G442" s="175" t="s">
         <v>1007</v>
       </c>
-      <c r="H442" s="178" t="s">
+      <c r="H442" s="179" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="443" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A443" s="179" t="s">
+      <c r="A443" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B443" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C443" s="175" t="s">
+      <c r="C443" s="176" t="s">
         <v>967</v>
       </c>
-      <c r="D443" s="177" t="s">
+      <c r="D443" s="178" t="s">
         <v>968</v>
       </c>
-      <c r="E443" s="176" t="s">
+      <c r="E443" s="177" t="s">
         <v>1008</v>
       </c>
-      <c r="F443" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G443" s="174" t="s">
+      <c r="F443" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G443" s="175" t="s">
         <v>1009</v>
       </c>
-      <c r="H443" s="178" t="s">
+      <c r="H443" s="179" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="444" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A444" s="179" t="s">
+      <c r="A444" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B444" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C444" s="175" t="s">
+      <c r="C444" s="176" t="s">
         <v>969</v>
       </c>
-      <c r="D444" s="177" t="s">
+      <c r="D444" s="178" t="s">
         <v>970</v>
       </c>
-      <c r="E444" s="176" t="s">
+      <c r="E444" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="F444" s="174" t="s">
+      <c r="F444" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="G444" s="174" t="s">
+      <c r="G444" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="H444" s="174"/>
+      <c r="H444" s="175"/>
     </row>
     <row r="445" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A445" s="179" t="s">
+      <c r="A445" s="180" t="s">
         <v>963</v>
       </c>
-      <c r="B445" s="174" t="s">
+      <c r="B445" s="175" t="s">
         <v>964</v>
       </c>
-      <c r="C445" s="175" t="s">
+      <c r="C445" s="176" t="s">
         <v>969</v>
       </c>
-      <c r="D445" s="176" t="s">
+      <c r="D445" s="177" t="s">
         <v>970</v>
       </c>
-      <c r="E445" s="176" t="s">
+      <c r="E445" s="177" t="s">
         <v>971</v>
       </c>
-      <c r="F445" s="174" t="s">
+      <c r="F445" s="175" t="s">
         <v>972</v>
       </c>
-      <c r="G445" s="174" t="s">
+      <c r="G445" s="175" t="s">
         <v>973</v>
       </c>
-      <c r="H445" s="174"/>
+      <c r="H445" s="175"/>
     </row>
     <row r="446" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A446" s="179" t="s">
+      <c r="A446" s="180" t="s">
         <v>963</v>
       </c>
-      <c r="B446" s="174" t="s">
+      <c r="B446" s="175" t="s">
         <v>964</v>
       </c>
-      <c r="C446" s="175" t="s">
+      <c r="C446" s="176" t="s">
         <v>969</v>
       </c>
-      <c r="D446" s="176" t="s">
+      <c r="D446" s="177" t="s">
         <v>970</v>
       </c>
-      <c r="E446" s="176" t="s">
+      <c r="E446" s="177" t="s">
         <v>974</v>
       </c>
-      <c r="F446" s="174" t="s">
+      <c r="F446" s="175" t="s">
         <v>972</v>
       </c>
-      <c r="G446" s="174" t="s">
+      <c r="G446" s="175" t="s">
         <v>975</v>
       </c>
-      <c r="H446" s="174"/>
+      <c r="H446" s="175"/>
     </row>
     <row r="447" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A447" s="179" t="s">
+      <c r="A447" s="180" t="s">
         <v>963</v>
       </c>
-      <c r="B447" s="174" t="s">
+      <c r="B447" s="175" t="s">
         <v>964</v>
       </c>
-      <c r="C447" s="175" t="s">
+      <c r="C447" s="176" t="s">
         <v>969</v>
       </c>
-      <c r="D447" s="176" t="s">
+      <c r="D447" s="177" t="s">
         <v>970</v>
       </c>
-      <c r="E447" s="176" t="s">
+      <c r="E447" s="177" t="s">
         <v>976</v>
       </c>
-      <c r="F447" s="174" t="s">
+      <c r="F447" s="175" t="s">
         <v>972</v>
       </c>
-      <c r="G447" s="174" t="s">
+      <c r="G447" s="175" t="s">
         <v>977</v>
       </c>
-      <c r="H447" s="174"/>
+      <c r="H447" s="175"/>
     </row>
     <row r="448" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A448" s="179" t="s">
+      <c r="A448" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B448" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C448" s="175" t="s">
+      <c r="C448" s="176" t="s">
         <v>969</v>
       </c>
-      <c r="D448" s="177" t="s">
+      <c r="D448" s="178" t="s">
         <v>970</v>
       </c>
-      <c r="E448" s="176" t="s">
+      <c r="E448" s="177" t="s">
         <v>1000</v>
       </c>
-      <c r="F448" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G448" s="174" t="s">
+      <c r="F448" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G448" s="175" t="s">
         <v>1010</v>
       </c>
-      <c r="H448" s="181" t="s">
+      <c r="H448" s="182" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="449" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A449" s="179" t="s">
+      <c r="A449" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B449" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C449" s="175" t="s">
+      <c r="C449" s="176" t="s">
         <v>969</v>
       </c>
-      <c r="D449" s="177" t="s">
+      <c r="D449" s="178" t="s">
         <v>970</v>
       </c>
-      <c r="E449" s="176" t="s">
+      <c r="E449" s="177" t="s">
         <v>1011</v>
       </c>
-      <c r="F449" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G449" s="174" t="s">
+      <c r="F449" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G449" s="175" t="s">
         <v>1012</v>
       </c>
-      <c r="H449" s="180" t="s">
+      <c r="H449" s="181" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="450" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A450" s="179" t="s">
+      <c r="A450" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B450" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C450" s="175" t="s">
+      <c r="C450" s="176" t="s">
         <v>969</v>
       </c>
-      <c r="D450" s="177" t="s">
+      <c r="D450" s="178" t="s">
         <v>970</v>
       </c>
-      <c r="E450" s="176" t="s">
+      <c r="E450" s="177" t="s">
         <v>1013</v>
       </c>
-      <c r="F450" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G450" s="174" t="s">
+      <c r="F450" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G450" s="175" t="s">
         <v>1014</v>
       </c>
-      <c r="H450" s="180" t="s">
+      <c r="H450" s="181" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="451" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A451" s="179" t="s">
+      <c r="A451" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B451" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C451" s="175" t="s">
+      <c r="C451" s="176" t="s">
         <v>969</v>
       </c>
-      <c r="D451" s="177" t="s">
+      <c r="D451" s="178" t="s">
         <v>970</v>
       </c>
-      <c r="E451" s="176" t="s">
+      <c r="E451" s="177" t="s">
         <v>1015</v>
       </c>
-      <c r="F451" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G451" s="174" t="s">
+      <c r="F451" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G451" s="175" t="s">
         <v>1016</v>
       </c>
-      <c r="H451" s="180" t="s">
+      <c r="H451" s="181" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="452" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A452" s="179" t="s">
+      <c r="A452" s="180" t="s">
         <v>963</v>
       </c>
       <c r="B452" s="103" t="s">
         <v>964</v>
       </c>
-      <c r="C452" s="175" t="s">
+      <c r="C452" s="176" t="s">
         <v>969</v>
       </c>
-      <c r="D452" s="177" t="s">
+      <c r="D452" s="178" t="s">
         <v>970</v>
       </c>
-      <c r="E452" s="176" t="s">
+      <c r="E452" s="177" t="s">
         <v>1017</v>
       </c>
-      <c r="F452" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G452" s="174" t="s">
+      <c r="F452" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G452" s="175" t="s">
         <v>1018</v>
       </c>
-      <c r="H452" s="180" t="s">
+      <c r="H452" s="181" t="s">
         <v>947</v>
       </c>
     </row>

--- a/sspmi/data.xlsx
+++ b/sspmi/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="748" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="285" windowWidth="14535" windowHeight="7365" tabRatio="748" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="16" r:id="rId1"/>
@@ -27,17 +27,12 @@
     <definedName name="unidad" localSheetId="5">#REF!</definedName>
     <definedName name="unidad">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4388" uniqueCount="1021">
   <si>
     <t>distribution_identifier</t>
   </si>
@@ -3222,21 +3217,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="13">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
-    <numFmt numFmtId="168" formatCode="General_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="172" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
-    <numFmt numFmtId="173" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
-    <numFmt numFmtId="174" formatCode="#,##0.000"/>
-    <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
+    <numFmt numFmtId="167" formatCode="General_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="171" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
+    <numFmt numFmtId="172" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
+    <numFmt numFmtId="173" formatCode="#,##0.000"/>
+    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="175" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -3579,13 +3574,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color theme="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3942,16 +3930,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4115,7 +4103,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="613">
+  <cellStyleXfs count="612">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -4127,10 +4115,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
@@ -4156,9 +4144,9 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -4223,7 +4211,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -4622,14 +4610,14 @@
     <xf numFmtId="1" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4668,8 +4656,8 @@
     <xf numFmtId="0" fontId="32" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4682,26 +4670,26 @@
     <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -4760,7 +4748,6 @@
     <xf numFmtId="1" fontId="44" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5030,7 +5017,7 @@
     <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="82" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="82" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="0" xfId="82" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="82" applyFont="1" applyAlignment="1">
@@ -5271,7 +5258,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="613">
+  <cellStyles count="612">
     <cellStyle name="20% - Énfasis1 2" xfId="395"/>
     <cellStyle name="20% - Énfasis1 3" xfId="396"/>
     <cellStyle name="20% - Énfasis1 4" xfId="397"/>
@@ -5433,7 +5420,6 @@
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Hipervínculo 2" xfId="4"/>
     <cellStyle name="Hipervínculo 3" xfId="19"/>
-    <cellStyle name="Hipervínculo visitado" xfId="612" builtinId="9" hidden="1"/>
     <cellStyle name="Incorrecto 2" xfId="538"/>
     <cellStyle name="Incorrecto 3" xfId="539"/>
     <cellStyle name="Incorrecto 4" xfId="540"/>
@@ -5903,7 +5889,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Contenido"/>
@@ -6287,7 +6273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA97"/>
@@ -6300,24 +6286,24 @@
       <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" style="41" customWidth="1"/>
     <col min="2" max="2" width="28" style="41" customWidth="1"/>
-    <col min="3" max="3" width="24.19921875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="24.3984375" style="41" customWidth="1"/>
-    <col min="5" max="5" width="16.796875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="41" customWidth="1"/>
     <col min="6" max="6" width="16" style="41" customWidth="1"/>
-    <col min="7" max="7" width="16.59765625" style="41" customWidth="1"/>
-    <col min="8" max="8" width="30.3984375" style="41" customWidth="1"/>
-    <col min="9" max="9" width="14.796875" style="41" customWidth="1"/>
-    <col min="10" max="10" width="19.796875" style="41" customWidth="1"/>
-    <col min="11" max="11" width="18.19921875" style="41" customWidth="1"/>
-    <col min="12" max="12" width="14.3984375" style="41" customWidth="1"/>
-    <col min="13" max="16384" width="16.796875" style="41"/>
+    <col min="7" max="7" width="16.6640625" style="41" customWidth="1"/>
+    <col min="8" max="8" width="30.5" style="41" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" style="41" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" style="41" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="41" customWidth="1"/>
+    <col min="13" max="16384" width="16.83203125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12">
+    <row r="1" spans="1:27" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="87" t="s">
         <v>817</v>
       </c>
@@ -6370,7 +6356,7 @@
       <c r="Z1" s="90"/>
       <c r="AA1" s="90"/>
     </row>
-    <row r="2" spans="1:27" ht="55">
+    <row r="2" spans="1:27" ht="72" x14ac:dyDescent="0.2">
       <c r="A2" s="91" t="s">
         <v>829</v>
       </c>
@@ -6419,7 +6405,7 @@
       <c r="Z2" s="94"/>
       <c r="AA2" s="94"/>
     </row>
-    <row r="3" spans="1:27" ht="12">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="91"/>
       <c r="B3" s="91"/>
       <c r="C3" s="91"/>
@@ -6448,7 +6434,7 @@
       <c r="Z3" s="94"/>
       <c r="AA3" s="94"/>
     </row>
-    <row r="4" spans="1:27" ht="12">
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="91"/>
       <c r="B4" s="91"/>
       <c r="C4" s="91"/>
@@ -6477,7 +6463,7 @@
       <c r="Z4" s="94"/>
       <c r="AA4" s="94"/>
     </row>
-    <row r="5" spans="1:27" ht="12">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="91"/>
       <c r="B5" s="91"/>
       <c r="C5" s="91"/>
@@ -6506,7 +6492,7 @@
       <c r="Z5" s="94"/>
       <c r="AA5" s="94"/>
     </row>
-    <row r="6" spans="1:27" ht="12">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="91"/>
       <c r="B6" s="91"/>
       <c r="C6" s="91"/>
@@ -6535,7 +6521,7 @@
       <c r="Z6" s="94"/>
       <c r="AA6" s="94"/>
     </row>
-    <row r="7" spans="1:27" ht="12">
+    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="91"/>
       <c r="B7" s="91"/>
       <c r="C7" s="91"/>
@@ -6564,7 +6550,7 @@
       <c r="Z7" s="94"/>
       <c r="AA7" s="94"/>
     </row>
-    <row r="8" spans="1:27" ht="12">
+    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="91"/>
       <c r="B8" s="91"/>
       <c r="C8" s="91"/>
@@ -6593,7 +6579,7 @@
       <c r="Z8" s="94"/>
       <c r="AA8" s="94"/>
     </row>
-    <row r="9" spans="1:27" ht="12">
+    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="91"/>
       <c r="B9" s="91"/>
       <c r="C9" s="91"/>
@@ -6622,7 +6608,7 @@
       <c r="Z9" s="94"/>
       <c r="AA9" s="94"/>
     </row>
-    <row r="10" spans="1:27" ht="12">
+    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="91"/>
       <c r="B10" s="91"/>
       <c r="C10" s="91"/>
@@ -6651,7 +6637,7 @@
       <c r="Z10" s="94"/>
       <c r="AA10" s="94"/>
     </row>
-    <row r="11" spans="1:27" ht="12">
+    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="91"/>
       <c r="B11" s="91"/>
       <c r="C11" s="91"/>
@@ -6680,7 +6666,7 @@
       <c r="Z11" s="94"/>
       <c r="AA11" s="94"/>
     </row>
-    <row r="12" spans="1:27" ht="12">
+    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="91"/>
       <c r="B12" s="91"/>
       <c r="C12" s="97"/>
@@ -6709,7 +6695,7 @@
       <c r="Z12" s="94"/>
       <c r="AA12" s="94"/>
     </row>
-    <row r="13" spans="1:27" ht="12">
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="91"/>
       <c r="B13" s="91"/>
       <c r="C13" s="91"/>
@@ -6738,7 +6724,7 @@
       <c r="Z13" s="94"/>
       <c r="AA13" s="94"/>
     </row>
-    <row r="14" spans="1:27" ht="12">
+    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="98"/>
       <c r="B14" s="98"/>
       <c r="C14" s="98"/>
@@ -6767,7 +6753,7 @@
       <c r="Z14" s="94"/>
       <c r="AA14" s="94"/>
     </row>
-    <row r="15" spans="1:27" ht="12">
+    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="98"/>
       <c r="B15" s="98"/>
       <c r="C15" s="98"/>
@@ -6796,7 +6782,7 @@
       <c r="Z15" s="94"/>
       <c r="AA15" s="94"/>
     </row>
-    <row r="16" spans="1:27" ht="12">
+    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="98"/>
       <c r="B16" s="98"/>
       <c r="C16" s="98"/>
@@ -6825,7 +6811,7 @@
       <c r="Z16" s="94"/>
       <c r="AA16" s="94"/>
     </row>
-    <row r="17" spans="1:27" ht="12">
+    <row r="17" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="98"/>
       <c r="B17" s="98"/>
       <c r="C17" s="98"/>
@@ -6854,7 +6840,7 @@
       <c r="Z17" s="94"/>
       <c r="AA17" s="94"/>
     </row>
-    <row r="18" spans="1:27" ht="12">
+    <row r="18" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="98"/>
       <c r="B18" s="98"/>
       <c r="C18" s="98"/>
@@ -6883,7 +6869,7 @@
       <c r="Z18" s="94"/>
       <c r="AA18" s="94"/>
     </row>
-    <row r="19" spans="1:27" ht="12">
+    <row r="19" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="98"/>
       <c r="B19" s="98"/>
       <c r="C19" s="98"/>
@@ -6912,7 +6898,7 @@
       <c r="Z19" s="94"/>
       <c r="AA19" s="94"/>
     </row>
-    <row r="20" spans="1:27" ht="12">
+    <row r="20" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="98"/>
       <c r="B20" s="98"/>
       <c r="C20" s="98"/>
@@ -6941,7 +6927,7 @@
       <c r="Z20" s="94"/>
       <c r="AA20" s="94"/>
     </row>
-    <row r="21" spans="1:27" ht="12">
+    <row r="21" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="98"/>
       <c r="B21" s="98"/>
       <c r="C21" s="98"/>
@@ -6970,7 +6956,7 @@
       <c r="Z21" s="94"/>
       <c r="AA21" s="94"/>
     </row>
-    <row r="22" spans="1:27" ht="12">
+    <row r="22" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="98"/>
       <c r="B22" s="98"/>
       <c r="C22" s="98"/>
@@ -6999,7 +6985,7 @@
       <c r="Z22" s="94"/>
       <c r="AA22" s="94"/>
     </row>
-    <row r="23" spans="1:27" ht="12">
+    <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="98"/>
       <c r="B23" s="98"/>
       <c r="C23" s="98"/>
@@ -7028,7 +7014,7 @@
       <c r="Z23" s="94"/>
       <c r="AA23" s="94"/>
     </row>
-    <row r="24" spans="1:27" ht="12">
+    <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="98"/>
       <c r="B24" s="98"/>
       <c r="C24" s="98"/>
@@ -7057,7 +7043,7 @@
       <c r="Z24" s="94"/>
       <c r="AA24" s="94"/>
     </row>
-    <row r="25" spans="1:27" ht="12">
+    <row r="25" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="98"/>
       <c r="B25" s="98"/>
       <c r="C25" s="98"/>
@@ -7086,7 +7072,7 @@
       <c r="Z25" s="94"/>
       <c r="AA25" s="94"/>
     </row>
-    <row r="26" spans="1:27" ht="12">
+    <row r="26" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="98"/>
       <c r="B26" s="98"/>
       <c r="C26" s="98"/>
@@ -7115,7 +7101,7 @@
       <c r="Z26" s="94"/>
       <c r="AA26" s="94"/>
     </row>
-    <row r="27" spans="1:27" ht="12">
+    <row r="27" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="98"/>
       <c r="B27" s="98"/>
       <c r="C27" s="98"/>
@@ -7144,7 +7130,7 @@
       <c r="Z27" s="94"/>
       <c r="AA27" s="94"/>
     </row>
-    <row r="28" spans="1:27" ht="12">
+    <row r="28" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="98"/>
       <c r="B28" s="98"/>
       <c r="C28" s="98"/>
@@ -7173,7 +7159,7 @@
       <c r="Z28" s="94"/>
       <c r="AA28" s="94"/>
     </row>
-    <row r="29" spans="1:27" ht="12">
+    <row r="29" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="98"/>
       <c r="B29" s="98"/>
       <c r="C29" s="98"/>
@@ -7202,7 +7188,7 @@
       <c r="Z29" s="94"/>
       <c r="AA29" s="94"/>
     </row>
-    <row r="30" spans="1:27" ht="12">
+    <row r="30" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="98"/>
       <c r="B30" s="98"/>
       <c r="C30" s="98"/>
@@ -7231,7 +7217,7 @@
       <c r="Z30" s="94"/>
       <c r="AA30" s="94"/>
     </row>
-    <row r="31" spans="1:27" ht="12">
+    <row r="31" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="98"/>
       <c r="B31" s="98"/>
       <c r="C31" s="98"/>
@@ -7260,7 +7246,7 @@
       <c r="Z31" s="94"/>
       <c r="AA31" s="94"/>
     </row>
-    <row r="32" spans="1:27" ht="12">
+    <row r="32" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="98"/>
       <c r="B32" s="98"/>
       <c r="C32" s="98"/>
@@ -7289,7 +7275,7 @@
       <c r="Z32" s="94"/>
       <c r="AA32" s="94"/>
     </row>
-    <row r="33" spans="1:27" ht="12">
+    <row r="33" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="98"/>
       <c r="B33" s="98"/>
       <c r="C33" s="98"/>
@@ -7318,7 +7304,7 @@
       <c r="Z33" s="94"/>
       <c r="AA33" s="94"/>
     </row>
-    <row r="34" spans="1:27" ht="12">
+    <row r="34" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="98"/>
       <c r="B34" s="98"/>
       <c r="C34" s="98"/>
@@ -7347,7 +7333,7 @@
       <c r="Z34" s="94"/>
       <c r="AA34" s="94"/>
     </row>
-    <row r="35" spans="1:27" ht="12">
+    <row r="35" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="98"/>
       <c r="B35" s="98"/>
       <c r="C35" s="98"/>
@@ -7376,7 +7362,7 @@
       <c r="Z35" s="94"/>
       <c r="AA35" s="94"/>
     </row>
-    <row r="36" spans="1:27" ht="12">
+    <row r="36" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="98"/>
       <c r="B36" s="98"/>
       <c r="C36" s="98"/>
@@ -7405,7 +7391,7 @@
       <c r="Z36" s="94"/>
       <c r="AA36" s="94"/>
     </row>
-    <row r="37" spans="1:27" ht="12">
+    <row r="37" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="98"/>
       <c r="B37" s="98"/>
       <c r="C37" s="98"/>
@@ -7434,7 +7420,7 @@
       <c r="Z37" s="94"/>
       <c r="AA37" s="94"/>
     </row>
-    <row r="38" spans="1:27" ht="12">
+    <row r="38" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="98"/>
       <c r="B38" s="98"/>
       <c r="C38" s="98"/>
@@ -7463,7 +7449,7 @@
       <c r="Z38" s="94"/>
       <c r="AA38" s="94"/>
     </row>
-    <row r="39" spans="1:27" ht="12">
+    <row r="39" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="98"/>
       <c r="B39" s="98"/>
       <c r="C39" s="98"/>
@@ -7492,7 +7478,7 @@
       <c r="Z39" s="94"/>
       <c r="AA39" s="94"/>
     </row>
-    <row r="40" spans="1:27" ht="12">
+    <row r="40" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="98"/>
       <c r="B40" s="98"/>
       <c r="C40" s="98"/>
@@ -7521,7 +7507,7 @@
       <c r="Z40" s="94"/>
       <c r="AA40" s="94"/>
     </row>
-    <row r="41" spans="1:27" ht="12">
+    <row r="41" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="98"/>
       <c r="B41" s="98"/>
       <c r="C41" s="98"/>
@@ -7550,7 +7536,7 @@
       <c r="Z41" s="94"/>
       <c r="AA41" s="94"/>
     </row>
-    <row r="42" spans="1:27" ht="12">
+    <row r="42" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="98"/>
       <c r="B42" s="98"/>
       <c r="C42" s="98"/>
@@ -7579,7 +7565,7 @@
       <c r="Z42" s="94"/>
       <c r="AA42" s="94"/>
     </row>
-    <row r="43" spans="1:27" ht="12">
+    <row r="43" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="98"/>
       <c r="B43" s="98"/>
       <c r="C43" s="98"/>
@@ -7608,7 +7594,7 @@
       <c r="Z43" s="94"/>
       <c r="AA43" s="94"/>
     </row>
-    <row r="44" spans="1:27" ht="12">
+    <row r="44" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="98"/>
       <c r="B44" s="98"/>
       <c r="C44" s="98"/>
@@ -7637,7 +7623,7 @@
       <c r="Z44" s="94"/>
       <c r="AA44" s="94"/>
     </row>
-    <row r="45" spans="1:27" ht="12">
+    <row r="45" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="98"/>
       <c r="B45" s="98"/>
       <c r="C45" s="98"/>
@@ -7666,7 +7652,7 @@
       <c r="Z45" s="94"/>
       <c r="AA45" s="94"/>
     </row>
-    <row r="46" spans="1:27" ht="12">
+    <row r="46" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="98"/>
       <c r="B46" s="98"/>
       <c r="C46" s="98"/>
@@ -7695,7 +7681,7 @@
       <c r="Z46" s="94"/>
       <c r="AA46" s="94"/>
     </row>
-    <row r="47" spans="1:27" ht="12">
+    <row r="47" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="98"/>
       <c r="B47" s="98"/>
       <c r="C47" s="98"/>
@@ -7724,7 +7710,7 @@
       <c r="Z47" s="94"/>
       <c r="AA47" s="94"/>
     </row>
-    <row r="48" spans="1:27" ht="12">
+    <row r="48" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="98"/>
       <c r="B48" s="98"/>
       <c r="C48" s="98"/>
@@ -7753,7 +7739,7 @@
       <c r="Z48" s="94"/>
       <c r="AA48" s="94"/>
     </row>
-    <row r="49" spans="1:27" ht="12">
+    <row r="49" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="98"/>
       <c r="B49" s="98"/>
       <c r="C49" s="98"/>
@@ -7782,7 +7768,7 @@
       <c r="Z49" s="94"/>
       <c r="AA49" s="94"/>
     </row>
-    <row r="50" spans="1:27" ht="12">
+    <row r="50" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="98"/>
       <c r="B50" s="98"/>
       <c r="C50" s="98"/>
@@ -7811,7 +7797,7 @@
       <c r="Z50" s="94"/>
       <c r="AA50" s="94"/>
     </row>
-    <row r="51" spans="1:27" ht="12">
+    <row r="51" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="98"/>
       <c r="B51" s="98"/>
       <c r="C51" s="98"/>
@@ -7840,7 +7826,7 @@
       <c r="Z51" s="94"/>
       <c r="AA51" s="94"/>
     </row>
-    <row r="52" spans="1:27" ht="12">
+    <row r="52" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="98"/>
       <c r="B52" s="98"/>
       <c r="C52" s="98"/>
@@ -7869,7 +7855,7 @@
       <c r="Z52" s="94"/>
       <c r="AA52" s="94"/>
     </row>
-    <row r="53" spans="1:27" ht="12">
+    <row r="53" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="98"/>
       <c r="B53" s="98"/>
       <c r="C53" s="98"/>
@@ -7898,7 +7884,7 @@
       <c r="Z53" s="94"/>
       <c r="AA53" s="94"/>
     </row>
-    <row r="54" spans="1:27" ht="12">
+    <row r="54" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="98"/>
       <c r="B54" s="98"/>
       <c r="C54" s="98"/>
@@ -7927,7 +7913,7 @@
       <c r="Z54" s="94"/>
       <c r="AA54" s="94"/>
     </row>
-    <row r="55" spans="1:27" ht="12">
+    <row r="55" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="98"/>
       <c r="B55" s="98"/>
       <c r="C55" s="98"/>
@@ -7956,7 +7942,7 @@
       <c r="Z55" s="94"/>
       <c r="AA55" s="94"/>
     </row>
-    <row r="56" spans="1:27" ht="12">
+    <row r="56" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="98"/>
       <c r="B56" s="98"/>
       <c r="C56" s="98"/>
@@ -7985,7 +7971,7 @@
       <c r="Z56" s="94"/>
       <c r="AA56" s="94"/>
     </row>
-    <row r="57" spans="1:27" ht="12">
+    <row r="57" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="98"/>
       <c r="B57" s="98"/>
       <c r="C57" s="98"/>
@@ -8014,7 +8000,7 @@
       <c r="Z57" s="94"/>
       <c r="AA57" s="94"/>
     </row>
-    <row r="58" spans="1:27" ht="12">
+    <row r="58" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="98"/>
       <c r="B58" s="98"/>
       <c r="C58" s="98"/>
@@ -8043,7 +8029,7 @@
       <c r="Z58" s="94"/>
       <c r="AA58" s="94"/>
     </row>
-    <row r="59" spans="1:27" ht="12">
+    <row r="59" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="98"/>
       <c r="B59" s="98"/>
       <c r="C59" s="98"/>
@@ -8072,7 +8058,7 @@
       <c r="Z59" s="94"/>
       <c r="AA59" s="94"/>
     </row>
-    <row r="60" spans="1:27" ht="12">
+    <row r="60" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="98"/>
       <c r="B60" s="98"/>
       <c r="C60" s="98"/>
@@ -8101,7 +8087,7 @@
       <c r="Z60" s="94"/>
       <c r="AA60" s="94"/>
     </row>
-    <row r="61" spans="1:27" ht="12">
+    <row r="61" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="98"/>
       <c r="B61" s="98"/>
       <c r="C61" s="98"/>
@@ -8130,7 +8116,7 @@
       <c r="Z61" s="94"/>
       <c r="AA61" s="94"/>
     </row>
-    <row r="62" spans="1:27" ht="12">
+    <row r="62" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="98"/>
       <c r="B62" s="98"/>
       <c r="C62" s="98"/>
@@ -8159,7 +8145,7 @@
       <c r="Z62" s="94"/>
       <c r="AA62" s="94"/>
     </row>
-    <row r="63" spans="1:27" ht="12">
+    <row r="63" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="98"/>
       <c r="B63" s="98"/>
       <c r="C63" s="98"/>
@@ -8188,7 +8174,7 @@
       <c r="Z63" s="94"/>
       <c r="AA63" s="94"/>
     </row>
-    <row r="64" spans="1:27" ht="12">
+    <row r="64" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="98"/>
       <c r="B64" s="98"/>
       <c r="C64" s="98"/>
@@ -8217,7 +8203,7 @@
       <c r="Z64" s="94"/>
       <c r="AA64" s="94"/>
     </row>
-    <row r="65" spans="1:27" ht="12">
+    <row r="65" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="98"/>
       <c r="B65" s="98"/>
       <c r="C65" s="98"/>
@@ -8246,7 +8232,7 @@
       <c r="Z65" s="94"/>
       <c r="AA65" s="94"/>
     </row>
-    <row r="66" spans="1:27" ht="12">
+    <row r="66" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="98"/>
       <c r="B66" s="98"/>
       <c r="C66" s="98"/>
@@ -8275,7 +8261,7 @@
       <c r="Z66" s="94"/>
       <c r="AA66" s="94"/>
     </row>
-    <row r="67" spans="1:27" ht="12">
+    <row r="67" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="98"/>
       <c r="B67" s="98"/>
       <c r="C67" s="98"/>
@@ -8304,7 +8290,7 @@
       <c r="Z67" s="94"/>
       <c r="AA67" s="94"/>
     </row>
-    <row r="68" spans="1:27" ht="12">
+    <row r="68" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="98"/>
       <c r="B68" s="98"/>
       <c r="C68" s="98"/>
@@ -8333,7 +8319,7 @@
       <c r="Z68" s="94"/>
       <c r="AA68" s="94"/>
     </row>
-    <row r="69" spans="1:27" ht="12">
+    <row r="69" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="98"/>
       <c r="B69" s="98"/>
       <c r="C69" s="98"/>
@@ -8362,7 +8348,7 @@
       <c r="Z69" s="94"/>
       <c r="AA69" s="94"/>
     </row>
-    <row r="70" spans="1:27" ht="12">
+    <row r="70" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="98"/>
       <c r="B70" s="98"/>
       <c r="C70" s="98"/>
@@ -8391,7 +8377,7 @@
       <c r="Z70" s="94"/>
       <c r="AA70" s="94"/>
     </row>
-    <row r="71" spans="1:27" ht="12">
+    <row r="71" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="98"/>
       <c r="B71" s="98"/>
       <c r="C71" s="98"/>
@@ -8420,7 +8406,7 @@
       <c r="Z71" s="94"/>
       <c r="AA71" s="94"/>
     </row>
-    <row r="72" spans="1:27" ht="12">
+    <row r="72" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="98"/>
       <c r="B72" s="98"/>
       <c r="C72" s="98"/>
@@ -8449,7 +8435,7 @@
       <c r="Z72" s="94"/>
       <c r="AA72" s="94"/>
     </row>
-    <row r="73" spans="1:27" ht="12">
+    <row r="73" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="98"/>
       <c r="B73" s="98"/>
       <c r="C73" s="98"/>
@@ -8478,7 +8464,7 @@
       <c r="Z73" s="94"/>
       <c r="AA73" s="94"/>
     </row>
-    <row r="74" spans="1:27" ht="12">
+    <row r="74" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="98"/>
       <c r="B74" s="98"/>
       <c r="C74" s="98"/>
@@ -8507,7 +8493,7 @@
       <c r="Z74" s="94"/>
       <c r="AA74" s="94"/>
     </row>
-    <row r="75" spans="1:27" ht="12">
+    <row r="75" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="98"/>
       <c r="B75" s="98"/>
       <c r="C75" s="98"/>
@@ -8536,7 +8522,7 @@
       <c r="Z75" s="94"/>
       <c r="AA75" s="94"/>
     </row>
-    <row r="76" spans="1:27" ht="12">
+    <row r="76" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="98"/>
       <c r="B76" s="98"/>
       <c r="C76" s="98"/>
@@ -8565,7 +8551,7 @@
       <c r="Z76" s="94"/>
       <c r="AA76" s="94"/>
     </row>
-    <row r="77" spans="1:27" ht="12">
+    <row r="77" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="98"/>
       <c r="B77" s="98"/>
       <c r="C77" s="98"/>
@@ -8594,7 +8580,7 @@
       <c r="Z77" s="94"/>
       <c r="AA77" s="94"/>
     </row>
-    <row r="78" spans="1:27" ht="12">
+    <row r="78" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="98"/>
       <c r="B78" s="98"/>
       <c r="C78" s="98"/>
@@ -8623,7 +8609,7 @@
       <c r="Z78" s="94"/>
       <c r="AA78" s="94"/>
     </row>
-    <row r="79" spans="1:27" ht="12">
+    <row r="79" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="98"/>
       <c r="B79" s="98"/>
       <c r="C79" s="98"/>
@@ -8652,7 +8638,7 @@
       <c r="Z79" s="94"/>
       <c r="AA79" s="94"/>
     </row>
-    <row r="80" spans="1:27" ht="12">
+    <row r="80" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="98"/>
       <c r="B80" s="98"/>
       <c r="C80" s="98"/>
@@ -8681,7 +8667,7 @@
       <c r="Z80" s="94"/>
       <c r="AA80" s="94"/>
     </row>
-    <row r="81" spans="1:27" ht="12">
+    <row r="81" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="98"/>
       <c r="B81" s="98"/>
       <c r="C81" s="98"/>
@@ -8710,7 +8696,7 @@
       <c r="Z81" s="94"/>
       <c r="AA81" s="94"/>
     </row>
-    <row r="82" spans="1:27" ht="12">
+    <row r="82" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="98"/>
       <c r="B82" s="98"/>
       <c r="C82" s="98"/>
@@ -8739,7 +8725,7 @@
       <c r="Z82" s="94"/>
       <c r="AA82" s="94"/>
     </row>
-    <row r="83" spans="1:27" ht="12">
+    <row r="83" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="98"/>
       <c r="B83" s="98"/>
       <c r="C83" s="98"/>
@@ -8768,7 +8754,7 @@
       <c r="Z83" s="94"/>
       <c r="AA83" s="94"/>
     </row>
-    <row r="84" spans="1:27" ht="12">
+    <row r="84" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="98"/>
       <c r="B84" s="98"/>
       <c r="C84" s="98"/>
@@ -8797,7 +8783,7 @@
       <c r="Z84" s="94"/>
       <c r="AA84" s="94"/>
     </row>
-    <row r="85" spans="1:27" ht="12">
+    <row r="85" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="98"/>
       <c r="B85" s="98"/>
       <c r="C85" s="98"/>
@@ -8826,7 +8812,7 @@
       <c r="Z85" s="94"/>
       <c r="AA85" s="94"/>
     </row>
-    <row r="86" spans="1:27" ht="12">
+    <row r="86" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="98"/>
       <c r="B86" s="98"/>
       <c r="C86" s="98"/>
@@ -8855,7 +8841,7 @@
       <c r="Z86" s="94"/>
       <c r="AA86" s="94"/>
     </row>
-    <row r="87" spans="1:27" ht="12">
+    <row r="87" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="98"/>
       <c r="B87" s="98"/>
       <c r="C87" s="98"/>
@@ -8884,7 +8870,7 @@
       <c r="Z87" s="94"/>
       <c r="AA87" s="94"/>
     </row>
-    <row r="88" spans="1:27" ht="12">
+    <row r="88" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="98"/>
       <c r="B88" s="98"/>
       <c r="C88" s="98"/>
@@ -8913,7 +8899,7 @@
       <c r="Z88" s="94"/>
       <c r="AA88" s="94"/>
     </row>
-    <row r="89" spans="1:27" ht="12">
+    <row r="89" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="98"/>
       <c r="B89" s="98"/>
       <c r="C89" s="98"/>
@@ -8942,7 +8928,7 @@
       <c r="Z89" s="94"/>
       <c r="AA89" s="94"/>
     </row>
-    <row r="90" spans="1:27" ht="12">
+    <row r="90" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="98"/>
       <c r="B90" s="98"/>
       <c r="C90" s="98"/>
@@ -8971,7 +8957,7 @@
       <c r="Z90" s="94"/>
       <c r="AA90" s="94"/>
     </row>
-    <row r="91" spans="1:27" ht="12">
+    <row r="91" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="98"/>
       <c r="B91" s="98"/>
       <c r="C91" s="98"/>
@@ -9000,7 +8986,7 @@
       <c r="Z91" s="94"/>
       <c r="AA91" s="94"/>
     </row>
-    <row r="92" spans="1:27" ht="12">
+    <row r="92" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="98"/>
       <c r="B92" s="98"/>
       <c r="C92" s="98"/>
@@ -9029,7 +9015,7 @@
       <c r="Z92" s="94"/>
       <c r="AA92" s="94"/>
     </row>
-    <row r="93" spans="1:27" ht="12">
+    <row r="93" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="98"/>
       <c r="B93" s="98"/>
       <c r="C93" s="98"/>
@@ -9058,7 +9044,7 @@
       <c r="Z93" s="94"/>
       <c r="AA93" s="94"/>
     </row>
-    <row r="94" spans="1:27" ht="12">
+    <row r="94" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="98"/>
       <c r="B94" s="98"/>
       <c r="C94" s="98"/>
@@ -9087,7 +9073,7 @@
       <c r="Z94" s="94"/>
       <c r="AA94" s="94"/>
     </row>
-    <row r="95" spans="1:27" ht="12">
+    <row r="95" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="98"/>
       <c r="B95" s="98"/>
       <c r="C95" s="98"/>
@@ -9116,7 +9102,7 @@
       <c r="Z95" s="94"/>
       <c r="AA95" s="94"/>
     </row>
-    <row r="96" spans="1:27" ht="12">
+    <row r="96" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="98"/>
       <c r="B96" s="98"/>
       <c r="C96" s="98"/>
@@ -9145,7 +9131,7 @@
       <c r="Z96" s="94"/>
       <c r="AA96" s="94"/>
     </row>
-    <row r="97" spans="1:27" ht="12">
+    <row r="97" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="98"/>
       <c r="B97" s="98"/>
       <c r="C97" s="98"/>
@@ -9180,51 +9166,46 @@
     <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C14" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.796875" defaultRowHeight="10" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="25.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.19921875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="24.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="13" customWidth="1"/>
     <col min="7" max="7" width="22" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="13" customWidth="1"/>
-    <col min="11" max="11" width="19.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="13" customWidth="1"/>
     <col min="13" max="13" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.59765625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" style="13" customWidth="1"/>
     <col min="20" max="20" width="23" style="15" customWidth="1"/>
-    <col min="21" max="16384" width="16.796875" style="13"/>
+    <col min="21" max="16384" width="16.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20">
+    <row r="1" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -9286,7 +9267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="107.25" customHeight="1">
+    <row r="2" spans="1:20" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>51</v>
       </c>
@@ -9346,7 +9327,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="107.25" customHeight="1">
+    <row r="3" spans="1:20" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>82</v>
       </c>
@@ -9406,7 +9387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="107.25" customHeight="1">
+    <row r="4" spans="1:20" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
         <v>112</v>
       </c>
@@ -9466,7 +9447,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="70">
+    <row r="5" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
         <v>167</v>
       </c>
@@ -9526,7 +9507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="70">
+    <row r="6" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>215</v>
       </c>
@@ -9586,7 +9567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="70">
+    <row r="7" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
         <v>338</v>
       </c>
@@ -9646,7 +9627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="70">
+    <row r="8" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
         <v>441</v>
       </c>
@@ -9706,7 +9687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="107.25" customHeight="1">
+    <row r="9" spans="1:20" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
         <v>95</v>
       </c>
@@ -9766,7 +9747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="70">
+    <row r="10" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
         <v>72</v>
       </c>
@@ -9826,7 +9807,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="70">
+    <row r="11" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
         <v>618</v>
       </c>
@@ -9886,7 +9867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="70">
+    <row r="12" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
         <v>639</v>
       </c>
@@ -9946,7 +9927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="70">
+    <row r="13" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
         <v>661</v>
       </c>
@@ -10006,7 +9987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="70">
+    <row r="14" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
         <v>737</v>
       </c>
@@ -10066,7 +10047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="70">
+    <row r="15" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A15" s="50" t="s">
         <v>766</v>
       </c>
@@ -10126,7 +10107,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="70">
+    <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A16" s="167" t="s">
         <v>963</v>
       </c>
@@ -10195,50 +10176,45 @@
     <hyperlink ref="G16" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E14" sqref="E14"/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35:N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.796875" defaultRowHeight="10" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="25.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.3984375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="24.19921875" style="26" customWidth="1"/>
-    <col min="6" max="6" width="25.59765625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.3984375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="13" customWidth="1"/>
-    <col min="10" max="10" width="16.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.3984375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="21.19921875" style="13" customWidth="1"/>
-    <col min="14" max="14" width="15.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="16.796875" style="6"/>
+    <col min="12" max="12" width="19.33203125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="16.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
@@ -10282,7 +10258,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="40">
+    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>51</v>
       </c>
@@ -10318,7 +10294,7 @@
       </c>
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:14" ht="40">
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>51</v>
       </c>
@@ -10354,7 +10330,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" ht="40">
+    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>51</v>
       </c>
@@ -10390,7 +10366,7 @@
       </c>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" ht="40">
+    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
         <v>82</v>
       </c>
@@ -10426,7 +10402,7 @@
       </c>
       <c r="N5" s="49"/>
     </row>
-    <row r="6" spans="1:14" ht="40">
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>82</v>
       </c>
@@ -10462,7 +10438,7 @@
       </c>
       <c r="N6" s="49"/>
     </row>
-    <row r="7" spans="1:14" ht="40">
+    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
         <v>112</v>
       </c>
@@ -10498,7 +10474,7 @@
       </c>
       <c r="N7" s="49"/>
     </row>
-    <row r="8" spans="1:14" ht="40">
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
         <v>112</v>
       </c>
@@ -10534,7 +10510,7 @@
       </c>
       <c r="N8" s="49"/>
     </row>
-    <row r="9" spans="1:14" ht="40">
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
         <v>112</v>
       </c>
@@ -10570,7 +10546,7 @@
       </c>
       <c r="N9" s="49"/>
     </row>
-    <row r="10" spans="1:14" ht="40">
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
         <v>167</v>
       </c>
@@ -10606,7 +10582,7 @@
       </c>
       <c r="N10" s="49"/>
     </row>
-    <row r="11" spans="1:14" ht="40">
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
         <v>167</v>
       </c>
@@ -10642,7 +10618,7 @@
       </c>
       <c r="N11" s="49"/>
     </row>
-    <row r="12" spans="1:14" ht="40">
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
         <v>167</v>
       </c>
@@ -10678,7 +10654,7 @@
       </c>
       <c r="N12" s="49"/>
     </row>
-    <row r="13" spans="1:14" ht="40">
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
         <v>215</v>
       </c>
@@ -10714,7 +10690,7 @@
       </c>
       <c r="N13" s="49"/>
     </row>
-    <row r="14" spans="1:14" ht="40">
+    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
         <v>215</v>
       </c>
@@ -10750,7 +10726,7 @@
       </c>
       <c r="N14" s="49"/>
     </row>
-    <row r="15" spans="1:14" ht="40">
+    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="50" t="s">
         <v>215</v>
       </c>
@@ -10786,7 +10762,7 @@
       </c>
       <c r="N15" s="49"/>
     </row>
-    <row r="16" spans="1:14" ht="40">
+    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
         <v>338</v>
       </c>
@@ -10822,7 +10798,7 @@
       </c>
       <c r="N16" s="49"/>
     </row>
-    <row r="17" spans="1:14" ht="40">
+    <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
         <v>338</v>
       </c>
@@ -10858,7 +10834,7 @@
       </c>
       <c r="N17" s="49"/>
     </row>
-    <row r="18" spans="1:14" ht="40">
+    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
         <v>441</v>
       </c>
@@ -10894,7 +10870,7 @@
       </c>
       <c r="N18" s="49"/>
     </row>
-    <row r="19" spans="1:14" ht="40">
+    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="50" t="s">
         <v>95</v>
       </c>
@@ -10930,7 +10906,7 @@
       </c>
       <c r="N19" s="49"/>
     </row>
-    <row r="20" spans="1:14" ht="40">
+    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="50" t="s">
         <v>95</v>
       </c>
@@ -10966,7 +10942,7 @@
       </c>
       <c r="N20" s="49"/>
     </row>
-    <row r="21" spans="1:14" ht="40">
+    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
         <v>72</v>
       </c>
@@ -11002,7 +10978,7 @@
       </c>
       <c r="N21" s="49"/>
     </row>
-    <row r="22" spans="1:14" ht="40">
+    <row r="22" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="50" t="s">
         <v>72</v>
       </c>
@@ -11038,7 +11014,7 @@
       </c>
       <c r="N22" s="49"/>
     </row>
-    <row r="23" spans="1:14" ht="40">
+    <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
         <v>618</v>
       </c>
@@ -11074,7 +11050,7 @@
       </c>
       <c r="N23" s="49"/>
     </row>
-    <row r="24" spans="1:14" ht="40">
+    <row r="24" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
         <v>618</v>
       </c>
@@ -11110,7 +11086,7 @@
       </c>
       <c r="N24" s="49"/>
     </row>
-    <row r="25" spans="1:14" ht="40">
+    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
         <v>639</v>
       </c>
@@ -11146,7 +11122,7 @@
       </c>
       <c r="N25" s="49"/>
     </row>
-    <row r="26" spans="1:14" ht="40">
+    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
         <v>639</v>
       </c>
@@ -11182,7 +11158,7 @@
       </c>
       <c r="N26" s="49"/>
     </row>
-    <row r="27" spans="1:14" ht="40">
+    <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
         <v>639</v>
       </c>
@@ -11218,7 +11194,7 @@
       </c>
       <c r="N27" s="49"/>
     </row>
-    <row r="28" spans="1:14" ht="40">
+    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
         <v>661</v>
       </c>
@@ -11254,7 +11230,7 @@
       </c>
       <c r="N28" s="49"/>
     </row>
-    <row r="29" spans="1:14" ht="40">
+    <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" s="50" t="s">
         <v>661</v>
       </c>
@@ -11290,7 +11266,7 @@
       </c>
       <c r="N29" s="49"/>
     </row>
-    <row r="30" spans="1:14" ht="40">
+    <row r="30" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A30" s="50" t="s">
         <v>737</v>
       </c>
@@ -11326,7 +11302,7 @@
       </c>
       <c r="N30" s="49"/>
     </row>
-    <row r="31" spans="1:14" ht="40">
+    <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
         <v>737</v>
       </c>
@@ -11362,7 +11338,7 @@
       </c>
       <c r="N31" s="86"/>
     </row>
-    <row r="32" spans="1:14" ht="40">
+    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" s="50" t="s">
         <v>766</v>
       </c>
@@ -11398,7 +11374,7 @@
       </c>
       <c r="N32" s="49"/>
     </row>
-    <row r="33" spans="1:14" ht="40">
+    <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" s="50" t="s">
         <v>766</v>
       </c>
@@ -11434,7 +11410,7 @@
       </c>
       <c r="N33" s="49"/>
     </row>
-    <row r="34" spans="1:14" ht="40">
+    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>766</v>
       </c>
@@ -11470,7 +11446,7 @@
       </c>
       <c r="N34" s="49"/>
     </row>
-    <row r="35" spans="1:14" ht="40">
+    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" s="167" t="s">
         <v>963</v>
       </c>
@@ -11498,15 +11474,11 @@
       <c r="I35" s="56"/>
       <c r="J35" s="49"/>
       <c r="K35" s="49"/>
-      <c r="L35" s="48" t="s">
-        <v>897</v>
-      </c>
-      <c r="M35" s="48" t="s">
-        <v>897</v>
-      </c>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
       <c r="N35" s="49"/>
     </row>
-    <row r="36" spans="1:14" ht="40">
+    <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" s="167" t="s">
         <v>963</v>
       </c>
@@ -11534,12 +11506,8 @@
       <c r="I36" s="56"/>
       <c r="J36" s="49"/>
       <c r="K36" s="49"/>
-      <c r="L36" s="48" t="s">
-        <v>897</v>
-      </c>
-      <c r="M36" s="48" t="s">
-        <v>897</v>
-      </c>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
       <c r="N36" s="49"/>
     </row>
   </sheetData>
@@ -11551,41 +11519,36 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H452"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E14" sqref="E14"/>
       <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="10" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.59765625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.796875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="28"/>
+    <col min="8" max="8" width="16.83203125" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="12" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -11611,7 +11574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="2" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A2" s="74" t="s">
         <v>51</v>
       </c>
@@ -11637,7 +11600,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="3" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A3" s="74" t="s">
         <v>51</v>
       </c>
@@ -11663,7 +11626,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
         <v>51</v>
       </c>
@@ -11689,7 +11652,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="5" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A5" s="74" t="s">
         <v>51</v>
       </c>
@@ -11715,7 +11678,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="6" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="74" t="s">
         <v>51</v>
       </c>
@@ -11741,7 +11704,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A7" s="74" t="s">
         <v>51</v>
       </c>
@@ -11765,7 +11728,7 @@
       </c>
       <c r="H7" s="61"/>
     </row>
-    <row r="8" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="8" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A8" s="74" t="s">
         <v>51</v>
       </c>
@@ -11791,7 +11754,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="9" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A9" s="74" t="s">
         <v>51</v>
       </c>
@@ -11817,7 +11780,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="74" t="s">
         <v>51</v>
       </c>
@@ -11843,7 +11806,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="11" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="74" t="s">
         <v>51</v>
       </c>
@@ -11869,7 +11832,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A12" s="74" t="s">
         <v>51</v>
       </c>
@@ -11893,7 +11856,7 @@
       </c>
       <c r="H12" s="61"/>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A13" s="74" t="s">
         <v>51</v>
       </c>
@@ -11919,7 +11882,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="74" t="s">
         <v>51</v>
       </c>
@@ -11945,7 +11908,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A15" s="74" t="s">
         <v>51</v>
       </c>
@@ -11971,7 +11934,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A16" s="74" t="s">
         <v>51</v>
       </c>
@@ -11997,7 +11960,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30">
+    <row r="17" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="74" t="s">
         <v>51</v>
       </c>
@@ -12021,7 +11984,7 @@
       </c>
       <c r="H17" s="61"/>
     </row>
-    <row r="18" spans="1:8" ht="30">
+    <row r="18" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="57" t="s">
         <v>82</v>
       </c>
@@ -12047,7 +12010,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30">
+    <row r="19" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="57" t="s">
         <v>82</v>
       </c>
@@ -12073,7 +12036,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30">
+    <row r="20" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A20" s="57" t="s">
         <v>82</v>
       </c>
@@ -12099,7 +12062,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30">
+    <row r="21" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A21" s="57" t="s">
         <v>82</v>
       </c>
@@ -12125,7 +12088,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30">
+    <row r="22" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A22" s="57" t="s">
         <v>82</v>
       </c>
@@ -12149,7 +12112,7 @@
       </c>
       <c r="H22" s="61"/>
     </row>
-    <row r="23" spans="1:8" ht="30">
+    <row r="23" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A23" s="57" t="s">
         <v>82</v>
       </c>
@@ -12175,7 +12138,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30">
+    <row r="24" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A24" s="57" t="s">
         <v>82</v>
       </c>
@@ -12201,7 +12164,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30">
+    <row r="25" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A25" s="57" t="s">
         <v>82</v>
       </c>
@@ -12227,7 +12190,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30">
+    <row r="26" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A26" s="57" t="s">
         <v>82</v>
       </c>
@@ -12253,7 +12216,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30">
+    <row r="27" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A27" s="57" t="s">
         <v>82</v>
       </c>
@@ -12279,7 +12242,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30">
+    <row r="28" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A28" s="57" t="s">
         <v>82</v>
       </c>
@@ -12303,7 +12266,7 @@
       </c>
       <c r="H28" s="61"/>
     </row>
-    <row r="29" spans="1:8" ht="30">
+    <row r="29" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A29" s="57" t="s">
         <v>112</v>
       </c>
@@ -12329,7 +12292,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30">
+    <row r="30" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A30" s="57" t="s">
         <v>112</v>
       </c>
@@ -12355,7 +12318,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30">
+    <row r="31" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A31" s="57" t="s">
         <v>112</v>
       </c>
@@ -12381,7 +12344,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30">
+    <row r="32" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A32" s="57" t="s">
         <v>112</v>
       </c>
@@ -12407,7 +12370,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30">
+    <row r="33" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A33" s="57" t="s">
         <v>112</v>
       </c>
@@ -12433,7 +12396,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30">
+    <row r="34" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A34" s="57" t="s">
         <v>112</v>
       </c>
@@ -12459,7 +12422,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30">
+    <row r="35" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A35" s="57" t="s">
         <v>112</v>
       </c>
@@ -12485,7 +12448,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30">
+    <row r="36" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A36" s="57" t="s">
         <v>112</v>
       </c>
@@ -12511,7 +12474,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="30">
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="57" t="s">
         <v>112</v>
       </c>
@@ -12537,7 +12500,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="40">
+    <row r="38" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A38" s="57" t="s">
         <v>112</v>
       </c>
@@ -12563,7 +12526,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="40">
+    <row r="39" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A39" s="57" t="s">
         <v>112</v>
       </c>
@@ -12589,7 +12552,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="30">
+    <row r="40" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A40" s="57" t="s">
         <v>112</v>
       </c>
@@ -12615,7 +12578,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30">
+    <row r="41" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A41" s="57" t="s">
         <v>112</v>
       </c>
@@ -12639,7 +12602,7 @@
       </c>
       <c r="H41" s="61"/>
     </row>
-    <row r="42" spans="1:8" ht="30">
+    <row r="42" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A42" s="57" t="s">
         <v>112</v>
       </c>
@@ -12665,7 +12628,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="30">
+    <row r="43" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A43" s="57" t="s">
         <v>112</v>
       </c>
@@ -12691,7 +12654,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="30">
+    <row r="44" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A44" s="57" t="s">
         <v>112</v>
       </c>
@@ -12717,7 +12680,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="30">
+    <row r="45" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A45" s="57" t="s">
         <v>112</v>
       </c>
@@ -12743,7 +12706,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30">
+    <row r="46" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A46" s="57" t="s">
         <v>112</v>
       </c>
@@ -12769,7 +12732,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30">
+    <row r="47" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A47" s="57" t="s">
         <v>112</v>
       </c>
@@ -12795,7 +12758,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30">
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A48" s="57" t="s">
         <v>112</v>
       </c>
@@ -12821,7 +12784,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="30">
+    <row r="49" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A49" s="57" t="s">
         <v>112</v>
       </c>
@@ -12847,7 +12810,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30">
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A50" s="57" t="s">
         <v>112</v>
       </c>
@@ -12873,7 +12836,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="50">
+    <row r="51" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A51" s="57" t="s">
         <v>112</v>
       </c>
@@ -12899,7 +12862,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="40">
+    <row r="52" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A52" s="57" t="s">
         <v>112</v>
       </c>
@@ -12925,7 +12888,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30">
+    <row r="53" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A53" s="57" t="s">
         <v>112</v>
       </c>
@@ -12951,7 +12914,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30">
+    <row r="54" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A54" s="57" t="s">
         <v>112</v>
       </c>
@@ -12975,7 +12938,7 @@
       </c>
       <c r="H54" s="61"/>
     </row>
-    <row r="55" spans="1:8" ht="30">
+    <row r="55" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A55" s="57" t="s">
         <v>112</v>
       </c>
@@ -13001,7 +12964,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30">
+    <row r="56" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A56" s="57" t="s">
         <v>112</v>
       </c>
@@ -13027,7 +12990,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30">
+    <row r="57" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A57" s="57" t="s">
         <v>112</v>
       </c>
@@ -13053,7 +13016,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30">
+    <row r="58" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A58" s="57" t="s">
         <v>112</v>
       </c>
@@ -13079,7 +13042,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="30">
+    <row r="59" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A59" s="57" t="s">
         <v>112</v>
       </c>
@@ -13105,7 +13068,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30">
+    <row r="60" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A60" s="57" t="s">
         <v>112</v>
       </c>
@@ -13131,7 +13094,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="30">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A61" s="57" t="s">
         <v>112</v>
       </c>
@@ -13157,7 +13120,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="30">
+    <row r="62" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A62" s="57" t="s">
         <v>112</v>
       </c>
@@ -13183,7 +13146,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="30">
+    <row r="63" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A63" s="57" t="s">
         <v>112</v>
       </c>
@@ -13207,7 +13170,7 @@
       </c>
       <c r="H63" s="61"/>
     </row>
-    <row r="64" spans="1:8" ht="30">
+    <row r="64" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A64" s="57" t="s">
         <v>167</v>
       </c>
@@ -13233,7 +13196,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30">
+    <row r="65" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A65" s="57" t="s">
         <v>167</v>
       </c>
@@ -13259,7 +13222,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30">
+    <row r="66" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A66" s="57" t="s">
         <v>167</v>
       </c>
@@ -13285,7 +13248,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30">
+    <row r="67" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A67" s="57" t="s">
         <v>167</v>
       </c>
@@ -13311,7 +13274,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="30">
+    <row r="68" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A68" s="57" t="s">
         <v>167</v>
       </c>
@@ -13337,7 +13300,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="60">
+    <row r="69" spans="1:8" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A69" s="57" t="s">
         <v>167</v>
       </c>
@@ -13363,7 +13326,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="30">
+    <row r="70" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A70" s="57" t="s">
         <v>167</v>
       </c>
@@ -13389,7 +13352,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30">
+    <row r="71" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A71" s="74" t="s">
         <v>167</v>
       </c>
@@ -13415,7 +13378,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30">
+    <row r="72" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A72" s="57" t="s">
         <v>167</v>
       </c>
@@ -13441,7 +13404,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30">
+    <row r="73" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A73" s="73" t="s">
         <v>167</v>
       </c>
@@ -13465,7 +13428,7 @@
       </c>
       <c r="H73" s="61"/>
     </row>
-    <row r="74" spans="1:8" ht="30">
+    <row r="74" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A74" s="74" t="s">
         <v>167</v>
       </c>
@@ -13491,7 +13454,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="30">
+    <row r="75" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A75" s="74" t="s">
         <v>167</v>
       </c>
@@ -13517,7 +13480,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="30">
+    <row r="76" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A76" s="74" t="s">
         <v>167</v>
       </c>
@@ -13543,7 +13506,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="30">
+    <row r="77" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A77" s="74" t="s">
         <v>167</v>
       </c>
@@ -13569,7 +13532,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="30">
+    <row r="78" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A78" s="74" t="s">
         <v>167</v>
       </c>
@@ -13595,7 +13558,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="60">
+    <row r="79" spans="1:8" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A79" s="57" t="s">
         <v>167</v>
       </c>
@@ -13621,7 +13584,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="30">
+    <row r="80" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A80" s="74" t="s">
         <v>167</v>
       </c>
@@ -13647,7 +13610,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="30">
+    <row r="81" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A81" s="74" t="s">
         <v>167</v>
       </c>
@@ -13673,7 +13636,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30">
+    <row r="82" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A82" s="74" t="s">
         <v>167</v>
       </c>
@@ -13699,7 +13662,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="30">
+    <row r="83" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A83" s="74" t="s">
         <v>167</v>
       </c>
@@ -13723,7 +13686,7 @@
       </c>
       <c r="H83" s="61"/>
     </row>
-    <row r="84" spans="1:8" ht="30">
+    <row r="84" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A84" s="74" t="s">
         <v>167</v>
       </c>
@@ -13749,7 +13712,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="30">
+    <row r="85" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A85" s="74" t="s">
         <v>167</v>
       </c>
@@ -13775,7 +13738,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="30">
+    <row r="86" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A86" s="74" t="s">
         <v>167</v>
       </c>
@@ -13801,7 +13764,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30">
+    <row r="87" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A87" s="74" t="s">
         <v>167</v>
       </c>
@@ -13827,7 +13790,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="30">
+    <row r="88" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A88" s="74" t="s">
         <v>167</v>
       </c>
@@ -13853,7 +13816,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="60">
+    <row r="89" spans="1:8" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A89" s="57" t="s">
         <v>167</v>
       </c>
@@ -13879,7 +13842,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="30">
+    <row r="90" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A90" s="74" t="s">
         <v>167</v>
       </c>
@@ -13905,7 +13868,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="30">
+    <row r="91" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A91" s="74" t="s">
         <v>167</v>
       </c>
@@ -13931,7 +13894,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="30">
+    <row r="92" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A92" s="74" t="s">
         <v>167</v>
       </c>
@@ -13957,7 +13920,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="30">
+    <row r="93" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A93" s="74" t="s">
         <v>167</v>
       </c>
@@ -13981,7 +13944,7 @@
       </c>
       <c r="H93" s="61"/>
     </row>
-    <row r="94" spans="1:8" ht="30">
+    <row r="94" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A94" s="74" t="s">
         <v>215</v>
       </c>
@@ -14007,7 +13970,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="30">
+    <row r="95" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A95" s="74" t="s">
         <v>215</v>
       </c>
@@ -14033,7 +13996,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30">
+    <row r="96" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A96" s="74" t="s">
         <v>215</v>
       </c>
@@ -14059,7 +14022,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="30">
+    <row r="97" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A97" s="74" t="s">
         <v>215</v>
       </c>
@@ -14085,7 +14048,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="30">
+    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A98" s="74" t="s">
         <v>215</v>
       </c>
@@ -14111,7 +14074,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="30">
+    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A99" s="74" t="s">
         <v>215</v>
       </c>
@@ -14137,7 +14100,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="30">
+    <row r="100" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A100" s="74" t="s">
         <v>215</v>
       </c>
@@ -14163,7 +14126,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="30">
+    <row r="101" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A101" s="74" t="s">
         <v>215</v>
       </c>
@@ -14189,7 +14152,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="30">
+    <row r="102" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A102" s="74" t="s">
         <v>215</v>
       </c>
@@ -14215,7 +14178,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="30">
+    <row r="103" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A103" s="74" t="s">
         <v>215</v>
       </c>
@@ -14241,7 +14204,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="30">
+    <row r="104" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A104" s="74" t="s">
         <v>215</v>
       </c>
@@ -14267,7 +14230,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="30">
+    <row r="105" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A105" s="74" t="s">
         <v>215</v>
       </c>
@@ -14293,7 +14256,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="30">
+    <row r="106" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A106" s="74" t="s">
         <v>215</v>
       </c>
@@ -14319,7 +14282,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="30">
+    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A107" s="74" t="s">
         <v>215</v>
       </c>
@@ -14345,7 +14308,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="30">
+    <row r="108" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A108" s="74" t="s">
         <v>215</v>
       </c>
@@ -14371,7 +14334,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="30">
+    <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A109" s="74" t="s">
         <v>215</v>
       </c>
@@ -14397,7 +14360,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="30">
+    <row r="110" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A110" s="74" t="s">
         <v>215</v>
       </c>
@@ -14423,7 +14386,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="30">
+    <row r="111" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A111" s="74" t="s">
         <v>215</v>
       </c>
@@ -14449,7 +14412,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="30">
+    <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A112" s="74" t="s">
         <v>215</v>
       </c>
@@ -14475,7 +14438,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="30">
+    <row r="113" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A113" s="74" t="s">
         <v>215</v>
       </c>
@@ -14501,7 +14464,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30">
+    <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A114" s="74" t="s">
         <v>215</v>
       </c>
@@ -14527,7 +14490,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="30">
+    <row r="115" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A115" s="74" t="s">
         <v>215</v>
       </c>
@@ -14553,7 +14516,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="30">
+    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A116" s="74" t="s">
         <v>215</v>
       </c>
@@ -14579,7 +14542,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="30">
+    <row r="117" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A117" s="74" t="s">
         <v>215</v>
       </c>
@@ -14605,7 +14568,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30">
+    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A118" s="74" t="s">
         <v>215</v>
       </c>
@@ -14631,7 +14594,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="30">
+    <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A119" s="74" t="s">
         <v>215</v>
       </c>
@@ -14657,7 +14620,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30">
+    <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A120" s="74" t="s">
         <v>215</v>
       </c>
@@ -14683,7 +14646,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="30">
+    <row r="121" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A121" s="74" t="s">
         <v>215</v>
       </c>
@@ -14709,7 +14672,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="30">
+    <row r="122" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A122" s="74" t="s">
         <v>215</v>
       </c>
@@ -14735,7 +14698,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="30">
+    <row r="123" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A123" s="74" t="s">
         <v>215</v>
       </c>
@@ -14761,7 +14724,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="30">
+    <row r="124" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A124" s="74" t="s">
         <v>215</v>
       </c>
@@ -14787,7 +14750,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="30">
+    <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A125" s="74" t="s">
         <v>215</v>
       </c>
@@ -14813,7 +14776,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="30">
+    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A126" s="74" t="s">
         <v>215</v>
       </c>
@@ -14839,7 +14802,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="30">
+    <row r="127" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A127" s="74" t="s">
         <v>215</v>
       </c>
@@ -14865,7 +14828,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="30">
+    <row r="128" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A128" s="74" t="s">
         <v>215</v>
       </c>
@@ -14891,7 +14854,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="30">
+    <row r="129" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A129" s="74" t="s">
         <v>215</v>
       </c>
@@ -14917,7 +14880,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="30">
+    <row r="130" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A130" s="74" t="s">
         <v>215</v>
       </c>
@@ -14941,7 +14904,7 @@
       </c>
       <c r="H130" s="61"/>
     </row>
-    <row r="131" spans="1:8" ht="30">
+    <row r="131" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A131" s="74" t="s">
         <v>215</v>
       </c>
@@ -14967,7 +14930,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="30">
+    <row r="132" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A132" s="74" t="s">
         <v>215</v>
       </c>
@@ -14993,7 +14956,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="30">
+    <row r="133" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A133" s="74" t="s">
         <v>215</v>
       </c>
@@ -15019,7 +14982,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="30">
+    <row r="134" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A134" s="74" t="s">
         <v>215</v>
       </c>
@@ -15045,7 +15008,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="30">
+    <row r="135" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A135" s="74" t="s">
         <v>215</v>
       </c>
@@ -15071,7 +15034,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="30">
+    <row r="136" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A136" s="74" t="s">
         <v>215</v>
       </c>
@@ -15097,7 +15060,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="30">
+    <row r="137" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A137" s="74" t="s">
         <v>215</v>
       </c>
@@ -15123,7 +15086,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="30">
+    <row r="138" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A138" s="74" t="s">
         <v>215</v>
       </c>
@@ -15149,7 +15112,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="30">
+    <row r="139" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A139" s="74" t="s">
         <v>215</v>
       </c>
@@ -15173,7 +15136,7 @@
       </c>
       <c r="H139" s="61"/>
     </row>
-    <row r="140" spans="1:8" ht="30">
+    <row r="140" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A140" s="74" t="s">
         <v>215</v>
       </c>
@@ -15199,7 +15162,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="30">
+    <row r="141" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A141" s="74" t="s">
         <v>215</v>
       </c>
@@ -15225,7 +15188,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="30">
+    <row r="142" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A142" s="74" t="s">
         <v>215</v>
       </c>
@@ -15251,7 +15214,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="30">
+    <row r="143" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A143" s="74" t="s">
         <v>215</v>
       </c>
@@ -15277,7 +15240,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="30">
+    <row r="144" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A144" s="74" t="s">
         <v>215</v>
       </c>
@@ -15303,7 +15266,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="30">
+    <row r="145" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A145" s="74" t="s">
         <v>215</v>
       </c>
@@ -15329,7 +15292,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="30">
+    <row r="146" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A146" s="74" t="s">
         <v>215</v>
       </c>
@@ -15355,7 +15318,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="30">
+    <row r="147" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A147" s="74" t="s">
         <v>215</v>
       </c>
@@ -15381,7 +15344,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="30">
+    <row r="148" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A148" s="74" t="s">
         <v>215</v>
       </c>
@@ -15407,7 +15370,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="30">
+    <row r="149" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A149" s="74" t="s">
         <v>215</v>
       </c>
@@ -15433,7 +15396,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="30">
+    <row r="150" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A150" s="74" t="s">
         <v>215</v>
       </c>
@@ -15459,7 +15422,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="30">
+    <row r="151" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A151" s="74" t="s">
         <v>215</v>
       </c>
@@ -15485,7 +15448,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="30">
+    <row r="152" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A152" s="74" t="s">
         <v>215</v>
       </c>
@@ -15511,7 +15474,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="30">
+    <row r="153" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A153" s="74" t="s">
         <v>215</v>
       </c>
@@ -15537,7 +15500,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="30">
+    <row r="154" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A154" s="74" t="s">
         <v>215</v>
       </c>
@@ -15563,7 +15526,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="30">
+    <row r="155" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A155" s="74" t="s">
         <v>215</v>
       </c>
@@ -15589,7 +15552,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="30">
+    <row r="156" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A156" s="74" t="s">
         <v>215</v>
       </c>
@@ -15615,7 +15578,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="30">
+    <row r="157" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A157" s="74" t="s">
         <v>215</v>
       </c>
@@ -15641,7 +15604,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="30">
+    <row r="158" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A158" s="74" t="s">
         <v>215</v>
       </c>
@@ -15667,7 +15630,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="30">
+    <row r="159" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A159" s="74" t="s">
         <v>215</v>
       </c>
@@ -15693,7 +15656,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="30">
+    <row r="160" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A160" s="74" t="s">
         <v>215</v>
       </c>
@@ -15719,7 +15682,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="30">
+    <row r="161" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A161" s="74" t="s">
         <v>215</v>
       </c>
@@ -15745,7 +15708,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="30">
+    <row r="162" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A162" s="74" t="s">
         <v>215</v>
       </c>
@@ -15771,7 +15734,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="30">
+    <row r="163" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A163" s="74" t="s">
         <v>215</v>
       </c>
@@ -15797,7 +15760,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="30">
+    <row r="164" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A164" s="74" t="s">
         <v>215</v>
       </c>
@@ -15823,7 +15786,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="30">
+    <row r="165" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A165" s="74" t="s">
         <v>215</v>
       </c>
@@ -15849,7 +15812,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="30">
+    <row r="166" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A166" s="74" t="s">
         <v>215</v>
       </c>
@@ -15875,7 +15838,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="30">
+    <row r="167" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A167" s="74" t="s">
         <v>215</v>
       </c>
@@ -15901,7 +15864,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="30">
+    <row r="168" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A168" s="74" t="s">
         <v>215</v>
       </c>
@@ -15927,7 +15890,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="30">
+    <row r="169" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A169" s="74" t="s">
         <v>215</v>
       </c>
@@ -15953,7 +15916,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="30">
+    <row r="170" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A170" s="74" t="s">
         <v>215</v>
       </c>
@@ -15979,7 +15942,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="30">
+    <row r="171" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A171" s="74" t="s">
         <v>215</v>
       </c>
@@ -16003,7 +15966,7 @@
       </c>
       <c r="H171" s="61"/>
     </row>
-    <row r="172" spans="1:8" ht="30">
+    <row r="172" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A172" s="57" t="s">
         <v>338</v>
       </c>
@@ -16029,7 +15992,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="30">
+    <row r="173" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A173" s="57" t="s">
         <v>338</v>
       </c>
@@ -16055,7 +16018,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="30">
+    <row r="174" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A174" s="57" t="s">
         <v>338</v>
       </c>
@@ -16081,7 +16044,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="30">
+    <row r="175" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A175" s="57" t="s">
         <v>338</v>
       </c>
@@ -16107,7 +16070,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="30">
+    <row r="176" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A176" s="57" t="s">
         <v>338</v>
       </c>
@@ -16133,7 +16096,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="30">
+    <row r="177" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A177" s="57" t="s">
         <v>338</v>
       </c>
@@ -16159,7 +16122,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="30">
+    <row r="178" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A178" s="57" t="s">
         <v>338</v>
       </c>
@@ -16185,7 +16148,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="30">
+    <row r="179" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A179" s="57" t="s">
         <v>338</v>
       </c>
@@ -16211,7 +16174,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="30">
+    <row r="180" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A180" s="57" t="s">
         <v>338</v>
       </c>
@@ -16237,7 +16200,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="30">
+    <row r="181" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A181" s="57" t="s">
         <v>338</v>
       </c>
@@ -16263,7 +16226,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="30">
+    <row r="182" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A182" s="57" t="s">
         <v>338</v>
       </c>
@@ -16289,7 +16252,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="30">
+    <row r="183" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A183" s="57" t="s">
         <v>338</v>
       </c>
@@ -16315,7 +16278,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="30">
+    <row r="184" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A184" s="57" t="s">
         <v>338</v>
       </c>
@@ -16341,7 +16304,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30">
+    <row r="185" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A185" s="57" t="s">
         <v>338</v>
       </c>
@@ -16367,7 +16330,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="30">
+    <row r="186" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A186" s="57" t="s">
         <v>338</v>
       </c>
@@ -16393,7 +16356,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="30">
+    <row r="187" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A187" s="57" t="s">
         <v>338</v>
       </c>
@@ -16419,7 +16382,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="30">
+    <row r="188" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A188" s="57" t="s">
         <v>338</v>
       </c>
@@ -16445,7 +16408,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="30">
+    <row r="189" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A189" s="57" t="s">
         <v>338</v>
       </c>
@@ -16471,7 +16434,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="30">
+    <row r="190" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A190" s="57" t="s">
         <v>338</v>
       </c>
@@ -16497,7 +16460,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="30">
+    <row r="191" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A191" s="57" t="s">
         <v>338</v>
       </c>
@@ -16523,7 +16486,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="30">
+    <row r="192" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A192" s="57" t="s">
         <v>338</v>
       </c>
@@ -16549,7 +16512,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="30">
+    <row r="193" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A193" s="57" t="s">
         <v>338</v>
       </c>
@@ -16575,7 +16538,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="30">
+    <row r="194" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A194" s="57" t="s">
         <v>338</v>
       </c>
@@ -16601,7 +16564,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="30">
+    <row r="195" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A195" s="57" t="s">
         <v>338</v>
       </c>
@@ -16627,7 +16590,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="30">
+    <row r="196" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A196" s="57" t="s">
         <v>338</v>
       </c>
@@ -16653,7 +16616,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="30">
+    <row r="197" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A197" s="57" t="s">
         <v>338</v>
       </c>
@@ -16679,7 +16642,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="30">
+    <row r="198" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A198" s="57" t="s">
         <v>338</v>
       </c>
@@ -16705,7 +16668,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="30">
+    <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A199" s="57" t="s">
         <v>338</v>
       </c>
@@ -16731,7 +16694,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="30">
+    <row r="200" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A200" s="57" t="s">
         <v>338</v>
       </c>
@@ -16757,7 +16720,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="30">
+    <row r="201" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A201" s="57" t="s">
         <v>338</v>
       </c>
@@ -16783,7 +16746,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="30">
+    <row r="202" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A202" s="57" t="s">
         <v>338</v>
       </c>
@@ -16809,7 +16772,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="30">
+    <row r="203" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A203" s="57" t="s">
         <v>338</v>
       </c>
@@ -16835,7 +16798,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="30">
+    <row r="204" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A204" s="57" t="s">
         <v>338</v>
       </c>
@@ -16861,7 +16824,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="30">
+    <row r="205" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A205" s="57" t="s">
         <v>338</v>
       </c>
@@ -16887,7 +16850,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="30">
+    <row r="206" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A206" s="57" t="s">
         <v>338</v>
       </c>
@@ -16911,7 +16874,7 @@
       </c>
       <c r="H206" s="61"/>
     </row>
-    <row r="207" spans="1:8" ht="30">
+    <row r="207" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A207" s="57" t="s">
         <v>338</v>
       </c>
@@ -16937,7 +16900,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="30">
+    <row r="208" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A208" s="57" t="s">
         <v>338</v>
       </c>
@@ -16963,7 +16926,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="30">
+    <row r="209" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A209" s="57" t="s">
         <v>338</v>
       </c>
@@ -16989,7 +16952,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="30">
+    <row r="210" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A210" s="57" t="s">
         <v>338</v>
       </c>
@@ -17015,7 +16978,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="30">
+    <row r="211" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A211" s="57" t="s">
         <v>338</v>
       </c>
@@ -17041,7 +17004,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="30">
+    <row r="212" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A212" s="57" t="s">
         <v>338</v>
       </c>
@@ -17067,7 +17030,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="30">
+    <row r="213" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A213" s="57" t="s">
         <v>338</v>
       </c>
@@ -17093,7 +17056,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="30">
+    <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A214" s="57" t="s">
         <v>338</v>
       </c>
@@ -17119,7 +17082,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="30">
+    <row r="215" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A215" s="57" t="s">
         <v>338</v>
       </c>
@@ -17145,7 +17108,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="30">
+    <row r="216" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A216" s="57" t="s">
         <v>338</v>
       </c>
@@ -17171,7 +17134,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="30">
+    <row r="217" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A217" s="57" t="s">
         <v>338</v>
       </c>
@@ -17197,7 +17160,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="30">
+    <row r="218" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A218" s="57" t="s">
         <v>338</v>
       </c>
@@ -17223,7 +17186,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="30">
+    <row r="219" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A219" s="57" t="s">
         <v>338</v>
       </c>
@@ -17249,7 +17212,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="30">
+    <row r="220" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A220" s="57" t="s">
         <v>338</v>
       </c>
@@ -17275,7 +17238,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="30">
+    <row r="221" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A221" s="57" t="s">
         <v>338</v>
       </c>
@@ -17301,7 +17264,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="30">
+    <row r="222" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A222" s="57" t="s">
         <v>338</v>
       </c>
@@ -17327,7 +17290,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="30">
+    <row r="223" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A223" s="57" t="s">
         <v>338</v>
       </c>
@@ -17353,7 +17316,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="30">
+    <row r="224" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A224" s="57" t="s">
         <v>338</v>
       </c>
@@ -17379,7 +17342,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="30">
+    <row r="225" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A225" s="57" t="s">
         <v>338</v>
       </c>
@@ -17405,7 +17368,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="30">
+    <row r="226" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A226" s="57" t="s">
         <v>338</v>
       </c>
@@ -17431,7 +17394,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="30">
+    <row r="227" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A227" s="57" t="s">
         <v>338</v>
       </c>
@@ -17457,7 +17420,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="30">
+    <row r="228" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A228" s="57" t="s">
         <v>338</v>
       </c>
@@ -17483,7 +17446,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="30">
+    <row r="229" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A229" s="57" t="s">
         <v>338</v>
       </c>
@@ -17509,7 +17472,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="30">
+    <row r="230" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A230" s="57" t="s">
         <v>338</v>
       </c>
@@ -17535,7 +17498,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="30">
+    <row r="231" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A231" s="57" t="s">
         <v>338</v>
       </c>
@@ -17561,7 +17524,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="30">
+    <row r="232" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A232" s="57" t="s">
         <v>338</v>
       </c>
@@ -17585,7 +17548,7 @@
       </c>
       <c r="H232" s="61"/>
     </row>
-    <row r="233" spans="1:8" ht="30">
+    <row r="233" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A233" s="57" t="s">
         <v>441</v>
       </c>
@@ -17611,7 +17574,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="30">
+    <row r="234" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A234" s="57" t="s">
         <v>441</v>
       </c>
@@ -17637,7 +17600,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="30">
+    <row r="235" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A235" s="57" t="s">
         <v>441</v>
       </c>
@@ -17663,7 +17626,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="30">
+    <row r="236" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A236" s="57" t="s">
         <v>441</v>
       </c>
@@ -17689,7 +17652,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="30">
+    <row r="237" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A237" s="57" t="s">
         <v>441</v>
       </c>
@@ -17715,7 +17678,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="30">
+    <row r="238" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A238" s="57" t="s">
         <v>441</v>
       </c>
@@ -17741,7 +17704,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="30">
+    <row r="239" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A239" s="57" t="s">
         <v>441</v>
       </c>
@@ -17767,7 +17730,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="30">
+    <row r="240" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A240" s="57" t="s">
         <v>441</v>
       </c>
@@ -17793,7 +17756,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="30">
+    <row r="241" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A241" s="57" t="s">
         <v>441</v>
       </c>
@@ -17819,7 +17782,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="30">
+    <row r="242" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A242" s="57" t="s">
         <v>441</v>
       </c>
@@ -17845,7 +17808,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="30">
+    <row r="243" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A243" s="57" t="s">
         <v>441</v>
       </c>
@@ -17871,7 +17834,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="30">
+    <row r="244" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A244" s="57" t="s">
         <v>441</v>
       </c>
@@ -17897,7 +17860,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="30">
+    <row r="245" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A245" s="57" t="s">
         <v>441</v>
       </c>
@@ -17923,7 +17886,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="30">
+    <row r="246" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A246" s="57" t="s">
         <v>441</v>
       </c>
@@ -17947,7 +17910,7 @@
       </c>
       <c r="H246" s="61"/>
     </row>
-    <row r="247" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="247" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A247" s="57" t="s">
         <v>95</v>
       </c>
@@ -17973,7 +17936,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="248" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="248" spans="1:8" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A248" s="57" t="s">
         <v>95</v>
       </c>
@@ -17999,7 +17962,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="249" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="249" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A249" s="57" t="s">
         <v>95</v>
       </c>
@@ -18025,7 +17988,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="250" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="250" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A250" s="57" t="s">
         <v>95</v>
       </c>
@@ -18051,7 +18014,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="251" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A251" s="57" t="s">
         <v>95</v>
       </c>
@@ -18077,7 +18040,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="252" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A252" s="57" t="s">
         <v>95</v>
       </c>
@@ -18103,7 +18066,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="253" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A253" s="57" t="s">
         <v>95</v>
       </c>
@@ -18129,7 +18092,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="254" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="254" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A254" s="57" t="s">
         <v>95</v>
       </c>
@@ -18153,7 +18116,7 @@
       </c>
       <c r="H254" s="61"/>
     </row>
-    <row r="255" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="255" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A255" s="57" t="s">
         <v>95</v>
       </c>
@@ -18179,7 +18142,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="256" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="256" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A256" s="57" t="s">
         <v>95</v>
       </c>
@@ -18205,7 +18168,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="257" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="257" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A257" s="57" t="s">
         <v>95</v>
       </c>
@@ -18231,7 +18194,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="258" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="258" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A258" s="57" t="s">
         <v>95</v>
       </c>
@@ -18255,7 +18218,7 @@
       </c>
       <c r="H258" s="61"/>
     </row>
-    <row r="259" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="259" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A259" s="81" t="s">
         <v>72</v>
       </c>
@@ -18281,7 +18244,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="260" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="260" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A260" s="81" t="s">
         <v>72</v>
       </c>
@@ -18307,7 +18270,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="261" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="261" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A261" s="81" t="s">
         <v>72</v>
       </c>
@@ -18333,7 +18296,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="262" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="262" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A262" s="81" t="s">
         <v>72</v>
       </c>
@@ -18359,7 +18322,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="263" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="263" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A263" s="81" t="s">
         <v>72</v>
       </c>
@@ -18385,7 +18348,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="264" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="264" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A264" s="81" t="s">
         <v>72</v>
       </c>
@@ -18411,7 +18374,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="265" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="265" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A265" s="81" t="s">
         <v>72</v>
       </c>
@@ -18437,7 +18400,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="266" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="266" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A266" s="81" t="s">
         <v>72</v>
       </c>
@@ -18463,7 +18426,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="267" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="267" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A267" s="81" t="s">
         <v>72</v>
       </c>
@@ -18489,7 +18452,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="268" spans="1:8" s="29" customFormat="1" ht="30">
+    <row r="268" spans="1:8" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A268" s="81" t="s">
         <v>72</v>
       </c>
@@ -18515,7 +18478,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="30">
+    <row r="269" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A269" s="81" t="s">
         <v>72</v>
       </c>
@@ -18541,7 +18504,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="30">
+    <row r="270" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A270" s="81" t="s">
         <v>72</v>
       </c>
@@ -18567,7 +18530,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="30">
+    <row r="271" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A271" s="81" t="s">
         <v>72</v>
       </c>
@@ -18593,7 +18556,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="30">
+    <row r="272" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A272" s="81" t="s">
         <v>72</v>
       </c>
@@ -18619,7 +18582,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="30">
+    <row r="273" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A273" s="81" t="s">
         <v>72</v>
       </c>
@@ -18645,7 +18608,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="30">
+    <row r="274" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A274" s="81" t="s">
         <v>72</v>
       </c>
@@ -18671,7 +18634,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="30">
+    <row r="275" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A275" s="81" t="s">
         <v>72</v>
       </c>
@@ -18697,7 +18660,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="30">
+    <row r="276" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A276" s="81" t="s">
         <v>72</v>
       </c>
@@ -18723,7 +18686,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="30">
+    <row r="277" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A277" s="81" t="s">
         <v>72</v>
       </c>
@@ -18749,7 +18712,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="30">
+    <row r="278" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A278" s="81" t="s">
         <v>72</v>
       </c>
@@ -18775,7 +18738,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="30">
+    <row r="279" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A279" s="81" t="s">
         <v>72</v>
       </c>
@@ -18801,7 +18764,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="30">
+    <row r="280" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A280" s="81" t="s">
         <v>72</v>
       </c>
@@ -18827,7 +18790,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="30">
+    <row r="281" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A281" s="81" t="s">
         <v>72</v>
       </c>
@@ -18853,7 +18816,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="30">
+    <row r="282" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A282" s="81" t="s">
         <v>72</v>
       </c>
@@ -18879,7 +18842,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="30">
+    <row r="283" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A283" s="81" t="s">
         <v>72</v>
       </c>
@@ -18905,7 +18868,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="30">
+    <row r="284" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A284" s="81" t="s">
         <v>72</v>
       </c>
@@ -18931,7 +18894,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="30">
+    <row r="285" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A285" s="81" t="s">
         <v>72</v>
       </c>
@@ -18957,7 +18920,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="30">
+    <row r="286" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A286" s="81" t="s">
         <v>72</v>
       </c>
@@ -18983,7 +18946,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="50">
+    <row r="287" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A287" s="81" t="s">
         <v>72</v>
       </c>
@@ -19009,7 +18972,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="30">
+    <row r="288" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A288" s="81" t="s">
         <v>72</v>
       </c>
@@ -19035,7 +18998,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="30">
+    <row r="289" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A289" s="81" t="s">
         <v>72</v>
       </c>
@@ -19061,7 +19024,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="40">
+    <row r="290" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A290" s="81" t="s">
         <v>72</v>
       </c>
@@ -19087,7 +19050,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="30">
+    <row r="291" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A291" s="81" t="s">
         <v>72</v>
       </c>
@@ -19113,7 +19076,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="30">
+    <row r="292" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A292" s="81" t="s">
         <v>72</v>
       </c>
@@ -19139,7 +19102,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="30">
+    <row r="293" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A293" s="81" t="s">
         <v>72</v>
       </c>
@@ -19165,7 +19128,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="30">
+    <row r="294" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A294" s="81" t="s">
         <v>72</v>
       </c>
@@ -19191,7 +19154,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="30">
+    <row r="295" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A295" s="81" t="s">
         <v>72</v>
       </c>
@@ -19217,7 +19180,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="30">
+    <row r="296" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A296" s="81" t="s">
         <v>72</v>
       </c>
@@ -19243,7 +19206,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="30">
+    <row r="297" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A297" s="81" t="s">
         <v>72</v>
       </c>
@@ -19269,7 +19232,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="30">
+    <row r="298" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A298" s="81" t="s">
         <v>72</v>
       </c>
@@ -19295,7 +19258,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="50">
+    <row r="299" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A299" s="81" t="s">
         <v>72</v>
       </c>
@@ -19321,7 +19284,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="30">
+    <row r="300" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A300" s="81" t="s">
         <v>72</v>
       </c>
@@ -19347,7 +19310,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="30">
+    <row r="301" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A301" s="81" t="s">
         <v>72</v>
       </c>
@@ -19373,7 +19336,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="30">
+    <row r="302" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A302" s="81" t="s">
         <v>72</v>
       </c>
@@ -19399,7 +19362,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="30">
+    <row r="303" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A303" s="81" t="s">
         <v>72</v>
       </c>
@@ -19425,7 +19388,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="30">
+    <row r="304" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A304" s="81" t="s">
         <v>72</v>
       </c>
@@ -19451,7 +19414,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="30">
+    <row r="305" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A305" s="81" t="s">
         <v>72</v>
       </c>
@@ -19477,7 +19440,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="30">
+    <row r="306" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A306" s="81" t="s">
         <v>72</v>
       </c>
@@ -19503,7 +19466,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="30">
+    <row r="307" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A307" s="81" t="s">
         <v>72</v>
       </c>
@@ -19527,7 +19490,7 @@
       </c>
       <c r="H307" s="61"/>
     </row>
-    <row r="308" spans="1:8" ht="30">
+    <row r="308" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A308" s="81" t="s">
         <v>72</v>
       </c>
@@ -19553,7 +19516,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="30">
+    <row r="309" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A309" s="81" t="s">
         <v>72</v>
       </c>
@@ -19579,7 +19542,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="30">
+    <row r="310" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A310" s="81" t="s">
         <v>72</v>
       </c>
@@ -19605,7 +19568,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="30">
+    <row r="311" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A311" s="81" t="s">
         <v>72</v>
       </c>
@@ -19631,7 +19594,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="50">
+    <row r="312" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A312" s="81" t="s">
         <v>72</v>
       </c>
@@ -19657,7 +19620,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="30">
+    <row r="313" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A313" s="81" t="s">
         <v>72</v>
       </c>
@@ -19683,7 +19646,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="30">
+    <row r="314" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A314" s="81" t="s">
         <v>72</v>
       </c>
@@ -19709,7 +19672,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="40">
+    <row r="315" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A315" s="81" t="s">
         <v>72</v>
       </c>
@@ -19735,7 +19698,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="30">
+    <row r="316" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A316" s="81" t="s">
         <v>72</v>
       </c>
@@ -19761,7 +19724,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="30">
+    <row r="317" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A317" s="81" t="s">
         <v>72</v>
       </c>
@@ -19787,7 +19750,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="30">
+    <row r="318" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A318" s="81" t="s">
         <v>72</v>
       </c>
@@ -19813,7 +19776,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="30">
+    <row r="319" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A319" s="81" t="s">
         <v>72</v>
       </c>
@@ -19839,7 +19802,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="30">
+    <row r="320" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A320" s="81" t="s">
         <v>72</v>
       </c>
@@ -19863,7 +19826,7 @@
       </c>
       <c r="H320" s="61"/>
     </row>
-    <row r="321" spans="1:8" ht="40">
+    <row r="321" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A321" s="57" t="s">
         <v>618</v>
       </c>
@@ -19889,7 +19852,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="40">
+    <row r="322" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A322" s="57" t="s">
         <v>618</v>
       </c>
@@ -19915,7 +19878,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="40">
+    <row r="323" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A323" s="57" t="s">
         <v>618</v>
       </c>
@@ -19941,7 +19904,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="40">
+    <row r="324" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A324" s="57" t="s">
         <v>618</v>
       </c>
@@ -19967,7 +19930,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="40">
+    <row r="325" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A325" s="57" t="s">
         <v>618</v>
       </c>
@@ -19993,7 +19956,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="40">
+    <row r="326" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A326" s="57" t="s">
         <v>618</v>
       </c>
@@ -20017,7 +19980,7 @@
       </c>
       <c r="H326" s="61"/>
     </row>
-    <row r="327" spans="1:8" ht="40">
+    <row r="327" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A327" s="57" t="s">
         <v>618</v>
       </c>
@@ -20043,7 +20006,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="40">
+    <row r="328" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A328" s="57" t="s">
         <v>618</v>
       </c>
@@ -20069,7 +20032,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="40">
+    <row r="329" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A329" s="57" t="s">
         <v>618</v>
       </c>
@@ -20095,7 +20058,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="40">
+    <row r="330" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A330" s="57" t="s">
         <v>618</v>
       </c>
@@ -20121,7 +20084,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="40">
+    <row r="331" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A331" s="57" t="s">
         <v>618</v>
       </c>
@@ -20145,7 +20108,7 @@
       </c>
       <c r="H331" s="61"/>
     </row>
-    <row r="332" spans="1:8" ht="30">
+    <row r="332" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A332" s="57" t="s">
         <v>639</v>
       </c>
@@ -20171,7 +20134,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="30">
+    <row r="333" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A333" s="57" t="s">
         <v>639</v>
       </c>
@@ -20197,7 +20160,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="30">
+    <row r="334" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A334" s="57" t="s">
         <v>639</v>
       </c>
@@ -20223,7 +20186,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="30">
+    <row r="335" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A335" s="57" t="s">
         <v>639</v>
       </c>
@@ -20247,7 +20210,7 @@
       </c>
       <c r="H335" s="61"/>
     </row>
-    <row r="336" spans="1:8" ht="30">
+    <row r="336" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A336" s="57" t="s">
         <v>639</v>
       </c>
@@ -20273,7 +20236,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="30">
+    <row r="337" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A337" s="57">
         <v>22</v>
       </c>
@@ -20297,7 +20260,7 @@
       </c>
       <c r="H337" s="61"/>
     </row>
-    <row r="338" spans="1:8" ht="30">
+    <row r="338" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A338" s="57" t="s">
         <v>639</v>
       </c>
@@ -20323,7 +20286,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="30">
+    <row r="339" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A339" s="57" t="s">
         <v>639</v>
       </c>
@@ -20347,7 +20310,7 @@
       </c>
       <c r="H339" s="61"/>
     </row>
-    <row r="340" spans="1:8" ht="30">
+    <row r="340" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A340" s="57" t="s">
         <v>661</v>
       </c>
@@ -20373,7 +20336,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="30">
+    <row r="341" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A341" s="57" t="s">
         <v>661</v>
       </c>
@@ -20399,7 +20362,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="30">
+    <row r="342" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A342" s="57" t="s">
         <v>661</v>
       </c>
@@ -20425,7 +20388,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="30">
+    <row r="343" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A343" s="57" t="s">
         <v>661</v>
       </c>
@@ -20451,7 +20414,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="30">
+    <row r="344" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A344" s="57" t="s">
         <v>661</v>
       </c>
@@ -20477,7 +20440,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="30">
+    <row r="345" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A345" s="57" t="s">
         <v>661</v>
       </c>
@@ -20503,7 +20466,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="30">
+    <row r="346" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A346" s="57" t="s">
         <v>661</v>
       </c>
@@ -20529,7 +20492,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="30">
+    <row r="347" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A347" s="57" t="s">
         <v>661</v>
       </c>
@@ -20555,7 +20518,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="30">
+    <row r="348" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A348" s="57" t="s">
         <v>661</v>
       </c>
@@ -20581,7 +20544,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="30">
+    <row r="349" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A349" s="57" t="s">
         <v>661</v>
       </c>
@@ -20607,7 +20570,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="30">
+    <row r="350" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A350" s="57" t="s">
         <v>661</v>
       </c>
@@ -20633,7 +20596,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="30">
+    <row r="351" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A351" s="57" t="s">
         <v>661</v>
       </c>
@@ -20659,7 +20622,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="30">
+    <row r="352" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A352" s="57" t="s">
         <v>661</v>
       </c>
@@ -20685,7 +20648,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="30">
+    <row r="353" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A353" s="57" t="s">
         <v>661</v>
       </c>
@@ -20711,7 +20674,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="30">
+    <row r="354" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A354" s="57" t="s">
         <v>661</v>
       </c>
@@ -20737,7 +20700,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="30">
+    <row r="355" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A355" s="57" t="s">
         <v>661</v>
       </c>
@@ -20763,7 +20726,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="30">
+    <row r="356" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A356" s="57" t="s">
         <v>661</v>
       </c>
@@ -20789,7 +20752,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="30">
+    <row r="357" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A357" s="57" t="s">
         <v>661</v>
       </c>
@@ -20815,7 +20778,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="30">
+    <row r="358" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A358" s="57" t="s">
         <v>661</v>
       </c>
@@ -20841,7 +20804,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="30">
+    <row r="359" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A359" s="57" t="s">
         <v>661</v>
       </c>
@@ -20867,7 +20830,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="30">
+    <row r="360" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A360" s="57" t="s">
         <v>661</v>
       </c>
@@ -20893,7 +20856,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="30">
+    <row r="361" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A361" s="57" t="s">
         <v>661</v>
       </c>
@@ -20919,7 +20882,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="30">
+    <row r="362" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A362" s="57" t="s">
         <v>661</v>
       </c>
@@ -20945,7 +20908,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="30">
+    <row r="363" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A363" s="57" t="s">
         <v>661</v>
       </c>
@@ -20971,7 +20934,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="30">
+    <row r="364" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A364" s="57" t="s">
         <v>661</v>
       </c>
@@ -20997,7 +20960,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="30">
+    <row r="365" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A365" s="57" t="s">
         <v>661</v>
       </c>
@@ -21023,7 +20986,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="30">
+    <row r="366" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A366" s="57" t="s">
         <v>661</v>
       </c>
@@ -21049,7 +21012,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="30">
+    <row r="367" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A367" s="57" t="s">
         <v>661</v>
       </c>
@@ -21075,7 +21038,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="30">
+    <row r="368" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A368" s="57" t="s">
         <v>661</v>
       </c>
@@ -21101,7 +21064,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="30">
+    <row r="369" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A369" s="57" t="s">
         <v>661</v>
       </c>
@@ -21127,7 +21090,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="30">
+    <row r="370" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A370" s="57" t="s">
         <v>661</v>
       </c>
@@ -21151,7 +21114,7 @@
       </c>
       <c r="H370" s="61"/>
     </row>
-    <row r="371" spans="1:8" ht="30">
+    <row r="371" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A371" s="57" t="s">
         <v>661</v>
       </c>
@@ -21177,7 +21140,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="30">
+    <row r="372" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A372" s="57" t="s">
         <v>661</v>
       </c>
@@ -21203,7 +21166,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="30">
+    <row r="373" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A373" s="57" t="s">
         <v>661</v>
       </c>
@@ -21229,7 +21192,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="30">
+    <row r="374" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A374" s="57" t="s">
         <v>661</v>
       </c>
@@ -21255,7 +21218,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="30">
+    <row r="375" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A375" s="57" t="s">
         <v>661</v>
       </c>
@@ -21279,7 +21242,7 @@
       </c>
       <c r="H375" s="61"/>
     </row>
-    <row r="376" spans="1:8" ht="40">
+    <row r="376" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A376" s="57" t="s">
         <v>737</v>
       </c>
@@ -21305,7 +21268,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="40">
+    <row r="377" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A377" s="57" t="s">
         <v>737</v>
       </c>
@@ -21331,7 +21294,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="40">
+    <row r="378" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A378" s="57" t="s">
         <v>737</v>
       </c>
@@ -21357,7 +21320,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="40">
+    <row r="379" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A379" s="57" t="s">
         <v>737</v>
       </c>
@@ -21383,7 +21346,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="40">
+    <row r="380" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A380" s="57" t="s">
         <v>737</v>
       </c>
@@ -21409,7 +21372,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="40">
+    <row r="381" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A381" s="57" t="s">
         <v>737</v>
       </c>
@@ -21435,7 +21398,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="40">
+    <row r="382" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A382" s="57" t="s">
         <v>737</v>
       </c>
@@ -21461,7 +21424,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="40">
+    <row r="383" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A383" s="57" t="s">
         <v>737</v>
       </c>
@@ -21487,7 +21450,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="40">
+    <row r="384" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A384" s="57" t="s">
         <v>737</v>
       </c>
@@ -21513,7 +21476,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="40">
+    <row r="385" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A385" s="57" t="s">
         <v>737</v>
       </c>
@@ -21539,7 +21502,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="40">
+    <row r="386" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A386" s="57" t="s">
         <v>737</v>
       </c>
@@ -21565,7 +21528,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="40">
+    <row r="387" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A387" s="57" t="s">
         <v>737</v>
       </c>
@@ -21589,7 +21552,7 @@
       </c>
       <c r="H387" s="61"/>
     </row>
-    <row r="388" spans="1:8" ht="40">
+    <row r="388" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A388" s="57" t="s">
         <v>737</v>
       </c>
@@ -21615,7 +21578,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="40">
+    <row r="389" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A389" s="57" t="s">
         <v>737</v>
       </c>
@@ -21639,7 +21602,7 @@
       </c>
       <c r="H389" s="61"/>
     </row>
-    <row r="390" spans="1:8" ht="30">
+    <row r="390" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A390" s="57" t="s">
         <v>766</v>
       </c>
@@ -21665,7 +21628,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="30">
+    <row r="391" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A391" s="57" t="s">
         <v>766</v>
       </c>
@@ -21691,7 +21654,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="30">
+    <row r="392" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A392" s="57" t="s">
         <v>766</v>
       </c>
@@ -21717,7 +21680,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="30">
+    <row r="393" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A393" s="57" t="s">
         <v>766</v>
       </c>
@@ -21743,7 +21706,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="30">
+    <row r="394" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A394" s="57" t="s">
         <v>766</v>
       </c>
@@ -21769,7 +21732,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="30">
+    <row r="395" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A395" s="57" t="s">
         <v>766</v>
       </c>
@@ -21795,7 +21758,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="30">
+    <row r="396" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A396" s="57" t="s">
         <v>766</v>
       </c>
@@ -21821,7 +21784,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="30">
+    <row r="397" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A397" s="57" t="s">
         <v>766</v>
       </c>
@@ -21847,7 +21810,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="30">
+    <row r="398" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A398" s="57" t="s">
         <v>766</v>
       </c>
@@ -21873,7 +21836,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="30">
+    <row r="399" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A399" s="57" t="s">
         <v>766</v>
       </c>
@@ -21899,7 +21862,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="30">
+    <row r="400" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A400" s="57" t="s">
         <v>766</v>
       </c>
@@ -21925,7 +21888,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="30">
+    <row r="401" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A401" s="57" t="s">
         <v>766</v>
       </c>
@@ -21951,7 +21914,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="30">
+    <row r="402" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A402" s="57" t="s">
         <v>766</v>
       </c>
@@ -21977,7 +21940,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="30">
+    <row r="403" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A403" s="57" t="s">
         <v>766</v>
       </c>
@@ -22003,7 +21966,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="30">
+    <row r="404" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A404" s="57" t="s">
         <v>766</v>
       </c>
@@ -22029,7 +21992,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="30">
+    <row r="405" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A405" s="57" t="s">
         <v>766</v>
       </c>
@@ -22055,7 +22018,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="30">
+    <row r="406" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A406" s="57" t="s">
         <v>766</v>
       </c>
@@ -22081,7 +22044,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="30">
+    <row r="407" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A407" s="57" t="s">
         <v>766</v>
       </c>
@@ -22107,7 +22070,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="30">
+    <row r="408" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A408" s="57" t="s">
         <v>766</v>
       </c>
@@ -22133,7 +22096,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="30">
+    <row r="409" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A409" s="57" t="s">
         <v>766</v>
       </c>
@@ -22159,7 +22122,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="30">
+    <row r="410" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A410" s="57" t="s">
         <v>766</v>
       </c>
@@ -22183,7 +22146,7 @@
       </c>
       <c r="H410" s="61"/>
     </row>
-    <row r="411" spans="1:8" ht="30">
+    <row r="411" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A411" s="57" t="s">
         <v>766</v>
       </c>
@@ -22209,7 +22172,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="30">
+    <row r="412" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A412" s="57" t="s">
         <v>766</v>
       </c>
@@ -22235,7 +22198,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="30">
+    <row r="413" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A413" s="57" t="s">
         <v>766</v>
       </c>
@@ -22261,7 +22224,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="30">
+    <row r="414" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A414" s="57" t="s">
         <v>766</v>
       </c>
@@ -22285,7 +22248,7 @@
       </c>
       <c r="H414" s="61"/>
     </row>
-    <row r="415" spans="1:8" ht="30">
+    <row r="415" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A415" s="57" t="s">
         <v>766</v>
       </c>
@@ -22311,7 +22274,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="30">
+    <row r="416" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A416" s="57" t="s">
         <v>766</v>
       </c>
@@ -22337,7 +22300,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="30">
+    <row r="417" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A417" s="57" t="s">
         <v>766</v>
       </c>
@@ -22363,7 +22326,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="30">
+    <row r="418" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A418" s="57" t="s">
         <v>766</v>
       </c>
@@ -22389,7 +22352,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="30">
+    <row r="419" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A419" s="57" t="s">
         <v>766</v>
       </c>
@@ -22415,7 +22378,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="30">
+    <row r="420" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A420" s="57" t="s">
         <v>766</v>
       </c>
@@ -22441,7 +22404,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="30">
+    <row r="421" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A421" s="57" t="s">
         <v>766</v>
       </c>
@@ -22467,7 +22430,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="30">
+    <row r="422" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A422" s="57" t="s">
         <v>766</v>
       </c>
@@ -22493,7 +22456,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="30">
+    <row r="423" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A423" s="57" t="s">
         <v>766</v>
       </c>
@@ -22517,7 +22480,7 @@
       </c>
       <c r="H423" s="61"/>
     </row>
-    <row r="424" spans="1:8" ht="30">
+    <row r="424" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A424" s="180" t="s">
         <v>963</v>
       </c>
@@ -22541,7 +22504,7 @@
       </c>
       <c r="H424" s="175"/>
     </row>
-    <row r="425" spans="1:8" ht="30">
+    <row r="425" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A425" s="180" t="s">
         <v>963</v>
       </c>
@@ -22565,7 +22528,7 @@
       </c>
       <c r="H425" s="175"/>
     </row>
-    <row r="426" spans="1:8" ht="30">
+    <row r="426" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A426" s="180" t="s">
         <v>963</v>
       </c>
@@ -22589,7 +22552,7 @@
       </c>
       <c r="H426" s="175"/>
     </row>
-    <row r="427" spans="1:8" ht="30">
+    <row r="427" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A427" s="180" t="s">
         <v>963</v>
       </c>
@@ -22613,7 +22576,7 @@
       </c>
       <c r="H427" s="175"/>
     </row>
-    <row r="428" spans="1:8" ht="40">
+    <row r="428" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A428" s="180" t="s">
         <v>963</v>
       </c>
@@ -22639,7 +22602,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="30">
+    <row r="429" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A429" s="180" t="s">
         <v>963</v>
       </c>
@@ -22665,7 +22628,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="30">
+    <row r="430" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A430" s="180" t="s">
         <v>963</v>
       </c>
@@ -22691,7 +22654,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="30">
+    <row r="431" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A431" s="180" t="s">
         <v>963</v>
       </c>
@@ -22717,7 +22680,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="30">
+    <row r="432" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A432" s="180" t="s">
         <v>963</v>
       </c>
@@ -22743,7 +22706,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="30">
+    <row r="433" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A433" s="180" t="s">
         <v>963</v>
       </c>
@@ -22769,7 +22732,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="30">
+    <row r="434" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A434" s="180" t="s">
         <v>963</v>
       </c>
@@ -22795,7 +22758,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="30">
+    <row r="435" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A435" s="180" t="s">
         <v>963</v>
       </c>
@@ -22821,7 +22784,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="30">
+    <row r="436" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A436" s="180" t="s">
         <v>963</v>
       </c>
@@ -22847,7 +22810,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="30">
+    <row r="437" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A437" s="180" t="s">
         <v>963</v>
       </c>
@@ -22873,7 +22836,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="30">
+    <row r="438" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A438" s="180" t="s">
         <v>963</v>
       </c>
@@ -22899,7 +22862,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="30">
+    <row r="439" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A439" s="180" t="s">
         <v>963</v>
       </c>
@@ -22925,7 +22888,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="40">
+    <row r="440" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A440" s="180" t="s">
         <v>963</v>
       </c>
@@ -22951,7 +22914,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="30">
+    <row r="441" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A441" s="180" t="s">
         <v>963</v>
       </c>
@@ -22977,7 +22940,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="30">
+    <row r="442" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A442" s="180" t="s">
         <v>963</v>
       </c>
@@ -23003,7 +22966,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="30">
+    <row r="443" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A443" s="180" t="s">
         <v>963</v>
       </c>
@@ -23029,7 +22992,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="30">
+    <row r="444" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A444" s="180" t="s">
         <v>963</v>
       </c>
@@ -23053,7 +23016,7 @@
       </c>
       <c r="H444" s="175"/>
     </row>
-    <row r="445" spans="1:8" ht="30">
+    <row r="445" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A445" s="180" t="s">
         <v>963</v>
       </c>
@@ -23077,7 +23040,7 @@
       </c>
       <c r="H445" s="175"/>
     </row>
-    <row r="446" spans="1:8" ht="30">
+    <row r="446" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A446" s="180" t="s">
         <v>963</v>
       </c>
@@ -23101,7 +23064,7 @@
       </c>
       <c r="H446" s="175"/>
     </row>
-    <row r="447" spans="1:8" ht="30">
+    <row r="447" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A447" s="180" t="s">
         <v>963</v>
       </c>
@@ -23125,7 +23088,7 @@
       </c>
       <c r="H447" s="175"/>
     </row>
-    <row r="448" spans="1:8" ht="30">
+    <row r="448" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A448" s="180" t="s">
         <v>963</v>
       </c>
@@ -23151,7 +23114,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="30">
+    <row r="449" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A449" s="180" t="s">
         <v>963</v>
       </c>
@@ -23177,7 +23140,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="30">
+    <row r="450" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A450" s="180" t="s">
         <v>963</v>
       </c>
@@ -23203,7 +23166,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="30">
+    <row r="451" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A451" s="180" t="s">
         <v>963</v>
       </c>
@@ -23229,7 +23192,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="30">
+    <row r="452" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A452" s="180" t="s">
         <v>963</v>
       </c>
@@ -23270,17 +23233,12 @@
   <ignoredErrors>
     <ignoredError sqref="A2" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
@@ -23291,16 +23249,16 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.796875" style="41" customWidth="1"/>
-    <col min="2" max="2" width="40.3984375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="52.19921875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="36.19921875" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="16.796875" style="41"/>
+    <col min="1" max="1" width="41.83203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="41" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.83203125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>76</v>
       </c>
@@ -23312,7 +23270,7 @@
       </c>
       <c r="D1" s="40"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
         <v>94</v>
       </c>
@@ -23323,7 +23281,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
         <v>50</v>
       </c>
@@ -23334,7 +23292,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="22">
+    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
         <v>462</v>
       </c>
@@ -23345,7 +23303,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22">
+    <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
         <v>70</v>
       </c>
@@ -23356,7 +23314,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
         <v>838</v>
       </c>
@@ -23367,7 +23325,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
         <v>841</v>
       </c>
@@ -23378,7 +23336,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
         <v>844</v>
       </c>
@@ -23389,7 +23347,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12">
+    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="99" t="s">
         <v>415</v>
       </c>
@@ -23401,17 +23359,17 @@
       </c>
       <c r="D9" s="42"/>
     </row>
-    <row r="10" spans="1:4" ht="12">
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="C10" s="44"/>
       <c r="D10" s="42"/>
     </row>
-    <row r="11" spans="1:4" ht="12">
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="42"/>
       <c r="C11" s="43"/>
       <c r="D11" s="42"/>
     </row>
-    <row r="12" spans="1:4" ht="12">
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="42"/>
       <c r="C12" s="44"/>
       <c r="D12" s="42"/>
@@ -23419,17 +23377,12 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:G78"/>
@@ -23440,16 +23393,16 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.796875" style="108"/>
+    <col min="1" max="1" width="16.83203125" style="108"/>
     <col min="2" max="2" width="37" style="108" customWidth="1"/>
-    <col min="3" max="3" width="16.796875" style="108"/>
-    <col min="4" max="4" width="24.3984375" style="108" customWidth="1"/>
-    <col min="5" max="16384" width="16.796875" style="108"/>
+    <col min="3" max="3" width="16.83203125" style="108"/>
+    <col min="4" max="4" width="24.5" style="108" customWidth="1"/>
+    <col min="5" max="16384" width="16.83203125" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="104" t="s">
         <v>900</v>
       </c>
@@ -23470,7 +23423,7 @@
       </c>
       <c r="G1" s="107"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="109">
         <v>1</v>
       </c>
@@ -23490,7 +23443,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="109">
         <v>2</v>
       </c>
@@ -23510,7 +23463,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="109">
         <v>3</v>
       </c>
@@ -23528,7 +23481,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="109">
         <v>4</v>
       </c>
@@ -23542,7 +23495,7 @@
       </c>
       <c r="F5" s="111"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="109">
         <v>5</v>
       </c>
@@ -23556,7 +23509,7 @@
       </c>
       <c r="F6" s="111"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="109">
         <v>6</v>
       </c>
@@ -23570,7 +23523,7 @@
       </c>
       <c r="F7" s="117"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="109">
         <v>7</v>
       </c>
@@ -23584,7 +23537,7 @@
       </c>
       <c r="F8" s="117"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="109">
         <v>8</v>
       </c>
@@ -23598,7 +23551,7 @@
       </c>
       <c r="F9" s="117"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="109">
         <v>9</v>
       </c>
@@ -23612,7 +23565,7 @@
       </c>
       <c r="F10" s="117"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="109">
         <v>10</v>
       </c>
@@ -23626,7 +23579,7 @@
       </c>
       <c r="F11" s="117"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="109">
         <v>11</v>
       </c>
@@ -23640,7 +23593,7 @@
       </c>
       <c r="F12" s="117"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="109">
         <v>12</v>
       </c>
@@ -23654,7 +23607,7 @@
       </c>
       <c r="F13" s="117"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="109">
         <v>13</v>
       </c>
@@ -23668,7 +23621,7 @@
       </c>
       <c r="F14" s="117"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="109">
         <v>14</v>
       </c>
@@ -23682,7 +23635,7 @@
       </c>
       <c r="F15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="109">
         <v>15</v>
       </c>
@@ -23696,7 +23649,7 @@
       </c>
       <c r="F16" s="117"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="109">
         <v>16</v>
       </c>
@@ -23710,7 +23663,7 @@
       </c>
       <c r="F17" s="117"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="109">
         <v>17</v>
       </c>
@@ -23724,7 +23677,7 @@
       </c>
       <c r="F18" s="117"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="109">
         <v>18</v>
       </c>
@@ -23736,7 +23689,7 @@
       <c r="E19" s="117"/>
       <c r="F19" s="117"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="109">
         <v>19</v>
       </c>
@@ -23750,7 +23703,7 @@
       </c>
       <c r="F20" s="117"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="109">
         <v>20</v>
       </c>
@@ -23764,7 +23717,7 @@
       </c>
       <c r="F21" s="117"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="109">
         <v>21</v>
       </c>
@@ -23778,7 +23731,7 @@
       </c>
       <c r="F22" s="117"/>
     </row>
-    <row r="23" spans="1:6" ht="12">
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="109">
         <v>22</v>
       </c>
@@ -23796,7 +23749,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12">
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="109">
         <v>23</v>
       </c>
@@ -23808,7 +23761,7 @@
       <c r="E24" s="117"/>
       <c r="F24" s="117"/>
     </row>
-    <row r="25" spans="1:6" ht="12">
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="109">
         <v>24</v>
       </c>
@@ -23826,7 +23779,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12">
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="109">
         <v>25</v>
       </c>
@@ -23844,7 +23797,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12">
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="109">
         <v>26</v>
       </c>
@@ -23856,7 +23809,7 @@
       <c r="E27" s="117"/>
       <c r="F27" s="117"/>
     </row>
-    <row r="28" spans="1:6" ht="12">
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="109">
         <v>27</v>
       </c>
@@ -23870,7 +23823,7 @@
       </c>
       <c r="F28" s="117"/>
     </row>
-    <row r="29" spans="1:6" ht="13" thickBot="1">
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="124">
         <v>28</v>
       </c>
@@ -23884,7 +23837,7 @@
       </c>
       <c r="F29" s="128"/>
     </row>
-    <row r="30" spans="1:6" ht="12">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="129">
         <v>29</v>
       </c>
@@ -23898,7 +23851,7 @@
       <c r="E30" s="130"/>
       <c r="F30" s="133"/>
     </row>
-    <row r="31" spans="1:6" ht="12">
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="134">
         <v>30</v>
       </c>
@@ -23912,7 +23865,7 @@
       <c r="E31" s="138"/>
       <c r="F31" s="139"/>
     </row>
-    <row r="32" spans="1:6" ht="12">
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="134">
         <v>31</v>
       </c>
@@ -23924,7 +23877,7 @@
       <c r="E32" s="138"/>
       <c r="F32" s="139"/>
     </row>
-    <row r="33" spans="1:6" ht="12">
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="134">
         <v>32</v>
       </c>
@@ -23936,7 +23889,7 @@
       <c r="E33" s="138"/>
       <c r="F33" s="139"/>
     </row>
-    <row r="34" spans="1:6" ht="12">
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="134">
         <v>33</v>
       </c>
@@ -23948,7 +23901,7 @@
       <c r="E34" s="138"/>
       <c r="F34" s="139"/>
     </row>
-    <row r="35" spans="1:6" ht="12">
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="134">
         <v>34</v>
       </c>
@@ -23960,7 +23913,7 @@
       <c r="E35" s="138"/>
       <c r="F35" s="139"/>
     </row>
-    <row r="36" spans="1:6" ht="12">
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="134">
         <v>35</v>
       </c>
@@ -23972,7 +23925,7 @@
       <c r="E36" s="138"/>
       <c r="F36" s="139"/>
     </row>
-    <row r="37" spans="1:6" ht="12">
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="134">
         <v>36</v>
       </c>
@@ -23984,7 +23937,7 @@
       <c r="E37" s="138"/>
       <c r="F37" s="139"/>
     </row>
-    <row r="38" spans="1:6" ht="13" thickBot="1">
+    <row r="38" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="144">
         <v>37</v>
       </c>
@@ -23996,7 +23949,7 @@
       <c r="E38" s="147"/>
       <c r="F38" s="148"/>
     </row>
-    <row r="39" spans="1:6" ht="12">
+    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="129">
         <v>38</v>
       </c>
@@ -24008,7 +23961,7 @@
       <c r="E39" s="130"/>
       <c r="F39" s="133"/>
     </row>
-    <row r="40" spans="1:6" ht="12">
+    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="151">
         <v>39</v>
       </c>
@@ -24020,7 +23973,7 @@
       <c r="E40" s="153"/>
       <c r="F40" s="139"/>
     </row>
-    <row r="41" spans="1:6" ht="12">
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="134">
         <v>40</v>
       </c>
@@ -24032,7 +23985,7 @@
       <c r="E41" s="153"/>
       <c r="F41" s="139"/>
     </row>
-    <row r="42" spans="1:6" ht="12">
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="151">
         <v>41</v>
       </c>
@@ -24044,7 +23997,7 @@
       <c r="E42" s="153"/>
       <c r="F42" s="139"/>
     </row>
-    <row r="43" spans="1:6" ht="12">
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="134">
         <v>42</v>
       </c>
@@ -24056,7 +24009,7 @@
       <c r="E43" s="153"/>
       <c r="F43" s="139"/>
     </row>
-    <row r="44" spans="1:6" ht="12">
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="151">
         <v>43</v>
       </c>
@@ -24068,7 +24021,7 @@
       <c r="E44" s="153"/>
       <c r="F44" s="139"/>
     </row>
-    <row r="45" spans="1:6" ht="12">
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="134">
         <v>44</v>
       </c>
@@ -24080,7 +24033,7 @@
       <c r="E45" s="153"/>
       <c r="F45" s="139"/>
     </row>
-    <row r="46" spans="1:6" ht="12">
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="151">
         <v>45</v>
       </c>
@@ -24092,7 +24045,7 @@
       <c r="E46" s="153"/>
       <c r="F46" s="139"/>
     </row>
-    <row r="47" spans="1:6" ht="12">
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="134">
         <v>46</v>
       </c>
@@ -24104,7 +24057,7 @@
       <c r="E47" s="153"/>
       <c r="F47" s="139"/>
     </row>
-    <row r="48" spans="1:6" ht="12">
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="151">
         <v>47</v>
       </c>
@@ -24116,7 +24069,7 @@
       <c r="E48" s="153"/>
       <c r="F48" s="139"/>
     </row>
-    <row r="49" spans="1:6" ht="12">
+    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="134">
         <v>48</v>
       </c>
@@ -24128,7 +24081,7 @@
       <c r="E49" s="153"/>
       <c r="F49" s="139"/>
     </row>
-    <row r="50" spans="1:6" ht="12">
+    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="151">
         <v>49</v>
       </c>
@@ -24140,7 +24093,7 @@
       <c r="E50" s="153"/>
       <c r="F50" s="139"/>
     </row>
-    <row r="51" spans="1:6" ht="12">
+    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="134">
         <v>50</v>
       </c>
@@ -24152,7 +24105,7 @@
       <c r="E51" s="153"/>
       <c r="F51" s="139"/>
     </row>
-    <row r="52" spans="1:6" ht="12">
+    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="151">
         <v>51</v>
       </c>
@@ -24164,7 +24117,7 @@
       <c r="E52" s="153"/>
       <c r="F52" s="139"/>
     </row>
-    <row r="53" spans="1:6" ht="13" thickBot="1">
+    <row r="53" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="156">
         <v>52</v>
       </c>
@@ -24176,7 +24129,7 @@
       <c r="E53" s="158"/>
       <c r="F53" s="160"/>
     </row>
-    <row r="54" spans="1:6" ht="12">
+    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="109">
         <v>53</v>
       </c>
@@ -24190,7 +24143,7 @@
       </c>
       <c r="F54" s="117"/>
     </row>
-    <row r="55" spans="1:6" ht="12">
+    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="161">
         <v>54</v>
       </c>
@@ -24202,7 +24155,7 @@
       <c r="E55" s="163"/>
       <c r="F55" s="163"/>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="161">
         <v>55</v>
       </c>
@@ -24214,7 +24167,7 @@
       <c r="E56" s="163"/>
       <c r="F56" s="163"/>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="161">
         <v>56</v>
       </c>
@@ -24228,7 +24181,7 @@
       </c>
       <c r="F57" s="163"/>
     </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="161">
         <v>57</v>
       </c>
@@ -24244,7 +24197,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="165">
         <v>58</v>
       </c>
@@ -24258,7 +24211,7 @@
       </c>
       <c r="F59" s="165"/>
     </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="161">
         <v>59</v>
       </c>
@@ -24270,7 +24223,7 @@
       <c r="E60" s="165"/>
       <c r="F60" s="165"/>
     </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1">
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="161">
         <v>60</v>
       </c>
@@ -24282,7 +24235,7 @@
       <c r="E61" s="165"/>
       <c r="F61" s="165"/>
     </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="161">
         <v>61</v>
       </c>
@@ -24294,7 +24247,7 @@
       <c r="E62" s="165"/>
       <c r="F62" s="165"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="161">
         <v>62</v>
       </c>
@@ -24308,7 +24261,7 @@
       </c>
       <c r="F63" s="165"/>
     </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1">
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="161">
         <v>63</v>
       </c>
@@ -24320,7 +24273,7 @@
       <c r="E64" s="165"/>
       <c r="F64" s="165"/>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="161">
         <v>64</v>
       </c>
@@ -24332,7 +24285,7 @@
       <c r="E65" s="165"/>
       <c r="F65" s="165"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="161">
         <v>65</v>
       </c>
@@ -24344,7 +24297,7 @@
       <c r="E66" s="165"/>
       <c r="F66" s="165"/>
     </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="161">
         <v>66</v>
       </c>
@@ -24356,7 +24309,7 @@
       <c r="E67" s="165"/>
       <c r="F67" s="165"/>
     </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="161">
         <v>67</v>
       </c>
@@ -24372,7 +24325,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="161">
         <v>68</v>
       </c>
@@ -24388,7 +24341,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="161">
         <v>69</v>
       </c>
@@ -24404,7 +24357,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="161">
         <v>70</v>
       </c>
@@ -24418,7 +24371,7 @@
       </c>
       <c r="F71" s="165"/>
     </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="161">
         <v>71</v>
       </c>
@@ -24432,7 +24385,7 @@
       </c>
       <c r="F72" s="163"/>
     </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1">
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="161">
         <v>72</v>
       </c>
@@ -24446,7 +24399,7 @@
       </c>
       <c r="F73" s="163"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="161">
         <v>73</v>
       </c>
@@ -24460,7 +24413,7 @@
       </c>
       <c r="F74" s="163"/>
     </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="161">
         <v>74</v>
       </c>
@@ -24472,7 +24425,7 @@
       <c r="E75" s="163"/>
       <c r="F75" s="163"/>
     </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="161">
         <v>75</v>
       </c>
@@ -24486,7 +24439,7 @@
       </c>
       <c r="F76" s="163"/>
     </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="161">
         <v>76</v>
       </c>
@@ -24502,7 +24455,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="161">
         <v>77</v>
       </c>
@@ -24520,11 +24473,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sspmi/data.xlsx
+++ b/sspmi/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="285" windowWidth="14535" windowHeight="7365" tabRatio="748" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="285" windowWidth="14535" windowHeight="7365" tabRatio="748" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="16" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4388" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="1022">
   <si>
     <t>distribution_identifier</t>
   </si>
@@ -2843,9 +2843,6 @@
     <t>2017-09-25</t>
   </si>
   <si>
-    <t>https://minhacienda.gob.ar/datos/</t>
-  </si>
-  <si>
     <t>Indicadores forestales, muebles y papel en valores trimestrales</t>
   </si>
   <si>
@@ -3210,6 +3207,12 @@
   </si>
   <si>
     <t>población, tasa, mortalidad, natalidad, alumnos, empleo, depósitos, préstamos, gastos, recursos, datos provinciales</t>
+  </si>
+  <si>
+    <t>2017-09-26</t>
+  </si>
+  <si>
+    <t>https://www.minhacienda.gob.ar/secretarias/politica-economica/programacion-microeconomica/datos-microeconomicos/</t>
   </si>
 </sst>
 </file>
@@ -4749,7 +4752,7 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5220,9 +5223,6 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="40" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6279,11 +6279,11 @@
   <dimension ref="A1:AA97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" sqref="A1:XFD1"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9176,8 +9176,8 @@
   </sheetPr>
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showGridLines="0" topLeftCell="O1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9296,7 +9296,7 @@
         <v>71</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="K2" s="35" t="s">
         <v>32</v>
@@ -9356,7 +9356,7 @@
         <v>85</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>32</v>
@@ -9416,7 +9416,7 @@
         <v>114</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="K4" s="65" t="s">
         <v>32</v>
@@ -9476,7 +9476,7 @@
         <v>169</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="K5" s="65" t="s">
         <v>32</v>
@@ -9536,7 +9536,7 @@
         <v>169</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K6" s="65" t="s">
         <v>32</v>
@@ -9596,7 +9596,7 @@
         <v>340</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K7" s="65" t="s">
         <v>32</v>
@@ -9656,7 +9656,7 @@
         <v>443</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K8" s="65" t="s">
         <v>32</v>
@@ -9716,7 +9716,7 @@
         <v>476</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="K9" s="65" t="s">
         <v>32</v>
@@ -9776,7 +9776,7 @@
         <v>340</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="K10" s="65" t="s">
         <v>32</v>
@@ -9836,7 +9836,7 @@
         <v>340</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K11" s="65" t="s">
         <v>32</v>
@@ -9896,7 +9896,7 @@
         <v>641</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K12" s="65" t="s">
         <v>32</v>
@@ -9956,7 +9956,7 @@
         <v>169</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K13" s="85" t="s">
         <v>32</v>
@@ -10016,7 +10016,7 @@
         <v>114</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K14" s="65" t="s">
         <v>32</v>
@@ -10076,16 +10076,16 @@
         <v>85</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K15" s="65" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="48" t="s">
-        <v>897</v>
+        <v>1020</v>
       </c>
       <c r="M15" s="48" t="s">
-        <v>897</v>
+        <v>1020</v>
       </c>
       <c r="N15" s="65" t="s">
         <v>33</v>
@@ -10109,13 +10109,13 @@
     </row>
     <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A16" s="167" t="s">
+        <v>962</v>
+      </c>
+      <c r="B16" s="59" t="s">
         <v>963</v>
       </c>
-      <c r="B16" s="59" t="s">
-        <v>964</v>
-      </c>
       <c r="C16" s="59" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D16" s="168" t="s">
         <v>36</v>
@@ -10133,19 +10133,19 @@
         <v>31</v>
       </c>
       <c r="I16" s="170" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J16" s="67" t="s">
         <v>1019</v>
-      </c>
-      <c r="J16" s="67" t="s">
-        <v>1020</v>
       </c>
       <c r="K16" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="171" t="s">
-        <v>897</v>
-      </c>
-      <c r="M16" s="171" t="s">
-        <v>897</v>
+      <c r="L16" s="48" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M16" s="48" t="s">
+        <v>1020</v>
       </c>
       <c r="N16" s="169" t="s">
         <v>33</v>
@@ -10153,15 +10153,15 @@
       <c r="O16" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="172" t="s">
-        <v>965</v>
-      </c>
-      <c r="Q16" s="173" t="s">
+      <c r="P16" s="171" t="s">
+        <v>964</v>
+      </c>
+      <c r="Q16" s="172" t="s">
         <v>38</v>
       </c>
       <c r="R16" s="49"/>
       <c r="S16" s="67" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="T16" s="169" t="s">
         <v>35</v>
@@ -10187,12 +10187,12 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E14" sqref="E14"/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35:N36"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10275,7 +10275,7 @@
         <v>56</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>49</v>
@@ -10294,7 +10294,7 @@
       </c>
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>51</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>57</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>49</v>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>51</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>63</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>49</v>
@@ -10366,7 +10366,7 @@
       </c>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
         <v>82</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>89</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G5" s="54" t="s">
         <v>49</v>
@@ -10402,7 +10402,7 @@
       </c>
       <c r="N5" s="49"/>
     </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>82</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>91</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G6" s="54" t="s">
         <v>49</v>
@@ -10438,7 +10438,7 @@
       </c>
       <c r="N6" s="49"/>
     </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
         <v>112</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>118</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G7" s="54" t="s">
         <v>49</v>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="N7" s="49"/>
     </row>
-    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
         <v>112</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>120</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G8" s="54" t="s">
         <v>49</v>
@@ -10510,7 +10510,7 @@
       </c>
       <c r="N8" s="49"/>
     </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
         <v>112</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>122</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G9" s="54" t="s">
         <v>49</v>
@@ -10546,7 +10546,7 @@
       </c>
       <c r="N9" s="49"/>
     </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
         <v>167</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>173</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>49</v>
@@ -10582,7 +10582,7 @@
       </c>
       <c r="N10" s="49"/>
     </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
         <v>167</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>175</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>49</v>
@@ -10618,7 +10618,7 @@
       </c>
       <c r="N11" s="49"/>
     </row>
-    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
         <v>167</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>177</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>49</v>
@@ -10654,7 +10654,7 @@
       </c>
       <c r="N12" s="49"/>
     </row>
-    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
         <v>215</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>220</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>49</v>
@@ -10690,7 +10690,7 @@
       </c>
       <c r="N13" s="49"/>
     </row>
-    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
         <v>215</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>222</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>49</v>
@@ -10726,7 +10726,7 @@
       </c>
       <c r="N14" s="49"/>
     </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A15" s="50" t="s">
         <v>215</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>225</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G15" s="54" t="s">
         <v>49</v>
@@ -10762,7 +10762,7 @@
       </c>
       <c r="N15" s="49"/>
     </row>
-    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
         <v>338</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>344</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G16" s="54" t="s">
         <v>49</v>
@@ -10798,7 +10798,7 @@
       </c>
       <c r="N16" s="49"/>
     </row>
-    <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
         <v>338</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>346</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G17" s="54" t="s">
         <v>49</v>
@@ -10834,7 +10834,7 @@
       </c>
       <c r="N17" s="49"/>
     </row>
-    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
         <v>441</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>447</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G18" s="54" t="s">
         <v>49</v>
@@ -10870,7 +10870,7 @@
       </c>
       <c r="N18" s="49"/>
     </row>
-    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A19" s="50" t="s">
         <v>95</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>480</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G19" s="54" t="s">
         <v>49</v>
@@ -10906,7 +10906,7 @@
       </c>
       <c r="N19" s="49"/>
     </row>
-    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A20" s="50" t="s">
         <v>95</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>482</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G20" s="54" t="s">
         <v>49</v>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="N20" s="49"/>
     </row>
-    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
         <v>72</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>506</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G21" s="54" t="s">
         <v>49</v>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="N21" s="49"/>
     </row>
-    <row r="22" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A22" s="50" t="s">
         <v>72</v>
       </c>
@@ -10989,13 +10989,13 @@
         <v>507</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E22" s="53" t="s">
         <v>508</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G22" s="54" t="s">
         <v>49</v>
@@ -11014,7 +11014,7 @@
       </c>
       <c r="N22" s="49"/>
     </row>
-    <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
         <v>618</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>623</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G23" s="54" t="s">
         <v>49</v>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="N23" s="49"/>
     </row>
-    <row r="24" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
         <v>618</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>626</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G24" s="54" t="s">
         <v>49</v>
@@ -11086,7 +11086,7 @@
       </c>
       <c r="N24" s="49"/>
     </row>
-    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
         <v>639</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>645</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G25" s="54" t="s">
         <v>49</v>
@@ -11122,7 +11122,7 @@
       </c>
       <c r="N25" s="49"/>
     </row>
-    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
         <v>639</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>647</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G26" s="54" t="s">
         <v>49</v>
@@ -11158,7 +11158,7 @@
       </c>
       <c r="N26" s="49"/>
     </row>
-    <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
         <v>639</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>649</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G27" s="54" t="s">
         <v>49</v>
@@ -11194,7 +11194,7 @@
       </c>
       <c r="N27" s="49"/>
     </row>
-    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
         <v>661</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>666</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G28" s="54" t="s">
         <v>49</v>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="N28" s="49"/>
     </row>
-    <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A29" s="50" t="s">
         <v>661</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>668</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G29" s="54" t="s">
         <v>49</v>
@@ -11266,7 +11266,7 @@
       </c>
       <c r="N29" s="49"/>
     </row>
-    <row r="30" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A30" s="50" t="s">
         <v>737</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>741</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G30" s="54" t="s">
         <v>49</v>
@@ -11302,7 +11302,7 @@
       </c>
       <c r="N30" s="49"/>
     </row>
-    <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
         <v>737</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>743</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G31" s="54" t="s">
         <v>49</v>
@@ -11338,7 +11338,7 @@
       </c>
       <c r="N31" s="86"/>
     </row>
-    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A32" s="50" t="s">
         <v>766</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>771</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G32" s="54" t="s">
         <v>49</v>
@@ -11374,7 +11374,7 @@
       </c>
       <c r="N32" s="49"/>
     </row>
-    <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A33" s="50" t="s">
         <v>766</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>773</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G33" s="54" t="s">
         <v>49</v>
@@ -11410,7 +11410,7 @@
       </c>
       <c r="N33" s="49"/>
     </row>
-    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>766</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>775</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="G34" s="54" t="s">
         <v>49</v>
@@ -11446,76 +11446,81 @@
       </c>
       <c r="N34" s="49"/>
     </row>
-    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A35" s="167" t="s">
+        <v>962</v>
+      </c>
+      <c r="B35" s="59" t="s">
         <v>963</v>
       </c>
-      <c r="B35" s="59" t="s">
-        <v>964</v>
-      </c>
       <c r="C35" s="169" t="s">
+        <v>966</v>
+      </c>
+      <c r="D35" s="67" t="s">
         <v>967</v>
       </c>
-      <c r="D35" s="67" t="s">
-        <v>968</v>
-      </c>
       <c r="E35" s="67" t="s">
-        <v>968</v>
-      </c>
-      <c r="F35" s="173" t="s">
-        <v>898</v>
-      </c>
-      <c r="G35" s="174" t="s">
+        <v>967</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G35" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="173" t="s">
+      <c r="H35" s="172" t="s">
         <v>38</v>
       </c>
       <c r="I35" s="56"/>
       <c r="J35" s="49"/>
       <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
+      <c r="L35" s="48" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M35" s="48" t="s">
+        <v>1020</v>
+      </c>
       <c r="N35" s="49"/>
     </row>
-    <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A36" s="167" t="s">
+        <v>962</v>
+      </c>
+      <c r="B36" s="59" t="s">
         <v>963</v>
       </c>
-      <c r="B36" s="59" t="s">
-        <v>964</v>
-      </c>
       <c r="C36" s="169" t="s">
+        <v>968</v>
+      </c>
+      <c r="D36" s="67" t="s">
         <v>969</v>
       </c>
-      <c r="D36" s="67" t="s">
-        <v>970</v>
-      </c>
       <c r="E36" s="67" t="s">
-        <v>970</v>
-      </c>
-      <c r="F36" s="173" t="s">
-        <v>898</v>
-      </c>
-      <c r="G36" s="174" t="s">
+        <v>969</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G36" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="H36" s="173" t="s">
+      <c r="H36" s="172" t="s">
         <v>38</v>
       </c>
       <c r="I36" s="56"/>
       <c r="J36" s="49"/>
       <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
+      <c r="L36" s="48" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M36" s="48" t="s">
+        <v>1020</v>
+      </c>
       <c r="N36" s="49"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3:F34" r:id="rId2" display="https://minhacienda.gob.ar/datos/"/>
-    <hyperlink ref="F35" r:id="rId3"/>
-    <hyperlink ref="F36" r:id="rId4"/>
+    <hyperlink ref="F3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294"/>
@@ -19501,7 +19506,7 @@
         <v>507</v>
       </c>
       <c r="D308" s="53" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E308" s="67" t="s">
         <v>557</v>
@@ -19527,7 +19532,7 @@
         <v>507</v>
       </c>
       <c r="D309" s="53" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E309" s="67" t="s">
         <v>559</v>
@@ -19553,7 +19558,7 @@
         <v>507</v>
       </c>
       <c r="D310" s="53" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E310" s="67" t="s">
         <v>561</v>
@@ -19579,7 +19584,7 @@
         <v>507</v>
       </c>
       <c r="D311" s="53" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E311" s="67" t="s">
         <v>563</v>
@@ -19605,7 +19610,7 @@
         <v>507</v>
       </c>
       <c r="D312" s="53" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E312" s="67" t="s">
         <v>565</v>
@@ -19631,7 +19636,7 @@
         <v>507</v>
       </c>
       <c r="D313" s="53" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E313" s="67" t="s">
         <v>567</v>
@@ -19657,7 +19662,7 @@
         <v>507</v>
       </c>
       <c r="D314" s="53" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E314" s="67" t="s">
         <v>569</v>
@@ -19683,7 +19688,7 @@
         <v>507</v>
       </c>
       <c r="D315" s="53" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E315" s="67" t="s">
         <v>571</v>
@@ -19709,7 +19714,7 @@
         <v>507</v>
       </c>
       <c r="D316" s="53" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E316" s="67" t="s">
         <v>573</v>
@@ -19735,7 +19740,7 @@
         <v>507</v>
       </c>
       <c r="D317" s="53" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E317" s="67" t="s">
         <v>575</v>
@@ -19761,7 +19766,7 @@
         <v>507</v>
       </c>
       <c r="D318" s="53" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E318" s="67" t="s">
         <v>577</v>
@@ -19787,7 +19792,7 @@
         <v>507</v>
       </c>
       <c r="D319" s="53" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E319" s="67" t="s">
         <v>579</v>
@@ -19813,7 +19818,7 @@
         <v>507</v>
       </c>
       <c r="D320" s="53" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E320" s="67" t="s">
         <v>1</v>
@@ -22481,741 +22486,741 @@
       <c r="H423" s="61"/>
     </row>
     <row r="424" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A424" s="180" t="s">
+      <c r="A424" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B424" s="103" t="s">
         <v>963</v>
       </c>
-      <c r="B424" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C424" s="176" t="s">
+      <c r="C424" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D424" s="177" t="s">
         <v>967</v>
       </c>
-      <c r="D424" s="178" t="s">
+      <c r="E424" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="F424" s="174" t="s">
+        <v>9</v>
+      </c>
+      <c r="G424" s="174" t="s">
+        <v>10</v>
+      </c>
+      <c r="H424" s="174"/>
+    </row>
+    <row r="425" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A425" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B425" s="174" t="s">
+        <v>963</v>
+      </c>
+      <c r="C425" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D425" s="176" t="s">
+        <v>967</v>
+      </c>
+      <c r="E425" s="176" t="s">
+        <v>970</v>
+      </c>
+      <c r="F425" s="174" t="s">
+        <v>971</v>
+      </c>
+      <c r="G425" s="174" t="s">
+        <v>972</v>
+      </c>
+      <c r="H425" s="174"/>
+    </row>
+    <row r="426" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A426" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B426" s="174" t="s">
+        <v>963</v>
+      </c>
+      <c r="C426" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D426" s="176" t="s">
+        <v>967</v>
+      </c>
+      <c r="E426" s="176" t="s">
+        <v>973</v>
+      </c>
+      <c r="F426" s="174" t="s">
+        <v>971</v>
+      </c>
+      <c r="G426" s="174" t="s">
+        <v>974</v>
+      </c>
+      <c r="H426" s="174"/>
+    </row>
+    <row r="427" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A427" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B427" s="174" t="s">
+        <v>963</v>
+      </c>
+      <c r="C427" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D427" s="176" t="s">
+        <v>967</v>
+      </c>
+      <c r="E427" s="176" t="s">
+        <v>975</v>
+      </c>
+      <c r="F427" s="174" t="s">
+        <v>971</v>
+      </c>
+      <c r="G427" s="174" t="s">
+        <v>976</v>
+      </c>
+      <c r="H427" s="174"/>
+    </row>
+    <row r="428" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A428" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B428" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C428" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D428" s="177" t="s">
+        <v>967</v>
+      </c>
+      <c r="E428" s="176" t="s">
+        <v>977</v>
+      </c>
+      <c r="F428" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G428" s="174" t="s">
+        <v>978</v>
+      </c>
+      <c r="H428" s="180" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A429" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B429" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C429" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D429" s="177" t="s">
+        <v>967</v>
+      </c>
+      <c r="E429" s="176" t="s">
+        <v>979</v>
+      </c>
+      <c r="F429" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G429" s="174" t="s">
+        <v>980</v>
+      </c>
+      <c r="H429" s="180" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A430" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B430" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C430" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D430" s="177" t="s">
+        <v>967</v>
+      </c>
+      <c r="E430" s="176" t="s">
+        <v>981</v>
+      </c>
+      <c r="F430" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G430" s="174" t="s">
+        <v>982</v>
+      </c>
+      <c r="H430" s="180" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A431" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B431" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C431" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D431" s="177" t="s">
+        <v>967</v>
+      </c>
+      <c r="E431" s="176" t="s">
+        <v>983</v>
+      </c>
+      <c r="F431" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G431" s="174" t="s">
+        <v>984</v>
+      </c>
+      <c r="H431" s="174" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A432" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B432" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C432" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D432" s="177" t="s">
+        <v>967</v>
+      </c>
+      <c r="E432" s="176" t="s">
+        <v>985</v>
+      </c>
+      <c r="F432" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G432" s="174" t="s">
+        <v>986</v>
+      </c>
+      <c r="H432" s="180" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A433" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B433" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C433" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D433" s="177" t="s">
+        <v>967</v>
+      </c>
+      <c r="E433" s="176" t="s">
+        <v>987</v>
+      </c>
+      <c r="F433" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G433" s="174" t="s">
+        <v>988</v>
+      </c>
+      <c r="H433" s="180" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A434" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B434" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C434" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D434" s="177" t="s">
+        <v>967</v>
+      </c>
+      <c r="E434" s="176" t="s">
+        <v>989</v>
+      </c>
+      <c r="F434" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G434" s="174" t="s">
+        <v>990</v>
+      </c>
+      <c r="H434" s="180" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A435" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B435" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C435" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D435" s="177" t="s">
+        <v>967</v>
+      </c>
+      <c r="E435" s="176" t="s">
+        <v>991</v>
+      </c>
+      <c r="F435" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G435" s="174" t="s">
+        <v>992</v>
+      </c>
+      <c r="H435" s="180" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A436" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B436" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C436" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D436" s="177" t="s">
+        <v>967</v>
+      </c>
+      <c r="E436" s="176" t="s">
+        <v>993</v>
+      </c>
+      <c r="F436" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G436" s="174" t="s">
+        <v>994</v>
+      </c>
+      <c r="H436" s="174" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A437" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B437" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C437" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D437" s="177" t="s">
+        <v>967</v>
+      </c>
+      <c r="E437" s="176" t="s">
+        <v>995</v>
+      </c>
+      <c r="F437" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G437" s="174" t="s">
+        <v>996</v>
+      </c>
+      <c r="H437" s="174" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A438" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B438" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C438" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D438" s="177" t="s">
+        <v>967</v>
+      </c>
+      <c r="E438" s="176" t="s">
+        <v>997</v>
+      </c>
+      <c r="F438" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G438" s="174" t="s">
+        <v>998</v>
+      </c>
+      <c r="H438" s="174" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A439" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B439" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C439" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D439" s="177" t="s">
+        <v>967</v>
+      </c>
+      <c r="E439" s="176" t="s">
+        <v>999</v>
+      </c>
+      <c r="F439" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G439" s="174" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H439" s="181" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A440" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B440" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C440" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D440" s="177" t="s">
+        <v>967</v>
+      </c>
+      <c r="E440" s="176" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F440" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G440" s="174" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H440" s="178" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A441" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B441" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C441" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D441" s="177" t="s">
+        <v>967</v>
+      </c>
+      <c r="E441" s="176" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F441" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G441" s="174" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H441" s="178" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A442" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B442" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C442" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D442" s="177" t="s">
+        <v>967</v>
+      </c>
+      <c r="E442" s="176" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F442" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G442" s="174" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H442" s="178" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A443" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B443" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C443" s="175" t="s">
+        <v>966</v>
+      </c>
+      <c r="D443" s="177" t="s">
+        <v>967</v>
+      </c>
+      <c r="E443" s="176" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F443" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G443" s="174" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H443" s="178" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A444" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B444" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C444" s="175" t="s">
         <v>968</v>
       </c>
-      <c r="E424" s="177" t="s">
+      <c r="D444" s="177" t="s">
+        <v>969</v>
+      </c>
+      <c r="E444" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="F424" s="175" t="s">
+      <c r="F444" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="G424" s="175" t="s">
-        <v>10</v>
-      </c>
-      <c r="H424" s="175"/>
-    </row>
-    <row r="425" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A425" s="180" t="s">
+      <c r="G444" s="174" t="s">
+        <v>12</v>
+      </c>
+      <c r="H444" s="174"/>
+    </row>
+    <row r="445" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A445" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B445" s="174" t="s">
         <v>963</v>
       </c>
-      <c r="B425" s="175" t="s">
-        <v>964</v>
-      </c>
-      <c r="C425" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D425" s="177" t="s">
+      <c r="C445" s="175" t="s">
         <v>968</v>
       </c>
-      <c r="E425" s="177" t="s">
+      <c r="D445" s="176" t="s">
+        <v>969</v>
+      </c>
+      <c r="E445" s="176" t="s">
+        <v>970</v>
+      </c>
+      <c r="F445" s="174" t="s">
         <v>971</v>
       </c>
-      <c r="F425" s="175" t="s">
+      <c r="G445" s="174" t="s">
         <v>972</v>
       </c>
-      <c r="G425" s="175" t="s">
+      <c r="H445" s="174"/>
+    </row>
+    <row r="446" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A446" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B446" s="174" t="s">
+        <v>963</v>
+      </c>
+      <c r="C446" s="175" t="s">
+        <v>968</v>
+      </c>
+      <c r="D446" s="176" t="s">
+        <v>969</v>
+      </c>
+      <c r="E446" s="176" t="s">
         <v>973</v>
       </c>
-      <c r="H425" s="175"/>
-    </row>
-    <row r="426" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A426" s="180" t="s">
+      <c r="F446" s="174" t="s">
+        <v>971</v>
+      </c>
+      <c r="G446" s="174" t="s">
+        <v>974</v>
+      </c>
+      <c r="H446" s="174"/>
+    </row>
+    <row r="447" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A447" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B447" s="174" t="s">
         <v>963</v>
       </c>
-      <c r="B426" s="175" t="s">
-        <v>964</v>
-      </c>
-      <c r="C426" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D426" s="177" t="s">
+      <c r="C447" s="175" t="s">
         <v>968</v>
       </c>
-      <c r="E426" s="177" t="s">
-        <v>974</v>
-      </c>
-      <c r="F426" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="G426" s="175" t="s">
+      <c r="D447" s="176" t="s">
+        <v>969</v>
+      </c>
+      <c r="E447" s="176" t="s">
         <v>975</v>
       </c>
-      <c r="H426" s="175"/>
-    </row>
-    <row r="427" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A427" s="180" t="s">
+      <c r="F447" s="174" t="s">
+        <v>971</v>
+      </c>
+      <c r="G447" s="174" t="s">
+        <v>976</v>
+      </c>
+      <c r="H447" s="174"/>
+    </row>
+    <row r="448" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A448" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B448" s="103" t="s">
         <v>963</v>
       </c>
-      <c r="B427" s="175" t="s">
-        <v>964</v>
-      </c>
-      <c r="C427" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D427" s="177" t="s">
+      <c r="C448" s="175" t="s">
         <v>968</v>
       </c>
-      <c r="E427" s="177" t="s">
-        <v>976</v>
-      </c>
-      <c r="F427" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="G427" s="175" t="s">
-        <v>977</v>
-      </c>
-      <c r="H427" s="175"/>
-    </row>
-    <row r="428" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A428" s="180" t="s">
+      <c r="D448" s="177" t="s">
+        <v>969</v>
+      </c>
+      <c r="E448" s="176" t="s">
+        <v>999</v>
+      </c>
+      <c r="F448" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G448" s="174" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H448" s="181" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A449" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B449" s="103" t="s">
         <v>963</v>
       </c>
-      <c r="B428" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C428" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D428" s="178" t="s">
+      <c r="C449" s="175" t="s">
         <v>968</v>
       </c>
-      <c r="E428" s="177" t="s">
-        <v>978</v>
-      </c>
-      <c r="F428" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G428" s="175" t="s">
-        <v>979</v>
-      </c>
-      <c r="H428" s="181" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A429" s="180" t="s">
+      <c r="D449" s="177" t="s">
+        <v>969</v>
+      </c>
+      <c r="E449" s="176" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F449" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G449" s="174" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H449" s="180" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A450" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B450" s="103" t="s">
         <v>963</v>
       </c>
-      <c r="B429" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C429" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D429" s="178" t="s">
+      <c r="C450" s="175" t="s">
         <v>968</v>
       </c>
-      <c r="E429" s="177" t="s">
-        <v>980</v>
-      </c>
-      <c r="F429" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G429" s="175" t="s">
-        <v>981</v>
-      </c>
-      <c r="H429" s="181" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A430" s="180" t="s">
+      <c r="D450" s="177" t="s">
+        <v>969</v>
+      </c>
+      <c r="E450" s="176" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F450" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G450" s="174" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H450" s="180" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A451" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B451" s="103" t="s">
         <v>963</v>
       </c>
-      <c r="B430" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C430" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D430" s="178" t="s">
+      <c r="C451" s="175" t="s">
         <v>968</v>
       </c>
-      <c r="E430" s="177" t="s">
-        <v>982</v>
-      </c>
-      <c r="F430" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G430" s="175" t="s">
-        <v>983</v>
-      </c>
-      <c r="H430" s="181" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A431" s="180" t="s">
+      <c r="D451" s="177" t="s">
+        <v>969</v>
+      </c>
+      <c r="E451" s="176" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F451" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G451" s="174" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H451" s="180" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A452" s="179" t="s">
+        <v>962</v>
+      </c>
+      <c r="B452" s="103" t="s">
         <v>963</v>
       </c>
-      <c r="B431" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C431" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D431" s="178" t="s">
+      <c r="C452" s="175" t="s">
         <v>968</v>
       </c>
-      <c r="E431" s="177" t="s">
-        <v>984</v>
-      </c>
-      <c r="F431" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G431" s="175" t="s">
-        <v>985</v>
-      </c>
-      <c r="H431" s="175" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A432" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B432" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C432" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D432" s="178" t="s">
-        <v>968</v>
-      </c>
-      <c r="E432" s="177" t="s">
-        <v>986</v>
-      </c>
-      <c r="F432" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G432" s="175" t="s">
-        <v>987</v>
-      </c>
-      <c r="H432" s="181" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A433" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B433" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C433" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D433" s="178" t="s">
-        <v>968</v>
-      </c>
-      <c r="E433" s="177" t="s">
-        <v>988</v>
-      </c>
-      <c r="F433" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G433" s="175" t="s">
-        <v>989</v>
-      </c>
-      <c r="H433" s="181" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A434" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B434" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C434" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D434" s="178" t="s">
-        <v>968</v>
-      </c>
-      <c r="E434" s="177" t="s">
-        <v>990</v>
-      </c>
-      <c r="F434" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G434" s="175" t="s">
-        <v>991</v>
-      </c>
-      <c r="H434" s="181" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A435" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B435" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C435" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D435" s="178" t="s">
-        <v>968</v>
-      </c>
-      <c r="E435" s="177" t="s">
-        <v>992</v>
-      </c>
-      <c r="F435" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G435" s="175" t="s">
-        <v>993</v>
-      </c>
-      <c r="H435" s="181" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A436" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B436" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C436" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D436" s="178" t="s">
-        <v>968</v>
-      </c>
-      <c r="E436" s="177" t="s">
-        <v>994</v>
-      </c>
-      <c r="F436" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G436" s="175" t="s">
-        <v>995</v>
-      </c>
-      <c r="H436" s="175" t="s">
+      <c r="D452" s="177" t="s">
+        <v>969</v>
+      </c>
+      <c r="E452" s="176" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F452" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G452" s="174" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H452" s="180" t="s">
         <v>946</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A437" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B437" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C437" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D437" s="178" t="s">
-        <v>968</v>
-      </c>
-      <c r="E437" s="177" t="s">
-        <v>996</v>
-      </c>
-      <c r="F437" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G437" s="175" t="s">
-        <v>997</v>
-      </c>
-      <c r="H437" s="175" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A438" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B438" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C438" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D438" s="178" t="s">
-        <v>968</v>
-      </c>
-      <c r="E438" s="177" t="s">
-        <v>998</v>
-      </c>
-      <c r="F438" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G438" s="175" t="s">
-        <v>999</v>
-      </c>
-      <c r="H438" s="175" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A439" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B439" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C439" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D439" s="178" t="s">
-        <v>968</v>
-      </c>
-      <c r="E439" s="177" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F439" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G439" s="175" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H439" s="182" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A440" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B440" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C440" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D440" s="178" t="s">
-        <v>968</v>
-      </c>
-      <c r="E440" s="177" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F440" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G440" s="175" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H440" s="179" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A441" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B441" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C441" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D441" s="178" t="s">
-        <v>968</v>
-      </c>
-      <c r="E441" s="177" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F441" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G441" s="175" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H441" s="179" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A442" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B442" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C442" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D442" s="178" t="s">
-        <v>968</v>
-      </c>
-      <c r="E442" s="177" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F442" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G442" s="175" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H442" s="179" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A443" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B443" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C443" s="176" t="s">
-        <v>967</v>
-      </c>
-      <c r="D443" s="178" t="s">
-        <v>968</v>
-      </c>
-      <c r="E443" s="177" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F443" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G443" s="175" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H443" s="179" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A444" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B444" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C444" s="176" t="s">
-        <v>969</v>
-      </c>
-      <c r="D444" s="178" t="s">
-        <v>970</v>
-      </c>
-      <c r="E444" s="177" t="s">
-        <v>1</v>
-      </c>
-      <c r="F444" s="175" t="s">
-        <v>9</v>
-      </c>
-      <c r="G444" s="175" t="s">
-        <v>12</v>
-      </c>
-      <c r="H444" s="175"/>
-    </row>
-    <row r="445" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A445" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B445" s="175" t="s">
-        <v>964</v>
-      </c>
-      <c r="C445" s="176" t="s">
-        <v>969</v>
-      </c>
-      <c r="D445" s="177" t="s">
-        <v>970</v>
-      </c>
-      <c r="E445" s="177" t="s">
-        <v>971</v>
-      </c>
-      <c r="F445" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="G445" s="175" t="s">
-        <v>973</v>
-      </c>
-      <c r="H445" s="175"/>
-    </row>
-    <row r="446" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A446" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B446" s="175" t="s">
-        <v>964</v>
-      </c>
-      <c r="C446" s="176" t="s">
-        <v>969</v>
-      </c>
-      <c r="D446" s="177" t="s">
-        <v>970</v>
-      </c>
-      <c r="E446" s="177" t="s">
-        <v>974</v>
-      </c>
-      <c r="F446" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="G446" s="175" t="s">
-        <v>975</v>
-      </c>
-      <c r="H446" s="175"/>
-    </row>
-    <row r="447" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A447" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B447" s="175" t="s">
-        <v>964</v>
-      </c>
-      <c r="C447" s="176" t="s">
-        <v>969</v>
-      </c>
-      <c r="D447" s="177" t="s">
-        <v>970</v>
-      </c>
-      <c r="E447" s="177" t="s">
-        <v>976</v>
-      </c>
-      <c r="F447" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="G447" s="175" t="s">
-        <v>977</v>
-      </c>
-      <c r="H447" s="175"/>
-    </row>
-    <row r="448" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A448" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B448" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C448" s="176" t="s">
-        <v>969</v>
-      </c>
-      <c r="D448" s="178" t="s">
-        <v>970</v>
-      </c>
-      <c r="E448" s="177" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F448" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G448" s="175" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H448" s="182" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="449" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A449" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B449" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C449" s="176" t="s">
-        <v>969</v>
-      </c>
-      <c r="D449" s="178" t="s">
-        <v>970</v>
-      </c>
-      <c r="E449" s="177" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F449" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G449" s="175" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H449" s="181" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A450" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B450" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C450" s="176" t="s">
-        <v>969</v>
-      </c>
-      <c r="D450" s="178" t="s">
-        <v>970</v>
-      </c>
-      <c r="E450" s="177" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F450" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G450" s="175" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H450" s="181" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="451" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A451" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B451" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C451" s="176" t="s">
-        <v>969</v>
-      </c>
-      <c r="D451" s="178" t="s">
-        <v>970</v>
-      </c>
-      <c r="E451" s="177" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F451" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G451" s="175" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H451" s="181" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="452" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A452" s="180" t="s">
-        <v>963</v>
-      </c>
-      <c r="B452" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="C452" s="176" t="s">
-        <v>969</v>
-      </c>
-      <c r="D452" s="178" t="s">
-        <v>970</v>
-      </c>
-      <c r="E452" s="177" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F452" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G452" s="175" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H452" s="181" t="s">
-        <v>947</v>
       </c>
     </row>
   </sheetData>
@@ -23404,22 +23409,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="104" t="s">
+        <v>899</v>
+      </c>
+      <c r="B1" s="105" t="s">
         <v>900</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="C1" s="106" t="s">
         <v>901</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="D1" s="106" t="s">
         <v>902</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="E1" s="106" t="s">
         <v>903</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="F1" s="106" t="s">
         <v>904</v>
-      </c>
-      <c r="F1" s="106" t="s">
-        <v>905</v>
       </c>
       <c r="G1" s="107"/>
     </row>
@@ -23428,19 +23433,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="110" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C2" s="111">
         <v>1993</v>
       </c>
       <c r="D2" s="111" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E2" s="112">
         <v>1000000</v>
       </c>
       <c r="F2" s="111" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23454,13 +23459,13 @@
         <v>2004</v>
       </c>
       <c r="D3" s="111" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E3" s="112">
         <v>1000000</v>
       </c>
       <c r="F3" s="111" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23472,13 +23477,13 @@
       </c>
       <c r="C4" s="113"/>
       <c r="D4" s="111" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E4" s="112">
         <v>1000000</v>
       </c>
       <c r="F4" s="111" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23486,7 +23491,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="114" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C5" s="113"/>
       <c r="D5" s="111"/>
@@ -23528,7 +23533,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="114" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C8" s="118"/>
       <c r="D8" s="119"/>
@@ -23556,7 +23561,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="114" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C10" s="115"/>
       <c r="D10" s="116"/>
@@ -23584,7 +23589,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="114" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C12" s="115"/>
       <c r="D12" s="116"/>
@@ -23612,7 +23617,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="114" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C14" s="118"/>
       <c r="D14" s="119"/>
@@ -23626,7 +23631,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="114" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C15" s="115"/>
       <c r="D15" s="116"/>
@@ -23640,7 +23645,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="114" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C16" s="115"/>
       <c r="D16" s="116"/>
@@ -23682,7 +23687,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="114" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C19" s="115"/>
       <c r="D19" s="116"/>
@@ -23722,7 +23727,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="114" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C22" s="115"/>
       <c r="D22" s="116"/>
@@ -23736,17 +23741,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="114" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C23" s="115"/>
       <c r="D23" s="111" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E23" s="112">
         <v>1000000</v>
       </c>
       <c r="F23" s="111" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -23754,7 +23759,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="121" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C24" s="115"/>
       <c r="D24" s="116"/>
@@ -23770,7 +23775,7 @@
       </c>
       <c r="C25" s="118"/>
       <c r="D25" s="111" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E25" s="117">
         <v>1</v>
@@ -23788,7 +23793,7 @@
       </c>
       <c r="C26" s="118"/>
       <c r="D26" s="111" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E26" s="112">
         <v>1000000</v>
@@ -23802,7 +23807,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="114" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C27" s="115"/>
       <c r="D27" s="116"/>
@@ -23828,7 +23833,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="125" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C29" s="126"/>
       <c r="D29" s="127"/>
@@ -23860,7 +23865,7 @@
       </c>
       <c r="C31" s="136"/>
       <c r="D31" s="137" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E31" s="138"/>
       <c r="F31" s="139"/>
@@ -23870,7 +23875,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="138" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C32" s="140"/>
       <c r="D32" s="141"/>
@@ -23882,7 +23887,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="138" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C33" s="136"/>
       <c r="D33" s="142"/>
@@ -23894,7 +23899,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="138" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C34" s="136"/>
       <c r="D34" s="143"/>
@@ -23906,7 +23911,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="138" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C35" s="140"/>
       <c r="D35" s="141"/>
@@ -23918,7 +23923,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C36" s="136"/>
       <c r="D36" s="141"/>
@@ -23930,7 +23935,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="135" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C37" s="136"/>
       <c r="D37" s="141"/>
@@ -23942,7 +23947,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="145" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C38" s="146"/>
       <c r="D38" s="146"/>
@@ -23954,7 +23959,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="149" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C39" s="150"/>
       <c r="D39" s="150"/>
@@ -23966,7 +23971,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="152" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C40" s="153"/>
       <c r="D40" s="154"/>
@@ -23978,7 +23983,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="152" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C41" s="153"/>
       <c r="D41" s="154"/>
@@ -23990,7 +23995,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="152" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C42" s="153"/>
       <c r="D42" s="154"/>
@@ -24002,7 +24007,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="152" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C43" s="153"/>
       <c r="D43" s="154"/>
@@ -24014,7 +24019,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="155" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C44" s="153"/>
       <c r="D44" s="154"/>
@@ -24026,7 +24031,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="155" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C45" s="153"/>
       <c r="D45" s="154"/>
@@ -24038,7 +24043,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="155" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C46" s="153"/>
       <c r="D46" s="154"/>
@@ -24050,7 +24055,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="155" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C47" s="153"/>
       <c r="D47" s="154"/>
@@ -24062,7 +24067,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="155" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C48" s="153"/>
       <c r="D48" s="154"/>
@@ -24074,7 +24079,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="155" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C49" s="153"/>
       <c r="D49" s="154"/>
@@ -24086,7 +24091,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="155" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C50" s="153"/>
       <c r="D50" s="154"/>
@@ -24098,7 +24103,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="155" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C51" s="153"/>
       <c r="D51" s="154"/>
@@ -24110,7 +24115,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="155" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C52" s="153"/>
       <c r="D52" s="154"/>
@@ -24122,7 +24127,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="157" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C53" s="158"/>
       <c r="D53" s="159"/>
@@ -24172,7 +24177,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="163" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C57" s="163"/>
       <c r="D57" s="163"/>
@@ -24194,7 +24199,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="165" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24338,7 +24343,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="165" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24376,7 +24381,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="166" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C72" s="163"/>
       <c r="D72" s="163"/>
@@ -24390,7 +24395,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="166" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C73" s="163"/>
       <c r="D73" s="163"/>
@@ -24404,7 +24409,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="166" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C74" s="163"/>
       <c r="D74" s="163"/>
@@ -24418,7 +24423,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="166" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C75" s="163"/>
       <c r="D75" s="163"/>
@@ -24430,7 +24435,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="166" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C76" s="163"/>
       <c r="D76" s="163"/>
@@ -24444,7 +24449,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="166" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C77" s="163"/>
       <c r="D77" s="163"/>
@@ -24452,7 +24457,7 @@
         <v>1000</v>
       </c>
       <c r="F77" s="165" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24460,7 +24465,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="166" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C78" s="166"/>
       <c r="D78" s="166"/>
@@ -24468,7 +24473,7 @@
         <v>1000</v>
       </c>
       <c r="F78" s="165" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
   </sheetData>

--- a/sspmi/data.xlsx
+++ b/sspmi/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="285" windowWidth="14535" windowHeight="7365" tabRatio="748" activeTab="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="1036">
   <si>
     <t>distribution_identifier</t>
   </si>
@@ -3212,7 +3212,49 @@
     <t>2017-09-26</t>
   </si>
   <si>
-    <t>https://www.minhacienda.gob.ar/secretarias/politica-economica/programacion-microeconomica/datos-microeconomicos/</t>
+    <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/02_mineria_metalifera_dataset.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/03_azucar_dataset.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/04_automotriz_dataset.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/05_carne_aviar_dataset.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/06_hidrocarburos_dataset.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/08_maquinaria_agricola_%20dataset.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/11_turismo_dataset.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/13_vitivinicultura_dataset.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/14_forestal_dataset.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/21_farmacia_dataset.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/22_lacteo_dataset.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/23_manzana_pera_dataset.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/26_industrias_metalicas_basicas_dataset.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/27_pesca_dataset.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.minhacienda.gob.ar/catalogo-sspmi/provincias/99_indicadoresprovinciales_dataset.xlsx</t>
   </si>
 </sst>
 </file>
@@ -4752,7 +4794,7 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5257,6 +5299,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="612">
     <cellStyle name="20% - Énfasis1 2" xfId="395"/>
@@ -9176,8 +9225,8 @@
   </sheetPr>
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="O1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10185,14 +10234,14 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E14" sqref="E14"/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10258,7 +10307,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>51</v>
       </c>
@@ -10274,7 +10323,7 @@
       <c r="E2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="182" t="s">
         <v>1021</v>
       </c>
       <c r="G2" s="37" t="s">
@@ -10294,7 +10343,7 @@
       </c>
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>51</v>
       </c>
@@ -10310,7 +10359,7 @@
       <c r="E3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="182" t="s">
         <v>1021</v>
       </c>
       <c r="G3" s="37" t="s">
@@ -10330,7 +10379,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>51</v>
       </c>
@@ -10346,7 +10395,7 @@
       <c r="E4" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="182" t="s">
         <v>1021</v>
       </c>
       <c r="G4" s="37" t="s">
@@ -10366,7 +10415,7 @@
       </c>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
         <v>82</v>
       </c>
@@ -10382,8 +10431,8 @@
       <c r="E5" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>1021</v>
+      <c r="F5" s="183" t="s">
+        <v>1022</v>
       </c>
       <c r="G5" s="54" t="s">
         <v>49</v>
@@ -10402,7 +10451,7 @@
       </c>
       <c r="N5" s="49"/>
     </row>
-    <row r="6" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>82</v>
       </c>
@@ -10418,8 +10467,8 @@
       <c r="E6" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>1021</v>
+      <c r="F6" s="183" t="s">
+        <v>1022</v>
       </c>
       <c r="G6" s="54" t="s">
         <v>49</v>
@@ -10438,7 +10487,7 @@
       </c>
       <c r="N6" s="49"/>
     </row>
-    <row r="7" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
         <v>112</v>
       </c>
@@ -10454,8 +10503,8 @@
       <c r="E7" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="36" t="s">
-        <v>1021</v>
+      <c r="F7" s="183" t="s">
+        <v>1023</v>
       </c>
       <c r="G7" s="54" t="s">
         <v>49</v>
@@ -10474,7 +10523,7 @@
       </c>
       <c r="N7" s="49"/>
     </row>
-    <row r="8" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
         <v>112</v>
       </c>
@@ -10490,8 +10539,8 @@
       <c r="E8" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="36" t="s">
-        <v>1021</v>
+      <c r="F8" s="183" t="s">
+        <v>1023</v>
       </c>
       <c r="G8" s="54" t="s">
         <v>49</v>
@@ -10510,7 +10559,7 @@
       </c>
       <c r="N8" s="49"/>
     </row>
-    <row r="9" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
         <v>112</v>
       </c>
@@ -10526,8 +10575,8 @@
       <c r="E9" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>1021</v>
+      <c r="F9" s="183" t="s">
+        <v>1023</v>
       </c>
       <c r="G9" s="54" t="s">
         <v>49</v>
@@ -10546,7 +10595,7 @@
       </c>
       <c r="N9" s="49"/>
     </row>
-    <row r="10" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
         <v>167</v>
       </c>
@@ -10562,8 +10611,8 @@
       <c r="E10" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>1021</v>
+      <c r="F10" s="183" t="s">
+        <v>1024</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>49</v>
@@ -10582,7 +10631,7 @@
       </c>
       <c r="N10" s="49"/>
     </row>
-    <row r="11" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
         <v>167</v>
       </c>
@@ -10598,8 +10647,8 @@
       <c r="E11" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>1021</v>
+      <c r="F11" s="183" t="s">
+        <v>1024</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>49</v>
@@ -10618,7 +10667,7 @@
       </c>
       <c r="N11" s="49"/>
     </row>
-    <row r="12" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
         <v>167</v>
       </c>
@@ -10634,8 +10683,8 @@
       <c r="E12" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="36" t="s">
-        <v>1021</v>
+      <c r="F12" s="183" t="s">
+        <v>1024</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>49</v>
@@ -10654,7 +10703,7 @@
       </c>
       <c r="N12" s="49"/>
     </row>
-    <row r="13" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
         <v>215</v>
       </c>
@@ -10670,8 +10719,8 @@
       <c r="E13" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>1021</v>
+      <c r="F13" s="183" t="s">
+        <v>1025</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>49</v>
@@ -10690,7 +10739,7 @@
       </c>
       <c r="N13" s="49"/>
     </row>
-    <row r="14" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
         <v>215</v>
       </c>
@@ -10706,8 +10755,8 @@
       <c r="E14" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="F14" s="36" t="s">
-        <v>1021</v>
+      <c r="F14" s="183" t="s">
+        <v>1025</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>49</v>
@@ -10726,7 +10775,7 @@
       </c>
       <c r="N14" s="49"/>
     </row>
-    <row r="15" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="50" t="s">
         <v>215</v>
       </c>
@@ -10742,8 +10791,8 @@
       <c r="E15" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="F15" s="36" t="s">
-        <v>1021</v>
+      <c r="F15" s="183" t="s">
+        <v>1025</v>
       </c>
       <c r="G15" s="54" t="s">
         <v>49</v>
@@ -10762,7 +10811,7 @@
       </c>
       <c r="N15" s="49"/>
     </row>
-    <row r="16" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
         <v>338</v>
       </c>
@@ -10778,8 +10827,8 @@
       <c r="E16" s="53" t="s">
         <v>344</v>
       </c>
-      <c r="F16" s="36" t="s">
-        <v>1021</v>
+      <c r="F16" s="183" t="s">
+        <v>1026</v>
       </c>
       <c r="G16" s="54" t="s">
         <v>49</v>
@@ -10798,7 +10847,7 @@
       </c>
       <c r="N16" s="49"/>
     </row>
-    <row r="17" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
         <v>338</v>
       </c>
@@ -10814,8 +10863,8 @@
       <c r="E17" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="F17" s="36" t="s">
-        <v>1021</v>
+      <c r="F17" s="183" t="s">
+        <v>1026</v>
       </c>
       <c r="G17" s="54" t="s">
         <v>49</v>
@@ -10834,7 +10883,7 @@
       </c>
       <c r="N17" s="49"/>
     </row>
-    <row r="18" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
         <v>441</v>
       </c>
@@ -10850,8 +10899,8 @@
       <c r="E18" s="53" t="s">
         <v>447</v>
       </c>
-      <c r="F18" s="36" t="s">
-        <v>1021</v>
+      <c r="F18" s="183" t="s">
+        <v>1027</v>
       </c>
       <c r="G18" s="54" t="s">
         <v>49</v>
@@ -10870,7 +10919,7 @@
       </c>
       <c r="N18" s="49"/>
     </row>
-    <row r="19" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="50" t="s">
         <v>95</v>
       </c>
@@ -10886,8 +10935,8 @@
       <c r="E19" s="53" t="s">
         <v>480</v>
       </c>
-      <c r="F19" s="36" t="s">
-        <v>1021</v>
+      <c r="F19" s="183" t="s">
+        <v>1028</v>
       </c>
       <c r="G19" s="54" t="s">
         <v>49</v>
@@ -10906,7 +10955,7 @@
       </c>
       <c r="N19" s="49"/>
     </row>
-    <row r="20" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="50" t="s">
         <v>95</v>
       </c>
@@ -10922,8 +10971,8 @@
       <c r="E20" s="53" t="s">
         <v>482</v>
       </c>
-      <c r="F20" s="36" t="s">
-        <v>1021</v>
+      <c r="F20" s="183" t="s">
+        <v>1028</v>
       </c>
       <c r="G20" s="54" t="s">
         <v>49</v>
@@ -10942,7 +10991,7 @@
       </c>
       <c r="N20" s="49"/>
     </row>
-    <row r="21" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
         <v>72</v>
       </c>
@@ -10958,8 +11007,8 @@
       <c r="E21" s="53" t="s">
         <v>506</v>
       </c>
-      <c r="F21" s="36" t="s">
-        <v>1021</v>
+      <c r="F21" s="183" t="s">
+        <v>1029</v>
       </c>
       <c r="G21" s="54" t="s">
         <v>49</v>
@@ -10978,7 +11027,7 @@
       </c>
       <c r="N21" s="49"/>
     </row>
-    <row r="22" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="50" t="s">
         <v>72</v>
       </c>
@@ -10994,8 +11043,8 @@
       <c r="E22" s="53" t="s">
         <v>508</v>
       </c>
-      <c r="F22" s="36" t="s">
-        <v>1021</v>
+      <c r="F22" s="183" t="s">
+        <v>1029</v>
       </c>
       <c r="G22" s="54" t="s">
         <v>49</v>
@@ -11014,7 +11063,7 @@
       </c>
       <c r="N22" s="49"/>
     </row>
-    <row r="23" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
         <v>618</v>
       </c>
@@ -11030,8 +11079,8 @@
       <c r="E23" s="53" t="s">
         <v>623</v>
       </c>
-      <c r="F23" s="36" t="s">
-        <v>1021</v>
+      <c r="F23" s="183" t="s">
+        <v>1030</v>
       </c>
       <c r="G23" s="54" t="s">
         <v>49</v>
@@ -11050,7 +11099,7 @@
       </c>
       <c r="N23" s="49"/>
     </row>
-    <row r="24" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
         <v>618</v>
       </c>
@@ -11066,8 +11115,8 @@
       <c r="E24" s="53" t="s">
         <v>626</v>
       </c>
-      <c r="F24" s="36" t="s">
-        <v>1021</v>
+      <c r="F24" s="183" t="s">
+        <v>1030</v>
       </c>
       <c r="G24" s="54" t="s">
         <v>49</v>
@@ -11086,7 +11135,7 @@
       </c>
       <c r="N24" s="49"/>
     </row>
-    <row r="25" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
         <v>639</v>
       </c>
@@ -11102,8 +11151,8 @@
       <c r="E25" s="53" t="s">
         <v>645</v>
       </c>
-      <c r="F25" s="36" t="s">
-        <v>1021</v>
+      <c r="F25" s="183" t="s">
+        <v>1031</v>
       </c>
       <c r="G25" s="54" t="s">
         <v>49</v>
@@ -11122,7 +11171,7 @@
       </c>
       <c r="N25" s="49"/>
     </row>
-    <row r="26" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
         <v>639</v>
       </c>
@@ -11138,8 +11187,8 @@
       <c r="E26" s="53" t="s">
         <v>647</v>
       </c>
-      <c r="F26" s="36" t="s">
-        <v>1021</v>
+      <c r="F26" s="183" t="s">
+        <v>1031</v>
       </c>
       <c r="G26" s="54" t="s">
         <v>49</v>
@@ -11158,7 +11207,7 @@
       </c>
       <c r="N26" s="49"/>
     </row>
-    <row r="27" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
         <v>639</v>
       </c>
@@ -11174,8 +11223,8 @@
       <c r="E27" s="53" t="s">
         <v>649</v>
       </c>
-      <c r="F27" s="36" t="s">
-        <v>1021</v>
+      <c r="F27" s="183" t="s">
+        <v>1031</v>
       </c>
       <c r="G27" s="54" t="s">
         <v>49</v>
@@ -11194,7 +11243,7 @@
       </c>
       <c r="N27" s="49"/>
     </row>
-    <row r="28" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
         <v>661</v>
       </c>
@@ -11210,8 +11259,8 @@
       <c r="E28" s="53" t="s">
         <v>666</v>
       </c>
-      <c r="F28" s="36" t="s">
-        <v>1021</v>
+      <c r="F28" s="183" t="s">
+        <v>1032</v>
       </c>
       <c r="G28" s="54" t="s">
         <v>49</v>
@@ -11230,7 +11279,7 @@
       </c>
       <c r="N28" s="49"/>
     </row>
-    <row r="29" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="50" t="s">
         <v>661</v>
       </c>
@@ -11246,8 +11295,8 @@
       <c r="E29" s="53" t="s">
         <v>668</v>
       </c>
-      <c r="F29" s="36" t="s">
-        <v>1021</v>
+      <c r="F29" s="183" t="s">
+        <v>1032</v>
       </c>
       <c r="G29" s="54" t="s">
         <v>49</v>
@@ -11266,7 +11315,7 @@
       </c>
       <c r="N29" s="49"/>
     </row>
-    <row r="30" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A30" s="50" t="s">
         <v>737</v>
       </c>
@@ -11282,8 +11331,8 @@
       <c r="E30" s="53" t="s">
         <v>741</v>
       </c>
-      <c r="F30" s="36" t="s">
-        <v>1021</v>
+      <c r="F30" s="183" t="s">
+        <v>1033</v>
       </c>
       <c r="G30" s="54" t="s">
         <v>49</v>
@@ -11302,7 +11351,7 @@
       </c>
       <c r="N30" s="49"/>
     </row>
-    <row r="31" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
         <v>737</v>
       </c>
@@ -11318,8 +11367,8 @@
       <c r="E31" s="53" t="s">
         <v>743</v>
       </c>
-      <c r="F31" s="36" t="s">
-        <v>1021</v>
+      <c r="F31" s="182" t="s">
+        <v>1033</v>
       </c>
       <c r="G31" s="54" t="s">
         <v>49</v>
@@ -11338,7 +11387,7 @@
       </c>
       <c r="N31" s="86"/>
     </row>
-    <row r="32" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="50" t="s">
         <v>766</v>
       </c>
@@ -11354,8 +11403,8 @@
       <c r="E32" s="53" t="s">
         <v>771</v>
       </c>
-      <c r="F32" s="36" t="s">
-        <v>1021</v>
+      <c r="F32" s="182" t="s">
+        <v>1034</v>
       </c>
       <c r="G32" s="54" t="s">
         <v>49</v>
@@ -11374,7 +11423,7 @@
       </c>
       <c r="N32" s="49"/>
     </row>
-    <row r="33" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="50" t="s">
         <v>766</v>
       </c>
@@ -11390,8 +11439,8 @@
       <c r="E33" s="53" t="s">
         <v>773</v>
       </c>
-      <c r="F33" s="36" t="s">
-        <v>1021</v>
+      <c r="F33" s="183" t="s">
+        <v>1034</v>
       </c>
       <c r="G33" s="54" t="s">
         <v>49</v>
@@ -11410,7 +11459,7 @@
       </c>
       <c r="N33" s="49"/>
     </row>
-    <row r="34" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>766</v>
       </c>
@@ -11426,8 +11475,8 @@
       <c r="E34" s="53" t="s">
         <v>775</v>
       </c>
-      <c r="F34" s="36" t="s">
-        <v>1021</v>
+      <c r="F34" s="183" t="s">
+        <v>1034</v>
       </c>
       <c r="G34" s="54" t="s">
         <v>49</v>
@@ -11446,7 +11495,7 @@
       </c>
       <c r="N34" s="49"/>
     </row>
-    <row r="35" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A35" s="167" t="s">
         <v>962</v>
       </c>
@@ -11462,8 +11511,8 @@
       <c r="E35" s="67" t="s">
         <v>967</v>
       </c>
-      <c r="F35" s="36" t="s">
-        <v>1021</v>
+      <c r="F35" s="183" t="s">
+        <v>1035</v>
       </c>
       <c r="G35" s="173" t="s">
         <v>49</v>
@@ -11482,7 +11531,7 @@
       </c>
       <c r="N35" s="49"/>
     </row>
-    <row r="36" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A36" s="167" t="s">
         <v>962</v>
       </c>
@@ -11498,8 +11547,8 @@
       <c r="E36" s="67" t="s">
         <v>969</v>
       </c>
-      <c r="F36" s="36" t="s">
-        <v>1021</v>
+      <c r="F36" s="183" t="s">
+        <v>1035</v>
       </c>
       <c r="G36" s="173" t="s">
         <v>49</v>
@@ -11518,9 +11567,14 @@
       </c>
       <c r="N36" s="49"/>
     </row>
+    <row r="37" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F37" s="184"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294"/>

--- a/sspmi/data.xlsx
+++ b/sspmi/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="14535" windowHeight="7305" tabRatio="748"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="14535" windowHeight="7305" tabRatio="748" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="16" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="unidad" localSheetId="5">#REF!</definedName>
     <definedName name="unidad">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -4286,7 +4286,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4478,42 +4478,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
@@ -5826,7 +5790,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6271,98 +6235,6 @@
     <xf numFmtId="0" fontId="55" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="37" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="37" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="57" fillId="37" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="37" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="37" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="37" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="37" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="39" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="37" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="39" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="37" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="37" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="40" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="40" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="41" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="57" fillId="40" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="40" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="40" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="40" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="40" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="42" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="40" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="42" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="40" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="40" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="31" borderId="1" xfId="611" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6421,19 +6293,16 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="611" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="37" borderId="11" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="40" borderId="11" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="57" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="36" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="956">
     <cellStyle name="20% - Énfasis1 2" xfId="395"/>
@@ -8091,7 +7960,7 @@
   </sheetPr>
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" sqref="A1:XFD1"/>
@@ -10991,7 +10860,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12222,338 +12091,338 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="90" x14ac:dyDescent="0.2">
-      <c r="A21" s="164" t="s">
+      <c r="A21" s="74" t="s">
         <v>1020</v>
       </c>
-      <c r="B21" s="165" t="s">
+      <c r="B21" s="118" t="s">
         <v>1086</v>
       </c>
-      <c r="C21" s="165" t="s">
+      <c r="C21" s="118" t="s">
         <v>1021</v>
       </c>
-      <c r="D21" s="166" t="s">
+      <c r="D21" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="167" t="s">
+      <c r="E21" s="186" t="s">
         <v>430</v>
       </c>
-      <c r="F21" s="166" t="s">
+      <c r="F21" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="168" t="s">
+      <c r="G21" s="125" t="s">
         <v>430</v>
       </c>
-      <c r="H21" s="169" t="s">
+      <c r="H21" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="170" t="s">
+      <c r="I21" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="J21" s="171" t="s">
+      <c r="J21" s="90" t="s">
         <v>1022</v>
       </c>
-      <c r="K21" s="169" t="s">
+      <c r="K21" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="172"/>
-      <c r="M21" s="172"/>
-      <c r="N21" s="169" t="s">
+      <c r="L21" s="187"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="169" t="s">
+      <c r="O21" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="P21" s="169" t="s">
+      <c r="P21" s="76" t="s">
         <v>1042</v>
       </c>
-      <c r="Q21" s="173" t="s">
+      <c r="Q21" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="R21" s="174"/>
-      <c r="S21" s="168" t="s">
+      <c r="R21" s="119"/>
+      <c r="S21" s="125" t="s">
         <v>1023</v>
       </c>
-      <c r="T21" s="169" t="s">
+      <c r="T21" s="76" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="90" x14ac:dyDescent="0.2">
-      <c r="A22" s="181" t="s">
+      <c r="A22" s="74" t="s">
         <v>1036</v>
       </c>
-      <c r="B22" s="182" t="s">
+      <c r="B22" s="118" t="s">
         <v>1087</v>
       </c>
-      <c r="C22" s="182" t="s">
+      <c r="C22" s="118" t="s">
         <v>1037</v>
       </c>
-      <c r="D22" s="183" t="s">
+      <c r="D22" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="184" t="s">
+      <c r="E22" s="186" t="s">
         <v>430</v>
       </c>
-      <c r="F22" s="183" t="s">
+      <c r="F22" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="185" t="s">
+      <c r="G22" s="125" t="s">
         <v>430</v>
       </c>
-      <c r="H22" s="186" t="s">
+      <c r="H22" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="187" t="s">
+      <c r="I22" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="188" t="s">
+      <c r="J22" s="90" t="s">
         <v>1038</v>
       </c>
-      <c r="K22" s="186" t="s">
+      <c r="K22" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="189"/>
-      <c r="M22" s="189"/>
-      <c r="N22" s="186" t="s">
+      <c r="L22" s="187"/>
+      <c r="M22" s="187"/>
+      <c r="N22" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="O22" s="186" t="s">
+      <c r="O22" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="P22" s="186" t="s">
+      <c r="P22" s="76" t="s">
         <v>1043</v>
       </c>
-      <c r="Q22" s="190" t="s">
+      <c r="Q22" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="191"/>
-      <c r="S22" s="185" t="s">
+      <c r="R22" s="119"/>
+      <c r="S22" s="125" t="s">
         <v>1039</v>
       </c>
-      <c r="T22" s="186" t="s">
+      <c r="T22" s="76" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="90" x14ac:dyDescent="0.2">
-      <c r="A23" s="164" t="s">
+      <c r="A23" s="74" t="s">
         <v>1085</v>
       </c>
-      <c r="B23" s="165" t="s">
+      <c r="B23" s="118" t="s">
         <v>1088</v>
       </c>
-      <c r="C23" s="165" t="s">
+      <c r="C23" s="118" t="s">
         <v>1089</v>
       </c>
-      <c r="D23" s="166" t="s">
+      <c r="D23" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="167" t="s">
+      <c r="E23" s="186" t="s">
         <v>430</v>
       </c>
-      <c r="F23" s="166" t="s">
+      <c r="F23" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="168" t="s">
+      <c r="G23" s="125" t="s">
         <v>430</v>
       </c>
-      <c r="H23" s="169" t="s">
+      <c r="H23" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="170" t="s">
+      <c r="I23" s="77" t="s">
         <v>863</v>
       </c>
-      <c r="J23" s="171" t="s">
+      <c r="J23" s="90" t="s">
         <v>1090</v>
       </c>
-      <c r="K23" s="169" t="s">
+      <c r="K23" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="172"/>
-      <c r="M23" s="172"/>
-      <c r="N23" s="169" t="s">
+      <c r="L23" s="187"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="O23" s="169" t="s">
+      <c r="O23" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="P23" s="169" t="s">
+      <c r="P23" s="76" t="s">
         <v>1091</v>
       </c>
-      <c r="Q23" s="173" t="s">
+      <c r="Q23" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="R23" s="174"/>
-      <c r="S23" s="168" t="s">
+      <c r="R23" s="119"/>
+      <c r="S23" s="125" t="s">
         <v>1092</v>
       </c>
-      <c r="T23" s="169" t="s">
+      <c r="T23" s="76" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="90" x14ac:dyDescent="0.2">
-      <c r="A24" s="181" t="s">
+      <c r="A24" s="74" t="s">
         <v>1103</v>
       </c>
-      <c r="B24" s="182" t="s">
+      <c r="B24" s="118" t="s">
         <v>1104</v>
       </c>
-      <c r="C24" s="182" t="s">
+      <c r="C24" s="118" t="s">
         <v>1177</v>
       </c>
-      <c r="D24" s="183" t="s">
+      <c r="D24" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="184" t="s">
+      <c r="E24" s="186" t="s">
         <v>430</v>
       </c>
-      <c r="F24" s="183" t="s">
+      <c r="F24" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="185" t="s">
+      <c r="G24" s="125" t="s">
         <v>430</v>
       </c>
-      <c r="H24" s="186" t="s">
+      <c r="H24" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="187" t="s">
+      <c r="I24" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="J24" s="188" t="s">
+      <c r="J24" s="90" t="s">
         <v>1105</v>
       </c>
-      <c r="K24" s="186" t="s">
+      <c r="K24" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="189"/>
-      <c r="M24" s="189"/>
-      <c r="N24" s="186" t="s">
+      <c r="L24" s="187"/>
+      <c r="M24" s="187"/>
+      <c r="N24" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="O24" s="186" t="s">
+      <c r="O24" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="P24" s="186" t="s">
+      <c r="P24" s="76" t="s">
         <v>1106</v>
       </c>
-      <c r="Q24" s="190" t="s">
+      <c r="Q24" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="R24" s="191"/>
-      <c r="S24" s="185" t="s">
+      <c r="R24" s="119"/>
+      <c r="S24" s="125" t="s">
         <v>1107</v>
       </c>
-      <c r="T24" s="186" t="s">
+      <c r="T24" s="76" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="90" x14ac:dyDescent="0.2">
-      <c r="A25" s="164" t="s">
+      <c r="A25" s="74" t="s">
         <v>1179</v>
       </c>
-      <c r="B25" s="165" t="s">
+      <c r="B25" s="118" t="s">
         <v>1180</v>
       </c>
-      <c r="C25" s="165" t="s">
+      <c r="C25" s="118" t="s">
         <v>1181</v>
       </c>
-      <c r="D25" s="166" t="s">
+      <c r="D25" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="167" t="s">
+      <c r="E25" s="186" t="s">
         <v>430</v>
       </c>
-      <c r="F25" s="166" t="s">
+      <c r="F25" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="168" t="s">
+      <c r="G25" s="125" t="s">
         <v>430</v>
       </c>
-      <c r="H25" s="169" t="s">
+      <c r="H25" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="170" t="s">
+      <c r="I25" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="J25" s="171" t="s">
+      <c r="J25" s="90" t="s">
         <v>1182</v>
       </c>
-      <c r="K25" s="169" t="s">
+      <c r="K25" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="172"/>
-      <c r="M25" s="172"/>
-      <c r="N25" s="169" t="s">
+      <c r="L25" s="187"/>
+      <c r="M25" s="187"/>
+      <c r="N25" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="O25" s="169" t="s">
+      <c r="O25" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="P25" s="169" t="s">
+      <c r="P25" s="76" t="s">
         <v>1183</v>
       </c>
-      <c r="Q25" s="173" t="s">
+      <c r="Q25" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="R25" s="174"/>
-      <c r="S25" s="168" t="s">
+      <c r="R25" s="119"/>
+      <c r="S25" s="125" t="s">
         <v>1184</v>
       </c>
-      <c r="T25" s="169" t="s">
+      <c r="T25" s="76" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="90" x14ac:dyDescent="0.2">
-      <c r="A26" s="181" t="s">
+      <c r="A26" s="74" t="s">
         <v>1216</v>
       </c>
-      <c r="B26" s="182" t="s">
+      <c r="B26" s="118" t="s">
         <v>1217</v>
       </c>
-      <c r="C26" s="182" t="s">
+      <c r="C26" s="118" t="s">
         <v>1218</v>
       </c>
-      <c r="D26" s="183" t="s">
+      <c r="D26" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="184" t="s">
+      <c r="E26" s="186" t="s">
         <v>430</v>
       </c>
-      <c r="F26" s="183" t="s">
+      <c r="F26" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="185" t="s">
+      <c r="G26" s="125" t="s">
         <v>430</v>
       </c>
-      <c r="H26" s="186" t="s">
+      <c r="H26" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="187" t="s">
+      <c r="I26" s="77" t="s">
         <v>1222</v>
       </c>
-      <c r="J26" s="188" t="s">
+      <c r="J26" s="90" t="s">
         <v>1223</v>
       </c>
-      <c r="K26" s="186" t="s">
+      <c r="K26" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="189"/>
-      <c r="M26" s="189"/>
-      <c r="N26" s="186" t="s">
+      <c r="L26" s="187"/>
+      <c r="M26" s="187"/>
+      <c r="N26" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="O26" s="186" t="s">
+      <c r="O26" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="P26" s="186" t="s">
+      <c r="P26" s="76" t="s">
         <v>1091</v>
       </c>
-      <c r="Q26" s="190" t="s">
+      <c r="Q26" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="R26" s="191"/>
-      <c r="S26" s="185" t="s">
+      <c r="R26" s="119"/>
+      <c r="S26" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="T26" s="186" t="s">
+      <c r="T26" s="76" t="s">
         <v>33</v>
       </c>
     </row>
@@ -12588,11 +12457,11 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E14" sqref="E14"/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -13362,23 +13231,23 @@
       <c r="N20" s="120"/>
     </row>
     <row r="21" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="164" t="s">
+      <c r="A21" s="74" t="s">
         <v>1020</v>
       </c>
-      <c r="B21" s="175" t="str">
+      <c r="B21" s="138" t="str">
         <f>+VLOOKUP(A21,dataset!A21:B38,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
-      <c r="C21" s="176" t="s">
+      <c r="C21" s="80" t="s">
         <v>1024</v>
       </c>
-      <c r="D21" s="168" t="s">
+      <c r="D21" s="125" t="s">
         <v>1025</v>
       </c>
-      <c r="E21" s="168" t="s">
+      <c r="E21" s="125" t="s">
         <v>1025</v>
       </c>
-      <c r="F21" s="216" t="s">
+      <c r="F21" s="87" t="s">
         <v>1174</v>
       </c>
       <c r="G21" s="79" t="s">
@@ -13395,23 +13264,23 @@
       <c r="N21" s="120"/>
     </row>
     <row r="22" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="181" t="s">
+      <c r="A22" s="74" t="s">
         <v>1036</v>
       </c>
-      <c r="B22" s="192" t="str">
+      <c r="B22" s="138" t="str">
         <f>+VLOOKUP(A22,dataset!A22:B39,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C22" s="193" t="s">
+      <c r="C22" s="80" t="s">
         <v>1040</v>
       </c>
-      <c r="D22" s="185" t="s">
+      <c r="D22" s="125" t="s">
         <v>1041</v>
       </c>
-      <c r="E22" s="185" t="s">
+      <c r="E22" s="125" t="s">
         <v>1041</v>
       </c>
-      <c r="F22" s="217" t="s">
+      <c r="F22" s="87" t="s">
         <v>1175</v>
       </c>
       <c r="G22" s="79" t="s">
@@ -13428,23 +13297,23 @@
       <c r="N22" s="120"/>
     </row>
     <row r="23" spans="1:14" s="117" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="164" t="s">
+      <c r="A23" s="74" t="s">
         <v>1085</v>
       </c>
-      <c r="B23" s="175" t="str">
+      <c r="B23" s="138" t="str">
         <f>+VLOOKUP(A23,dataset!A23:B40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
-      <c r="C23" s="176" t="s">
+      <c r="C23" s="80" t="s">
         <v>1094</v>
       </c>
-      <c r="D23" s="168" t="s">
+      <c r="D23" s="125" t="s">
         <v>1093</v>
       </c>
-      <c r="E23" s="168" t="s">
+      <c r="E23" s="125" t="s">
         <v>1093</v>
       </c>
-      <c r="F23" s="216" t="s">
+      <c r="F23" s="87" t="s">
         <v>1176</v>
       </c>
       <c r="G23" s="79" t="s">
@@ -13461,23 +13330,23 @@
       <c r="N23" s="120"/>
     </row>
     <row r="24" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="181" t="s">
+      <c r="A24" s="74" t="s">
         <v>1103</v>
       </c>
-      <c r="B24" s="192" t="str">
+      <c r="B24" s="138" t="str">
         <f>+VLOOKUP(A24,dataset!A24:B41,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C24" s="193" t="s">
+      <c r="C24" s="80" t="s">
         <v>1108</v>
       </c>
-      <c r="D24" s="185" t="s">
+      <c r="D24" s="125" t="s">
         <v>1109</v>
       </c>
-      <c r="E24" s="185" t="s">
+      <c r="E24" s="125" t="s">
         <v>1109</v>
       </c>
-      <c r="F24" s="217" t="s">
+      <c r="F24" s="87" t="s">
         <v>1178</v>
       </c>
       <c r="G24" s="79" t="s">
@@ -13494,23 +13363,23 @@
       <c r="N24" s="120"/>
     </row>
     <row r="25" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="164" t="s">
+      <c r="A25" s="74" t="s">
         <v>1179</v>
       </c>
-      <c r="B25" s="175" t="str">
+      <c r="B25" s="138" t="str">
         <f>+VLOOKUP(A25,dataset!A25:B42,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C25" s="176" t="s">
+      <c r="C25" s="80" t="s">
         <v>1185</v>
       </c>
-      <c r="D25" s="168" t="s">
+      <c r="D25" s="125" t="s">
         <v>1186</v>
       </c>
-      <c r="E25" s="168" t="s">
+      <c r="E25" s="125" t="s">
         <v>1186</v>
       </c>
-      <c r="F25" s="216" t="s">
+      <c r="F25" s="87" t="s">
         <v>1187</v>
       </c>
       <c r="G25" s="79" t="s">
@@ -13527,23 +13396,23 @@
       <c r="N25" s="120"/>
     </row>
     <row r="26" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="164" t="s">
+      <c r="A26" s="74" t="s">
         <v>1216</v>
       </c>
-      <c r="B26" s="175" t="str">
+      <c r="B26" s="138" t="str">
         <f>+VLOOKUP(A26,dataset!A26:B43,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C26" s="176" t="s">
+      <c r="C26" s="80" t="s">
         <v>1219</v>
       </c>
-      <c r="D26" s="168" t="s">
+      <c r="D26" s="125" t="s">
         <v>1220</v>
       </c>
-      <c r="E26" s="168" t="s">
+      <c r="E26" s="125" t="s">
         <v>1220</v>
       </c>
-      <c r="F26" s="216" t="s">
+      <c r="F26" s="87" t="s">
         <v>1221</v>
       </c>
       <c r="G26" s="79" t="s">
@@ -13604,10 +13473,10 @@
   </sheetPr>
   <dimension ref="A1:J561"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E14" sqref="E14"/>
-      <selection pane="bottomLeft" activeCell="A562" sqref="A562"/>
+      <selection pane="bottomLeft" activeCell="D556" sqref="D556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -25412,3746 +25281,3746 @@
       </c>
     </row>
     <row r="429" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A429" s="177" t="s">
+      <c r="A429" s="88" t="s">
         <v>1020</v>
       </c>
-      <c r="B429" s="165" t="str">
+      <c r="B429" s="118" t="str">
         <f>+VLOOKUP(A429,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
-      <c r="C429" s="168" t="s">
+      <c r="C429" s="125" t="s">
         <v>1024</v>
       </c>
-      <c r="D429" s="168" t="str">
+      <c r="D429" s="125" t="str">
         <f>+VLOOKUP(C429,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cárnica - Porcina en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E429" s="168" t="s">
+      <c r="E429" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="F429" s="165" t="s">
+      <c r="F429" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="G429" s="165" t="s">
+      <c r="G429" s="118" t="s">
         <v>531</v>
       </c>
-      <c r="H429" s="178"/>
+      <c r="H429" s="126"/>
     </row>
     <row r="430" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A430" s="177" t="s">
+      <c r="A430" s="88" t="s">
         <v>1020</v>
       </c>
-      <c r="B430" s="165" t="str">
+      <c r="B430" s="118" t="str">
         <f>+VLOOKUP(A430,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
-      <c r="C430" s="168" t="s">
+      <c r="C430" s="125" t="s">
         <v>1024</v>
       </c>
-      <c r="D430" s="168" t="str">
+      <c r="D430" s="125" t="str">
         <f>+VLOOKUP(C430,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cárnica - Porcina en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E430" s="168" t="s">
+      <c r="E430" s="125" t="s">
         <v>526</v>
       </c>
-      <c r="F430" s="165" t="s">
+      <c r="F430" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G430" s="165" t="s">
+      <c r="G430" s="118" t="s">
         <v>528</v>
       </c>
-      <c r="H430" s="178"/>
+      <c r="H430" s="126"/>
     </row>
     <row r="431" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A431" s="177" t="s">
+      <c r="A431" s="88" t="s">
         <v>1020</v>
       </c>
-      <c r="B431" s="165" t="str">
+      <c r="B431" s="118" t="str">
         <f>+VLOOKUP(A431,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
-      <c r="C431" s="168" t="s">
+      <c r="C431" s="125" t="s">
         <v>1024</v>
       </c>
-      <c r="D431" s="168" t="str">
+      <c r="D431" s="125" t="str">
         <f>+VLOOKUP(C431,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cárnica - Porcina en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E431" s="168" t="s">
+      <c r="E431" s="125" t="s">
         <v>498</v>
       </c>
-      <c r="F431" s="165" t="s">
+      <c r="F431" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G431" s="165" t="s">
+      <c r="G431" s="118" t="s">
         <v>749</v>
       </c>
-      <c r="H431" s="178"/>
+      <c r="H431" s="126"/>
     </row>
     <row r="432" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A432" s="177" t="s">
+      <c r="A432" s="88" t="s">
         <v>1020</v>
       </c>
-      <c r="B432" s="165" t="str">
+      <c r="B432" s="118" t="str">
         <f>+VLOOKUP(A432,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
-      <c r="C432" s="168" t="s">
+      <c r="C432" s="125" t="s">
         <v>1024</v>
       </c>
-      <c r="D432" s="168" t="str">
+      <c r="D432" s="125" t="str">
         <f>+VLOOKUP(C432,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cárnica - Porcina en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E432" s="168" t="s">
+      <c r="E432" s="125" t="s">
         <v>500</v>
       </c>
-      <c r="F432" s="165" t="s">
+      <c r="F432" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G432" s="165" t="s">
+      <c r="G432" s="118" t="s">
         <v>613</v>
       </c>
-      <c r="H432" s="178"/>
+      <c r="H432" s="126"/>
     </row>
     <row r="433" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A433" s="177" t="s">
+      <c r="A433" s="88" t="s">
         <v>1020</v>
       </c>
-      <c r="B433" s="165" t="str">
+      <c r="B433" s="118" t="str">
         <f>+VLOOKUP(A433,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
-      <c r="C433" s="168" t="s">
+      <c r="C433" s="125" t="s">
         <v>1024</v>
       </c>
-      <c r="D433" s="168" t="str">
+      <c r="D433" s="125" t="str">
         <f>+VLOOKUP(C433,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cárnica - Porcina en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E433" s="168" t="s">
+      <c r="E433" s="125" t="s">
         <v>501</v>
       </c>
-      <c r="F433" s="165" t="s">
+      <c r="F433" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G433" s="165" t="s">
+      <c r="G433" s="118" t="s">
         <v>750</v>
       </c>
-      <c r="H433" s="178"/>
+      <c r="H433" s="126"/>
     </row>
     <row r="434" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A434" s="177" t="s">
+      <c r="A434" s="88" t="s">
         <v>1020</v>
       </c>
-      <c r="B434" s="165" t="str">
+      <c r="B434" s="118" t="str">
         <f>+VLOOKUP(A434,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
-      <c r="C434" s="168" t="s">
+      <c r="C434" s="125" t="s">
         <v>1024</v>
       </c>
-      <c r="D434" s="168" t="str">
+      <c r="D434" s="125" t="str">
         <f>+VLOOKUP(C434,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cárnica - Porcina en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E434" s="168" t="s">
+      <c r="E434" s="125" t="s">
         <v>1026</v>
       </c>
-      <c r="F434" s="179" t="s">
-        <v>10</v>
-      </c>
-      <c r="G434" s="165" t="s">
+      <c r="F434" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G434" s="118" t="s">
         <v>1027</v>
       </c>
-      <c r="H434" s="165" t="s">
+      <c r="H434" s="118" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="435" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A435" s="177" t="s">
+      <c r="A435" s="88" t="s">
         <v>1020</v>
       </c>
-      <c r="B435" s="165" t="str">
+      <c r="B435" s="118" t="str">
         <f>+VLOOKUP(A435,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
-      <c r="C435" s="168" t="s">
+      <c r="C435" s="125" t="s">
         <v>1024</v>
       </c>
-      <c r="D435" s="168" t="str">
+      <c r="D435" s="125" t="str">
         <f>+VLOOKUP(C435,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cárnica - Porcina en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E435" s="168" t="s">
+      <c r="E435" s="125" t="s">
         <v>1028</v>
       </c>
-      <c r="F435" s="179" t="s">
-        <v>10</v>
-      </c>
-      <c r="G435" s="165" t="s">
+      <c r="F435" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G435" s="118" t="s">
         <v>1029</v>
       </c>
-      <c r="H435" s="165" t="s">
+      <c r="H435" s="118" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="436" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A436" s="177" t="s">
+      <c r="A436" s="88" t="s">
         <v>1020</v>
       </c>
-      <c r="B436" s="165" t="str">
+      <c r="B436" s="118" t="str">
         <f>+VLOOKUP(A436,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
-      <c r="C436" s="168" t="s">
+      <c r="C436" s="125" t="s">
         <v>1024</v>
       </c>
-      <c r="D436" s="168" t="str">
+      <c r="D436" s="125" t="str">
         <f>+VLOOKUP(C436,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cárnica - Porcina en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E436" s="168" t="s">
+      <c r="E436" s="125" t="s">
         <v>1030</v>
       </c>
-      <c r="F436" s="180" t="s">
-        <v>10</v>
-      </c>
-      <c r="G436" s="168" t="s">
+      <c r="F436" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G436" s="125" t="s">
         <v>1031</v>
       </c>
-      <c r="H436" s="180" t="s">
+      <c r="H436" s="97" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="437" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A437" s="177" t="s">
+      <c r="A437" s="88" t="s">
         <v>1020</v>
       </c>
-      <c r="B437" s="165" t="str">
+      <c r="B437" s="118" t="str">
         <f>+VLOOKUP(A437,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
-      <c r="C437" s="168" t="s">
+      <c r="C437" s="125" t="s">
         <v>1024</v>
       </c>
-      <c r="D437" s="168" t="str">
+      <c r="D437" s="125" t="str">
         <f>+VLOOKUP(C437,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cárnica - Porcina en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E437" s="168" t="s">
+      <c r="E437" s="125" t="s">
         <v>1032</v>
       </c>
-      <c r="F437" s="179" t="s">
-        <v>10</v>
-      </c>
-      <c r="G437" s="165" t="s">
+      <c r="F437" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G437" s="118" t="s">
         <v>1033</v>
       </c>
-      <c r="H437" s="165" t="s">
+      <c r="H437" s="118" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="438" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A438" s="177" t="s">
+      <c r="A438" s="88" t="s">
         <v>1020</v>
       </c>
-      <c r="B438" s="165" t="str">
+      <c r="B438" s="118" t="str">
         <f>+VLOOKUP(A438,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
-      <c r="C438" s="168" t="s">
+      <c r="C438" s="125" t="s">
         <v>1024</v>
       </c>
-      <c r="D438" s="168" t="str">
+      <c r="D438" s="125" t="str">
         <f>+VLOOKUP(C438,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cárnica - Porcina en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E438" s="168" t="s">
+      <c r="E438" s="125" t="s">
         <v>1034</v>
       </c>
-      <c r="F438" s="180" t="s">
-        <v>10</v>
-      </c>
-      <c r="G438" s="168" t="s">
+      <c r="F438" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G438" s="125" t="s">
         <v>1035</v>
       </c>
-      <c r="H438" s="180" t="s">
+      <c r="H438" s="97" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="439" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A439" s="194" t="s">
+      <c r="A439" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B439" s="182" t="str">
+      <c r="B439" s="118" t="str">
         <f>+VLOOKUP(A439,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C439" s="185" t="s">
+      <c r="C439" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D439" s="185" t="str">
+      <c r="D439" s="125" t="str">
         <f>+VLOOKUP(C439,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E439" s="185" t="s">
+      <c r="E439" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="F439" s="182" t="s">
+      <c r="F439" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="G439" s="182" t="s">
+      <c r="G439" s="118" t="s">
         <v>532</v>
       </c>
-      <c r="H439" s="195"/>
+      <c r="H439" s="126"/>
     </row>
     <row r="440" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A440" s="194" t="s">
+      <c r="A440" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B440" s="182" t="str">
+      <c r="B440" s="118" t="str">
         <f>+VLOOKUP(A440,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C440" s="185" t="s">
+      <c r="C440" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D440" s="185" t="str">
+      <c r="D440" s="125" t="str">
         <f>+VLOOKUP(C440,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E440" s="185" t="s">
+      <c r="E440" s="125" t="s">
         <v>526</v>
       </c>
-      <c r="F440" s="182" t="s">
+      <c r="F440" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G440" s="182" t="s">
+      <c r="G440" s="118" t="s">
         <v>1084</v>
       </c>
-      <c r="H440" s="195"/>
+      <c r="H440" s="126"/>
     </row>
     <row r="441" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A441" s="194" t="s">
+      <c r="A441" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B441" s="182" t="str">
+      <c r="B441" s="118" t="str">
         <f>+VLOOKUP(A441,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C441" s="185" t="s">
+      <c r="C441" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D441" s="185" t="str">
+      <c r="D441" s="125" t="str">
         <f>+VLOOKUP(C441,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E441" s="185" t="s">
+      <c r="E441" s="125" t="s">
         <v>498</v>
       </c>
-      <c r="F441" s="182" t="s">
+      <c r="F441" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G441" s="182" t="s">
+      <c r="G441" s="118" t="s">
         <v>749</v>
       </c>
-      <c r="H441" s="195"/>
+      <c r="H441" s="126"/>
     </row>
     <row r="442" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A442" s="194" t="s">
+      <c r="A442" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B442" s="182" t="str">
+      <c r="B442" s="118" t="str">
         <f>+VLOOKUP(A442,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C442" s="185" t="s">
+      <c r="C442" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D442" s="185" t="str">
+      <c r="D442" s="125" t="str">
         <f>+VLOOKUP(C442,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E442" s="185" t="s">
+      <c r="E442" s="125" t="s">
         <v>500</v>
       </c>
-      <c r="F442" s="182" t="s">
+      <c r="F442" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G442" s="182" t="s">
+      <c r="G442" s="118" t="s">
         <v>613</v>
       </c>
-      <c r="H442" s="195"/>
+      <c r="H442" s="126"/>
     </row>
     <row r="443" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A443" s="194" t="s">
+      <c r="A443" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B443" s="182" t="str">
+      <c r="B443" s="118" t="str">
         <f>+VLOOKUP(A443,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C443" s="185" t="s">
+      <c r="C443" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D443" s="185" t="str">
+      <c r="D443" s="125" t="str">
         <f>+VLOOKUP(C443,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E443" s="185" t="s">
+      <c r="E443" s="125" t="s">
         <v>501</v>
       </c>
-      <c r="F443" s="182" t="s">
+      <c r="F443" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G443" s="182" t="s">
+      <c r="G443" s="118" t="s">
         <v>750</v>
       </c>
-      <c r="H443" s="195"/>
+      <c r="H443" s="126"/>
     </row>
     <row r="444" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A444" s="194" t="s">
+      <c r="A444" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B444" s="182" t="str">
+      <c r="B444" s="118" t="str">
         <f>+VLOOKUP(A444,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C444" s="185" t="s">
+      <c r="C444" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D444" s="185" t="str">
+      <c r="D444" s="125" t="str">
         <f>+VLOOKUP(C444,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E444" s="185" t="s">
+      <c r="E444" s="125" t="s">
         <v>1044</v>
       </c>
-      <c r="F444" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G444" s="182" t="s">
+      <c r="F444" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G444" s="118" t="s">
         <v>1064</v>
       </c>
-      <c r="H444" s="182" t="s">
+      <c r="H444" s="118" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="445" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A445" s="194" t="s">
+      <c r="A445" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B445" s="182" t="str">
+      <c r="B445" s="118" t="str">
         <f>+VLOOKUP(A445,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C445" s="185" t="s">
+      <c r="C445" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D445" s="185" t="str">
+      <c r="D445" s="125" t="str">
         <f>+VLOOKUP(C445,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E445" s="185" t="s">
+      <c r="E445" s="125" t="s">
         <v>1045</v>
       </c>
-      <c r="F445" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G445" s="182" t="s">
+      <c r="F445" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G445" s="118" t="s">
         <v>1065</v>
       </c>
-      <c r="H445" s="182" t="s">
+      <c r="H445" s="118" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="446" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A446" s="194" t="s">
+      <c r="A446" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B446" s="182" t="str">
+      <c r="B446" s="118" t="str">
         <f>+VLOOKUP(A446,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C446" s="185" t="s">
+      <c r="C446" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D446" s="185" t="str">
+      <c r="D446" s="125" t="str">
         <f>+VLOOKUP(C446,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E446" s="185" t="s">
+      <c r="E446" s="125" t="s">
         <v>1046</v>
       </c>
-      <c r="F446" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G446" s="182" t="s">
+      <c r="F446" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G446" s="118" t="s">
         <v>1066</v>
       </c>
-      <c r="H446" s="182" t="s">
+      <c r="H446" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="447" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A447" s="194" t="s">
+      <c r="A447" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B447" s="182" t="str">
+      <c r="B447" s="118" t="str">
         <f>+VLOOKUP(A447,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C447" s="185" t="s">
+      <c r="C447" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D447" s="185" t="str">
+      <c r="D447" s="125" t="str">
         <f>+VLOOKUP(C447,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E447" s="185" t="s">
+      <c r="E447" s="125" t="s">
         <v>1047</v>
       </c>
-      <c r="F447" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G447" s="182" t="s">
+      <c r="F447" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G447" s="118" t="s">
         <v>1067</v>
       </c>
-      <c r="H447" s="182" t="s">
+      <c r="H447" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="448" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A448" s="194" t="s">
+      <c r="A448" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B448" s="182" t="str">
+      <c r="B448" s="118" t="str">
         <f>+VLOOKUP(A448,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C448" s="185" t="s">
+      <c r="C448" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D448" s="185" t="str">
+      <c r="D448" s="125" t="str">
         <f>+VLOOKUP(C448,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E448" s="185" t="s">
+      <c r="E448" s="125" t="s">
         <v>1048</v>
       </c>
-      <c r="F448" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G448" s="182" t="s">
+      <c r="F448" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G448" s="118" t="s">
         <v>1068</v>
       </c>
-      <c r="H448" s="182" t="s">
+      <c r="H448" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="449" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A449" s="194" t="s">
+      <c r="A449" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B449" s="182" t="str">
+      <c r="B449" s="118" t="str">
         <f>+VLOOKUP(A449,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C449" s="185" t="s">
+      <c r="C449" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D449" s="185" t="str">
+      <c r="D449" s="125" t="str">
         <f>+VLOOKUP(C449,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E449" s="185" t="s">
+      <c r="E449" s="125" t="s">
         <v>1049</v>
       </c>
-      <c r="F449" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G449" s="182" t="s">
+      <c r="F449" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G449" s="118" t="s">
         <v>1069</v>
       </c>
-      <c r="H449" s="182" t="s">
+      <c r="H449" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="450" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A450" s="194" t="s">
+      <c r="A450" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B450" s="182" t="str">
+      <c r="B450" s="118" t="str">
         <f>+VLOOKUP(A450,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C450" s="185" t="s">
+      <c r="C450" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D450" s="185" t="str">
+      <c r="D450" s="125" t="str">
         <f>+VLOOKUP(C450,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E450" s="185" t="s">
+      <c r="E450" s="125" t="s">
         <v>1050</v>
       </c>
-      <c r="F450" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G450" s="182" t="s">
+      <c r="F450" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G450" s="118" t="s">
         <v>1070</v>
       </c>
-      <c r="H450" s="182" t="s">
+      <c r="H450" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="451" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A451" s="194" t="s">
+      <c r="A451" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B451" s="182" t="str">
+      <c r="B451" s="118" t="str">
         <f>+VLOOKUP(A451,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C451" s="185" t="s">
+      <c r="C451" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D451" s="185" t="str">
+      <c r="D451" s="125" t="str">
         <f>+VLOOKUP(C451,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E451" s="185" t="s">
+      <c r="E451" s="125" t="s">
         <v>1051</v>
       </c>
-      <c r="F451" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G451" s="182" t="s">
+      <c r="F451" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G451" s="118" t="s">
         <v>1071</v>
       </c>
-      <c r="H451" s="182" t="s">
+      <c r="H451" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="452" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A452" s="194" t="s">
+      <c r="A452" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B452" s="182" t="str">
+      <c r="B452" s="118" t="str">
         <f>+VLOOKUP(A452,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C452" s="185" t="s">
+      <c r="C452" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D452" s="185" t="str">
+      <c r="D452" s="125" t="str">
         <f>+VLOOKUP(C452,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E452" s="185" t="s">
+      <c r="E452" s="125" t="s">
         <v>1052</v>
       </c>
-      <c r="F452" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G452" s="182" t="s">
+      <c r="F452" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G452" s="118" t="s">
         <v>1072</v>
       </c>
-      <c r="H452" s="182" t="s">
+      <c r="H452" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="453" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A453" s="194" t="s">
+      <c r="A453" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B453" s="182" t="str">
+      <c r="B453" s="118" t="str">
         <f>+VLOOKUP(A453,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C453" s="185" t="s">
+      <c r="C453" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D453" s="185" t="str">
+      <c r="D453" s="125" t="str">
         <f>+VLOOKUP(C453,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E453" s="185" t="s">
+      <c r="E453" s="125" t="s">
         <v>1053</v>
       </c>
-      <c r="F453" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G453" s="182" t="s">
+      <c r="F453" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G453" s="118" t="s">
         <v>1073</v>
       </c>
-      <c r="H453" s="182" t="s">
+      <c r="H453" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="454" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A454" s="194" t="s">
+      <c r="A454" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B454" s="182" t="str">
+      <c r="B454" s="118" t="str">
         <f>+VLOOKUP(A454,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C454" s="185" t="s">
+      <c r="C454" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D454" s="185" t="str">
+      <c r="D454" s="125" t="str">
         <f>+VLOOKUP(C454,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E454" s="185" t="s">
+      <c r="E454" s="125" t="s">
         <v>1054</v>
       </c>
-      <c r="F454" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G454" s="182" t="s">
+      <c r="F454" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G454" s="118" t="s">
         <v>1074</v>
       </c>
-      <c r="H454" s="182" t="s">
+      <c r="H454" s="118" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="455" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A455" s="194" t="s">
+      <c r="A455" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B455" s="182" t="str">
+      <c r="B455" s="118" t="str">
         <f>+VLOOKUP(A455,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C455" s="185" t="s">
+      <c r="C455" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D455" s="185" t="str">
+      <c r="D455" s="125" t="str">
         <f>+VLOOKUP(C455,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E455" s="185" t="s">
+      <c r="E455" s="125" t="s">
         <v>1055</v>
       </c>
-      <c r="F455" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G455" s="182" t="s">
+      <c r="F455" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G455" s="118" t="s">
         <v>1075</v>
       </c>
-      <c r="H455" s="182" t="s">
+      <c r="H455" s="118" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="456" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A456" s="194" t="s">
+      <c r="A456" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B456" s="182" t="str">
+      <c r="B456" s="118" t="str">
         <f>+VLOOKUP(A456,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C456" s="185" t="s">
+      <c r="C456" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D456" s="185" t="str">
+      <c r="D456" s="125" t="str">
         <f>+VLOOKUP(C456,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E456" s="185" t="s">
+      <c r="E456" s="125" t="s">
         <v>1056</v>
       </c>
-      <c r="F456" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G456" s="182" t="s">
+      <c r="F456" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G456" s="118" t="s">
         <v>1076</v>
       </c>
-      <c r="H456" s="182" t="s">
+      <c r="H456" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="457" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A457" s="194" t="s">
+      <c r="A457" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B457" s="182" t="str">
+      <c r="B457" s="118" t="str">
         <f>+VLOOKUP(A457,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C457" s="185" t="s">
+      <c r="C457" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D457" s="185" t="str">
+      <c r="D457" s="125" t="str">
         <f>+VLOOKUP(C457,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E457" s="185" t="s">
+      <c r="E457" s="125" t="s">
         <v>1057</v>
       </c>
-      <c r="F457" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G457" s="182" t="s">
+      <c r="F457" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G457" s="118" t="s">
         <v>1077</v>
       </c>
-      <c r="H457" s="182" t="s">
+      <c r="H457" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="458" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A458" s="194" t="s">
+      <c r="A458" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B458" s="182" t="str">
+      <c r="B458" s="118" t="str">
         <f>+VLOOKUP(A458,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C458" s="185" t="s">
+      <c r="C458" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D458" s="185" t="str">
+      <c r="D458" s="125" t="str">
         <f>+VLOOKUP(C458,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E458" s="185" t="s">
+      <c r="E458" s="125" t="s">
         <v>1058</v>
       </c>
-      <c r="F458" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G458" s="182" t="s">
+      <c r="F458" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G458" s="118" t="s">
         <v>1078</v>
       </c>
-      <c r="H458" s="182" t="s">
+      <c r="H458" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="459" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A459" s="194" t="s">
+      <c r="A459" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B459" s="182" t="str">
+      <c r="B459" s="118" t="str">
         <f>+VLOOKUP(A459,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C459" s="185" t="s">
+      <c r="C459" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D459" s="185" t="str">
+      <c r="D459" s="125" t="str">
         <f>+VLOOKUP(C459,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E459" s="185" t="s">
+      <c r="E459" s="125" t="s">
         <v>1059</v>
       </c>
-      <c r="F459" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G459" s="182" t="s">
+      <c r="F459" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G459" s="118" t="s">
         <v>1079</v>
       </c>
-      <c r="H459" s="182" t="s">
+      <c r="H459" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="460" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A460" s="194" t="s">
+      <c r="A460" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B460" s="182" t="str">
+      <c r="B460" s="118" t="str">
         <f>+VLOOKUP(A460,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C460" s="185" t="s">
+      <c r="C460" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D460" s="185" t="str">
+      <c r="D460" s="125" t="str">
         <f>+VLOOKUP(C460,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E460" s="185" t="s">
+      <c r="E460" s="125" t="s">
         <v>1060</v>
       </c>
-      <c r="F460" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G460" s="182" t="s">
+      <c r="F460" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G460" s="118" t="s">
         <v>1080</v>
       </c>
-      <c r="H460" s="182" t="s">
+      <c r="H460" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="461" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A461" s="194" t="s">
+      <c r="A461" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B461" s="182" t="str">
+      <c r="B461" s="118" t="str">
         <f>+VLOOKUP(A461,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C461" s="185" t="s">
+      <c r="C461" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D461" s="185" t="str">
+      <c r="D461" s="125" t="str">
         <f>+VLOOKUP(C461,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E461" s="185" t="s">
+      <c r="E461" s="125" t="s">
         <v>1061</v>
       </c>
-      <c r="F461" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G461" s="182" t="s">
+      <c r="F461" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G461" s="118" t="s">
         <v>1081</v>
       </c>
-      <c r="H461" s="182" t="s">
+      <c r="H461" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="462" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A462" s="194" t="s">
+      <c r="A462" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B462" s="182" t="str">
+      <c r="B462" s="118" t="str">
         <f>+VLOOKUP(A462,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C462" s="185" t="s">
+      <c r="C462" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D462" s="185" t="str">
+      <c r="D462" s="125" t="str">
         <f>+VLOOKUP(C462,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E462" s="185" t="s">
+      <c r="E462" s="125" t="s">
         <v>1062</v>
       </c>
-      <c r="F462" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G462" s="182" t="s">
+      <c r="F462" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G462" s="118" t="s">
         <v>1082</v>
       </c>
-      <c r="H462" s="182" t="s">
+      <c r="H462" s="118" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="463" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A463" s="194" t="s">
+      <c r="A463" s="88" t="s">
         <v>1036</v>
       </c>
-      <c r="B463" s="182" t="str">
+      <c r="B463" s="118" t="str">
         <f>+VLOOKUP(A463,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
-      <c r="C463" s="185" t="s">
+      <c r="C463" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D463" s="185" t="str">
+      <c r="D463" s="125" t="str">
         <f>+VLOOKUP(C463,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
-      <c r="E463" s="185" t="s">
+      <c r="E463" s="125" t="s">
         <v>1063</v>
       </c>
-      <c r="F463" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G463" s="182" t="s">
+      <c r="F463" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G463" s="118" t="s">
         <v>1083</v>
       </c>
-      <c r="H463" s="182" t="s">
+      <c r="H463" s="118" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="464" spans="1:8" s="123" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A464" s="177" t="s">
+      <c r="A464" s="88" t="s">
         <v>1085</v>
       </c>
-      <c r="B464" s="165" t="str">
+      <c r="B464" s="118" t="str">
         <f>+VLOOKUP(A464,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
-      <c r="C464" s="168" t="s">
+      <c r="C464" s="125" t="s">
         <v>1094</v>
       </c>
-      <c r="D464" s="168" t="str">
+      <c r="D464" s="125" t="str">
         <f>+VLOOKUP(C464,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Construcción en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E464" s="168" t="s">
+      <c r="E464" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="F464" s="165" t="s">
+      <c r="F464" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="G464" s="165" t="s">
+      <c r="G464" s="118" t="s">
         <v>531</v>
       </c>
-      <c r="H464" s="178"/>
+      <c r="H464" s="126"/>
     </row>
     <row r="465" spans="1:8" s="123" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A465" s="177" t="s">
+      <c r="A465" s="88" t="s">
         <v>1085</v>
       </c>
-      <c r="B465" s="165" t="str">
+      <c r="B465" s="118" t="str">
         <f>+VLOOKUP(A465,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
-      <c r="C465" s="168" t="s">
+      <c r="C465" s="125" t="s">
         <v>1094</v>
       </c>
-      <c r="D465" s="168" t="str">
+      <c r="D465" s="125" t="str">
         <f>+VLOOKUP(C465,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Construcción en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E465" s="168" t="s">
+      <c r="E465" s="125" t="s">
         <v>526</v>
       </c>
-      <c r="F465" s="165" t="s">
+      <c r="F465" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G465" s="165" t="s">
+      <c r="G465" s="118" t="s">
         <v>1084</v>
       </c>
-      <c r="H465" s="178"/>
+      <c r="H465" s="126"/>
     </row>
     <row r="466" spans="1:8" s="123" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A466" s="177" t="s">
+      <c r="A466" s="88" t="s">
         <v>1085</v>
       </c>
-      <c r="B466" s="165" t="str">
+      <c r="B466" s="118" t="str">
         <f>+VLOOKUP(A466,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
-      <c r="C466" s="168" t="s">
+      <c r="C466" s="125" t="s">
         <v>1094</v>
       </c>
-      <c r="D466" s="168" t="str">
+      <c r="D466" s="125" t="str">
         <f>+VLOOKUP(C466,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Construcción en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E466" s="168" t="s">
+      <c r="E466" s="125" t="s">
         <v>498</v>
       </c>
-      <c r="F466" s="165" t="s">
+      <c r="F466" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G466" s="165" t="s">
+      <c r="G466" s="118" t="s">
         <v>749</v>
       </c>
-      <c r="H466" s="178"/>
+      <c r="H466" s="126"/>
     </row>
     <row r="467" spans="1:8" s="123" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A467" s="177" t="s">
+      <c r="A467" s="88" t="s">
         <v>1085</v>
       </c>
-      <c r="B467" s="165" t="str">
+      <c r="B467" s="118" t="str">
         <f>+VLOOKUP(A467,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
-      <c r="C467" s="168" t="s">
+      <c r="C467" s="125" t="s">
         <v>1094</v>
       </c>
-      <c r="D467" s="168" t="str">
+      <c r="D467" s="125" t="str">
         <f>+VLOOKUP(C467,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Construcción en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E467" s="168" t="s">
+      <c r="E467" s="125" t="s">
         <v>500</v>
       </c>
-      <c r="F467" s="165" t="s">
+      <c r="F467" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G467" s="165" t="s">
+      <c r="G467" s="118" t="s">
         <v>613</v>
       </c>
-      <c r="H467" s="178"/>
+      <c r="H467" s="126"/>
     </row>
     <row r="468" spans="1:8" s="123" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A468" s="177" t="s">
+      <c r="A468" s="88" t="s">
         <v>1085</v>
       </c>
-      <c r="B468" s="165" t="str">
+      <c r="B468" s="118" t="str">
         <f>+VLOOKUP(A468,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
-      <c r="C468" s="168" t="s">
+      <c r="C468" s="125" t="s">
         <v>1094</v>
       </c>
-      <c r="D468" s="168" t="str">
+      <c r="D468" s="125" t="str">
         <f>+VLOOKUP(C468,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Construcción en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E468" s="168" t="s">
+      <c r="E468" s="125" t="s">
         <v>501</v>
       </c>
-      <c r="F468" s="165" t="s">
+      <c r="F468" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G468" s="165" t="s">
+      <c r="G468" s="118" t="s">
         <v>750</v>
       </c>
-      <c r="H468" s="178"/>
+      <c r="H468" s="126"/>
     </row>
     <row r="469" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A469" s="177" t="s">
+      <c r="A469" s="88" t="s">
         <v>1085</v>
       </c>
-      <c r="B469" s="165" t="str">
+      <c r="B469" s="118" t="str">
         <f>+VLOOKUP(A469,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
-      <c r="C469" s="168" t="s">
+      <c r="C469" s="125" t="s">
         <v>1094</v>
       </c>
-      <c r="D469" s="168" t="str">
+      <c r="D469" s="125" t="str">
         <f>+VLOOKUP(C469,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Construcción en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E469" s="168" t="s">
+      <c r="E469" s="125" t="s">
         <v>1095</v>
       </c>
-      <c r="F469" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G469" s="165" t="s">
+      <c r="F469" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G469" s="118" t="s">
         <v>1099</v>
       </c>
-      <c r="H469" s="180" t="s">
+      <c r="H469" s="97" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="470" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A470" s="177" t="s">
+      <c r="A470" s="88" t="s">
         <v>1085</v>
       </c>
-      <c r="B470" s="165" t="str">
+      <c r="B470" s="118" t="str">
         <f>+VLOOKUP(A470,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
-      <c r="C470" s="168" t="s">
+      <c r="C470" s="125" t="s">
         <v>1094</v>
       </c>
-      <c r="D470" s="168" t="str">
+      <c r="D470" s="125" t="str">
         <f>+VLOOKUP(C470,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Construcción en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E470" s="168" t="s">
+      <c r="E470" s="125" t="s">
         <v>1096</v>
       </c>
-      <c r="F470" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G470" s="165" t="s">
+      <c r="F470" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G470" s="118" t="s">
         <v>1100</v>
       </c>
-      <c r="H470" s="180" t="s">
+      <c r="H470" s="97" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="471" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A471" s="177" t="s">
+      <c r="A471" s="88" t="s">
         <v>1085</v>
       </c>
-      <c r="B471" s="165" t="str">
+      <c r="B471" s="118" t="str">
         <f>+VLOOKUP(A471,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
-      <c r="C471" s="168" t="s">
+      <c r="C471" s="125" t="s">
         <v>1094</v>
       </c>
-      <c r="D471" s="168" t="str">
+      <c r="D471" s="125" t="str">
         <f>+VLOOKUP(C471,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Construcción en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E471" s="168" t="s">
+      <c r="E471" s="125" t="s">
         <v>1097</v>
       </c>
-      <c r="F471" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G471" s="165" t="s">
+      <c r="F471" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G471" s="118" t="s">
         <v>1101</v>
       </c>
-      <c r="H471" s="180" t="s">
+      <c r="H471" s="97" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="472" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A472" s="177" t="s">
+      <c r="A472" s="88" t="s">
         <v>1085</v>
       </c>
-      <c r="B472" s="165" t="str">
+      <c r="B472" s="118" t="str">
         <f>+VLOOKUP(A472,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
-      <c r="C472" s="168" t="s">
+      <c r="C472" s="125" t="s">
         <v>1094</v>
       </c>
-      <c r="D472" s="168" t="str">
+      <c r="D472" s="125" t="str">
         <f>+VLOOKUP(C472,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Construcción en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E472" s="168" t="s">
+      <c r="E472" s="125" t="s">
         <v>1098</v>
       </c>
-      <c r="F472" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G472" s="165" t="s">
+      <c r="F472" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G472" s="118" t="s">
         <v>1102</v>
       </c>
-      <c r="H472" s="180" t="s">
+      <c r="H472" s="97" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="473" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A473" s="194" t="s">
+      <c r="A473" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B473" s="182" t="str">
+      <c r="B473" s="118" t="str">
         <f>+VLOOKUP(A473,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C473" s="185" t="s">
+      <c r="C473" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D473" s="185" t="str">
+      <c r="D473" s="125" t="str">
         <f>+VLOOKUP(C473,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E473" s="185" t="s">
+      <c r="E473" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="F473" s="182" t="s">
+      <c r="F473" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="G473" s="182" t="s">
+      <c r="G473" s="118" t="s">
         <v>531</v>
       </c>
-      <c r="H473" s="195"/>
+      <c r="H473" s="126"/>
     </row>
     <row r="474" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A474" s="194" t="s">
+      <c r="A474" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B474" s="182" t="str">
+      <c r="B474" s="118" t="str">
         <f>+VLOOKUP(A474,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C474" s="185" t="s">
+      <c r="C474" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D474" s="185" t="str">
+      <c r="D474" s="125" t="str">
         <f>+VLOOKUP(C474,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E474" s="185" t="s">
+      <c r="E474" s="125" t="s">
         <v>526</v>
       </c>
-      <c r="F474" s="182" t="s">
+      <c r="F474" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G474" s="182" t="s">
+      <c r="G474" s="118" t="s">
         <v>1084</v>
       </c>
-      <c r="H474" s="195"/>
+      <c r="H474" s="126"/>
     </row>
     <row r="475" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A475" s="194" t="s">
+      <c r="A475" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B475" s="182" t="str">
+      <c r="B475" s="118" t="str">
         <f>+VLOOKUP(A475,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C475" s="185" t="s">
+      <c r="C475" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D475" s="185" t="str">
+      <c r="D475" s="125" t="str">
         <f>+VLOOKUP(C475,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E475" s="185" t="s">
+      <c r="E475" s="125" t="s">
         <v>498</v>
       </c>
-      <c r="F475" s="182" t="s">
+      <c r="F475" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G475" s="182" t="s">
+      <c r="G475" s="118" t="s">
         <v>749</v>
       </c>
-      <c r="H475" s="195"/>
+      <c r="H475" s="126"/>
     </row>
     <row r="476" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A476" s="194" t="s">
+      <c r="A476" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B476" s="182" t="str">
+      <c r="B476" s="118" t="str">
         <f>+VLOOKUP(A476,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C476" s="185" t="s">
+      <c r="C476" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D476" s="185" t="str">
+      <c r="D476" s="125" t="str">
         <f>+VLOOKUP(C476,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E476" s="185" t="s">
+      <c r="E476" s="125" t="s">
         <v>500</v>
       </c>
-      <c r="F476" s="182" t="s">
+      <c r="F476" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G476" s="182" t="s">
+      <c r="G476" s="118" t="s">
         <v>613</v>
       </c>
-      <c r="H476" s="195"/>
+      <c r="H476" s="126"/>
     </row>
     <row r="477" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A477" s="194" t="s">
+      <c r="A477" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B477" s="182" t="str">
+      <c r="B477" s="118" t="str">
         <f>+VLOOKUP(A477,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C477" s="185" t="s">
+      <c r="C477" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D477" s="185" t="str">
+      <c r="D477" s="125" t="str">
         <f>+VLOOKUP(C477,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E477" s="185" t="s">
+      <c r="E477" s="125" t="s">
         <v>501</v>
       </c>
-      <c r="F477" s="182" t="s">
+      <c r="F477" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G477" s="182" t="s">
+      <c r="G477" s="118" t="s">
         <v>750</v>
       </c>
-      <c r="H477" s="195"/>
+      <c r="H477" s="126"/>
     </row>
     <row r="478" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A478" s="194" t="s">
+      <c r="A478" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B478" s="182" t="str">
+      <c r="B478" s="118" t="str">
         <f>+VLOOKUP(A478,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C478" s="185" t="s">
+      <c r="C478" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D478" s="185" t="str">
+      <c r="D478" s="125" t="str">
         <f>+VLOOKUP(C478,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E478" s="185" t="s">
+      <c r="E478" s="125" t="s">
         <v>1110</v>
       </c>
-      <c r="F478" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G478" s="182" t="s">
+      <c r="F478" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G478" s="118" t="s">
         <v>1125</v>
       </c>
-      <c r="H478" s="182" t="s">
+      <c r="H478" s="118" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="479" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A479" s="194" t="s">
+      <c r="A479" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B479" s="182" t="str">
+      <c r="B479" s="118" t="str">
         <f>+VLOOKUP(A479,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C479" s="185" t="s">
+      <c r="C479" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D479" s="185" t="str">
+      <c r="D479" s="125" t="str">
         <f>+VLOOKUP(C479,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E479" s="185" t="s">
+      <c r="E479" s="125" t="s">
         <v>1111</v>
       </c>
-      <c r="F479" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G479" s="182" t="s">
+      <c r="F479" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G479" s="118" t="s">
         <v>1126</v>
       </c>
-      <c r="H479" s="182" t="s">
+      <c r="H479" s="118" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="480" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A480" s="194" t="s">
+      <c r="A480" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B480" s="182" t="str">
+      <c r="B480" s="118" t="str">
         <f>+VLOOKUP(A480,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C480" s="185" t="s">
+      <c r="C480" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D480" s="185" t="str">
+      <c r="D480" s="125" t="str">
         <f>+VLOOKUP(C480,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E480" s="185" t="s">
+      <c r="E480" s="125" t="s">
         <v>1112</v>
       </c>
-      <c r="F480" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G480" s="182" t="s">
+      <c r="F480" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G480" s="118" t="s">
         <v>1127</v>
       </c>
-      <c r="H480" s="182" t="s">
+      <c r="H480" s="118" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="481" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A481" s="194" t="s">
+      <c r="A481" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B481" s="182" t="str">
+      <c r="B481" s="118" t="str">
         <f>+VLOOKUP(A481,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C481" s="185" t="s">
+      <c r="C481" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D481" s="185" t="str">
+      <c r="D481" s="125" t="str">
         <f>+VLOOKUP(C481,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E481" s="185" t="s">
+      <c r="E481" s="125" t="s">
         <v>1113</v>
       </c>
-      <c r="F481" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G481" s="182" t="s">
+      <c r="F481" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G481" s="118" t="s">
         <v>1128</v>
       </c>
-      <c r="H481" s="182" t="s">
+      <c r="H481" s="118" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="482" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A482" s="194" t="s">
+      <c r="A482" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B482" s="182" t="str">
+      <c r="B482" s="118" t="str">
         <f>+VLOOKUP(A482,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C482" s="185" t="s">
+      <c r="C482" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D482" s="185" t="str">
+      <c r="D482" s="125" t="str">
         <f>+VLOOKUP(C482,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E482" s="185" t="s">
+      <c r="E482" s="125" t="s">
         <v>1114</v>
       </c>
-      <c r="F482" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G482" s="182" t="s">
+      <c r="F482" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G482" s="118" t="s">
         <v>1129</v>
       </c>
-      <c r="H482" s="182" t="s">
+      <c r="H482" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="483" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A483" s="194" t="s">
+      <c r="A483" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B483" s="182" t="str">
+      <c r="B483" s="118" t="str">
         <f>+VLOOKUP(A483,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C483" s="185" t="s">
+      <c r="C483" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D483" s="185" t="str">
+      <c r="D483" s="125" t="str">
         <f>+VLOOKUP(C483,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E483" s="185" t="s">
+      <c r="E483" s="125" t="s">
         <v>1115</v>
       </c>
-      <c r="F483" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G483" s="182" t="s">
+      <c r="F483" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G483" s="118" t="s">
         <v>1130</v>
       </c>
-      <c r="H483" s="182" t="s">
+      <c r="H483" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="484" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A484" s="194" t="s">
+      <c r="A484" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B484" s="182" t="str">
+      <c r="B484" s="118" t="str">
         <f>+VLOOKUP(A484,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C484" s="185" t="s">
+      <c r="C484" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D484" s="185" t="str">
+      <c r="D484" s="125" t="str">
         <f>+VLOOKUP(C484,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E484" s="185" t="s">
+      <c r="E484" s="125" t="s">
         <v>1116</v>
       </c>
-      <c r="F484" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G484" s="182" t="s">
+      <c r="F484" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G484" s="118" t="s">
         <v>1131</v>
       </c>
-      <c r="H484" s="182" t="s">
+      <c r="H484" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="485" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A485" s="194" t="s">
+      <c r="A485" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B485" s="182" t="str">
+      <c r="B485" s="118" t="str">
         <f>+VLOOKUP(A485,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C485" s="185" t="s">
+      <c r="C485" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D485" s="185" t="str">
+      <c r="D485" s="125" t="str">
         <f>+VLOOKUP(C485,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E485" s="185" t="s">
+      <c r="E485" s="125" t="s">
         <v>1117</v>
       </c>
-      <c r="F485" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G485" s="182" t="s">
+      <c r="F485" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G485" s="118" t="s">
         <v>1132</v>
       </c>
-      <c r="H485" s="182" t="s">
+      <c r="H485" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="486" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A486" s="194" t="s">
+      <c r="A486" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B486" s="182" t="str">
+      <c r="B486" s="118" t="str">
         <f>+VLOOKUP(A486,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C486" s="185" t="s">
+      <c r="C486" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D486" s="185" t="str">
+      <c r="D486" s="125" t="str">
         <f>+VLOOKUP(C486,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E486" s="185" t="s">
+      <c r="E486" s="125" t="s">
         <v>1118</v>
       </c>
-      <c r="F486" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G486" s="182" t="s">
+      <c r="F486" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G486" s="118" t="s">
         <v>1133</v>
       </c>
-      <c r="H486" s="182" t="s">
+      <c r="H486" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="487" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A487" s="194" t="s">
+      <c r="A487" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B487" s="182" t="str">
+      <c r="B487" s="118" t="str">
         <f>+VLOOKUP(A487,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C487" s="185" t="s">
+      <c r="C487" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D487" s="185" t="str">
+      <c r="D487" s="125" t="str">
         <f>+VLOOKUP(C487,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E487" s="185" t="s">
+      <c r="E487" s="125" t="s">
         <v>1119</v>
       </c>
-      <c r="F487" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G487" s="182" t="s">
+      <c r="F487" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G487" s="118" t="s">
         <v>1134</v>
       </c>
-      <c r="H487" s="182" t="s">
+      <c r="H487" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="488" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A488" s="194" t="s">
+      <c r="A488" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B488" s="182" t="str">
+      <c r="B488" s="118" t="str">
         <f>+VLOOKUP(A488,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C488" s="185" t="s">
+      <c r="C488" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D488" s="185" t="str">
+      <c r="D488" s="125" t="str">
         <f>+VLOOKUP(C488,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E488" s="185" t="s">
+      <c r="E488" s="125" t="s">
         <v>1120</v>
       </c>
-      <c r="F488" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G488" s="182" t="s">
+      <c r="F488" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G488" s="118" t="s">
         <v>1135</v>
       </c>
-      <c r="H488" s="182" t="s">
+      <c r="H488" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="489" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A489" s="194" t="s">
+      <c r="A489" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B489" s="182" t="str">
+      <c r="B489" s="118" t="str">
         <f>+VLOOKUP(A489,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C489" s="185" t="s">
+      <c r="C489" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D489" s="185" t="str">
+      <c r="D489" s="125" t="str">
         <f>+VLOOKUP(C489,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E489" s="185" t="s">
+      <c r="E489" s="125" t="s">
         <v>1121</v>
       </c>
-      <c r="F489" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G489" s="182" t="s">
+      <c r="F489" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G489" s="118" t="s">
         <v>1136</v>
       </c>
-      <c r="H489" s="182" t="s">
+      <c r="H489" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="490" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A490" s="194" t="s">
+      <c r="A490" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B490" s="182" t="str">
+      <c r="B490" s="118" t="str">
         <f>+VLOOKUP(A490,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C490" s="185" t="s">
+      <c r="C490" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D490" s="185" t="str">
+      <c r="D490" s="125" t="str">
         <f>+VLOOKUP(C490,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E490" s="185" t="s">
+      <c r="E490" s="125" t="s">
         <v>1122</v>
       </c>
-      <c r="F490" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G490" s="182" t="s">
+      <c r="F490" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G490" s="118" t="s">
         <v>1137</v>
       </c>
-      <c r="H490" s="182" t="s">
+      <c r="H490" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="491" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A491" s="194" t="s">
+      <c r="A491" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B491" s="182" t="str">
+      <c r="B491" s="118" t="str">
         <f>+VLOOKUP(A491,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C491" s="185" t="s">
+      <c r="C491" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D491" s="185" t="str">
+      <c r="D491" s="125" t="str">
         <f>+VLOOKUP(C491,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E491" s="185" t="s">
+      <c r="E491" s="125" t="s">
         <v>1123</v>
       </c>
-      <c r="F491" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G491" s="182" t="s">
+      <c r="F491" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G491" s="118" t="s">
         <v>1138</v>
       </c>
-      <c r="H491" s="182" t="s">
+      <c r="H491" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="492" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A492" s="194" t="s">
+      <c r="A492" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B492" s="182" t="str">
+      <c r="B492" s="118" t="str">
         <f>+VLOOKUP(A492,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C492" s="185" t="s">
+      <c r="C492" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D492" s="185" t="str">
+      <c r="D492" s="125" t="str">
         <f>+VLOOKUP(C492,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E492" s="185" t="s">
+      <c r="E492" s="125" t="s">
         <v>1124</v>
       </c>
-      <c r="F492" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G492" s="182" t="s">
+      <c r="F492" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G492" s="118" t="s">
         <v>1139</v>
       </c>
-      <c r="H492" s="182" t="s">
+      <c r="H492" s="118" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="493" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A493" s="194" t="s">
+      <c r="A493" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B493" s="182" t="str">
+      <c r="B493" s="118" t="str">
         <f>+VLOOKUP(A493,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C493" s="185" t="s">
+      <c r="C493" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D493" s="185" t="str">
+      <c r="D493" s="125" t="str">
         <f>+VLOOKUP(C493,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E493" s="185" t="s">
+      <c r="E493" s="125" t="s">
         <v>1140</v>
       </c>
-      <c r="F493" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G493" s="182" t="s">
+      <c r="F493" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G493" s="118" t="s">
         <v>1157</v>
       </c>
-      <c r="H493" s="182" t="s">
+      <c r="H493" s="118" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="494" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A494" s="194" t="s">
+      <c r="A494" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B494" s="182" t="str">
+      <c r="B494" s="118" t="str">
         <f>+VLOOKUP(A494,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C494" s="185" t="s">
+      <c r="C494" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D494" s="185" t="str">
+      <c r="D494" s="125" t="str">
         <f>+VLOOKUP(C494,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E494" s="185" t="s">
+      <c r="E494" s="125" t="s">
         <v>1141</v>
       </c>
-      <c r="F494" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G494" s="182" t="s">
+      <c r="F494" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G494" s="118" t="s">
         <v>1158</v>
       </c>
-      <c r="H494" s="182" t="s">
+      <c r="H494" s="118" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="495" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A495" s="194" t="s">
+      <c r="A495" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B495" s="182" t="str">
+      <c r="B495" s="118" t="str">
         <f>+VLOOKUP(A495,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C495" s="185" t="s">
+      <c r="C495" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D495" s="185" t="str">
+      <c r="D495" s="125" t="str">
         <f>+VLOOKUP(C495,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E495" s="185" t="s">
+      <c r="E495" s="125" t="s">
         <v>1142</v>
       </c>
-      <c r="F495" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G495" s="182" t="s">
+      <c r="F495" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G495" s="118" t="s">
         <v>1159</v>
       </c>
-      <c r="H495" s="182" t="s">
+      <c r="H495" s="118" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="496" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A496" s="194" t="s">
+      <c r="A496" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B496" s="182" t="str">
+      <c r="B496" s="118" t="str">
         <f>+VLOOKUP(A496,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C496" s="185" t="s">
+      <c r="C496" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D496" s="185" t="str">
+      <c r="D496" s="125" t="str">
         <f>+VLOOKUP(C496,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E496" s="185" t="s">
+      <c r="E496" s="125" t="s">
         <v>1143</v>
       </c>
-      <c r="F496" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G496" s="182" t="s">
+      <c r="F496" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G496" s="118" t="s">
         <v>1160</v>
       </c>
-      <c r="H496" s="182" t="s">
+      <c r="H496" s="118" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="497" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A497" s="194" t="s">
+      <c r="A497" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B497" s="182" t="str">
+      <c r="B497" s="118" t="str">
         <f>+VLOOKUP(A497,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C497" s="185" t="s">
+      <c r="C497" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D497" s="185" t="str">
+      <c r="D497" s="125" t="str">
         <f>+VLOOKUP(C497,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E497" s="185" t="s">
+      <c r="E497" s="125" t="s">
         <v>1144</v>
       </c>
-      <c r="F497" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G497" s="182" t="s">
+      <c r="F497" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G497" s="118" t="s">
         <v>1161</v>
       </c>
-      <c r="H497" s="182" t="s">
+      <c r="H497" s="118" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="498" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A498" s="194" t="s">
+      <c r="A498" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B498" s="182" t="str">
+      <c r="B498" s="118" t="str">
         <f>+VLOOKUP(A498,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C498" s="185" t="s">
+      <c r="C498" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D498" s="185" t="str">
+      <c r="D498" s="125" t="str">
         <f>+VLOOKUP(C498,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E498" s="185" t="s">
+      <c r="E498" s="125" t="s">
         <v>1145</v>
       </c>
-      <c r="F498" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G498" s="182" t="s">
+      <c r="F498" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G498" s="118" t="s">
         <v>1162</v>
       </c>
-      <c r="H498" s="182" t="s">
+      <c r="H498" s="118" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="499" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A499" s="194" t="s">
+      <c r="A499" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B499" s="182" t="str">
+      <c r="B499" s="118" t="str">
         <f>+VLOOKUP(A499,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C499" s="185" t="s">
+      <c r="C499" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D499" s="185" t="str">
+      <c r="D499" s="125" t="str">
         <f>+VLOOKUP(C499,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E499" s="185" t="s">
+      <c r="E499" s="125" t="s">
         <v>1146</v>
       </c>
-      <c r="F499" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G499" s="182" t="s">
+      <c r="F499" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G499" s="118" t="s">
         <v>1163</v>
       </c>
-      <c r="H499" s="182" t="s">
+      <c r="H499" s="118" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="500" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A500" s="194" t="s">
+      <c r="A500" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B500" s="182" t="str">
+      <c r="B500" s="118" t="str">
         <f>+VLOOKUP(A500,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C500" s="185" t="s">
+      <c r="C500" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D500" s="185" t="str">
+      <c r="D500" s="125" t="str">
         <f>+VLOOKUP(C500,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E500" s="185" t="s">
+      <c r="E500" s="125" t="s">
         <v>1147</v>
       </c>
-      <c r="F500" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G500" s="182" t="s">
+      <c r="F500" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G500" s="118" t="s">
         <v>1164</v>
       </c>
-      <c r="H500" s="182" t="s">
+      <c r="H500" s="118" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="501" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A501" s="194" t="s">
+      <c r="A501" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B501" s="182" t="str">
+      <c r="B501" s="118" t="str">
         <f>+VLOOKUP(A501,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C501" s="185" t="s">
+      <c r="C501" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D501" s="185" t="str">
+      <c r="D501" s="125" t="str">
         <f>+VLOOKUP(C501,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E501" s="185" t="s">
+      <c r="E501" s="125" t="s">
         <v>1148</v>
       </c>
-      <c r="F501" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G501" s="182" t="s">
+      <c r="F501" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G501" s="118" t="s">
         <v>1165</v>
       </c>
-      <c r="H501" s="182" t="s">
+      <c r="H501" s="118" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="502" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A502" s="194" t="s">
+      <c r="A502" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B502" s="182" t="str">
+      <c r="B502" s="118" t="str">
         <f>+VLOOKUP(A502,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C502" s="185" t="s">
+      <c r="C502" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D502" s="185" t="str">
+      <c r="D502" s="125" t="str">
         <f>+VLOOKUP(C502,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E502" s="185" t="s">
+      <c r="E502" s="125" t="s">
         <v>1149</v>
       </c>
-      <c r="F502" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G502" s="182" t="s">
+      <c r="F502" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G502" s="118" t="s">
         <v>1166</v>
       </c>
-      <c r="H502" s="182" t="s">
+      <c r="H502" s="118" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="503" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A503" s="194" t="s">
+      <c r="A503" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B503" s="182" t="str">
+      <c r="B503" s="118" t="str">
         <f>+VLOOKUP(A503,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C503" s="185" t="s">
+      <c r="C503" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D503" s="185" t="str">
+      <c r="D503" s="125" t="str">
         <f>+VLOOKUP(C503,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E503" s="185" t="s">
+      <c r="E503" s="125" t="s">
         <v>1150</v>
       </c>
-      <c r="F503" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G503" s="182" t="s">
+      <c r="F503" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G503" s="118" t="s">
         <v>1167</v>
       </c>
-      <c r="H503" s="182" t="s">
+      <c r="H503" s="118" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="504" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A504" s="194" t="s">
+      <c r="A504" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B504" s="182" t="str">
+      <c r="B504" s="118" t="str">
         <f>+VLOOKUP(A504,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C504" s="185" t="s">
+      <c r="C504" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D504" s="185" t="str">
+      <c r="D504" s="125" t="str">
         <f>+VLOOKUP(C504,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E504" s="185" t="s">
+      <c r="E504" s="125" t="s">
         <v>1151</v>
       </c>
-      <c r="F504" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G504" s="182" t="s">
+      <c r="F504" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G504" s="118" t="s">
         <v>1168</v>
       </c>
-      <c r="H504" s="182" t="s">
+      <c r="H504" s="118" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="505" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A505" s="194" t="s">
+      <c r="A505" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B505" s="182" t="str">
+      <c r="B505" s="118" t="str">
         <f>+VLOOKUP(A505,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C505" s="185" t="s">
+      <c r="C505" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D505" s="185" t="str">
+      <c r="D505" s="125" t="str">
         <f>+VLOOKUP(C505,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E505" s="185" t="s">
+      <c r="E505" s="125" t="s">
         <v>1152</v>
       </c>
-      <c r="F505" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G505" s="182" t="s">
+      <c r="F505" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G505" s="118" t="s">
         <v>1169</v>
       </c>
-      <c r="H505" s="182" t="s">
+      <c r="H505" s="118" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="506" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A506" s="194" t="s">
+      <c r="A506" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B506" s="182" t="str">
+      <c r="B506" s="118" t="str">
         <f>+VLOOKUP(A506,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C506" s="185" t="s">
+      <c r="C506" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D506" s="185" t="str">
+      <c r="D506" s="125" t="str">
         <f>+VLOOKUP(C506,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E506" s="185" t="s">
+      <c r="E506" s="125" t="s">
         <v>1153</v>
       </c>
-      <c r="F506" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G506" s="182" t="s">
+      <c r="F506" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G506" s="118" t="s">
         <v>1170</v>
       </c>
-      <c r="H506" s="182" t="s">
+      <c r="H506" s="118" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="507" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A507" s="194" t="s">
+      <c r="A507" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B507" s="182" t="str">
+      <c r="B507" s="118" t="str">
         <f>+VLOOKUP(A507,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C507" s="185" t="s">
+      <c r="C507" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D507" s="185" t="str">
+      <c r="D507" s="125" t="str">
         <f>+VLOOKUP(C507,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E507" s="185" t="s">
+      <c r="E507" s="125" t="s">
         <v>1154</v>
       </c>
-      <c r="F507" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G507" s="182" t="s">
+      <c r="F507" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G507" s="118" t="s">
         <v>1171</v>
       </c>
-      <c r="H507" s="182" t="s">
+      <c r="H507" s="118" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="508" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A508" s="194" t="s">
+      <c r="A508" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B508" s="182" t="str">
+      <c r="B508" s="118" t="str">
         <f>+VLOOKUP(A508,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C508" s="185" t="s">
+      <c r="C508" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D508" s="185" t="str">
+      <c r="D508" s="125" t="str">
         <f>+VLOOKUP(C508,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E508" s="185" t="s">
+      <c r="E508" s="125" t="s">
         <v>1155</v>
       </c>
-      <c r="F508" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G508" s="182" t="s">
+      <c r="F508" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G508" s="118" t="s">
         <v>1172</v>
       </c>
-      <c r="H508" s="182" t="s">
+      <c r="H508" s="118" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="509" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A509" s="194" t="s">
+      <c r="A509" s="88" t="s">
         <v>1103</v>
       </c>
-      <c r="B509" s="182" t="str">
+      <c r="B509" s="118" t="str">
         <f>+VLOOKUP(A509,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
-      <c r="C509" s="185" t="s">
+      <c r="C509" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D509" s="185" t="str">
+      <c r="D509" s="125" t="str">
         <f>+VLOOKUP(C509,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E509" s="185" t="s">
+      <c r="E509" s="125" t="s">
         <v>1156</v>
       </c>
-      <c r="F509" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G509" s="182" t="s">
+      <c r="F509" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G509" s="118" t="s">
         <v>1173</v>
       </c>
-      <c r="H509" s="182" t="s">
+      <c r="H509" s="118" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="510" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A510" s="177" t="s">
+      <c r="A510" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B510" s="165" t="str">
+      <c r="B510" s="118" t="str">
         <f>+VLOOKUP(A510,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C510" s="168" t="s">
+      <c r="C510" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D510" s="168" t="str">
+      <c r="D510" s="125" t="str">
         <f>+VLOOKUP(C510,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E510" s="168" t="s">
+      <c r="E510" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="F510" s="165" t="s">
+      <c r="F510" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="G510" s="165" t="s">
+      <c r="G510" s="118" t="s">
         <v>532</v>
       </c>
-      <c r="H510" s="179"/>
+      <c r="H510" s="89"/>
     </row>
     <row r="511" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A511" s="177" t="s">
+      <c r="A511" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B511" s="165" t="str">
+      <c r="B511" s="118" t="str">
         <f>+VLOOKUP(A511,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C511" s="168" t="s">
+      <c r="C511" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D511" s="168" t="str">
+      <c r="D511" s="125" t="str">
         <f>+VLOOKUP(C511,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E511" s="168" t="s">
+      <c r="E511" s="125" t="s">
         <v>526</v>
       </c>
-      <c r="F511" s="165" t="s">
+      <c r="F511" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G511" s="165" t="s">
+      <c r="G511" s="118" t="s">
         <v>1084</v>
       </c>
-      <c r="H511" s="179"/>
+      <c r="H511" s="89"/>
     </row>
     <row r="512" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A512" s="177" t="s">
+      <c r="A512" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B512" s="165" t="str">
+      <c r="B512" s="118" t="str">
         <f>+VLOOKUP(A512,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C512" s="168" t="s">
+      <c r="C512" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D512" s="168" t="str">
+      <c r="D512" s="125" t="str">
         <f>+VLOOKUP(C512,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E512" s="168" t="s">
+      <c r="E512" s="125" t="s">
         <v>498</v>
       </c>
-      <c r="F512" s="165" t="s">
+      <c r="F512" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G512" s="165" t="s">
+      <c r="G512" s="118" t="s">
         <v>749</v>
       </c>
-      <c r="H512" s="179"/>
+      <c r="H512" s="89"/>
     </row>
     <row r="513" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A513" s="177" t="s">
+      <c r="A513" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B513" s="165" t="str">
+      <c r="B513" s="118" t="str">
         <f>+VLOOKUP(A513,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C513" s="168" t="s">
+      <c r="C513" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D513" s="168" t="str">
+      <c r="D513" s="125" t="str">
         <f>+VLOOKUP(C513,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E513" s="168" t="s">
+      <c r="E513" s="125" t="s">
         <v>500</v>
       </c>
-      <c r="F513" s="165" t="s">
+      <c r="F513" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G513" s="165" t="s">
+      <c r="G513" s="118" t="s">
         <v>613</v>
       </c>
-      <c r="H513" s="179"/>
+      <c r="H513" s="89"/>
     </row>
     <row r="514" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A514" s="177" t="s">
+      <c r="A514" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B514" s="165" t="str">
+      <c r="B514" s="118" t="str">
         <f>+VLOOKUP(A514,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C514" s="168" t="s">
+      <c r="C514" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D514" s="168" t="str">
+      <c r="D514" s="125" t="str">
         <f>+VLOOKUP(C514,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E514" s="168" t="s">
+      <c r="E514" s="125" t="s">
         <v>501</v>
       </c>
-      <c r="F514" s="165" t="s">
+      <c r="F514" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G514" s="165" t="s">
+      <c r="G514" s="118" t="s">
         <v>750</v>
       </c>
-      <c r="H514" s="179"/>
+      <c r="H514" s="89"/>
     </row>
     <row r="515" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A515" s="177" t="s">
+      <c r="A515" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B515" s="165" t="str">
+      <c r="B515" s="118" t="str">
         <f>+VLOOKUP(A515,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C515" s="168" t="s">
+      <c r="C515" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D515" s="168" t="str">
+      <c r="D515" s="125" t="str">
         <f>+VLOOKUP(C515,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E515" s="168" t="s">
+      <c r="E515" s="125" t="s">
         <v>1188</v>
       </c>
-      <c r="F515" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G515" s="165" t="s">
+      <c r="F515" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G515" s="118" t="s">
         <v>1200</v>
       </c>
-      <c r="H515" s="179" t="s">
+      <c r="H515" s="89" t="s">
         <v>397</v>
       </c>
-      <c r="I515" s="218"/>
+      <c r="I515" s="184"/>
     </row>
     <row r="516" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A516" s="177" t="s">
+      <c r="A516" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B516" s="165" t="str">
+      <c r="B516" s="118" t="str">
         <f>+VLOOKUP(A516,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C516" s="168" t="s">
+      <c r="C516" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D516" s="168" t="str">
+      <c r="D516" s="125" t="str">
         <f>+VLOOKUP(C516,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E516" s="168" t="s">
+      <c r="E516" s="125" t="s">
         <v>1189</v>
       </c>
-      <c r="F516" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G516" s="165" t="s">
+      <c r="F516" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G516" s="118" t="s">
         <v>1201</v>
       </c>
-      <c r="H516" s="179" t="s">
+      <c r="H516" s="89" t="s">
         <v>397</v>
       </c>
-      <c r="I516" s="218"/>
+      <c r="I516" s="184"/>
     </row>
     <row r="517" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A517" s="177" t="s">
+      <c r="A517" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B517" s="165" t="str">
+      <c r="B517" s="118" t="str">
         <f>+VLOOKUP(A517,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C517" s="168" t="s">
+      <c r="C517" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D517" s="168" t="str">
+      <c r="D517" s="125" t="str">
         <f>+VLOOKUP(C517,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E517" s="168" t="s">
+      <c r="E517" s="125" t="s">
         <v>1215</v>
       </c>
-      <c r="F517" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G517" s="165" t="s">
+      <c r="F517" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G517" s="118" t="s">
         <v>1214</v>
       </c>
-      <c r="H517" s="179" t="s">
+      <c r="H517" s="89" t="s">
         <v>1212</v>
       </c>
-      <c r="I517" s="218"/>
+      <c r="I517" s="184"/>
     </row>
     <row r="518" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A518" s="177" t="s">
+      <c r="A518" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B518" s="165" t="str">
+      <c r="B518" s="118" t="str">
         <f>+VLOOKUP(A518,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C518" s="168" t="s">
+      <c r="C518" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D518" s="168" t="str">
+      <c r="D518" s="125" t="str">
         <f>+VLOOKUP(C518,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E518" s="168" t="s">
+      <c r="E518" s="125" t="s">
         <v>1190</v>
       </c>
-      <c r="F518" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G518" s="165" t="s">
+      <c r="F518" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G518" s="118" t="s">
         <v>1202</v>
       </c>
-      <c r="H518" s="179" t="s">
+      <c r="H518" s="89" t="s">
         <v>1213</v>
       </c>
-      <c r="I518" s="218"/>
+      <c r="I518" s="184"/>
     </row>
     <row r="519" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A519" s="177" t="s">
+      <c r="A519" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B519" s="165" t="str">
+      <c r="B519" s="118" t="str">
         <f>+VLOOKUP(A519,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C519" s="168" t="s">
+      <c r="C519" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D519" s="168" t="str">
+      <c r="D519" s="125" t="str">
         <f>+VLOOKUP(C519,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E519" s="168" t="s">
+      <c r="E519" s="125" t="s">
         <v>1191</v>
       </c>
-      <c r="F519" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G519" s="165" t="s">
+      <c r="F519" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G519" s="118" t="s">
         <v>1203</v>
       </c>
-      <c r="H519" s="179" t="s">
+      <c r="H519" s="89" t="s">
         <v>1213</v>
       </c>
-      <c r="I519" s="218"/>
+      <c r="I519" s="184"/>
     </row>
     <row r="520" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A520" s="177" t="s">
+      <c r="A520" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B520" s="165" t="str">
+      <c r="B520" s="118" t="str">
         <f>+VLOOKUP(A520,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C520" s="168" t="s">
+      <c r="C520" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D520" s="168" t="str">
+      <c r="D520" s="125" t="str">
         <f>+VLOOKUP(C520,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E520" s="168" t="s">
+      <c r="E520" s="125" t="s">
         <v>1192</v>
       </c>
-      <c r="F520" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G520" s="165" t="s">
+      <c r="F520" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G520" s="118" t="s">
         <v>1204</v>
       </c>
-      <c r="H520" s="179" t="s">
+      <c r="H520" s="89" t="s">
         <v>416</v>
       </c>
-      <c r="I520" s="218"/>
+      <c r="I520" s="184"/>
     </row>
     <row r="521" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A521" s="177" t="s">
+      <c r="A521" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B521" s="165" t="str">
+      <c r="B521" s="118" t="str">
         <f>+VLOOKUP(A521,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C521" s="168" t="s">
+      <c r="C521" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D521" s="168" t="str">
+      <c r="D521" s="125" t="str">
         <f>+VLOOKUP(C521,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E521" s="168" t="s">
+      <c r="E521" s="125" t="s">
         <v>1193</v>
       </c>
-      <c r="F521" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G521" s="165" t="s">
+      <c r="F521" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G521" s="118" t="s">
         <v>1205</v>
       </c>
-      <c r="H521" s="179" t="s">
+      <c r="H521" s="89" t="s">
         <v>393</v>
       </c>
-      <c r="I521" s="218"/>
+      <c r="I521" s="184"/>
     </row>
     <row r="522" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A522" s="177" t="s">
+      <c r="A522" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B522" s="165" t="str">
+      <c r="B522" s="118" t="str">
         <f>+VLOOKUP(A522,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C522" s="168" t="s">
+      <c r="C522" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D522" s="168" t="str">
+      <c r="D522" s="125" t="str">
         <f>+VLOOKUP(C522,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E522" s="168" t="s">
+      <c r="E522" s="125" t="s">
         <v>1194</v>
       </c>
-      <c r="F522" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G522" s="165" t="s">
+      <c r="F522" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G522" s="118" t="s">
         <v>1206</v>
       </c>
-      <c r="H522" s="179" t="s">
+      <c r="H522" s="89" t="s">
         <v>393</v>
       </c>
-      <c r="I522" s="218"/>
+      <c r="I522" s="184"/>
     </row>
     <row r="523" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A523" s="177" t="s">
+      <c r="A523" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B523" s="165" t="str">
+      <c r="B523" s="118" t="str">
         <f>+VLOOKUP(A523,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C523" s="168" t="s">
+      <c r="C523" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D523" s="168" t="str">
+      <c r="D523" s="125" t="str">
         <f>+VLOOKUP(C523,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E523" s="168" t="s">
+      <c r="E523" s="125" t="s">
         <v>1195</v>
       </c>
-      <c r="F523" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G523" s="165" t="s">
+      <c r="F523" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G523" s="118" t="s">
         <v>1207</v>
       </c>
-      <c r="H523" s="179" t="s">
+      <c r="H523" s="89" t="s">
         <v>393</v>
       </c>
-      <c r="I523" s="218"/>
+      <c r="I523" s="184"/>
     </row>
     <row r="524" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A524" s="177" t="s">
+      <c r="A524" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B524" s="165" t="str">
+      <c r="B524" s="118" t="str">
         <f>+VLOOKUP(A524,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C524" s="168" t="s">
+      <c r="C524" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D524" s="168" t="str">
+      <c r="D524" s="125" t="str">
         <f>+VLOOKUP(C524,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E524" s="168" t="s">
+      <c r="E524" s="125" t="s">
         <v>1196</v>
       </c>
-      <c r="F524" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G524" s="165" t="s">
+      <c r="F524" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G524" s="118" t="s">
         <v>1208</v>
       </c>
-      <c r="H524" s="179" t="s">
+      <c r="H524" s="89" t="s">
         <v>393</v>
       </c>
-      <c r="I524" s="218"/>
+      <c r="I524" s="184"/>
     </row>
     <row r="525" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A525" s="177" t="s">
+      <c r="A525" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B525" s="165" t="str">
+      <c r="B525" s="118" t="str">
         <f>+VLOOKUP(A525,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C525" s="168" t="s">
+      <c r="C525" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D525" s="168" t="str">
+      <c r="D525" s="125" t="str">
         <f>+VLOOKUP(C525,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E525" s="168" t="s">
+      <c r="E525" s="125" t="s">
         <v>1197</v>
       </c>
-      <c r="F525" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G525" s="165" t="s">
+      <c r="F525" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G525" s="118" t="s">
         <v>1209</v>
       </c>
-      <c r="H525" s="179" t="s">
+      <c r="H525" s="89" t="s">
         <v>393</v>
       </c>
-      <c r="I525" s="218"/>
+      <c r="I525" s="184"/>
     </row>
     <row r="526" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A526" s="177" t="s">
+      <c r="A526" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B526" s="165" t="str">
+      <c r="B526" s="118" t="str">
         <f>+VLOOKUP(A526,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C526" s="168" t="s">
+      <c r="C526" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D526" s="168" t="str">
+      <c r="D526" s="125" t="str">
         <f>+VLOOKUP(C526,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E526" s="168" t="s">
+      <c r="E526" s="125" t="s">
         <v>1198</v>
       </c>
-      <c r="F526" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G526" s="165" t="s">
+      <c r="F526" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G526" s="118" t="s">
         <v>1210</v>
       </c>
-      <c r="H526" s="179" t="s">
+      <c r="H526" s="89" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="527" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A527" s="177" t="s">
+      <c r="A527" s="88" t="s">
         <v>1179</v>
       </c>
-      <c r="B527" s="165" t="str">
+      <c r="B527" s="118" t="str">
         <f>+VLOOKUP(A527,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
-      <c r="C527" s="168" t="s">
+      <c r="C527" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D527" s="168" t="str">
+      <c r="D527" s="125" t="str">
         <f>+VLOOKUP(C527,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
-      <c r="E527" s="168" t="s">
+      <c r="E527" s="125" t="s">
         <v>1199</v>
       </c>
-      <c r="F527" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G527" s="165" t="s">
+      <c r="F527" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G527" s="118" t="s">
         <v>1211</v>
       </c>
-      <c r="H527" s="179" t="s">
+      <c r="H527" s="89" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="528" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A528" s="194" t="s">
+      <c r="A528" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B528" s="182" t="str">
+      <c r="B528" s="118" t="str">
         <f>+VLOOKUP(A528,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C528" s="185" t="s">
+      <c r="C528" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D528" s="185" t="str">
+      <c r="D528" s="125" t="str">
         <f>+VLOOKUP(C528,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E528" s="185" t="s">
+      <c r="E528" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="F528" s="182" t="s">
+      <c r="F528" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="G528" s="182" t="s">
+      <c r="G528" s="118" t="s">
         <v>1224</v>
       </c>
-      <c r="H528" s="219"/>
+      <c r="H528" s="89"/>
       <c r="I528" s="123"/>
       <c r="J528" s="123"/>
     </row>
     <row r="529" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A529" s="194" t="s">
+      <c r="A529" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B529" s="182" t="str">
+      <c r="B529" s="118" t="str">
         <f>+VLOOKUP(A529,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C529" s="185" t="s">
+      <c r="C529" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D529" s="185" t="str">
+      <c r="D529" s="125" t="str">
         <f>+VLOOKUP(C529,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E529" s="185" t="s">
+      <c r="E529" s="125" t="s">
         <v>526</v>
       </c>
-      <c r="F529" s="182" t="s">
+      <c r="F529" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G529" s="182" t="s">
+      <c r="G529" s="118" t="s">
         <v>528</v>
       </c>
-      <c r="H529" s="219"/>
+      <c r="H529" s="89"/>
       <c r="I529" s="123"/>
       <c r="J529" s="123"/>
     </row>
     <row r="530" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A530" s="194" t="s">
+      <c r="A530" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B530" s="182" t="str">
+      <c r="B530" s="118" t="str">
         <f>+VLOOKUP(A530,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C530" s="185" t="s">
+      <c r="C530" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D530" s="185" t="str">
+      <c r="D530" s="125" t="str">
         <f>+VLOOKUP(C530,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E530" s="185" t="s">
+      <c r="E530" s="125" t="s">
         <v>498</v>
       </c>
-      <c r="F530" s="182" t="s">
+      <c r="F530" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G530" s="182" t="s">
+      <c r="G530" s="118" t="s">
         <v>749</v>
       </c>
-      <c r="H530" s="219"/>
+      <c r="H530" s="89"/>
       <c r="I530" s="123"/>
       <c r="J530" s="123"/>
     </row>
     <row r="531" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A531" s="194" t="s">
+      <c r="A531" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B531" s="182" t="str">
+      <c r="B531" s="118" t="str">
         <f>+VLOOKUP(A531,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C531" s="185" t="s">
+      <c r="C531" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D531" s="185" t="str">
+      <c r="D531" s="125" t="str">
         <f>+VLOOKUP(C531,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E531" s="185" t="s">
+      <c r="E531" s="125" t="s">
         <v>500</v>
       </c>
-      <c r="F531" s="182" t="s">
+      <c r="F531" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G531" s="182" t="s">
+      <c r="G531" s="118" t="s">
         <v>613</v>
       </c>
-      <c r="H531" s="219"/>
+      <c r="H531" s="89"/>
       <c r="I531" s="123"/>
       <c r="J531" s="123"/>
     </row>
     <row r="532" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A532" s="194" t="s">
+      <c r="A532" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B532" s="182" t="str">
+      <c r="B532" s="118" t="str">
         <f>+VLOOKUP(A532,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C532" s="185" t="s">
+      <c r="C532" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D532" s="185" t="str">
+      <c r="D532" s="125" t="str">
         <f>+VLOOKUP(C532,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E532" s="185" t="s">
+      <c r="E532" s="125" t="s">
         <v>501</v>
       </c>
-      <c r="F532" s="182" t="s">
+      <c r="F532" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="G532" s="182" t="s">
+      <c r="G532" s="118" t="s">
         <v>750</v>
       </c>
-      <c r="H532" s="219"/>
+      <c r="H532" s="89"/>
       <c r="I532" s="123"/>
       <c r="J532" s="123"/>
     </row>
     <row r="533" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A533" s="194" t="s">
+      <c r="A533" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B533" s="182" t="str">
+      <c r="B533" s="118" t="str">
         <f>+VLOOKUP(A533,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C533" s="185" t="s">
+      <c r="C533" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D533" s="185" t="str">
+      <c r="D533" s="125" t="str">
         <f>+VLOOKUP(C533,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E533" s="185" t="s">
+      <c r="E533" s="125" t="s">
         <v>1225</v>
       </c>
-      <c r="F533" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G533" s="182" t="s">
+      <c r="F533" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G533" s="118" t="s">
         <v>1254</v>
       </c>
-      <c r="H533" s="219" t="s">
+      <c r="H533" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="I533" s="220"/>
+      <c r="I533" s="185"/>
       <c r="J533" s="123"/>
     </row>
     <row r="534" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A534" s="194" t="s">
+      <c r="A534" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B534" s="182" t="str">
+      <c r="B534" s="118" t="str">
         <f>+VLOOKUP(A534,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C534" s="185" t="s">
+      <c r="C534" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D534" s="185" t="str">
+      <c r="D534" s="125" t="str">
         <f>+VLOOKUP(C534,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E534" s="185" t="s">
+      <c r="E534" s="125" t="s">
         <v>1226</v>
       </c>
-      <c r="F534" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G534" s="182" t="s">
+      <c r="F534" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G534" s="118" t="s">
         <v>1255</v>
       </c>
-      <c r="H534" s="219" t="s">
+      <c r="H534" s="89" t="s">
         <v>1017</v>
       </c>
-      <c r="I534" s="220"/>
+      <c r="I534" s="185"/>
       <c r="J534" s="123"/>
     </row>
     <row r="535" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A535" s="194" t="s">
+      <c r="A535" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B535" s="182" t="str">
+      <c r="B535" s="118" t="str">
         <f>+VLOOKUP(A535,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C535" s="185" t="s">
+      <c r="C535" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D535" s="185" t="str">
+      <c r="D535" s="125" t="str">
         <f>+VLOOKUP(C535,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E535" s="185" t="s">
+      <c r="E535" s="125" t="s">
         <v>1227</v>
       </c>
-      <c r="F535" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G535" s="182" t="s">
+      <c r="F535" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G535" s="118" t="s">
         <v>1256</v>
       </c>
-      <c r="H535" s="219" t="s">
+      <c r="H535" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="I535" s="220"/>
+      <c r="I535" s="185"/>
       <c r="J535" s="123"/>
     </row>
     <row r="536" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A536" s="194" t="s">
+      <c r="A536" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B536" s="182" t="str">
+      <c r="B536" s="118" t="str">
         <f>+VLOOKUP(A536,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C536" s="185" t="s">
+      <c r="C536" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D536" s="185" t="str">
+      <c r="D536" s="125" t="str">
         <f>+VLOOKUP(C536,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E536" s="185" t="s">
+      <c r="E536" s="125" t="s">
         <v>1228</v>
       </c>
-      <c r="F536" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G536" s="182" t="s">
+      <c r="F536" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G536" s="118" t="s">
         <v>1257</v>
       </c>
-      <c r="H536" s="219" t="s">
+      <c r="H536" s="89" t="s">
         <v>1017</v>
       </c>
-      <c r="I536" s="220"/>
+      <c r="I536" s="185"/>
       <c r="J536" s="123"/>
     </row>
     <row r="537" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A537" s="194" t="s">
+      <c r="A537" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B537" s="182" t="str">
+      <c r="B537" s="118" t="str">
         <f>+VLOOKUP(A537,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C537" s="185" t="s">
+      <c r="C537" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D537" s="185" t="str">
+      <c r="D537" s="125" t="str">
         <f>+VLOOKUP(C537,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E537" s="185" t="s">
+      <c r="E537" s="125" t="s">
         <v>1229</v>
       </c>
-      <c r="F537" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G537" s="182" t="s">
+      <c r="F537" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G537" s="118" t="s">
         <v>1258</v>
       </c>
-      <c r="H537" s="219" t="s">
+      <c r="H537" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I537" s="220"/>
+      <c r="I537" s="185"/>
       <c r="J537" s="123"/>
     </row>
     <row r="538" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A538" s="194" t="s">
+      <c r="A538" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B538" s="182" t="str">
+      <c r="B538" s="118" t="str">
         <f>+VLOOKUP(A538,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C538" s="185" t="s">
+      <c r="C538" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D538" s="185" t="str">
+      <c r="D538" s="125" t="str">
         <f>+VLOOKUP(C538,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E538" s="185" t="s">
+      <c r="E538" s="125" t="s">
         <v>1230</v>
       </c>
-      <c r="F538" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G538" s="182" t="s">
+      <c r="F538" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G538" s="118" t="s">
         <v>1259</v>
       </c>
-      <c r="H538" s="219" t="s">
+      <c r="H538" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I538" s="220"/>
+      <c r="I538" s="185"/>
       <c r="J538" s="123"/>
     </row>
     <row r="539" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A539" s="194" t="s">
+      <c r="A539" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B539" s="182" t="str">
+      <c r="B539" s="118" t="str">
         <f>+VLOOKUP(A539,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C539" s="185" t="s">
+      <c r="C539" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D539" s="185" t="str">
+      <c r="D539" s="125" t="str">
         <f>+VLOOKUP(C539,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E539" s="185" t="s">
+      <c r="E539" s="125" t="s">
         <v>1231</v>
       </c>
-      <c r="F539" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G539" s="182" t="s">
+      <c r="F539" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G539" s="118" t="s">
         <v>1260</v>
       </c>
-      <c r="H539" s="219" t="s">
+      <c r="H539" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I539" s="220"/>
+      <c r="I539" s="185"/>
       <c r="J539" s="123"/>
     </row>
     <row r="540" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A540" s="194" t="s">
+      <c r="A540" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B540" s="182" t="str">
+      <c r="B540" s="118" t="str">
         <f>+VLOOKUP(A540,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C540" s="185" t="s">
+      <c r="C540" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D540" s="185" t="str">
+      <c r="D540" s="125" t="str">
         <f>+VLOOKUP(C540,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E540" s="185" t="s">
+      <c r="E540" s="125" t="s">
         <v>1232</v>
       </c>
-      <c r="F540" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G540" s="182" t="s">
+      <c r="F540" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G540" s="118" t="s">
         <v>1261</v>
       </c>
-      <c r="H540" s="219" t="s">
+      <c r="H540" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I540" s="220"/>
+      <c r="I540" s="185"/>
       <c r="J540" s="123"/>
     </row>
     <row r="541" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A541" s="194" t="s">
+      <c r="A541" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B541" s="182" t="str">
+      <c r="B541" s="118" t="str">
         <f>+VLOOKUP(A541,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C541" s="185" t="s">
+      <c r="C541" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D541" s="185" t="str">
+      <c r="D541" s="125" t="str">
         <f>+VLOOKUP(C541,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E541" s="185" t="s">
+      <c r="E541" s="125" t="s">
         <v>1233</v>
       </c>
-      <c r="F541" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G541" s="182" t="s">
+      <c r="F541" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G541" s="118" t="s">
         <v>1262</v>
       </c>
-      <c r="H541" s="219" t="s">
+      <c r="H541" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I541" s="220"/>
+      <c r="I541" s="185"/>
       <c r="J541" s="123"/>
     </row>
     <row r="542" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A542" s="194" t="s">
+      <c r="A542" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B542" s="182" t="str">
+      <c r="B542" s="118" t="str">
         <f>+VLOOKUP(A542,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C542" s="185" t="s">
+      <c r="C542" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D542" s="185" t="str">
+      <c r="D542" s="125" t="str">
         <f>+VLOOKUP(C542,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E542" s="185" t="s">
+      <c r="E542" s="125" t="s">
         <v>1234</v>
       </c>
-      <c r="F542" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G542" s="182" t="s">
+      <c r="F542" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G542" s="118" t="s">
         <v>1263</v>
       </c>
-      <c r="H542" s="219" t="s">
+      <c r="H542" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I542" s="220"/>
+      <c r="I542" s="185"/>
       <c r="J542" s="123"/>
     </row>
     <row r="543" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A543" s="194" t="s">
+      <c r="A543" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B543" s="182" t="str">
+      <c r="B543" s="118" t="str">
         <f>+VLOOKUP(A543,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C543" s="185" t="s">
+      <c r="C543" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D543" s="185" t="str">
+      <c r="D543" s="125" t="str">
         <f>+VLOOKUP(C543,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E543" s="185" t="s">
+      <c r="E543" s="125" t="s">
         <v>1235</v>
       </c>
-      <c r="F543" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G543" s="182" t="s">
+      <c r="F543" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G543" s="118" t="s">
         <v>1264</v>
       </c>
-      <c r="H543" s="219" t="s">
+      <c r="H543" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I543" s="220"/>
+      <c r="I543" s="185"/>
       <c r="J543" s="123"/>
     </row>
     <row r="544" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A544" s="194" t="s">
+      <c r="A544" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B544" s="182" t="str">
+      <c r="B544" s="118" t="str">
         <f>+VLOOKUP(A544,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C544" s="185" t="s">
+      <c r="C544" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D544" s="185" t="str">
+      <c r="D544" s="125" t="str">
         <f>+VLOOKUP(C544,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E544" s="185" t="s">
+      <c r="E544" s="125" t="s">
         <v>1236</v>
       </c>
-      <c r="F544" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G544" s="182" t="s">
+      <c r="F544" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G544" s="118" t="s">
         <v>1265</v>
       </c>
-      <c r="H544" s="219" t="s">
+      <c r="H544" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I544" s="220"/>
+      <c r="I544" s="185"/>
       <c r="J544" s="123"/>
     </row>
     <row r="545" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A545" s="194" t="s">
+      <c r="A545" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B545" s="182" t="str">
+      <c r="B545" s="118" t="str">
         <f>+VLOOKUP(A545,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C545" s="185" t="s">
+      <c r="C545" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D545" s="185" t="str">
+      <c r="D545" s="125" t="str">
         <f>+VLOOKUP(C545,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E545" s="185" t="s">
+      <c r="E545" s="125" t="s">
         <v>1237</v>
       </c>
-      <c r="F545" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G545" s="182" t="s">
+      <c r="F545" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G545" s="118" t="s">
         <v>1266</v>
       </c>
-      <c r="H545" s="219" t="s">
+      <c r="H545" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I545" s="220"/>
+      <c r="I545" s="185"/>
       <c r="J545" s="123"/>
     </row>
     <row r="546" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A546" s="194" t="s">
+      <c r="A546" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B546" s="182" t="str">
+      <c r="B546" s="118" t="str">
         <f>+VLOOKUP(A546,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C546" s="185" t="s">
+      <c r="C546" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D546" s="185" t="str">
+      <c r="D546" s="125" t="str">
         <f>+VLOOKUP(C546,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E546" s="185" t="s">
+      <c r="E546" s="125" t="s">
         <v>1238</v>
       </c>
-      <c r="F546" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G546" s="182" t="s">
+      <c r="F546" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G546" s="118" t="s">
         <v>1267</v>
       </c>
-      <c r="H546" s="219" t="s">
+      <c r="H546" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I546" s="220"/>
+      <c r="I546" s="185"/>
       <c r="J546" s="123"/>
     </row>
     <row r="547" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A547" s="194" t="s">
+      <c r="A547" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B547" s="182" t="str">
+      <c r="B547" s="118" t="str">
         <f>+VLOOKUP(A547,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C547" s="185" t="s">
+      <c r="C547" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D547" s="185" t="str">
+      <c r="D547" s="125" t="str">
         <f>+VLOOKUP(C547,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E547" s="185" t="s">
+      <c r="E547" s="125" t="s">
         <v>1239</v>
       </c>
-      <c r="F547" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G547" s="182" t="s">
+      <c r="F547" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G547" s="118" t="s">
         <v>1268</v>
       </c>
-      <c r="H547" s="219" t="s">
+      <c r="H547" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I547" s="220"/>
+      <c r="I547" s="185"/>
       <c r="J547" s="123"/>
     </row>
     <row r="548" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A548" s="194" t="s">
+      <c r="A548" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B548" s="182" t="str">
+      <c r="B548" s="118" t="str">
         <f>+VLOOKUP(A548,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C548" s="185" t="s">
+      <c r="C548" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D548" s="185" t="str">
+      <c r="D548" s="125" t="str">
         <f>+VLOOKUP(C548,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E548" s="185" t="s">
+      <c r="E548" s="125" t="s">
         <v>1240</v>
       </c>
-      <c r="F548" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G548" s="182" t="s">
+      <c r="F548" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G548" s="118" t="s">
         <v>1269</v>
       </c>
-      <c r="H548" s="219" t="s">
+      <c r="H548" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I548" s="220"/>
+      <c r="I548" s="185"/>
       <c r="J548" s="123"/>
     </row>
     <row r="549" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A549" s="194" t="s">
+      <c r="A549" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B549" s="182" t="str">
+      <c r="B549" s="118" t="str">
         <f>+VLOOKUP(A549,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C549" s="185" t="s">
+      <c r="C549" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D549" s="185" t="str">
+      <c r="D549" s="125" t="str">
         <f>+VLOOKUP(C549,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E549" s="185" t="s">
+      <c r="E549" s="125" t="s">
         <v>1241</v>
       </c>
-      <c r="F549" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G549" s="182" t="s">
+      <c r="F549" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G549" s="118" t="s">
         <v>1270</v>
       </c>
-      <c r="H549" s="219" t="s">
+      <c r="H549" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I549" s="220"/>
+      <c r="I549" s="185"/>
       <c r="J549" s="123"/>
     </row>
     <row r="550" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A550" s="194" t="s">
+      <c r="A550" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B550" s="182" t="str">
+      <c r="B550" s="118" t="str">
         <f>+VLOOKUP(A550,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C550" s="185" t="s">
+      <c r="C550" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D550" s="185" t="str">
+      <c r="D550" s="125" t="str">
         <f>+VLOOKUP(C550,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E550" s="185" t="s">
+      <c r="E550" s="125" t="s">
         <v>1242</v>
       </c>
-      <c r="F550" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G550" s="182" t="s">
+      <c r="F550" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G550" s="118" t="s">
         <v>1271</v>
       </c>
-      <c r="H550" s="219" t="s">
+      <c r="H550" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I550" s="220"/>
+      <c r="I550" s="185"/>
       <c r="J550" s="123"/>
     </row>
     <row r="551" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A551" s="194" t="s">
+      <c r="A551" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B551" s="182" t="str">
+      <c r="B551" s="118" t="str">
         <f>+VLOOKUP(A551,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C551" s="185" t="s">
+      <c r="C551" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D551" s="185" t="str">
+      <c r="D551" s="125" t="str">
         <f>+VLOOKUP(C551,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E551" s="185" t="s">
+      <c r="E551" s="125" t="s">
         <v>1243</v>
       </c>
-      <c r="F551" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G551" s="182" t="s">
+      <c r="F551" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G551" s="118" t="s">
         <v>1272</v>
       </c>
-      <c r="H551" s="219" t="s">
+      <c r="H551" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I551" s="220"/>
+      <c r="I551" s="185"/>
       <c r="J551" s="123"/>
     </row>
     <row r="552" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A552" s="194" t="s">
+      <c r="A552" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B552" s="182" t="str">
+      <c r="B552" s="118" t="str">
         <f>+VLOOKUP(A552,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C552" s="185" t="s">
+      <c r="C552" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D552" s="185" t="str">
+      <c r="D552" s="125" t="str">
         <f>+VLOOKUP(C552,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E552" s="185" t="s">
+      <c r="E552" s="125" t="s">
         <v>1244</v>
       </c>
-      <c r="F552" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G552" s="182" t="s">
+      <c r="F552" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G552" s="118" t="s">
         <v>1273</v>
       </c>
-      <c r="H552" s="219" t="s">
+      <c r="H552" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I552" s="220"/>
+      <c r="I552" s="185"/>
       <c r="J552" s="123"/>
     </row>
     <row r="553" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A553" s="194" t="s">
+      <c r="A553" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B553" s="182" t="str">
+      <c r="B553" s="118" t="str">
         <f>+VLOOKUP(A553,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C553" s="185" t="s">
+      <c r="C553" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D553" s="185" t="str">
+      <c r="D553" s="125" t="str">
         <f>+VLOOKUP(C553,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E553" s="185" t="s">
+      <c r="E553" s="125" t="s">
         <v>1245</v>
       </c>
-      <c r="F553" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G553" s="182" t="s">
+      <c r="F553" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G553" s="118" t="s">
         <v>1274</v>
       </c>
-      <c r="H553" s="219" t="s">
+      <c r="H553" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I553" s="220"/>
+      <c r="I553" s="185"/>
       <c r="J553" s="123"/>
     </row>
     <row r="554" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A554" s="194" t="s">
+      <c r="A554" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B554" s="182" t="str">
+      <c r="B554" s="118" t="str">
         <f>+VLOOKUP(A554,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C554" s="185" t="s">
+      <c r="C554" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D554" s="185" t="str">
+      <c r="D554" s="125" t="str">
         <f>+VLOOKUP(C554,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E554" s="185" t="s">
+      <c r="E554" s="125" t="s">
         <v>1246</v>
       </c>
-      <c r="F554" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G554" s="182" t="s">
+      <c r="F554" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G554" s="118" t="s">
         <v>1275</v>
       </c>
-      <c r="H554" s="219" t="s">
+      <c r="H554" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I554" s="220"/>
+      <c r="I554" s="185"/>
       <c r="J554" s="123"/>
     </row>
     <row r="555" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A555" s="194" t="s">
+      <c r="A555" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B555" s="182" t="str">
+      <c r="B555" s="118" t="str">
         <f>+VLOOKUP(A555,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C555" s="185" t="s">
+      <c r="C555" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D555" s="185" t="str">
+      <c r="D555" s="125" t="str">
         <f>+VLOOKUP(C555,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E555" s="185" t="s">
+      <c r="E555" s="125" t="s">
         <v>1247</v>
       </c>
-      <c r="F555" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G555" s="182" t="s">
+      <c r="F555" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G555" s="118" t="s">
         <v>1276</v>
       </c>
-      <c r="H555" s="219" t="s">
+      <c r="H555" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I555" s="220"/>
+      <c r="I555" s="185"/>
       <c r="J555" s="123"/>
     </row>
     <row r="556" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A556" s="194" t="s">
+      <c r="A556" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B556" s="182" t="str">
+      <c r="B556" s="118" t="str">
         <f>+VLOOKUP(A556,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C556" s="185" t="s">
+      <c r="C556" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D556" s="185" t="str">
+      <c r="D556" s="125" t="str">
         <f>+VLOOKUP(C556,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E556" s="185" t="s">
+      <c r="E556" s="125" t="s">
         <v>1248</v>
       </c>
-      <c r="F556" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G556" s="182" t="s">
+      <c r="F556" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G556" s="118" t="s">
         <v>1277</v>
       </c>
-      <c r="H556" s="219" t="s">
+      <c r="H556" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I556" s="220"/>
+      <c r="I556" s="185"/>
       <c r="J556" s="123"/>
     </row>
     <row r="557" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A557" s="194" t="s">
+      <c r="A557" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B557" s="182" t="str">
+      <c r="B557" s="118" t="str">
         <f>+VLOOKUP(A557,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C557" s="185" t="s">
+      <c r="C557" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D557" s="185" t="str">
+      <c r="D557" s="125" t="str">
         <f>+VLOOKUP(C557,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E557" s="185" t="s">
+      <c r="E557" s="125" t="s">
         <v>1249</v>
       </c>
-      <c r="F557" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G557" s="182" t="s">
+      <c r="F557" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G557" s="118" t="s">
         <v>1278</v>
       </c>
-      <c r="H557" s="219" t="s">
+      <c r="H557" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I557" s="220"/>
+      <c r="I557" s="185"/>
       <c r="J557" s="123"/>
     </row>
     <row r="558" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A558" s="194" t="s">
+      <c r="A558" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B558" s="182" t="str">
+      <c r="B558" s="118" t="str">
         <f>+VLOOKUP(A558,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C558" s="185" t="s">
+      <c r="C558" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D558" s="185" t="str">
+      <c r="D558" s="125" t="str">
         <f>+VLOOKUP(C558,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E558" s="185" t="s">
+      <c r="E558" s="125" t="s">
         <v>1250</v>
       </c>
-      <c r="F558" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G558" s="182" t="s">
+      <c r="F558" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G558" s="118" t="s">
         <v>1279</v>
       </c>
-      <c r="H558" s="219" t="s">
+      <c r="H558" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I558" s="220"/>
+      <c r="I558" s="185"/>
       <c r="J558" s="123"/>
     </row>
     <row r="559" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A559" s="194" t="s">
+      <c r="A559" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B559" s="182" t="str">
+      <c r="B559" s="118" t="str">
         <f>+VLOOKUP(A559,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C559" s="185" t="s">
+      <c r="C559" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D559" s="185" t="str">
+      <c r="D559" s="125" t="str">
         <f>+VLOOKUP(C559,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E559" s="185" t="s">
+      <c r="E559" s="125" t="s">
         <v>1251</v>
       </c>
-      <c r="F559" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G559" s="182" t="s">
+      <c r="F559" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G559" s="118" t="s">
         <v>1280</v>
       </c>
-      <c r="H559" s="219" t="s">
+      <c r="H559" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I559" s="220"/>
+      <c r="I559" s="185"/>
       <c r="J559" s="123"/>
     </row>
     <row r="560" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A560" s="194" t="s">
+      <c r="A560" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B560" s="182" t="str">
+      <c r="B560" s="118" t="str">
         <f>+VLOOKUP(A560,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C560" s="185" t="s">
+      <c r="C560" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D560" s="185" t="str">
+      <c r="D560" s="125" t="str">
         <f>+VLOOKUP(C560,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E560" s="185" t="s">
+      <c r="E560" s="125" t="s">
         <v>1252</v>
       </c>
-      <c r="F560" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G560" s="182" t="s">
+      <c r="F560" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G560" s="118" t="s">
         <v>1281</v>
       </c>
-      <c r="H560" s="219" t="s">
+      <c r="H560" s="89" t="s">
         <v>1283</v>
       </c>
-      <c r="I560" s="220"/>
+      <c r="I560" s="185"/>
       <c r="J560" s="123"/>
     </row>
     <row r="561" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A561" s="194" t="s">
+      <c r="A561" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B561" s="182" t="str">
+      <c r="B561" s="118" t="str">
         <f>+VLOOKUP(A561,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
-      <c r="C561" s="185" t="s">
+      <c r="C561" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D561" s="185" t="str">
+      <c r="D561" s="125" t="str">
         <f>+VLOOKUP(C561,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E561" s="185" t="s">
+      <c r="E561" s="125" t="s">
         <v>1253</v>
       </c>
-      <c r="F561" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="G561" s="182" t="s">
+      <c r="F561" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G561" s="118" t="s">
         <v>1282</v>
       </c>
-      <c r="H561" s="219" t="s">
+      <c r="H561" s="89" t="s">
         <v>401</v>
       </c>
-      <c r="I561" s="220"/>
+      <c r="I561" s="185"/>
       <c r="J561" s="123"/>
     </row>
   </sheetData>
@@ -29332,43 +29201,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="165" t="s">
         <v>433</v>
       </c>
-      <c r="C1" s="198" t="s">
+      <c r="C1" s="166" t="s">
         <v>434</v>
       </c>
-      <c r="D1" s="198" t="s">
+      <c r="D1" s="166" t="s">
         <v>435</v>
       </c>
-      <c r="E1" s="198" t="s">
+      <c r="E1" s="166" t="s">
         <v>436</v>
       </c>
-      <c r="F1" s="198" t="s">
+      <c r="F1" s="166" t="s">
         <v>437</v>
       </c>
-      <c r="G1" s="199"/>
+      <c r="G1" s="167"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="50">
         <v>1</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="168" t="s">
         <v>438</v>
       </c>
-      <c r="C2" s="201">
+      <c r="C2" s="169">
         <v>1993</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="169" t="s">
         <v>439</v>
       </c>
-      <c r="E2" s="202">
+      <c r="E2" s="170">
         <v>1000000</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="169" t="s">
         <v>440</v>
       </c>
     </row>
@@ -29376,19 +29245,19 @@
       <c r="A3" s="50">
         <v>2</v>
       </c>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="168" t="s">
         <v>384</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="169">
         <v>2004</v>
       </c>
-      <c r="D3" s="201" t="s">
+      <c r="D3" s="169" t="s">
         <v>439</v>
       </c>
-      <c r="E3" s="202">
+      <c r="E3" s="170">
         <v>1000000</v>
       </c>
-      <c r="F3" s="201" t="s">
+      <c r="F3" s="169" t="s">
         <v>440</v>
       </c>
     </row>
@@ -29396,17 +29265,17 @@
       <c r="A4" s="50">
         <v>3</v>
       </c>
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="168" t="s">
         <v>385</v>
       </c>
-      <c r="C4" s="203"/>
-      <c r="D4" s="201" t="s">
+      <c r="C4" s="171"/>
+      <c r="D4" s="169" t="s">
         <v>441</v>
       </c>
-      <c r="E4" s="202">
+      <c r="E4" s="170">
         <v>1000000</v>
       </c>
-      <c r="F4" s="201" t="s">
+      <c r="F4" s="169" t="s">
         <v>440</v>
       </c>
     </row>
@@ -29417,12 +29286,12 @@
       <c r="B5" s="51" t="s">
         <v>442</v>
       </c>
-      <c r="C5" s="203"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201">
+      <c r="C5" s="171"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169">
         <v>1</v>
       </c>
-      <c r="F5" s="201"/>
+      <c r="F5" s="169"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50">
@@ -29431,12 +29300,12 @@
       <c r="B6" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="C6" s="203"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201">
+      <c r="C6" s="171"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169">
         <v>1</v>
       </c>
-      <c r="F6" s="201"/>
+      <c r="F6" s="169"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50">
@@ -29445,8 +29314,8 @@
       <c r="B7" s="51" t="s">
         <v>387</v>
       </c>
-      <c r="C7" s="204"/>
-      <c r="D7" s="205"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="173"/>
       <c r="E7" s="52">
         <v>1000</v>
       </c>
@@ -29459,7 +29328,7 @@
       <c r="B8" s="51" t="s">
         <v>443</v>
       </c>
-      <c r="C8" s="206"/>
+      <c r="C8" s="174"/>
       <c r="D8" s="50"/>
       <c r="E8" s="52">
         <v>1000</v>
@@ -29473,8 +29342,8 @@
       <c r="B9" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="C9" s="204"/>
-      <c r="D9" s="205"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="173"/>
       <c r="E9" s="52">
         <v>1000</v>
       </c>
@@ -29487,8 +29356,8 @@
       <c r="B10" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="C10" s="204"/>
-      <c r="D10" s="205"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="173"/>
       <c r="E10" s="52">
         <v>1000</v>
       </c>
@@ -29501,7 +29370,7 @@
       <c r="B11" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="C11" s="206"/>
+      <c r="C11" s="174"/>
       <c r="D11" s="50"/>
       <c r="E11" s="52">
         <v>1000</v>
@@ -29515,8 +29384,8 @@
       <c r="B12" s="51" t="s">
         <v>445</v>
       </c>
-      <c r="C12" s="204"/>
-      <c r="D12" s="205"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="173"/>
       <c r="E12" s="52">
         <v>1000</v>
       </c>
@@ -29529,8 +29398,8 @@
       <c r="B13" s="51" t="s">
         <v>390</v>
       </c>
-      <c r="C13" s="204"/>
-      <c r="D13" s="205"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="173"/>
       <c r="E13" s="52">
         <v>1000</v>
       </c>
@@ -29543,7 +29412,7 @@
       <c r="B14" s="51" t="s">
         <v>446</v>
       </c>
-      <c r="C14" s="206"/>
+      <c r="C14" s="174"/>
       <c r="D14" s="50"/>
       <c r="E14" s="52">
         <v>1000</v>
@@ -29557,9 +29426,9 @@
       <c r="B15" s="51" t="s">
         <v>447</v>
       </c>
-      <c r="C15" s="204"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="202">
+      <c r="C15" s="172"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="170">
         <v>1000000</v>
       </c>
       <c r="F15" s="52"/>
@@ -29571,9 +29440,9 @@
       <c r="B16" s="51" t="s">
         <v>448</v>
       </c>
-      <c r="C16" s="204"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="202">
+      <c r="C16" s="172"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="170">
         <v>1000000</v>
       </c>
       <c r="F16" s="52"/>
@@ -29585,9 +29454,9 @@
       <c r="B17" s="51" t="s">
         <v>391</v>
       </c>
-      <c r="C17" s="206"/>
+      <c r="C17" s="174"/>
       <c r="D17" s="50"/>
-      <c r="E17" s="202">
+      <c r="E17" s="170">
         <v>1000000</v>
       </c>
       <c r="F17" s="52"/>
@@ -29599,8 +29468,8 @@
       <c r="B18" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="C18" s="204"/>
-      <c r="D18" s="205"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="173"/>
       <c r="E18" s="127">
         <v>100</v>
       </c>
@@ -29613,8 +29482,8 @@
       <c r="B19" s="51" t="s">
         <v>449</v>
       </c>
-      <c r="C19" s="204"/>
-      <c r="D19" s="205"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="173"/>
       <c r="E19" s="52"/>
       <c r="F19" s="52"/>
     </row>
@@ -29625,7 +29494,7 @@
       <c r="B20" s="51" t="s">
         <v>393</v>
       </c>
-      <c r="C20" s="206"/>
+      <c r="C20" s="174"/>
       <c r="D20" s="50"/>
       <c r="E20" s="52">
         <v>1</v>
@@ -29639,8 +29508,8 @@
       <c r="B21" s="51" t="s">
         <v>394</v>
       </c>
-      <c r="C21" s="204"/>
-      <c r="D21" s="205"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="173"/>
       <c r="E21" s="52">
         <v>1</v>
       </c>
@@ -29653,8 +29522,8 @@
       <c r="B22" s="51" t="s">
         <v>450</v>
       </c>
-      <c r="C22" s="204"/>
-      <c r="D22" s="205"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="173"/>
       <c r="E22" s="52">
         <v>1</v>
       </c>
@@ -29667,14 +29536,14 @@
       <c r="B23" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="C23" s="204"/>
-      <c r="D23" s="201" t="s">
+      <c r="C23" s="172"/>
+      <c r="D23" s="169" t="s">
         <v>441</v>
       </c>
-      <c r="E23" s="202">
+      <c r="E23" s="170">
         <v>1000000</v>
       </c>
-      <c r="F23" s="201" t="s">
+      <c r="F23" s="169" t="s">
         <v>440</v>
       </c>
     </row>
@@ -29685,8 +29554,8 @@
       <c r="B24" s="51" t="s">
         <v>452</v>
       </c>
-      <c r="C24" s="204"/>
-      <c r="D24" s="205"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="173"/>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
     </row>
@@ -29697,8 +29566,8 @@
       <c r="B25" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="C25" s="206"/>
-      <c r="D25" s="201" t="s">
+      <c r="C25" s="174"/>
+      <c r="D25" s="169" t="s">
         <v>441</v>
       </c>
       <c r="E25" s="52">
@@ -29715,11 +29584,11 @@
       <c r="B26" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="C26" s="206"/>
-      <c r="D26" s="201" t="s">
+      <c r="C26" s="174"/>
+      <c r="D26" s="169" t="s">
         <v>441</v>
       </c>
-      <c r="E26" s="202">
+      <c r="E26" s="170">
         <v>1000000</v>
       </c>
       <c r="F26" s="52" t="s">
@@ -29733,8 +29602,8 @@
       <c r="B27" s="51" t="s">
         <v>453</v>
       </c>
-      <c r="C27" s="204"/>
-      <c r="D27" s="205"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="173"/>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
     </row>
@@ -29745,8 +29614,8 @@
       <c r="B28" s="51" t="s">
         <v>397</v>
       </c>
-      <c r="C28" s="204"/>
-      <c r="D28" s="205"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="173"/>
       <c r="E28" s="52">
         <v>1</v>
       </c>
@@ -29759,7 +29628,7 @@
       <c r="B29" s="128" t="s">
         <v>454</v>
       </c>
-      <c r="C29" s="207"/>
+      <c r="C29" s="175"/>
       <c r="D29" s="54"/>
       <c r="E29" s="129">
         <v>1</v>
@@ -29773,8 +29642,8 @@
       <c r="B30" s="130" t="s">
         <v>398</v>
       </c>
-      <c r="C30" s="208"/>
-      <c r="D30" s="209">
+      <c r="C30" s="176"/>
+      <c r="D30" s="177">
         <v>1000</v>
       </c>
       <c r="E30" s="130"/>
@@ -29787,8 +29656,8 @@
       <c r="B31" s="57" t="s">
         <v>399</v>
       </c>
-      <c r="C31" s="210"/>
-      <c r="D31" s="211" t="s">
+      <c r="C31" s="178"/>
+      <c r="D31" s="179" t="s">
         <v>441</v>
       </c>
       <c r="E31" s="57"/>
@@ -29801,8 +29670,8 @@
       <c r="B32" s="57" t="s">
         <v>455</v>
       </c>
-      <c r="C32" s="212"/>
-      <c r="D32" s="213"/>
+      <c r="C32" s="180"/>
+      <c r="D32" s="181"/>
       <c r="E32" s="57"/>
       <c r="F32" s="132"/>
     </row>
@@ -29813,8 +29682,8 @@
       <c r="B33" s="57" t="s">
         <v>456</v>
       </c>
-      <c r="C33" s="210"/>
-      <c r="D33" s="214"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="57"/>
       <c r="F33" s="132"/>
     </row>
@@ -29825,8 +29694,8 @@
       <c r="B34" s="57" t="s">
         <v>457</v>
       </c>
-      <c r="C34" s="210"/>
-      <c r="D34" s="215"/>
+      <c r="C34" s="178"/>
+      <c r="D34" s="183"/>
       <c r="E34" s="57"/>
       <c r="F34" s="132"/>
     </row>
@@ -29837,8 +29706,8 @@
       <c r="B35" s="57" t="s">
         <v>456</v>
       </c>
-      <c r="C35" s="212"/>
-      <c r="D35" s="213"/>
+      <c r="C35" s="180"/>
+      <c r="D35" s="181"/>
       <c r="E35" s="57"/>
       <c r="F35" s="132"/>
     </row>
@@ -29849,8 +29718,8 @@
       <c r="B36" s="57" t="s">
         <v>457</v>
       </c>
-      <c r="C36" s="210"/>
-      <c r="D36" s="213"/>
+      <c r="C36" s="178"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="57"/>
       <c r="F36" s="132"/>
     </row>
@@ -29861,8 +29730,8 @@
       <c r="B37" s="57" t="s">
         <v>458</v>
       </c>
-      <c r="C37" s="210"/>
-      <c r="D37" s="213"/>
+      <c r="C37" s="178"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="57"/>
       <c r="F37" s="132"/>
     </row>
@@ -30065,7 +29934,7 @@
       <c r="B54" s="135" t="s">
         <v>400</v>
       </c>
-      <c r="C54" s="206"/>
+      <c r="C54" s="174"/>
       <c r="D54" s="50"/>
       <c r="E54" s="52">
         <v>1</v>

--- a/sspmi/data.xlsx
+++ b/sspmi/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="14535" windowHeight="7305" tabRatio="748" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="14535" windowHeight="7305" tabRatio="748" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="16" r:id="rId1"/>
@@ -2945,9 +2945,6 @@
     <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/22-indicadores-lacteo-basecompleta.csv</t>
   </si>
   <si>
-    <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/23-indicadores-manzana-pera-basecompelta.csv</t>
-  </si>
-  <si>
     <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/26-indicadores-metalicas-basicas-basecompleta.csv</t>
   </si>
   <si>
@@ -3888,6 +3885,9 @@
   </si>
   <si>
     <t>corrientes</t>
+  </si>
+  <si>
+    <t>https://www.minhacienda.gob.ar/catalogo-sspmi/dataset/23-indicadores-manzana-pera-basecompleta.csv</t>
   </si>
 </sst>
 </file>
@@ -11018,7 +11018,7 @@
         <v>417</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D3" s="115" t="s">
         <v>34</v>
@@ -11138,7 +11138,7 @@
         <v>418</v>
       </c>
       <c r="C5" s="118" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D5" s="75" t="s">
         <v>34</v>
@@ -11237,7 +11237,7 @@
         <v>32</v>
       </c>
       <c r="P6" s="76" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Q6" s="78" t="s">
         <v>36</v>
@@ -11738,7 +11738,7 @@
         <v>424</v>
       </c>
       <c r="C15" s="118" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D15" s="75" t="s">
         <v>34</v>
@@ -11798,7 +11798,7 @@
         <v>425</v>
       </c>
       <c r="C16" s="118" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D16" s="75" t="s">
         <v>34</v>
@@ -11915,10 +11915,10 @@
         <v>312</v>
       </c>
       <c r="B18" s="118" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C18" s="118" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D18" s="75" t="s">
         <v>34</v>
@@ -12092,13 +12092,13 @@
     </row>
     <row r="21" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A21" s="74" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B21" s="118" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C21" s="118" t="s">
         <v>1020</v>
-      </c>
-      <c r="B21" s="118" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C21" s="118" t="s">
-        <v>1021</v>
       </c>
       <c r="D21" s="75" t="s">
         <v>34</v>
@@ -12119,7 +12119,7 @@
         <v>104</v>
       </c>
       <c r="J21" s="90" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="K21" s="76" t="s">
         <v>30</v>
@@ -12133,14 +12133,14 @@
         <v>32</v>
       </c>
       <c r="P21" s="76" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q21" s="78" t="s">
         <v>36</v>
       </c>
       <c r="R21" s="119"/>
       <c r="S21" s="125" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="T21" s="76" t="s">
         <v>33</v>
@@ -12148,13 +12148,13 @@
     </row>
     <row r="22" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A22" s="74" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B22" s="118" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C22" s="118" t="s">
         <v>1036</v>
-      </c>
-      <c r="B22" s="118" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C22" s="118" t="s">
-        <v>1037</v>
       </c>
       <c r="D22" s="75" t="s">
         <v>34</v>
@@ -12175,7 +12175,7 @@
         <v>104</v>
       </c>
       <c r="J22" s="90" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K22" s="76" t="s">
         <v>30</v>
@@ -12189,14 +12189,14 @@
         <v>32</v>
       </c>
       <c r="P22" s="76" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Q22" s="78" t="s">
         <v>36</v>
       </c>
       <c r="R22" s="119"/>
       <c r="S22" s="125" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="T22" s="76" t="s">
         <v>33</v>
@@ -12204,13 +12204,13 @@
     </row>
     <row r="23" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A23" s="74" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B23" s="118" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C23" s="118" t="s">
         <v>1088</v>
-      </c>
-      <c r="C23" s="118" t="s">
-        <v>1089</v>
       </c>
       <c r="D23" s="75" t="s">
         <v>34</v>
@@ -12231,7 +12231,7 @@
         <v>863</v>
       </c>
       <c r="J23" s="90" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="K23" s="76" t="s">
         <v>30</v>
@@ -12245,14 +12245,14 @@
         <v>32</v>
       </c>
       <c r="P23" s="76" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="Q23" s="78" t="s">
         <v>36</v>
       </c>
       <c r="R23" s="119"/>
       <c r="S23" s="125" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="T23" s="76" t="s">
         <v>33</v>
@@ -12260,13 +12260,13 @@
     </row>
     <row r="24" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A24" s="74" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B24" s="118" t="s">
         <v>1103</v>
       </c>
-      <c r="B24" s="118" t="s">
-        <v>1104</v>
-      </c>
       <c r="C24" s="118" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D24" s="75" t="s">
         <v>34</v>
@@ -12287,7 +12287,7 @@
         <v>104</v>
       </c>
       <c r="J24" s="90" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K24" s="76" t="s">
         <v>30</v>
@@ -12301,14 +12301,14 @@
         <v>32</v>
       </c>
       <c r="P24" s="76" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="Q24" s="78" t="s">
         <v>36</v>
       </c>
       <c r="R24" s="119"/>
       <c r="S24" s="125" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="T24" s="76" t="s">
         <v>33</v>
@@ -12316,13 +12316,13 @@
     </row>
     <row r="25" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A25" s="74" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B25" s="118" t="s">
         <v>1179</v>
       </c>
-      <c r="B25" s="118" t="s">
+      <c r="C25" s="118" t="s">
         <v>1180</v>
-      </c>
-      <c r="C25" s="118" t="s">
-        <v>1181</v>
       </c>
       <c r="D25" s="75" t="s">
         <v>34</v>
@@ -12343,7 +12343,7 @@
         <v>104</v>
       </c>
       <c r="J25" s="90" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="K25" s="76" t="s">
         <v>30</v>
@@ -12357,14 +12357,14 @@
         <v>32</v>
       </c>
       <c r="P25" s="76" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="Q25" s="78" t="s">
         <v>36</v>
       </c>
       <c r="R25" s="119"/>
       <c r="S25" s="125" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="T25" s="76" t="s">
         <v>33</v>
@@ -12372,13 +12372,13 @@
     </row>
     <row r="26" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A26" s="74" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B26" s="118" t="s">
         <v>1216</v>
       </c>
-      <c r="B26" s="118" t="s">
+      <c r="C26" s="118" t="s">
         <v>1217</v>
-      </c>
-      <c r="C26" s="118" t="s">
-        <v>1218</v>
       </c>
       <c r="D26" s="75" t="s">
         <v>34</v>
@@ -12396,10 +12396,10 @@
         <v>29</v>
       </c>
       <c r="I26" s="77" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J26" s="90" t="s">
         <v>1222</v>
-      </c>
-      <c r="J26" s="90" t="s">
-        <v>1223</v>
       </c>
       <c r="K26" s="76" t="s">
         <v>30</v>
@@ -12413,7 +12413,7 @@
         <v>32</v>
       </c>
       <c r="P26" s="76" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="Q26" s="78" t="s">
         <v>36</v>
@@ -12456,12 +12456,12 @@
   </sheetPr>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E14" sqref="E14"/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12767,7 +12767,7 @@
         <v>868</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G8" s="79" t="s">
         <v>47</v>
@@ -12915,7 +12915,7 @@
         <v>783</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G12" s="79" t="s">
         <v>47</v>
@@ -12952,7 +12952,7 @@
         <v>855</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G13" s="79" t="s">
         <v>47</v>
@@ -12989,7 +12989,7 @@
         <v>782</v>
       </c>
       <c r="F14" s="87" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G14" s="79" t="s">
         <v>47</v>
@@ -13100,7 +13100,7 @@
         <v>636</v>
       </c>
       <c r="F17" s="87" t="s">
-        <v>970</v>
+        <v>1284</v>
       </c>
       <c r="G17" s="79" t="s">
         <v>47</v>
@@ -13137,7 +13137,7 @@
         <v>637</v>
       </c>
       <c r="F18" s="87" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G18" s="79" t="s">
         <v>47</v>
@@ -13174,7 +13174,7 @@
         <v>542</v>
       </c>
       <c r="F19" s="87" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G19" s="79" t="s">
         <v>47</v>
@@ -13211,7 +13211,7 @@
         <v>638</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G20" s="79" t="s">
         <v>47</v>
@@ -13232,23 +13232,23 @@
     </row>
     <row r="21" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="74" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B21" s="138" t="str">
         <f>+VLOOKUP(A21,dataset!A21:B38,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
       <c r="C21" s="80" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D21" s="125" t="s">
         <v>1024</v>
       </c>
-      <c r="D21" s="125" t="s">
-        <v>1025</v>
-      </c>
       <c r="E21" s="125" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F21" s="87" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G21" s="79" t="s">
         <v>47</v>
@@ -13265,23 +13265,23 @@
     </row>
     <row r="22" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A22" s="74" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B22" s="138" t="str">
         <f>+VLOOKUP(A22,dataset!A22:B39,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C22" s="80" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D22" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="D22" s="125" t="s">
-        <v>1041</v>
-      </c>
       <c r="E22" s="125" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F22" s="87" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G22" s="79" t="s">
         <v>47</v>
@@ -13298,23 +13298,23 @@
     </row>
     <row r="23" spans="1:14" s="117" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A23" s="74" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B23" s="138" t="str">
         <f>+VLOOKUP(A23,dataset!A23:B40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D23" s="125" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E23" s="125" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F23" s="87" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G23" s="79" t="s">
         <v>47</v>
@@ -13331,23 +13331,23 @@
     </row>
     <row r="24" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A24" s="74" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B24" s="138" t="str">
         <f>+VLOOKUP(A24,dataset!A24:B41,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C24" s="80" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D24" s="125" t="s">
         <v>1108</v>
       </c>
-      <c r="D24" s="125" t="s">
-        <v>1109</v>
-      </c>
       <c r="E24" s="125" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F24" s="87" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G24" s="79" t="s">
         <v>47</v>
@@ -13364,23 +13364,23 @@
     </row>
     <row r="25" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A25" s="74" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B25" s="138" t="str">
         <f>+VLOOKUP(A25,dataset!A25:B42,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C25" s="80" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D25" s="125" t="s">
         <v>1185</v>
       </c>
-      <c r="D25" s="125" t="s">
+      <c r="E25" s="125" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F25" s="87" t="s">
         <v>1186</v>
-      </c>
-      <c r="E25" s="125" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F25" s="87" t="s">
-        <v>1187</v>
       </c>
       <c r="G25" s="79" t="s">
         <v>47</v>
@@ -13397,23 +13397,23 @@
     </row>
     <row r="26" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A26" s="74" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B26" s="138" t="str">
         <f>+VLOOKUP(A26,dataset!A26:B43,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C26" s="80" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D26" s="125" t="s">
         <v>1219</v>
       </c>
-      <c r="D26" s="125" t="s">
+      <c r="E26" s="125" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F26" s="87" t="s">
         <v>1220</v>
-      </c>
-      <c r="E26" s="125" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F26" s="87" t="s">
-        <v>1221</v>
       </c>
       <c r="G26" s="79" t="s">
         <v>47</v>
@@ -13473,7 +13473,7 @@
   </sheetPr>
   <dimension ref="A1:J561"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E14" sqref="E14"/>
       <selection pane="bottomLeft" activeCell="D556" sqref="D556"/>
@@ -15724,13 +15724,13 @@
         <v>Indicadores de Hidrocarburos en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E82" s="157" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F82" s="157" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="153" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H82" s="153" t="s">
         <v>389</v>
@@ -15752,13 +15752,13 @@
         <v>Indicadores de Hidrocarburos en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E83" s="157" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F83" s="157" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="153" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H83" s="153" t="s">
         <v>400</v>
@@ -15780,13 +15780,13 @@
         <v>Indicadores de Hidrocarburos en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E84" s="157" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F84" s="157" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="153" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H84" s="153" t="s">
         <v>391</v>
@@ -15808,13 +15808,13 @@
         <v>Indicadores de Hidrocarburos en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E85" s="157" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F85" s="157" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="153" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H85" s="153" t="s">
         <v>391</v>
@@ -15836,13 +15836,13 @@
         <v>Indicadores de Hidrocarburos en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E86" s="157" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F86" s="157" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="153" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H86" s="153" t="s">
         <v>391</v>
@@ -15864,13 +15864,13 @@
         <v>Indicadores de Hidrocarburos en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E87" s="157" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F87" s="157" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="153" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H87" s="153" t="s">
         <v>389</v>
@@ -15892,13 +15892,13 @@
         <v>Indicadores de Hidrocarburos en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E88" s="157" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F88" s="157" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="153" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H88" s="153" t="s">
         <v>389</v>
@@ -15920,13 +15920,13 @@
         <v>Indicadores de Hidrocarburos en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E89" s="157" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F89" s="157" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="153" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H89" s="153" t="s">
         <v>389</v>
@@ -15948,13 +15948,13 @@
         <v>Indicadores de Hidrocarburos en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E90" s="157" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F90" s="157" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="153" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H90" s="153" t="s">
         <v>400</v>
@@ -15976,13 +15976,13 @@
         <v>Indicadores de Hidrocarburos en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E91" s="157" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F91" s="157" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="153" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H91" s="153" t="s">
         <v>400</v>
@@ -16004,13 +16004,13 @@
         <v>Indicadores de Hidrocarburos en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E92" s="157" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F92" s="157" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="153" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H92" s="153" t="s">
         <v>399</v>
@@ -16032,13 +16032,13 @@
         <v>Indicadores de Hidrocarburos en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E93" s="157" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F93" s="157" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="153" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H93" s="153" t="s">
         <v>395</v>
@@ -16060,13 +16060,13 @@
         <v>Indicadores de Hidrocarburos en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E94" s="157" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F94" s="157" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="153" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H94" s="153" t="s">
         <v>399</v>
@@ -16088,13 +16088,13 @@
         <v>Indicadores de Hidrocarburos en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E95" s="157" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F95" s="157" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="153" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H95" s="153" t="s">
         <v>395</v>
@@ -16116,13 +16116,13 @@
         <v>Indicadores de Hidrocarburos en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E96" s="157" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F96" s="157" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="153" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H96" s="153" t="s">
         <v>408</v>
@@ -16144,13 +16144,13 @@
         <v>Indicadores de Hidrocarburos en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E97" s="157" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F97" s="157" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="153" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H97" s="153" t="s">
         <v>409</v>
@@ -25282,14 +25282,14 @@
     </row>
     <row r="429" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A429" s="88" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B429" s="118" t="str">
         <f>+VLOOKUP(A429,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
       <c r="C429" s="125" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D429" s="125" t="str">
         <f>+VLOOKUP(C429,distribution!C$2:D$40,2,FALSE)</f>
@@ -25308,14 +25308,14 @@
     </row>
     <row r="430" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A430" s="88" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B430" s="118" t="str">
         <f>+VLOOKUP(A430,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
       <c r="C430" s="125" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D430" s="125" t="str">
         <f>+VLOOKUP(C430,distribution!C$2:D$40,2,FALSE)</f>
@@ -25334,14 +25334,14 @@
     </row>
     <row r="431" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A431" s="88" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B431" s="118" t="str">
         <f>+VLOOKUP(A431,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
       <c r="C431" s="125" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D431" s="125" t="str">
         <f>+VLOOKUP(C431,distribution!C$2:D$40,2,FALSE)</f>
@@ -25360,14 +25360,14 @@
     </row>
     <row r="432" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A432" s="88" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B432" s="118" t="str">
         <f>+VLOOKUP(A432,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
       <c r="C432" s="125" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D432" s="125" t="str">
         <f>+VLOOKUP(C432,distribution!C$2:D$40,2,FALSE)</f>
@@ -25386,14 +25386,14 @@
     </row>
     <row r="433" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A433" s="88" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B433" s="118" t="str">
         <f>+VLOOKUP(A433,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
       <c r="C433" s="125" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D433" s="125" t="str">
         <f>+VLOOKUP(C433,distribution!C$2:D$40,2,FALSE)</f>
@@ -25412,27 +25412,27 @@
     </row>
     <row r="434" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A434" s="88" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B434" s="118" t="str">
         <f>+VLOOKUP(A434,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
       <c r="C434" s="125" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D434" s="125" t="str">
         <f>+VLOOKUP(C434,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cárnica - Porcina en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E434" s="125" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F434" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G434" s="118" t="s">
         <v>1026</v>
-      </c>
-      <c r="F434" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="G434" s="118" t="s">
-        <v>1027</v>
       </c>
       <c r="H434" s="118" t="s">
         <v>397</v>
@@ -25440,27 +25440,27 @@
     </row>
     <row r="435" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A435" s="88" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B435" s="118" t="str">
         <f>+VLOOKUP(A435,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
       <c r="C435" s="125" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D435" s="125" t="str">
         <f>+VLOOKUP(C435,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cárnica - Porcina en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E435" s="125" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F435" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G435" s="118" t="s">
         <v>1028</v>
-      </c>
-      <c r="F435" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="G435" s="118" t="s">
-        <v>1029</v>
       </c>
       <c r="H435" s="118" t="s">
         <v>397</v>
@@ -25468,55 +25468,55 @@
     </row>
     <row r="436" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A436" s="88" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B436" s="118" t="str">
         <f>+VLOOKUP(A436,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
       <c r="C436" s="125" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D436" s="125" t="str">
         <f>+VLOOKUP(C436,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cárnica - Porcina en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E436" s="125" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F436" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G436" s="125" t="s">
         <v>1030</v>
       </c>
-      <c r="F436" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="G436" s="125" t="s">
-        <v>1031</v>
-      </c>
       <c r="H436" s="97" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="437" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A437" s="88" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B437" s="118" t="str">
         <f>+VLOOKUP(A437,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
       <c r="C437" s="125" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D437" s="125" t="str">
         <f>+VLOOKUP(C437,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cárnica - Porcina en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E437" s="125" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F437" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G437" s="118" t="s">
         <v>1032</v>
-      </c>
-      <c r="F437" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="G437" s="118" t="s">
-        <v>1033</v>
       </c>
       <c r="H437" s="118" t="s">
         <v>416</v>
@@ -25524,42 +25524,42 @@
     </row>
     <row r="438" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A438" s="88" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B438" s="118" t="str">
         <f>+VLOOKUP(A438,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cárnica - Porcina</v>
       </c>
       <c r="C438" s="125" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D438" s="125" t="str">
         <f>+VLOOKUP(C438,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cárnica - Porcina en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E438" s="125" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F438" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G438" s="125" t="s">
         <v>1034</v>
       </c>
-      <c r="F438" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="G438" s="125" t="s">
-        <v>1035</v>
-      </c>
       <c r="H438" s="97" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="439" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A439" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B439" s="118" t="str">
         <f>+VLOOKUP(A439,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C439" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D439" s="125" t="str">
         <f>+VLOOKUP(C439,distribution!C$2:D$40,2,FALSE)</f>
@@ -25578,14 +25578,14 @@
     </row>
     <row r="440" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A440" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B440" s="118" t="str">
         <f>+VLOOKUP(A440,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C440" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D440" s="125" t="str">
         <f>+VLOOKUP(C440,distribution!C$2:D$40,2,FALSE)</f>
@@ -25598,20 +25598,20 @@
         <v>527</v>
       </c>
       <c r="G440" s="118" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H440" s="126"/>
     </row>
     <row r="441" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A441" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B441" s="118" t="str">
         <f>+VLOOKUP(A441,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C441" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D441" s="125" t="str">
         <f>+VLOOKUP(C441,distribution!C$2:D$40,2,FALSE)</f>
@@ -25630,14 +25630,14 @@
     </row>
     <row r="442" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A442" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B442" s="118" t="str">
         <f>+VLOOKUP(A442,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C442" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D442" s="125" t="str">
         <f>+VLOOKUP(C442,distribution!C$2:D$40,2,FALSE)</f>
@@ -25656,14 +25656,14 @@
     </row>
     <row r="443" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A443" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B443" s="118" t="str">
         <f>+VLOOKUP(A443,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C443" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D443" s="125" t="str">
         <f>+VLOOKUP(C443,distribution!C$2:D$40,2,FALSE)</f>
@@ -25682,27 +25682,27 @@
     </row>
     <row r="444" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A444" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B444" s="118" t="str">
         <f>+VLOOKUP(A444,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C444" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D444" s="125" t="str">
         <f>+VLOOKUP(C444,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E444" s="125" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F444" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G444" s="118" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H444" s="118" t="s">
         <v>386</v>
@@ -25710,27 +25710,27 @@
     </row>
     <row r="445" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A445" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B445" s="118" t="str">
         <f>+VLOOKUP(A445,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C445" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D445" s="125" t="str">
         <f>+VLOOKUP(C445,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E445" s="125" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F445" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G445" s="118" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H445" s="118" t="s">
         <v>386</v>
@@ -25738,27 +25738,27 @@
     </row>
     <row r="446" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A446" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B446" s="118" t="str">
         <f>+VLOOKUP(A446,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C446" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D446" s="125" t="str">
         <f>+VLOOKUP(C446,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E446" s="125" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F446" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G446" s="118" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H446" s="118" t="s">
         <v>393</v>
@@ -25766,27 +25766,27 @@
     </row>
     <row r="447" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A447" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B447" s="118" t="str">
         <f>+VLOOKUP(A447,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C447" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D447" s="125" t="str">
         <f>+VLOOKUP(C447,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E447" s="125" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F447" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G447" s="118" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H447" s="118" t="s">
         <v>393</v>
@@ -25794,27 +25794,27 @@
     </row>
     <row r="448" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A448" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B448" s="118" t="str">
         <f>+VLOOKUP(A448,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C448" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D448" s="125" t="str">
         <f>+VLOOKUP(C448,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E448" s="125" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F448" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G448" s="118" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H448" s="118" t="s">
         <v>393</v>
@@ -25822,27 +25822,27 @@
     </row>
     <row r="449" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A449" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B449" s="118" t="str">
         <f>+VLOOKUP(A449,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C449" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D449" s="125" t="str">
         <f>+VLOOKUP(C449,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E449" s="125" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F449" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G449" s="118" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H449" s="118" t="s">
         <v>393</v>
@@ -25850,27 +25850,27 @@
     </row>
     <row r="450" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A450" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B450" s="118" t="str">
         <f>+VLOOKUP(A450,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C450" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D450" s="125" t="str">
         <f>+VLOOKUP(C450,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E450" s="125" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F450" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G450" s="118" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H450" s="118" t="s">
         <v>393</v>
@@ -25878,27 +25878,27 @@
     </row>
     <row r="451" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A451" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B451" s="118" t="str">
         <f>+VLOOKUP(A451,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C451" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D451" s="125" t="str">
         <f>+VLOOKUP(C451,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E451" s="125" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F451" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G451" s="118" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H451" s="118" t="s">
         <v>393</v>
@@ -25906,27 +25906,27 @@
     </row>
     <row r="452" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A452" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B452" s="118" t="str">
         <f>+VLOOKUP(A452,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C452" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D452" s="125" t="str">
         <f>+VLOOKUP(C452,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E452" s="125" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F452" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G452" s="118" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H452" s="118" t="s">
         <v>393</v>
@@ -25934,27 +25934,27 @@
     </row>
     <row r="453" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A453" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B453" s="118" t="str">
         <f>+VLOOKUP(A453,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C453" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D453" s="125" t="str">
         <f>+VLOOKUP(C453,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E453" s="125" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F453" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G453" s="118" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H453" s="118" t="s">
         <v>393</v>
@@ -25962,27 +25962,27 @@
     </row>
     <row r="454" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A454" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B454" s="118" t="str">
         <f>+VLOOKUP(A454,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C454" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D454" s="125" t="str">
         <f>+VLOOKUP(C454,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E454" s="125" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F454" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G454" s="118" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H454" s="118" t="s">
         <v>416</v>
@@ -25990,27 +25990,27 @@
     </row>
     <row r="455" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A455" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B455" s="118" t="str">
         <f>+VLOOKUP(A455,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C455" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D455" s="125" t="str">
         <f>+VLOOKUP(C455,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E455" s="125" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F455" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G455" s="118" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H455" s="118" t="s">
         <v>416</v>
@@ -26018,27 +26018,27 @@
     </row>
     <row r="456" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A456" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B456" s="118" t="str">
         <f>+VLOOKUP(A456,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C456" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D456" s="125" t="str">
         <f>+VLOOKUP(C456,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E456" s="125" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F456" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G456" s="118" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H456" s="118" t="s">
         <v>393</v>
@@ -26046,27 +26046,27 @@
     </row>
     <row r="457" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A457" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B457" s="118" t="str">
         <f>+VLOOKUP(A457,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C457" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D457" s="125" t="str">
         <f>+VLOOKUP(C457,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E457" s="125" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F457" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G457" s="118" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H457" s="118" t="s">
         <v>393</v>
@@ -26074,27 +26074,27 @@
     </row>
     <row r="458" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A458" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B458" s="118" t="str">
         <f>+VLOOKUP(A458,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C458" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D458" s="125" t="str">
         <f>+VLOOKUP(C458,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E458" s="125" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F458" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G458" s="118" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H458" s="118" t="s">
         <v>393</v>
@@ -26102,27 +26102,27 @@
     </row>
     <row r="459" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A459" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B459" s="118" t="str">
         <f>+VLOOKUP(A459,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C459" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D459" s="125" t="str">
         <f>+VLOOKUP(C459,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E459" s="125" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F459" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G459" s="118" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H459" s="118" t="s">
         <v>393</v>
@@ -26130,27 +26130,27 @@
     </row>
     <row r="460" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A460" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B460" s="118" t="str">
         <f>+VLOOKUP(A460,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C460" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D460" s="125" t="str">
         <f>+VLOOKUP(C460,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E460" s="125" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F460" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G460" s="118" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H460" s="118" t="s">
         <v>393</v>
@@ -26158,27 +26158,27 @@
     </row>
     <row r="461" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A461" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B461" s="118" t="str">
         <f>+VLOOKUP(A461,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C461" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D461" s="125" t="str">
         <f>+VLOOKUP(C461,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E461" s="125" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F461" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G461" s="118" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H461" s="118" t="s">
         <v>393</v>
@@ -26186,27 +26186,27 @@
     </row>
     <row r="462" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A462" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B462" s="118" t="str">
         <f>+VLOOKUP(A462,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C462" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D462" s="125" t="str">
         <f>+VLOOKUP(C462,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E462" s="125" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F462" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G462" s="118" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H462" s="118" t="s">
         <v>403</v>
@@ -26214,27 +26214,27 @@
     </row>
     <row r="463" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A463" s="88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B463" s="118" t="str">
         <f>+VLOOKUP(A463,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Cítricos dulces</v>
       </c>
       <c r="C463" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D463" s="125" t="str">
         <f>+VLOOKUP(C463,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Cítricos dulces en valores anuales y mensuales</v>
       </c>
       <c r="E463" s="125" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F463" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G463" s="118" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H463" s="118" t="s">
         <v>403</v>
@@ -26242,14 +26242,14 @@
     </row>
     <row r="464" spans="1:8" s="123" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A464" s="88" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B464" s="118" t="str">
         <f>+VLOOKUP(A464,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
       <c r="C464" s="125" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D464" s="125" t="str">
         <f>+VLOOKUP(C464,distribution!C$2:D$40,2,FALSE)</f>
@@ -26268,14 +26268,14 @@
     </row>
     <row r="465" spans="1:8" s="123" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A465" s="88" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B465" s="118" t="str">
         <f>+VLOOKUP(A465,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
       <c r="C465" s="125" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D465" s="125" t="str">
         <f>+VLOOKUP(C465,distribution!C$2:D$40,2,FALSE)</f>
@@ -26288,20 +26288,20 @@
         <v>527</v>
       </c>
       <c r="G465" s="118" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H465" s="126"/>
     </row>
     <row r="466" spans="1:8" s="123" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A466" s="88" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B466" s="118" t="str">
         <f>+VLOOKUP(A466,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
       <c r="C466" s="125" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D466" s="125" t="str">
         <f>+VLOOKUP(C466,distribution!C$2:D$40,2,FALSE)</f>
@@ -26320,14 +26320,14 @@
     </row>
     <row r="467" spans="1:8" s="123" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A467" s="88" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B467" s="118" t="str">
         <f>+VLOOKUP(A467,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
       <c r="C467" s="125" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D467" s="125" t="str">
         <f>+VLOOKUP(C467,distribution!C$2:D$40,2,FALSE)</f>
@@ -26346,14 +26346,14 @@
     </row>
     <row r="468" spans="1:8" s="123" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A468" s="88" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B468" s="118" t="str">
         <f>+VLOOKUP(A468,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
       <c r="C468" s="125" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D468" s="125" t="str">
         <f>+VLOOKUP(C468,distribution!C$2:D$40,2,FALSE)</f>
@@ -26372,27 +26372,27 @@
     </row>
     <row r="469" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A469" s="88" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B469" s="118" t="str">
         <f>+VLOOKUP(A469,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
       <c r="C469" s="125" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D469" s="125" t="str">
         <f>+VLOOKUP(C469,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Construcción en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E469" s="125" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F469" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G469" s="118" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H469" s="97" t="s">
         <v>393</v>
@@ -26400,27 +26400,27 @@
     </row>
     <row r="470" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A470" s="88" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B470" s="118" t="str">
         <f>+VLOOKUP(A470,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
       <c r="C470" s="125" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D470" s="125" t="str">
         <f>+VLOOKUP(C470,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Construcción en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E470" s="125" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F470" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G470" s="118" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H470" s="97" t="s">
         <v>384</v>
@@ -26428,55 +26428,55 @@
     </row>
     <row r="471" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A471" s="88" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B471" s="118" t="str">
         <f>+VLOOKUP(A471,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
       <c r="C471" s="125" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D471" s="125" t="str">
         <f>+VLOOKUP(C471,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Construcción en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E471" s="125" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F471" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G471" s="118" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H471" s="97" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="472" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A472" s="88" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B472" s="118" t="str">
         <f>+VLOOKUP(A472,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Construcción</v>
       </c>
       <c r="C472" s="125" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D472" s="125" t="str">
         <f>+VLOOKUP(C472,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Construcción en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E472" s="125" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F472" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G472" s="118" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H472" s="97" t="s">
         <v>401</v>
@@ -26484,14 +26484,14 @@
     </row>
     <row r="473" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A473" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B473" s="118" t="str">
         <f>+VLOOKUP(A473,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C473" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D473" s="125" t="str">
         <f>+VLOOKUP(C473,distribution!C$2:D$40,2,FALSE)</f>
@@ -26510,14 +26510,14 @@
     </row>
     <row r="474" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A474" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B474" s="118" t="str">
         <f>+VLOOKUP(A474,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C474" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D474" s="125" t="str">
         <f>+VLOOKUP(C474,distribution!C$2:D$40,2,FALSE)</f>
@@ -26530,20 +26530,20 @@
         <v>527</v>
       </c>
       <c r="G474" s="118" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H474" s="126"/>
     </row>
     <row r="475" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A475" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B475" s="118" t="str">
         <f>+VLOOKUP(A475,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C475" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D475" s="125" t="str">
         <f>+VLOOKUP(C475,distribution!C$2:D$40,2,FALSE)</f>
@@ -26562,14 +26562,14 @@
     </row>
     <row r="476" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A476" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B476" s="118" t="str">
         <f>+VLOOKUP(A476,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C476" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D476" s="125" t="str">
         <f>+VLOOKUP(C476,distribution!C$2:D$40,2,FALSE)</f>
@@ -26588,14 +26588,14 @@
     </row>
     <row r="477" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A477" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B477" s="118" t="str">
         <f>+VLOOKUP(A477,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C477" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D477" s="125" t="str">
         <f>+VLOOKUP(C477,distribution!C$2:D$40,2,FALSE)</f>
@@ -26614,27 +26614,27 @@
     </row>
     <row r="478" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A478" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B478" s="118" t="str">
         <f>+VLOOKUP(A478,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C478" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D478" s="125" t="str">
         <f>+VLOOKUP(C478,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E478" s="125" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F478" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G478" s="118" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H478" s="118" t="s">
         <v>386</v>
@@ -26642,27 +26642,27 @@
     </row>
     <row r="479" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A479" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B479" s="118" t="str">
         <f>+VLOOKUP(A479,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C479" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D479" s="125" t="str">
         <f>+VLOOKUP(C479,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E479" s="125" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F479" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G479" s="118" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H479" s="118" t="s">
         <v>386</v>
@@ -26670,27 +26670,27 @@
     </row>
     <row r="480" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A480" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B480" s="118" t="str">
         <f>+VLOOKUP(A480,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C480" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D480" s="125" t="str">
         <f>+VLOOKUP(C480,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E480" s="125" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F480" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G480" s="118" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H480" s="118" t="s">
         <v>386</v>
@@ -26698,27 +26698,27 @@
     </row>
     <row r="481" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A481" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B481" s="118" t="str">
         <f>+VLOOKUP(A481,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C481" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D481" s="125" t="str">
         <f>+VLOOKUP(C481,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E481" s="125" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F481" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G481" s="118" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H481" s="118" t="s">
         <v>386</v>
@@ -26726,27 +26726,27 @@
     </row>
     <row r="482" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A482" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B482" s="118" t="str">
         <f>+VLOOKUP(A482,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C482" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D482" s="125" t="str">
         <f>+VLOOKUP(C482,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E482" s="125" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F482" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G482" s="118" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H482" s="118" t="s">
         <v>393</v>
@@ -26754,27 +26754,27 @@
     </row>
     <row r="483" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A483" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B483" s="118" t="str">
         <f>+VLOOKUP(A483,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C483" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D483" s="125" t="str">
         <f>+VLOOKUP(C483,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E483" s="125" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F483" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G483" s="118" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H483" s="118" t="s">
         <v>393</v>
@@ -26782,27 +26782,27 @@
     </row>
     <row r="484" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A484" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B484" s="118" t="str">
         <f>+VLOOKUP(A484,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C484" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D484" s="125" t="str">
         <f>+VLOOKUP(C484,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E484" s="125" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F484" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G484" s="118" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H484" s="118" t="s">
         <v>393</v>
@@ -26810,27 +26810,27 @@
     </row>
     <row r="485" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A485" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B485" s="118" t="str">
         <f>+VLOOKUP(A485,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C485" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D485" s="125" t="str">
         <f>+VLOOKUP(C485,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E485" s="125" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F485" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G485" s="118" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H485" s="118" t="s">
         <v>393</v>
@@ -26838,27 +26838,27 @@
     </row>
     <row r="486" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A486" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B486" s="118" t="str">
         <f>+VLOOKUP(A486,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C486" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D486" s="125" t="str">
         <f>+VLOOKUP(C486,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E486" s="125" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F486" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G486" s="118" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H486" s="118" t="s">
         <v>393</v>
@@ -26866,27 +26866,27 @@
     </row>
     <row r="487" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A487" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B487" s="118" t="str">
         <f>+VLOOKUP(A487,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C487" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D487" s="125" t="str">
         <f>+VLOOKUP(C487,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E487" s="125" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F487" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G487" s="118" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H487" s="118" t="s">
         <v>393</v>
@@ -26894,27 +26894,27 @@
     </row>
     <row r="488" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A488" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B488" s="118" t="str">
         <f>+VLOOKUP(A488,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C488" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D488" s="125" t="str">
         <f>+VLOOKUP(C488,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E488" s="125" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F488" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G488" s="118" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H488" s="118" t="s">
         <v>393</v>
@@ -26922,27 +26922,27 @@
     </row>
     <row r="489" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A489" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B489" s="118" t="str">
         <f>+VLOOKUP(A489,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C489" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D489" s="125" t="str">
         <f>+VLOOKUP(C489,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E489" s="125" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F489" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G489" s="118" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H489" s="118" t="s">
         <v>393</v>
@@ -26950,27 +26950,27 @@
     </row>
     <row r="490" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A490" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B490" s="118" t="str">
         <f>+VLOOKUP(A490,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C490" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D490" s="125" t="str">
         <f>+VLOOKUP(C490,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E490" s="125" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F490" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G490" s="118" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H490" s="118" t="s">
         <v>393</v>
@@ -26978,27 +26978,27 @@
     </row>
     <row r="491" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A491" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B491" s="118" t="str">
         <f>+VLOOKUP(A491,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C491" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D491" s="125" t="str">
         <f>+VLOOKUP(C491,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E491" s="125" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F491" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G491" s="118" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H491" s="118" t="s">
         <v>393</v>
@@ -27006,27 +27006,27 @@
     </row>
     <row r="492" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A492" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B492" s="118" t="str">
         <f>+VLOOKUP(A492,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C492" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D492" s="125" t="str">
         <f>+VLOOKUP(C492,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E492" s="125" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F492" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G492" s="118" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H492" s="118" t="s">
         <v>393</v>
@@ -27034,27 +27034,27 @@
     </row>
     <row r="493" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A493" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B493" s="118" t="str">
         <f>+VLOOKUP(A493,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C493" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D493" s="125" t="str">
         <f>+VLOOKUP(C493,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E493" s="125" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F493" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G493" s="118" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H493" s="118" t="s">
         <v>414</v>
@@ -27062,27 +27062,27 @@
     </row>
     <row r="494" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A494" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B494" s="118" t="str">
         <f>+VLOOKUP(A494,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C494" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D494" s="125" t="str">
         <f>+VLOOKUP(C494,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E494" s="125" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F494" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G494" s="118" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H494" s="118" t="s">
         <v>414</v>
@@ -27090,27 +27090,27 @@
     </row>
     <row r="495" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A495" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B495" s="118" t="str">
         <f>+VLOOKUP(A495,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C495" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D495" s="125" t="str">
         <f>+VLOOKUP(C495,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E495" s="125" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F495" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G495" s="118" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H495" s="118" t="s">
         <v>414</v>
@@ -27118,27 +27118,27 @@
     </row>
     <row r="496" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A496" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B496" s="118" t="str">
         <f>+VLOOKUP(A496,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C496" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D496" s="125" t="str">
         <f>+VLOOKUP(C496,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E496" s="125" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F496" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G496" s="118" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H496" s="118" t="s">
         <v>414</v>
@@ -27146,27 +27146,27 @@
     </row>
     <row r="497" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A497" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B497" s="118" t="str">
         <f>+VLOOKUP(A497,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C497" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D497" s="125" t="str">
         <f>+VLOOKUP(C497,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E497" s="125" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F497" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G497" s="118" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H497" s="118" t="s">
         <v>414</v>
@@ -27174,27 +27174,27 @@
     </row>
     <row r="498" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A498" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B498" s="118" t="str">
         <f>+VLOOKUP(A498,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C498" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D498" s="125" t="str">
         <f>+VLOOKUP(C498,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E498" s="125" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F498" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G498" s="118" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H498" s="118" t="s">
         <v>414</v>
@@ -27202,27 +27202,27 @@
     </row>
     <row r="499" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A499" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B499" s="118" t="str">
         <f>+VLOOKUP(A499,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C499" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D499" s="125" t="str">
         <f>+VLOOKUP(C499,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E499" s="125" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F499" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G499" s="118" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H499" s="118" t="s">
         <v>414</v>
@@ -27230,27 +27230,27 @@
     </row>
     <row r="500" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A500" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B500" s="118" t="str">
         <f>+VLOOKUP(A500,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C500" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D500" s="125" t="str">
         <f>+VLOOKUP(C500,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E500" s="125" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F500" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G500" s="118" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H500" s="118" t="s">
         <v>414</v>
@@ -27258,27 +27258,27 @@
     </row>
     <row r="501" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A501" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B501" s="118" t="str">
         <f>+VLOOKUP(A501,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C501" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D501" s="125" t="str">
         <f>+VLOOKUP(C501,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E501" s="125" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F501" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G501" s="118" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H501" s="118" t="s">
         <v>414</v>
@@ -27286,27 +27286,27 @@
     </row>
     <row r="502" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A502" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B502" s="118" t="str">
         <f>+VLOOKUP(A502,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C502" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D502" s="125" t="str">
         <f>+VLOOKUP(C502,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E502" s="125" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F502" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G502" s="118" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H502" s="118" t="s">
         <v>414</v>
@@ -27314,27 +27314,27 @@
     </row>
     <row r="503" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A503" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B503" s="118" t="str">
         <f>+VLOOKUP(A503,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C503" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D503" s="125" t="str">
         <f>+VLOOKUP(C503,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E503" s="125" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F503" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G503" s="118" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H503" s="118" t="s">
         <v>413</v>
@@ -27342,27 +27342,27 @@
     </row>
     <row r="504" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A504" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B504" s="118" t="str">
         <f>+VLOOKUP(A504,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C504" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D504" s="125" t="str">
         <f>+VLOOKUP(C504,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E504" s="125" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F504" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G504" s="118" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H504" s="118" t="s">
         <v>413</v>
@@ -27370,27 +27370,27 @@
     </row>
     <row r="505" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A505" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B505" s="118" t="str">
         <f>+VLOOKUP(A505,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C505" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D505" s="125" t="str">
         <f>+VLOOKUP(C505,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E505" s="125" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F505" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G505" s="118" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H505" s="118" t="s">
         <v>413</v>
@@ -27398,27 +27398,27 @@
     </row>
     <row r="506" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A506" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B506" s="118" t="str">
         <f>+VLOOKUP(A506,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C506" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D506" s="125" t="str">
         <f>+VLOOKUP(C506,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E506" s="125" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F506" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G506" s="118" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H506" s="118" t="s">
         <v>413</v>
@@ -27426,27 +27426,27 @@
     </row>
     <row r="507" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A507" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B507" s="118" t="str">
         <f>+VLOOKUP(A507,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C507" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D507" s="125" t="str">
         <f>+VLOOKUP(C507,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E507" s="125" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F507" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G507" s="118" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H507" s="118" t="s">
         <v>413</v>
@@ -27454,27 +27454,27 @@
     </row>
     <row r="508" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A508" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B508" s="118" t="str">
         <f>+VLOOKUP(A508,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C508" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D508" s="125" t="str">
         <f>+VLOOKUP(C508,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E508" s="125" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F508" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G508" s="118" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H508" s="118" t="s">
         <v>413</v>
@@ -27482,27 +27482,27 @@
     </row>
     <row r="509" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A509" s="88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B509" s="118" t="str">
         <f>+VLOOKUP(A509,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Oleaginosa</v>
       </c>
       <c r="C509" s="125" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D509" s="125" t="str">
         <f>+VLOOKUP(C509,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Oleaginosa en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E509" s="125" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F509" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G509" s="118" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H509" s="118" t="s">
         <v>413</v>
@@ -27510,14 +27510,14 @@
     </row>
     <row r="510" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A510" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B510" s="118" t="str">
         <f>+VLOOKUP(A510,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C510" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D510" s="125" t="str">
         <f>+VLOOKUP(C510,distribution!C$2:D$40,2,FALSE)</f>
@@ -27536,14 +27536,14 @@
     </row>
     <row r="511" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A511" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B511" s="118" t="str">
         <f>+VLOOKUP(A511,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C511" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D511" s="125" t="str">
         <f>+VLOOKUP(C511,distribution!C$2:D$40,2,FALSE)</f>
@@ -27556,20 +27556,20 @@
         <v>527</v>
       </c>
       <c r="G511" s="118" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H511" s="89"/>
     </row>
     <row r="512" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A512" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B512" s="118" t="str">
         <f>+VLOOKUP(A512,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C512" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D512" s="125" t="str">
         <f>+VLOOKUP(C512,distribution!C$2:D$40,2,FALSE)</f>
@@ -27588,14 +27588,14 @@
     </row>
     <row r="513" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A513" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B513" s="118" t="str">
         <f>+VLOOKUP(A513,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C513" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D513" s="125" t="str">
         <f>+VLOOKUP(C513,distribution!C$2:D$40,2,FALSE)</f>
@@ -27614,14 +27614,14 @@
     </row>
     <row r="514" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A514" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B514" s="118" t="str">
         <f>+VLOOKUP(A514,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C514" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D514" s="125" t="str">
         <f>+VLOOKUP(C514,distribution!C$2:D$40,2,FALSE)</f>
@@ -27640,27 +27640,27 @@
     </row>
     <row r="515" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A515" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B515" s="118" t="str">
         <f>+VLOOKUP(A515,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C515" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D515" s="125" t="str">
         <f>+VLOOKUP(C515,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
       <c r="E515" s="125" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F515" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G515" s="118" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H515" s="89" t="s">
         <v>397</v>
@@ -27669,27 +27669,27 @@
     </row>
     <row r="516" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A516" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B516" s="118" t="str">
         <f>+VLOOKUP(A516,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C516" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D516" s="125" t="str">
         <f>+VLOOKUP(C516,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
       <c r="E516" s="125" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F516" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G516" s="118" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H516" s="89" t="s">
         <v>397</v>
@@ -27698,114 +27698,114 @@
     </row>
     <row r="517" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A517" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B517" s="118" t="str">
         <f>+VLOOKUP(A517,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C517" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D517" s="125" t="str">
         <f>+VLOOKUP(C517,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
       <c r="E517" s="125" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F517" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G517" s="118" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H517" s="89" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I517" s="184"/>
     </row>
     <row r="518" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A518" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B518" s="118" t="str">
         <f>+VLOOKUP(A518,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C518" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D518" s="125" t="str">
         <f>+VLOOKUP(C518,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
       <c r="E518" s="125" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F518" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G518" s="118" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H518" s="89" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I518" s="184"/>
     </row>
     <row r="519" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A519" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B519" s="118" t="str">
         <f>+VLOOKUP(A519,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C519" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D519" s="125" t="str">
         <f>+VLOOKUP(C519,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
       <c r="E519" s="125" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F519" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G519" s="118" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H519" s="89" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I519" s="184"/>
     </row>
     <row r="520" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A520" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B520" s="118" t="str">
         <f>+VLOOKUP(A520,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C520" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D520" s="125" t="str">
         <f>+VLOOKUP(C520,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
       <c r="E520" s="125" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F520" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G520" s="118" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H520" s="89" t="s">
         <v>416</v>
@@ -27814,27 +27814,27 @@
     </row>
     <row r="521" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A521" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B521" s="118" t="str">
         <f>+VLOOKUP(A521,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C521" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D521" s="125" t="str">
         <f>+VLOOKUP(C521,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
       <c r="E521" s="125" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F521" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G521" s="118" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H521" s="89" t="s">
         <v>393</v>
@@ -27843,27 +27843,27 @@
     </row>
     <row r="522" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A522" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B522" s="118" t="str">
         <f>+VLOOKUP(A522,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C522" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D522" s="125" t="str">
         <f>+VLOOKUP(C522,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
       <c r="E522" s="125" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F522" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G522" s="118" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H522" s="89" t="s">
         <v>393</v>
@@ -27872,27 +27872,27 @@
     </row>
     <row r="523" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A523" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B523" s="118" t="str">
         <f>+VLOOKUP(A523,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C523" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D523" s="125" t="str">
         <f>+VLOOKUP(C523,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
       <c r="E523" s="125" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F523" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G523" s="118" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H523" s="89" t="s">
         <v>393</v>
@@ -27901,27 +27901,27 @@
     </row>
     <row r="524" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A524" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B524" s="118" t="str">
         <f>+VLOOKUP(A524,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C524" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D524" s="125" t="str">
         <f>+VLOOKUP(C524,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
       <c r="E524" s="125" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F524" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G524" s="118" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H524" s="89" t="s">
         <v>393</v>
@@ -27930,27 +27930,27 @@
     </row>
     <row r="525" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A525" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B525" s="118" t="str">
         <f>+VLOOKUP(A525,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C525" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D525" s="125" t="str">
         <f>+VLOOKUP(C525,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
       <c r="E525" s="125" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F525" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G525" s="118" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H525" s="89" t="s">
         <v>393</v>
@@ -27959,27 +27959,27 @@
     </row>
     <row r="526" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A526" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B526" s="118" t="str">
         <f>+VLOOKUP(A526,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C526" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D526" s="125" t="str">
         <f>+VLOOKUP(C526,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
       <c r="E526" s="125" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F526" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G526" s="118" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H526" s="89" t="s">
         <v>395</v>
@@ -27987,27 +27987,27 @@
     </row>
     <row r="527" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A527" s="88" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B527" s="118" t="str">
         <f>+VLOOKUP(A527,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Ovinos - Lana y Carne</v>
       </c>
       <c r="C527" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D527" s="125" t="str">
         <f>+VLOOKUP(C527,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Ovinos - Lana y Carne en valores anuales y mensuales</v>
       </c>
       <c r="E527" s="125" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F527" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G527" s="118" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H527" s="89" t="s">
         <v>395</v>
@@ -28015,14 +28015,14 @@
     </row>
     <row r="528" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A528" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B528" s="118" t="str">
         <f>+VLOOKUP(A528,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C528" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D528" s="125" t="str">
         <f>+VLOOKUP(C528,distribution!C$2:D$40,2,FALSE)</f>
@@ -28035,7 +28035,7 @@
         <v>9</v>
       </c>
       <c r="G528" s="118" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H528" s="89"/>
       <c r="I528" s="123"/>
@@ -28043,14 +28043,14 @@
     </row>
     <row r="529" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A529" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B529" s="118" t="str">
         <f>+VLOOKUP(A529,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C529" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D529" s="125" t="str">
         <f>+VLOOKUP(C529,distribution!C$2:D$40,2,FALSE)</f>
@@ -28071,14 +28071,14 @@
     </row>
     <row r="530" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A530" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B530" s="118" t="str">
         <f>+VLOOKUP(A530,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C530" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D530" s="125" t="str">
         <f>+VLOOKUP(C530,distribution!C$2:D$40,2,FALSE)</f>
@@ -28099,14 +28099,14 @@
     </row>
     <row r="531" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A531" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B531" s="118" t="str">
         <f>+VLOOKUP(A531,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C531" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D531" s="125" t="str">
         <f>+VLOOKUP(C531,distribution!C$2:D$40,2,FALSE)</f>
@@ -28127,14 +28127,14 @@
     </row>
     <row r="532" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A532" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B532" s="118" t="str">
         <f>+VLOOKUP(A532,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C532" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D532" s="125" t="str">
         <f>+VLOOKUP(C532,distribution!C$2:D$40,2,FALSE)</f>
@@ -28155,27 +28155,27 @@
     </row>
     <row r="533" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A533" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B533" s="118" t="str">
         <f>+VLOOKUP(A533,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C533" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D533" s="125" t="str">
         <f>+VLOOKUP(C533,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E533" s="125" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F533" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G533" s="118" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H533" s="89" t="s">
         <v>384</v>
@@ -28185,57 +28185,57 @@
     </row>
     <row r="534" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A534" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B534" s="118" t="str">
         <f>+VLOOKUP(A534,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C534" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D534" s="125" t="str">
         <f>+VLOOKUP(C534,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E534" s="125" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F534" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G534" s="118" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H534" s="89" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I534" s="185"/>
       <c r="J534" s="123"/>
     </row>
     <row r="535" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A535" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B535" s="118" t="str">
         <f>+VLOOKUP(A535,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C535" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D535" s="125" t="str">
         <f>+VLOOKUP(C535,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E535" s="125" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F535" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G535" s="118" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H535" s="89" t="s">
         <v>384</v>
@@ -28245,777 +28245,777 @@
     </row>
     <row r="536" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A536" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B536" s="118" t="str">
         <f>+VLOOKUP(A536,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C536" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D536" s="125" t="str">
         <f>+VLOOKUP(C536,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E536" s="125" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F536" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G536" s="118" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H536" s="89" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I536" s="185"/>
       <c r="J536" s="123"/>
     </row>
     <row r="537" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A537" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B537" s="118" t="str">
         <f>+VLOOKUP(A537,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C537" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D537" s="125" t="str">
         <f>+VLOOKUP(C537,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E537" s="125" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F537" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G537" s="118" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H537" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I537" s="185"/>
       <c r="J537" s="123"/>
     </row>
     <row r="538" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A538" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B538" s="118" t="str">
         <f>+VLOOKUP(A538,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C538" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D538" s="125" t="str">
         <f>+VLOOKUP(C538,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E538" s="125" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F538" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G538" s="118" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H538" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I538" s="185"/>
       <c r="J538" s="123"/>
     </row>
     <row r="539" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A539" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B539" s="118" t="str">
         <f>+VLOOKUP(A539,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C539" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D539" s="125" t="str">
         <f>+VLOOKUP(C539,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E539" s="125" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F539" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G539" s="118" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H539" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I539" s="185"/>
       <c r="J539" s="123"/>
     </row>
     <row r="540" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A540" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B540" s="118" t="str">
         <f>+VLOOKUP(A540,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C540" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D540" s="125" t="str">
         <f>+VLOOKUP(C540,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E540" s="125" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F540" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G540" s="118" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H540" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I540" s="185"/>
       <c r="J540" s="123"/>
     </row>
     <row r="541" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A541" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B541" s="118" t="str">
         <f>+VLOOKUP(A541,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C541" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D541" s="125" t="str">
         <f>+VLOOKUP(C541,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E541" s="125" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F541" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G541" s="118" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H541" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I541" s="185"/>
       <c r="J541" s="123"/>
     </row>
     <row r="542" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A542" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B542" s="118" t="str">
         <f>+VLOOKUP(A542,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C542" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D542" s="125" t="str">
         <f>+VLOOKUP(C542,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E542" s="125" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F542" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G542" s="118" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H542" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I542" s="185"/>
       <c r="J542" s="123"/>
     </row>
     <row r="543" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A543" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B543" s="118" t="str">
         <f>+VLOOKUP(A543,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C543" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D543" s="125" t="str">
         <f>+VLOOKUP(C543,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E543" s="125" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F543" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G543" s="118" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H543" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I543" s="185"/>
       <c r="J543" s="123"/>
     </row>
     <row r="544" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A544" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B544" s="118" t="str">
         <f>+VLOOKUP(A544,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C544" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D544" s="125" t="str">
         <f>+VLOOKUP(C544,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E544" s="125" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F544" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G544" s="118" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H544" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I544" s="185"/>
       <c r="J544" s="123"/>
     </row>
     <row r="545" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A545" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B545" s="118" t="str">
         <f>+VLOOKUP(A545,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C545" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D545" s="125" t="str">
         <f>+VLOOKUP(C545,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E545" s="125" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F545" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G545" s="118" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H545" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I545" s="185"/>
       <c r="J545" s="123"/>
     </row>
     <row r="546" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A546" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B546" s="118" t="str">
         <f>+VLOOKUP(A546,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C546" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D546" s="125" t="str">
         <f>+VLOOKUP(C546,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E546" s="125" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F546" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G546" s="118" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H546" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I546" s="185"/>
       <c r="J546" s="123"/>
     </row>
     <row r="547" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A547" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B547" s="118" t="str">
         <f>+VLOOKUP(A547,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C547" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D547" s="125" t="str">
         <f>+VLOOKUP(C547,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E547" s="125" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F547" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G547" s="118" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H547" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I547" s="185"/>
       <c r="J547" s="123"/>
     </row>
     <row r="548" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A548" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B548" s="118" t="str">
         <f>+VLOOKUP(A548,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C548" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D548" s="125" t="str">
         <f>+VLOOKUP(C548,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E548" s="125" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F548" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G548" s="118" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H548" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I548" s="185"/>
       <c r="J548" s="123"/>
     </row>
     <row r="549" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A549" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B549" s="118" t="str">
         <f>+VLOOKUP(A549,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C549" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D549" s="125" t="str">
         <f>+VLOOKUP(C549,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E549" s="125" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F549" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G549" s="118" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H549" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I549" s="185"/>
       <c r="J549" s="123"/>
     </row>
     <row r="550" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A550" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B550" s="118" t="str">
         <f>+VLOOKUP(A550,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C550" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D550" s="125" t="str">
         <f>+VLOOKUP(C550,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E550" s="125" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F550" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G550" s="118" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H550" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I550" s="185"/>
       <c r="J550" s="123"/>
     </row>
     <row r="551" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A551" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B551" s="118" t="str">
         <f>+VLOOKUP(A551,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C551" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D551" s="125" t="str">
         <f>+VLOOKUP(C551,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E551" s="125" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F551" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G551" s="118" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H551" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I551" s="185"/>
       <c r="J551" s="123"/>
     </row>
     <row r="552" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A552" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B552" s="118" t="str">
         <f>+VLOOKUP(A552,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C552" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D552" s="125" t="str">
         <f>+VLOOKUP(C552,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E552" s="125" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F552" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G552" s="118" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H552" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I552" s="185"/>
       <c r="J552" s="123"/>
     </row>
     <row r="553" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A553" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B553" s="118" t="str">
         <f>+VLOOKUP(A553,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C553" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D553" s="125" t="str">
         <f>+VLOOKUP(C553,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E553" s="125" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F553" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G553" s="118" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H553" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I553" s="185"/>
       <c r="J553" s="123"/>
     </row>
     <row r="554" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A554" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B554" s="118" t="str">
         <f>+VLOOKUP(A554,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C554" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D554" s="125" t="str">
         <f>+VLOOKUP(C554,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E554" s="125" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F554" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G554" s="118" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H554" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I554" s="185"/>
       <c r="J554" s="123"/>
     </row>
     <row r="555" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A555" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B555" s="118" t="str">
         <f>+VLOOKUP(A555,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C555" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D555" s="125" t="str">
         <f>+VLOOKUP(C555,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E555" s="125" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F555" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G555" s="118" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H555" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I555" s="185"/>
       <c r="J555" s="123"/>
     </row>
     <row r="556" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A556" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B556" s="118" t="str">
         <f>+VLOOKUP(A556,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C556" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D556" s="125" t="str">
         <f>+VLOOKUP(C556,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E556" s="125" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F556" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G556" s="118" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H556" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I556" s="185"/>
       <c r="J556" s="123"/>
     </row>
     <row r="557" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A557" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B557" s="118" t="str">
         <f>+VLOOKUP(A557,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C557" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D557" s="125" t="str">
         <f>+VLOOKUP(C557,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E557" s="125" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F557" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G557" s="118" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H557" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I557" s="185"/>
       <c r="J557" s="123"/>
     </row>
     <row r="558" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A558" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B558" s="118" t="str">
         <f>+VLOOKUP(A558,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C558" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D558" s="125" t="str">
         <f>+VLOOKUP(C558,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E558" s="125" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F558" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G558" s="118" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H558" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I558" s="185"/>
       <c r="J558" s="123"/>
     </row>
     <row r="559" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A559" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B559" s="118" t="str">
         <f>+VLOOKUP(A559,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C559" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D559" s="125" t="str">
         <f>+VLOOKUP(C559,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E559" s="125" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F559" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G559" s="118" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H559" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I559" s="185"/>
       <c r="J559" s="123"/>
     </row>
     <row r="560" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A560" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B560" s="118" t="str">
         <f>+VLOOKUP(A560,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C560" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D560" s="125" t="str">
         <f>+VLOOKUP(C560,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E560" s="125" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F560" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G560" s="118" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H560" s="89" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I560" s="185"/>
       <c r="J560" s="123"/>
     </row>
     <row r="561" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A561" s="88" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B561" s="118" t="str">
         <f>+VLOOKUP(A561,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Comercio interno</v>
       </c>
       <c r="C561" s="125" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D561" s="125" t="str">
         <f>+VLOOKUP(C561,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Comercio interno en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E561" s="125" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F561" s="118" t="s">
         <v>10</v>
       </c>
       <c r="G561" s="118" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H561" s="89" t="s">
         <v>401</v>
@@ -30290,7 +30290,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="73" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C80" s="161"/>
       <c r="D80" s="73" t="s">
@@ -30308,7 +30308,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="73" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C81" s="161"/>
       <c r="D81" s="73"/>
@@ -30320,7 +30320,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="73" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C82" s="161"/>
       <c r="D82" s="73"/>
@@ -30332,7 +30332,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="73" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C83" s="161"/>
       <c r="D83" s="73"/>
@@ -30344,7 +30344,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="73" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C84" s="161"/>
       <c r="D84" s="73"/>
@@ -30356,11 +30356,11 @@
         <v>84</v>
       </c>
       <c r="B85" s="73" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C85" s="161"/>
       <c r="D85" s="73" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E85" s="72">
         <v>1000</v>

--- a/sspmi/data.xlsx
+++ b/sspmi/data.xlsx
@@ -4517,9 +4517,6 @@
     <t>Superficie cosechada de yerba mate</t>
   </si>
   <si>
-    <t>1990-01-01/2018/03/01</t>
-  </si>
-  <si>
     <t>MinAgro, INYM, DGEyCCABA</t>
   </si>
   <si>
@@ -5070,6 +5067,9 @@
   </si>
   <si>
     <t>2018-01-19</t>
+  </si>
+  <si>
+    <t>1990-01-01/2018-03-01</t>
   </si>
 </sst>
 </file>
@@ -6887,7 +6887,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="611" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7011,15 +7011,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7045,41 +7036,11 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7147,9 +7108,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7306,6 +7264,39 @@
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="956">
@@ -11863,101 +11854,101 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="48" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="48" customWidth="1"/>
-    <col min="7" max="7" width="22" style="48" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="48" customWidth="1"/>
-    <col min="9" max="9" width="19" style="48" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" style="48" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="48" customWidth="1"/>
-    <col min="13" max="13" width="20" style="48" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.1640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="48" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25" style="48" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" style="48" customWidth="1"/>
-    <col min="20" max="20" width="23" style="56" customWidth="1"/>
-    <col min="21" max="16384" width="16.83203125" style="48"/>
+    <col min="1" max="1" width="23.33203125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="45" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="22" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="45" customWidth="1"/>
+    <col min="9" max="9" width="19" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" style="45" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="45" customWidth="1"/>
+    <col min="13" max="13" width="20" style="45" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="45" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" style="45" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" style="45" customWidth="1"/>
+    <col min="20" max="20" width="23" style="53" customWidth="1"/>
+    <col min="21" max="16384" width="16.83203125" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="46" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -11966,58 +11957,58 @@
       <c r="C2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="48" t="s">
         <v>426</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="48" t="s">
         <v>426</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="50" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="49" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="23" t="s">
         <v>427</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>1678</v>
-      </c>
-      <c r="N2" s="52" t="s">
+        <v>1677</v>
+      </c>
+      <c r="N2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="51" t="s">
         <v>36</v>
       </c>
       <c r="R2" s="29"/>
-      <c r="S2" s="52" t="s">
+      <c r="S2" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="52" t="s">
+      <c r="T2" s="49" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="46" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -12026,53 +12017,53 @@
       <c r="C3" s="37" t="s">
         <v>996</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="48" t="s">
         <v>426</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="48" t="s">
         <v>426</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="50" t="s">
         <v>1488</v>
       </c>
       <c r="J3" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="49" t="s">
         <v>30</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>427</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>1678</v>
-      </c>
-      <c r="N3" s="52" t="s">
+        <v>1677</v>
+      </c>
+      <c r="N3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O3" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="49" t="s">
         <v>1487</v>
       </c>
-      <c r="Q3" s="54" t="s">
+      <c r="Q3" s="51" t="s">
         <v>36</v>
       </c>
       <c r="R3" s="29"/>
-      <c r="S3" s="52" t="s">
+      <c r="S3" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="49" t="s">
         <v>33</v>
       </c>
     </row>
@@ -12089,19 +12080,19 @@
       <c r="D4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="48" t="s">
         <v>426</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="48" t="s">
         <v>426</v>
       </c>
       <c r="H4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="52" t="s">
         <v>86</v>
       </c>
       <c r="J4" s="23" t="s">
@@ -12114,7 +12105,7 @@
         <v>427</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N4" s="32" t="s">
         <v>31</v>
@@ -12149,19 +12140,19 @@
       <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="48" t="s">
         <v>426</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="48" t="s">
         <v>426</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="52" t="s">
         <v>103</v>
       </c>
       <c r="J5" s="23" t="s">
@@ -12174,7 +12165,7 @@
         <v>427</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N5" s="32" t="s">
         <v>31</v>
@@ -12209,19 +12200,19 @@
       <c r="D6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="48" t="s">
         <v>426</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="48" t="s">
         <v>426</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="52" t="s">
         <v>103</v>
       </c>
       <c r="J6" s="23" t="s">
@@ -12234,7 +12225,7 @@
         <v>427</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N6" s="32" t="s">
         <v>31</v>
@@ -12269,19 +12260,19 @@
       <c r="D7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="48" t="s">
         <v>426</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="48" t="s">
         <v>426</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="52" t="s">
         <v>122</v>
       </c>
       <c r="J7" s="23" t="s">
@@ -12294,7 +12285,7 @@
         <v>427</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N7" s="32" t="s">
         <v>31</v>
@@ -12329,7 +12320,7 @@
       <c r="D8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="47" t="s">
         <v>426</v>
       </c>
       <c r="F8" s="13" t="s">
@@ -12354,7 +12345,7 @@
         <v>768</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N8" s="32" t="s">
         <v>31</v>
@@ -12389,19 +12380,19 @@
       <c r="D9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="48" t="s">
         <v>426</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="48" t="s">
         <v>426</v>
       </c>
       <c r="H9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="52" t="s">
         <v>162</v>
       </c>
       <c r="J9" s="23" t="s">
@@ -12414,7 +12405,7 @@
         <v>427</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N9" s="32" t="s">
         <v>31</v>
@@ -12449,19 +12440,19 @@
       <c r="D10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="48" t="s">
         <v>426</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="48" t="s">
         <v>426</v>
       </c>
       <c r="H10" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="52" t="s">
         <v>182</v>
       </c>
       <c r="J10" s="23" t="s">
@@ -12474,7 +12465,7 @@
         <v>427</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N10" s="32" t="s">
         <v>31</v>
@@ -12509,13 +12500,13 @@
       <c r="D11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="48" t="s">
         <v>426</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="48" t="s">
         <v>426</v>
       </c>
       <c r="H11" s="32" t="s">
@@ -12534,7 +12525,7 @@
         <v>427</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N11" s="32" t="s">
         <v>31</v>
@@ -12569,13 +12560,13 @@
       <c r="D12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="47" t="s">
         <v>426</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="47" t="s">
         <v>426</v>
       </c>
       <c r="H12" s="32" t="s">
@@ -12594,7 +12585,7 @@
         <v>768</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N12" s="32" t="s">
         <v>31</v>
@@ -12629,7 +12620,7 @@
       <c r="D13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="47" t="s">
         <v>426</v>
       </c>
       <c r="F13" s="13" t="s">
@@ -12654,7 +12645,7 @@
         <v>768</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N13" s="32" t="s">
         <v>31</v>
@@ -12689,19 +12680,19 @@
       <c r="D14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="47" t="s">
         <v>426</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="47" t="s">
         <v>426</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="52" t="s">
         <v>70</v>
       </c>
       <c r="J14" s="23" t="s">
@@ -12714,7 +12705,7 @@
         <v>768</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N14" s="32" t="s">
         <v>31</v>
@@ -12723,14 +12714,14 @@
         <v>32</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>1494</v>
+        <v>1678</v>
       </c>
       <c r="Q14" s="35" t="s">
         <v>36</v>
       </c>
       <c r="R14" s="23"/>
       <c r="S14" s="32" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="T14" s="32" t="s">
         <v>33</v>
@@ -12749,19 +12740,19 @@
       <c r="D15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="48" t="s">
         <v>426</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="48" t="s">
         <v>426</v>
       </c>
       <c r="H15" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="52" t="s">
         <v>122</v>
       </c>
       <c r="J15" s="23" t="s">
@@ -12774,7 +12765,7 @@
         <v>427</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N15" s="32" t="s">
         <v>31</v>
@@ -12821,7 +12812,7 @@
       <c r="H16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="52" t="s">
         <v>264</v>
       </c>
       <c r="J16" s="23" t="s">
@@ -12834,7 +12825,7 @@
         <v>427</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N16" s="32" t="s">
         <v>31</v>
@@ -12881,7 +12872,7 @@
       <c r="H17" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="52" t="s">
         <v>103</v>
       </c>
       <c r="J17" s="23" t="s">
@@ -12894,7 +12885,7 @@
         <v>427</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N17" s="32" t="s">
         <v>31</v>
@@ -12903,7 +12894,7 @@
         <v>32</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="Q17" s="35" t="s">
         <v>36</v>
@@ -12941,7 +12932,7 @@
       <c r="H18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="52" t="s">
         <v>86</v>
       </c>
       <c r="J18" s="23" t="s">
@@ -12954,7 +12945,7 @@
         <v>427</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N18" s="32" t="s">
         <v>31</v>
@@ -13001,7 +12992,7 @@
       <c r="H19" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="I19" s="52" t="s">
         <v>70</v>
       </c>
       <c r="J19" s="23" t="s">
@@ -13014,7 +13005,7 @@
         <v>518</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N19" s="32" t="s">
         <v>31</v>
@@ -13074,7 +13065,7 @@
         <v>518</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N20" s="32" t="s">
         <v>31</v>
@@ -13131,10 +13122,10 @@
         <v>30</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N21" s="32" t="s">
         <v>31</v>
@@ -13191,10 +13182,10 @@
         <v>30</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N22" s="32" t="s">
         <v>31</v>
@@ -13203,7 +13194,7 @@
         <v>32</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="Q22" s="35" t="s">
         <v>36</v>
@@ -13251,10 +13242,10 @@
         <v>30</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N23" s="32" t="s">
         <v>31</v>
@@ -13311,10 +13302,10 @@
         <v>30</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N24" s="32" t="s">
         <v>31</v>
@@ -13371,10 +13362,10 @@
         <v>30</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N25" s="32" t="s">
         <v>31</v>
@@ -13431,10 +13422,10 @@
         <v>30</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N26" s="32" t="s">
         <v>31</v>
@@ -13491,10 +13482,10 @@
         <v>30</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N27" s="32" t="s">
         <v>31</v>
@@ -13551,10 +13542,10 @@
         <v>30</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N28" s="32" t="s">
         <v>31</v>
@@ -13611,10 +13602,10 @@
         <v>30</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N29" s="32" t="s">
         <v>31</v>
@@ -13638,13 +13629,13 @@
     </row>
     <row r="30" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>1496</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>1497</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>1498</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>34</v>
@@ -13665,16 +13656,16 @@
         <v>103</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="K30" s="32" t="s">
         <v>30</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N30" s="32" t="s">
         <v>31</v>
@@ -13683,7 +13674,7 @@
         <v>32</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="Q30" s="35" t="s">
         <v>36</v>
@@ -13698,13 +13689,13 @@
     </row>
     <row r="31" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>1524</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>1525</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>1526</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>34</v>
@@ -13725,16 +13716,16 @@
         <v>103</v>
       </c>
       <c r="J31" s="34" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K31" s="32" t="s">
         <v>30</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N31" s="32" t="s">
         <v>31</v>
@@ -13743,14 +13734,14 @@
         <v>32</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="Q31" s="35" t="s">
         <v>36</v>
       </c>
       <c r="R31" s="23"/>
       <c r="S31" s="23" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="T31" s="32" t="s">
         <v>33</v>
@@ -13758,13 +13749,13 @@
     </row>
     <row r="32" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>1546</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>1547</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>1548</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>34</v>
@@ -13785,16 +13776,16 @@
         <v>103</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="K32" s="32" t="s">
         <v>30</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N32" s="32" t="s">
         <v>31</v>
@@ -13803,14 +13794,14 @@
         <v>32</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="Q32" s="35" t="s">
         <v>36</v>
       </c>
       <c r="R32" s="23"/>
       <c r="S32" s="23" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="T32" s="32" t="s">
         <v>33</v>
@@ -13818,13 +13809,13 @@
     </row>
     <row r="33" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>1578</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>1579</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>1580</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>34</v>
@@ -13845,16 +13836,16 @@
         <v>103</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="K33" s="32" t="s">
         <v>30</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N33" s="32" t="s">
         <v>31</v>
@@ -13863,14 +13854,14 @@
         <v>32</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="Q33" s="35" t="s">
         <v>36</v>
       </c>
       <c r="R33" s="23"/>
       <c r="S33" s="23" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="T33" s="32" t="s">
         <v>33</v>
@@ -13878,13 +13869,13 @@
     </row>
     <row r="34" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>1620</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>1621</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>1622</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>34</v>
@@ -13905,16 +13896,16 @@
         <v>1488</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="K34" s="32" t="s">
         <v>30</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N34" s="32" t="s">
         <v>31</v>
@@ -13923,14 +13914,14 @@
         <v>32</v>
       </c>
       <c r="P34" s="32" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="Q34" s="35" t="s">
         <v>36</v>
       </c>
       <c r="R34" s="23"/>
       <c r="S34" s="23" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="T34" s="32" t="s">
         <v>33</v>
@@ -13975,78 +13966,78 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E14" sqref="E14"/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="48" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="48" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="48" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="48" customWidth="1"/>
-    <col min="13" max="13" width="21.1640625" style="48" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="45" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="55" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="45" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="45" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" style="45" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" style="45" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="16.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="46" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="11" t="str">
@@ -14068,7 +14059,7 @@
       <c r="G2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="51" t="s">
         <v>36</v>
       </c>
       <c r="I2" s="37"/>
@@ -14537,7 +14528,7 @@
       <c r="C15" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="54" t="s">
         <v>531</v>
       </c>
       <c r="E15" s="23" t="s">
@@ -15047,23 +15038,23 @@
     </row>
     <row r="30" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B30" s="11" t="str">
         <f>+VLOOKUP(A30,dataset!A30:B47,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D30" s="23" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E30" s="23" t="s">
         <v>1501</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="F30" s="30" t="s">
         <v>1502</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>1503</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>47</v>
@@ -15084,23 +15075,23 @@
     </row>
     <row r="31" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B31" s="11" t="str">
         <f>+VLOOKUP(A31,dataset!A31:B48,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C31" s="23" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D31" s="23" t="s">
         <v>1528</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="E31" s="23" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F31" s="30" t="s">
         <v>1529</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>1529</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>1530</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>47</v>
@@ -15121,23 +15112,23 @@
     </row>
     <row r="32" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B32" s="11" t="str">
         <f>+VLOOKUP(A32,dataset!A32:B49,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C32" s="23" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>1551</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>1552</v>
-      </c>
       <c r="E32" s="23" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>47</v>
@@ -15158,23 +15149,23 @@
     </row>
     <row r="33" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B33" s="11" t="str">
         <f>+VLOOKUP(A33,dataset!A33:B50,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C33" s="23" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>1583</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="E33" s="23" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F33" s="30" t="s">
         <v>1584</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>1584</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>1585</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>47</v>
@@ -15195,23 +15186,23 @@
     </row>
     <row r="34" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B34" s="11" t="str">
         <f>+VLOOKUP(A34,dataset!A34:B51,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C34" s="23" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>1626</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="E34" s="23" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F34" s="30" t="s">
         <v>1627</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>1627</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>1628</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>47</v>
@@ -15299,32 +15290,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="148" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="69" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>49</v>
       </c>
@@ -15350,7 +15341,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" s="69" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>49</v>
       </c>
@@ -15376,7 +15367,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" s="69" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>49</v>
       </c>
@@ -15402,7 +15393,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" s="69" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>49</v>
       </c>
@@ -15430,7 +15421,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="69" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>49</v>
       </c>
@@ -15456,7 +15447,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" s="69" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>49</v>
       </c>
@@ -15482,7 +15473,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" s="69" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>49</v>
       </c>
@@ -15510,7 +15501,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="69" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>49</v>
       </c>
@@ -16075,10 +16066,10 @@
       <c r="F29" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="57" t="s">
         <v>796</v>
       </c>
-      <c r="H29" s="70" t="s">
+      <c r="H29" s="57" t="s">
         <v>397</v>
       </c>
     </row>
@@ -16097,16 +16088,16 @@
         <f>+VLOOKUP(C30,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Automotriz en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E30" s="71" t="s">
+      <c r="E30" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="70" t="s">
+      <c r="F30" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="57" t="s">
         <v>660</v>
       </c>
-      <c r="H30" s="70" t="s">
+      <c r="H30" s="57" t="s">
         <v>397</v>
       </c>
     </row>
@@ -16131,10 +16122,10 @@
       <c r="F31" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="70" t="s">
+      <c r="G31" s="57" t="s">
         <v>649</v>
       </c>
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="57" t="s">
         <v>397</v>
       </c>
     </row>
@@ -16153,16 +16144,16 @@
         <f>+VLOOKUP(C32,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Automotriz en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E32" s="71" t="s">
+      <c r="E32" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="70" t="s">
+      <c r="F32" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="57" t="s">
         <v>661</v>
       </c>
-      <c r="H32" s="70" t="s">
+      <c r="H32" s="57" t="s">
         <v>397</v>
       </c>
     </row>
@@ -16187,10 +16178,10 @@
       <c r="F33" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="70" t="s">
+      <c r="G33" s="57" t="s">
         <v>650</v>
       </c>
-      <c r="H33" s="70" t="s">
+      <c r="H33" s="57" t="s">
         <v>397</v>
       </c>
     </row>
@@ -16209,16 +16200,16 @@
         <f>+VLOOKUP(C34,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Automotriz en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E34" s="71" t="s">
+      <c r="E34" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="70" t="s">
+      <c r="F34" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="57" t="s">
         <v>662</v>
       </c>
-      <c r="H34" s="70" t="s">
+      <c r="H34" s="57" t="s">
         <v>397</v>
       </c>
     </row>
@@ -16243,10 +16234,10 @@
       <c r="F35" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="70" t="s">
+      <c r="G35" s="57" t="s">
         <v>651</v>
       </c>
-      <c r="H35" s="70" t="s">
+      <c r="H35" s="57" t="s">
         <v>397</v>
       </c>
     </row>
@@ -16268,13 +16259,13 @@
       <c r="E36" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="70" t="s">
+      <c r="F36" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="57" t="s">
         <v>663</v>
       </c>
-      <c r="H36" s="70" t="s">
+      <c r="H36" s="57" t="s">
         <v>397</v>
       </c>
     </row>
@@ -16302,7 +16293,7 @@
       <c r="G37" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="H37" s="73"/>
+      <c r="H37" s="60"/>
     </row>
     <row r="38" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
@@ -16328,7 +16319,7 @@
       <c r="G38" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="H38" s="73"/>
+      <c r="H38" s="60"/>
     </row>
     <row r="39" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
@@ -16373,10 +16364,10 @@
         <f>+VLOOKUP(C40,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Automotriz en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E40" s="71" t="s">
+      <c r="E40" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="F40" s="74" t="s">
+      <c r="F40" s="61" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="37" t="s">
@@ -16404,7 +16395,7 @@
       <c r="E41" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="75" t="s">
+      <c r="F41" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="37" t="s">
@@ -16457,7 +16448,7 @@
         <f>+VLOOKUP(C43,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Automotriz en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E43" s="71" t="s">
+      <c r="E43" s="58" t="s">
         <v>90</v>
       </c>
       <c r="F43" s="36" t="s">
@@ -16488,7 +16479,7 @@
       <c r="E44" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="72" t="s">
+      <c r="F44" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="37" t="s">
@@ -16541,10 +16532,10 @@
         <f>+VLOOKUP(C46,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Automotriz en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E46" s="71" t="s">
+      <c r="E46" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="74" t="s">
+      <c r="F46" s="61" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="37" t="s">
@@ -16572,7 +16563,7 @@
       <c r="E47" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F47" s="75" t="s">
+      <c r="F47" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="37" t="s">
@@ -16625,10 +16616,10 @@
         <f>+VLOOKUP(C49,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Automotriz en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E49" s="71" t="s">
+      <c r="E49" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="F49" s="74" t="s">
+      <c r="F49" s="61" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="37" t="s">
@@ -16656,7 +16647,7 @@
       <c r="E50" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="76" t="s">
+      <c r="F50" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="9" t="s">
@@ -16712,7 +16703,7 @@
       <c r="E52" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="77" t="s">
+      <c r="F52" s="64" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="9" t="s">
@@ -16740,7 +16731,7 @@
       <c r="E53" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="76" t="s">
+      <c r="F53" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="9" t="s">
@@ -16793,10 +16784,10 @@
         <f>+VLOOKUP(C55,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Automotriz en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E55" s="78" t="s">
+      <c r="E55" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="77" t="s">
+      <c r="F55" s="64" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="9" t="s">
@@ -16824,7 +16815,7 @@
       <c r="E56" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="76" t="s">
+      <c r="F56" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="9" t="s">
@@ -16877,7 +16868,7 @@
         <f>+VLOOKUP(C58,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Automotriz en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E58" s="78" t="s">
+      <c r="E58" s="65" t="s">
         <v>97</v>
       </c>
       <c r="F58" s="26" t="s">
@@ -16908,7 +16899,7 @@
       <c r="E59" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F59" s="76" t="s">
+      <c r="F59" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="9" t="s">
@@ -16961,10 +16952,10 @@
         <f>+VLOOKUP(C61,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Automotriz en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E61" s="78" t="s">
+      <c r="E61" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="F61" s="77" t="s">
+      <c r="F61" s="64" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="9" t="s">
@@ -16992,7 +16983,7 @@
       <c r="E62" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F62" s="76" t="s">
+      <c r="F62" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="9" t="s">
@@ -17049,7 +17040,7 @@
       <c r="F64" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="G64" s="79" t="s">
+      <c r="G64" s="66" t="s">
         <v>740</v>
       </c>
       <c r="H64" s="37"/>
@@ -17191,7 +17182,7 @@
       <c r="H69" s="37"/>
     </row>
     <row r="70" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="80" t="s">
+      <c r="A70" s="67" t="s">
         <v>102</v>
       </c>
       <c r="B70" s="11" t="str">
@@ -17983,7 +17974,7 @@
       <c r="F98" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G98" s="79" t="s">
+      <c r="G98" s="66" t="s">
         <v>605</v>
       </c>
       <c r="H98" s="37"/>
@@ -18058,10 +18049,10 @@
       <c r="E101" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F101" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="70" t="s">
+      <c r="F101" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="57" t="s">
         <v>536</v>
       </c>
       <c r="H101" s="37" t="s">
@@ -18086,10 +18077,10 @@
       <c r="E102" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="F102" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="70" t="s">
+      <c r="F102" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="57" t="s">
         <v>537</v>
       </c>
       <c r="H102" s="37" t="s">
@@ -18337,7 +18328,7 @@
       <c r="F111" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G111" s="79" t="s">
+      <c r="G111" s="66" t="s">
         <v>812</v>
       </c>
       <c r="H111" s="37" t="s">
@@ -18387,13 +18378,13 @@
         <f>+VLOOKUP(C113,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Maquinaria Agrícola en valores anuales y trimestrales</v>
       </c>
-      <c r="E113" s="81" t="s">
+      <c r="E113" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="F113" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="81" t="s">
+      <c r="F113" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="68" t="s">
         <v>814</v>
       </c>
       <c r="H113" s="37" t="s">
@@ -18415,13 +18406,13 @@
         <f>+VLOOKUP(C114,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Maquinaria Agrícola en valores anuales y trimestrales</v>
       </c>
-      <c r="E114" s="81" t="s">
+      <c r="E114" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="F114" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="81" t="s">
+      <c r="F114" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="68" t="s">
         <v>814</v>
       </c>
       <c r="H114" s="37" t="s">
@@ -18443,10 +18434,10 @@
         <f>+VLOOKUP(C115,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Maquinaria Agrícola en valores anuales y trimestrales</v>
       </c>
-      <c r="E115" s="81" t="s">
+      <c r="E115" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="F115" s="72" t="s">
+      <c r="F115" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="29" t="s">
@@ -18471,13 +18462,13 @@
         <f>+VLOOKUP(C116,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Maquinaria Agrícola en valores anuales y trimestrales</v>
       </c>
-      <c r="E116" s="81" t="s">
+      <c r="E116" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="F116" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="81" t="s">
+      <c r="F116" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="68" t="s">
         <v>816</v>
       </c>
       <c r="H116" s="37" t="s">
@@ -18499,13 +18490,13 @@
         <f>+VLOOKUP(C117,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Maquinaria Agrícola en valores anuales y trimestrales</v>
       </c>
-      <c r="E117" s="81" t="s">
+      <c r="E117" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="F117" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="81" t="s">
+      <c r="F117" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="68" t="s">
         <v>816</v>
       </c>
       <c r="H117" s="37" t="s">
@@ -18527,13 +18518,13 @@
         <f>+VLOOKUP(C118,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Maquinaria Agrícola en valores anuales y trimestrales</v>
       </c>
-      <c r="E118" s="70" t="s">
+      <c r="E118" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="F118" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="70" t="s">
+      <c r="F118" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="57" t="s">
         <v>817</v>
       </c>
       <c r="H118" s="37" t="s">
@@ -18555,10 +18546,10 @@
         <f>+VLOOKUP(C119,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Maquinaria Agrícola en valores anuales y trimestrales</v>
       </c>
-      <c r="E119" s="70" t="s">
+      <c r="E119" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="F119" s="72" t="s">
+      <c r="F119" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="29" t="s">
@@ -18583,13 +18574,13 @@
         <f>+VLOOKUP(C120,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Maquinaria Agrícola en valores anuales y trimestrales</v>
       </c>
-      <c r="E120" s="70" t="s">
+      <c r="E120" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="F120" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="70" t="s">
+      <c r="F120" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="57" t="s">
         <v>819</v>
       </c>
       <c r="H120" s="37" t="s">
@@ -18611,10 +18602,10 @@
         <f>+VLOOKUP(C121,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Maquinaria Agrícola en valores anuales y trimestrales</v>
       </c>
-      <c r="E121" s="70" t="s">
+      <c r="E121" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="F121" s="72" t="s">
+      <c r="F121" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="29" t="s">
@@ -18639,13 +18630,13 @@
         <f>+VLOOKUP(C122,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Maquinaria Agrícola en valores anuales y trimestrales</v>
       </c>
-      <c r="E122" s="70" t="s">
+      <c r="E122" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="F122" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="70" t="s">
+      <c r="F122" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="57" t="s">
         <v>821</v>
       </c>
       <c r="H122" s="37" t="s">
@@ -18667,10 +18658,10 @@
         <f>+VLOOKUP(C123,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Maquinaria Agrícola en valores anuales y trimestrales</v>
       </c>
-      <c r="E123" s="70" t="s">
+      <c r="E123" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="F123" s="72" t="s">
+      <c r="F123" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="29" t="s">
@@ -18698,7 +18689,7 @@
       <c r="E124" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="F124" s="72" t="s">
+      <c r="F124" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="29" t="s">
@@ -18726,7 +18717,7 @@
       <c r="E125" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="F125" s="72" t="s">
+      <c r="F125" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="29" t="s">
@@ -18754,7 +18745,7 @@
       <c r="E126" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="F126" s="72" t="s">
+      <c r="F126" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="29" t="s">
@@ -18782,7 +18773,7 @@
       <c r="E127" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="F127" s="72" t="s">
+      <c r="F127" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="29" t="s">
@@ -18810,7 +18801,7 @@
       <c r="E128" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="F128" s="72" t="s">
+      <c r="F128" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="29" t="s">
@@ -18838,7 +18829,7 @@
       <c r="E129" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="F129" s="72" t="s">
+      <c r="F129" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="29" t="s">
@@ -18894,7 +18885,7 @@
       <c r="E131" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F131" s="72" t="s">
+      <c r="F131" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="29" t="s">
@@ -18950,7 +18941,7 @@
       <c r="E133" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F133" s="72" t="s">
+      <c r="F133" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="29" t="s">
@@ -19040,7 +19031,7 @@
       <c r="G136" s="37" t="s">
         <v>524</v>
       </c>
-      <c r="H136" s="82"/>
+      <c r="H136" s="69"/>
     </row>
     <row r="137" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A137" s="38" t="s">
@@ -19066,7 +19057,7 @@
       <c r="G137" s="37" t="s">
         <v>522</v>
       </c>
-      <c r="H137" s="82"/>
+      <c r="H137" s="69"/>
     </row>
     <row r="138" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A138" s="38" t="s">
@@ -19092,7 +19083,7 @@
       <c r="G138" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="H138" s="82"/>
+      <c r="H138" s="69"/>
     </row>
     <row r="139" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A139" s="38" t="s">
@@ -19118,7 +19109,7 @@
       <c r="G139" s="37" t="s">
         <v>605</v>
       </c>
-      <c r="H139" s="82"/>
+      <c r="H139" s="69"/>
     </row>
     <row r="140" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A140" s="38" t="s">
@@ -19144,7 +19135,7 @@
       <c r="G140" s="37" t="s">
         <v>773</v>
       </c>
-      <c r="H140" s="82"/>
+      <c r="H140" s="69"/>
     </row>
     <row r="141" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A141" s="38" t="s">
@@ -20096,10 +20087,10 @@
       <c r="E175" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="F175" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="70" t="s">
+      <c r="F175" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="57" t="s">
         <v>198</v>
       </c>
       <c r="H175" s="37" t="s">
@@ -20176,10 +20167,10 @@
       <c r="E178" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="F178" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="72" t="s">
+      <c r="F178" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="59" t="s">
         <v>200</v>
       </c>
       <c r="H178" s="37" t="s">
@@ -20204,10 +20195,10 @@
       <c r="E179" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="F179" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="72" t="s">
+      <c r="F179" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="59" t="s">
         <v>202</v>
       </c>
       <c r="H179" s="37" t="s">
@@ -21097,7 +21088,7 @@
       <c r="F211" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G211" s="79" t="s">
+      <c r="G211" s="66" t="s">
         <v>566</v>
       </c>
       <c r="H211" s="37" t="s">
@@ -21431,7 +21422,7 @@
       <c r="F223" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G223" s="79" t="s">
+      <c r="G223" s="66" t="s">
         <v>524</v>
       </c>
       <c r="H223" s="37"/>
@@ -22039,10 +22030,10 @@
       <c r="F245" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G245" s="70" t="s">
+      <c r="G245" s="57" t="s">
         <v>751</v>
       </c>
-      <c r="H245" s="83" t="s">
+      <c r="H245" s="70" t="s">
         <v>694</v>
       </c>
     </row>
@@ -22067,10 +22058,10 @@
       <c r="F246" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G246" s="70" t="s">
+      <c r="G246" s="57" t="s">
         <v>752</v>
       </c>
-      <c r="H246" s="83" t="s">
+      <c r="H246" s="70" t="s">
         <v>694</v>
       </c>
     </row>
@@ -22180,7 +22171,7 @@
       <c r="G250" s="37" t="s">
         <v>640</v>
       </c>
-      <c r="H250" s="73"/>
+      <c r="H250" s="60"/>
     </row>
     <row r="251" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A251" s="38" t="s">
@@ -22259,10 +22250,10 @@
       <c r="F253" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G253" s="70" t="s">
+      <c r="G253" s="57" t="s">
         <v>755</v>
       </c>
-      <c r="H253" s="83" t="s">
+      <c r="H253" s="70" t="s">
         <v>696</v>
       </c>
     </row>
@@ -22287,10 +22278,10 @@
       <c r="F254" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G254" s="70" t="s">
+      <c r="G254" s="57" t="s">
         <v>756</v>
       </c>
-      <c r="H254" s="83" t="s">
+      <c r="H254" s="70" t="s">
         <v>696</v>
       </c>
     </row>
@@ -22318,7 +22309,7 @@
       <c r="G255" s="37" t="s">
         <v>757</v>
       </c>
-      <c r="H255" s="83" t="s">
+      <c r="H255" s="70" t="s">
         <v>696</v>
       </c>
     </row>
@@ -22346,7 +22337,7 @@
       <c r="G256" s="37" t="s">
         <v>524</v>
       </c>
-      <c r="H256" s="82"/>
+      <c r="H256" s="69"/>
     </row>
     <row r="257" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A257" s="38" t="s">
@@ -22372,7 +22363,7 @@
       <c r="G257" s="37" t="s">
         <v>522</v>
       </c>
-      <c r="H257" s="82"/>
+      <c r="H257" s="69"/>
     </row>
     <row r="258" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A258" s="38" t="s">
@@ -22398,7 +22389,7 @@
       <c r="G258" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="H258" s="82"/>
+      <c r="H258" s="69"/>
     </row>
     <row r="259" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A259" s="38" t="s">
@@ -22424,7 +22415,7 @@
       <c r="G259" s="37" t="s">
         <v>605</v>
       </c>
-      <c r="H259" s="82"/>
+      <c r="H259" s="69"/>
     </row>
     <row r="260" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A260" s="38" t="s">
@@ -22450,7 +22441,7 @@
       <c r="G260" s="37" t="s">
         <v>773</v>
       </c>
-      <c r="H260" s="82"/>
+      <c r="H260" s="69"/>
     </row>
     <row r="261" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A261" s="38" t="s">
@@ -22467,7 +22458,7 @@
         <f>+VLOOKUP(C261,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E261" s="84" t="s">
+      <c r="E261" s="71" t="s">
         <v>854</v>
       </c>
       <c r="F261" s="36" t="s">
@@ -22495,7 +22486,7 @@
         <f>+VLOOKUP(C262,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E262" s="84" t="s">
+      <c r="E262" s="71" t="s">
         <v>856</v>
       </c>
       <c r="F262" s="36" t="s">
@@ -22523,7 +22514,7 @@
         <f>+VLOOKUP(C263,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E263" s="84" t="s">
+      <c r="E263" s="71" t="s">
         <v>858</v>
       </c>
       <c r="F263" s="36" t="s">
@@ -22551,7 +22542,7 @@
         <f>+VLOOKUP(C264,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E264" s="84" t="s">
+      <c r="E264" s="71" t="s">
         <v>860</v>
       </c>
       <c r="F264" s="36" t="s">
@@ -22579,7 +22570,7 @@
         <f>+VLOOKUP(C265,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E265" s="84" t="s">
+      <c r="E265" s="71" t="s">
         <v>862</v>
       </c>
       <c r="F265" s="36" t="s">
@@ -22607,7 +22598,7 @@
         <f>+VLOOKUP(C266,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E266" s="84" t="s">
+      <c r="E266" s="71" t="s">
         <v>864</v>
       </c>
       <c r="F266" s="36" t="s">
@@ -22635,7 +22626,7 @@
         <f>+VLOOKUP(C267,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E267" s="84" t="s">
+      <c r="E267" s="71" t="s">
         <v>866</v>
       </c>
       <c r="F267" s="36" t="s">
@@ -22663,7 +22654,7 @@
         <f>+VLOOKUP(C268,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E268" s="84" t="s">
+      <c r="E268" s="71" t="s">
         <v>868</v>
       </c>
       <c r="F268" s="36" t="s">
@@ -22691,7 +22682,7 @@
         <f>+VLOOKUP(C269,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E269" s="84" t="s">
+      <c r="E269" s="71" t="s">
         <v>870</v>
       </c>
       <c r="F269" s="36" t="s">
@@ -22719,7 +22710,7 @@
         <f>+VLOOKUP(C270,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E270" s="84" t="s">
+      <c r="E270" s="71" t="s">
         <v>872</v>
       </c>
       <c r="F270" s="36" t="s">
@@ -22747,7 +22738,7 @@
         <f>+VLOOKUP(C271,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E271" s="84" t="s">
+      <c r="E271" s="71" t="s">
         <v>874</v>
       </c>
       <c r="F271" s="36" t="s">
@@ -22775,7 +22766,7 @@
         <f>+VLOOKUP(C272,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E272" s="84" t="s">
+      <c r="E272" s="71" t="s">
         <v>876</v>
       </c>
       <c r="F272" s="36" t="s">
@@ -22803,7 +22794,7 @@
         <f>+VLOOKUP(C273,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E273" s="84" t="s">
+      <c r="E273" s="71" t="s">
         <v>877</v>
       </c>
       <c r="F273" s="36" t="s">
@@ -22831,7 +22822,7 @@
         <f>+VLOOKUP(C274,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E274" s="84" t="s">
+      <c r="E274" s="71" t="s">
         <v>879</v>
       </c>
       <c r="F274" s="36" t="s">
@@ -22859,7 +22850,7 @@
         <f>+VLOOKUP(C275,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E275" s="84" t="s">
+      <c r="E275" s="71" t="s">
         <v>881</v>
       </c>
       <c r="F275" s="36" t="s">
@@ -22887,7 +22878,7 @@
         <f>+VLOOKUP(C276,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E276" s="84" t="s">
+      <c r="E276" s="71" t="s">
         <v>882</v>
       </c>
       <c r="F276" s="36" t="s">
@@ -22915,7 +22906,7 @@
         <f>+VLOOKUP(C277,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E277" s="84" t="s">
+      <c r="E277" s="71" t="s">
         <v>883</v>
       </c>
       <c r="F277" s="36" t="s">
@@ -22943,7 +22934,7 @@
         <f>+VLOOKUP(C278,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E278" s="84" t="s">
+      <c r="E278" s="71" t="s">
         <v>885</v>
       </c>
       <c r="F278" s="36" t="s">
@@ -22971,7 +22962,7 @@
         <f>+VLOOKUP(C279,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E279" s="84" t="s">
+      <c r="E279" s="71" t="s">
         <v>886</v>
       </c>
       <c r="F279" s="36" t="s">
@@ -22999,7 +22990,7 @@
         <f>+VLOOKUP(C280,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E280" s="84" t="s">
+      <c r="E280" s="71" t="s">
         <v>887</v>
       </c>
       <c r="F280" s="36" t="s">
@@ -23027,13 +23018,13 @@
         <f>+VLOOKUP(C281,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E281" s="84" t="s">
+      <c r="E281" s="71" t="s">
         <v>888</v>
       </c>
       <c r="F281" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G281" s="79" t="s">
+      <c r="G281" s="66" t="s">
         <v>873</v>
       </c>
       <c r="H281" s="36" t="s">
@@ -23055,7 +23046,7 @@
         <f>+VLOOKUP(C282,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E282" s="84" t="s">
+      <c r="E282" s="71" t="s">
         <v>889</v>
       </c>
       <c r="F282" s="36" t="s">
@@ -23083,7 +23074,7 @@
         <f>+VLOOKUP(C283,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E283" s="84" t="s">
+      <c r="E283" s="71" t="s">
         <v>890</v>
       </c>
       <c r="F283" s="36" t="s">
@@ -23092,7 +23083,7 @@
       <c r="G283" s="37" t="s">
         <v>891</v>
       </c>
-      <c r="H283" s="84" t="s">
+      <c r="H283" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23111,7 +23102,7 @@
         <f>+VLOOKUP(C284,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E284" s="84" t="s">
+      <c r="E284" s="71" t="s">
         <v>892</v>
       </c>
       <c r="F284" s="36" t="s">
@@ -23120,7 +23111,7 @@
       <c r="G284" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="H284" s="84" t="s">
+      <c r="H284" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23139,7 +23130,7 @@
         <f>+VLOOKUP(C285,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E285" s="84" t="s">
+      <c r="E285" s="71" t="s">
         <v>894</v>
       </c>
       <c r="F285" s="36" t="s">
@@ -23148,7 +23139,7 @@
       <c r="G285" s="37" t="s">
         <v>895</v>
       </c>
-      <c r="H285" s="84" t="s">
+      <c r="H285" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23167,7 +23158,7 @@
         <f>+VLOOKUP(C286,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E286" s="84" t="s">
+      <c r="E286" s="71" t="s">
         <v>896</v>
       </c>
       <c r="F286" s="36" t="s">
@@ -23176,7 +23167,7 @@
       <c r="G286" s="37" t="s">
         <v>897</v>
       </c>
-      <c r="H286" s="84" t="s">
+      <c r="H286" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23195,7 +23186,7 @@
         <f>+VLOOKUP(C287,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E287" s="84" t="s">
+      <c r="E287" s="71" t="s">
         <v>898</v>
       </c>
       <c r="F287" s="36" t="s">
@@ -23204,7 +23195,7 @@
       <c r="G287" s="37" t="s">
         <v>899</v>
       </c>
-      <c r="H287" s="84" t="s">
+      <c r="H287" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23223,7 +23214,7 @@
         <f>+VLOOKUP(C288,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E288" s="84" t="s">
+      <c r="E288" s="71" t="s">
         <v>900</v>
       </c>
       <c r="F288" s="36" t="s">
@@ -23232,7 +23223,7 @@
       <c r="G288" s="37" t="s">
         <v>901</v>
       </c>
-      <c r="H288" s="84" t="s">
+      <c r="H288" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23251,7 +23242,7 @@
         <f>+VLOOKUP(C289,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E289" s="84" t="s">
+      <c r="E289" s="71" t="s">
         <v>902</v>
       </c>
       <c r="F289" s="36" t="s">
@@ -23260,7 +23251,7 @@
       <c r="G289" s="37" t="s">
         <v>903</v>
       </c>
-      <c r="H289" s="84" t="s">
+      <c r="H289" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23279,7 +23270,7 @@
         <f>+VLOOKUP(C290,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E290" s="84" t="s">
+      <c r="E290" s="71" t="s">
         <v>904</v>
       </c>
       <c r="F290" s="36" t="s">
@@ -23288,7 +23279,7 @@
       <c r="G290" s="37" t="s">
         <v>905</v>
       </c>
-      <c r="H290" s="84" t="s">
+      <c r="H290" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23307,7 +23298,7 @@
         <f>+VLOOKUP(C291,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E291" s="84" t="s">
+      <c r="E291" s="71" t="s">
         <v>906</v>
       </c>
       <c r="F291" s="36" t="s">
@@ -23316,7 +23307,7 @@
       <c r="G291" s="37" t="s">
         <v>907</v>
       </c>
-      <c r="H291" s="84" t="s">
+      <c r="H291" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23335,7 +23326,7 @@
         <f>+VLOOKUP(C292,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E292" s="84" t="s">
+      <c r="E292" s="71" t="s">
         <v>908</v>
       </c>
       <c r="F292" s="36" t="s">
@@ -23344,7 +23335,7 @@
       <c r="G292" s="37" t="s">
         <v>909</v>
       </c>
-      <c r="H292" s="84" t="s">
+      <c r="H292" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23363,7 +23354,7 @@
         <f>+VLOOKUP(C293,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E293" s="84" t="s">
+      <c r="E293" s="71" t="s">
         <v>910</v>
       </c>
       <c r="F293" s="36" t="s">
@@ -23372,7 +23363,7 @@
       <c r="G293" s="37" t="s">
         <v>911</v>
       </c>
-      <c r="H293" s="84" t="s">
+      <c r="H293" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23391,7 +23382,7 @@
         <f>+VLOOKUP(C294,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E294" s="84" t="s">
+      <c r="E294" s="71" t="s">
         <v>912</v>
       </c>
       <c r="F294" s="36" t="s">
@@ -23400,7 +23391,7 @@
       <c r="G294" s="37" t="s">
         <v>913</v>
       </c>
-      <c r="H294" s="84" t="s">
+      <c r="H294" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23419,7 +23410,7 @@
         <f>+VLOOKUP(C295,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E295" s="84" t="s">
+      <c r="E295" s="71" t="s">
         <v>914</v>
       </c>
       <c r="F295" s="36" t="s">
@@ -23428,7 +23419,7 @@
       <c r="G295" s="37" t="s">
         <v>915</v>
       </c>
-      <c r="H295" s="84" t="s">
+      <c r="H295" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23447,7 +23438,7 @@
         <f>+VLOOKUP(C296,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E296" s="84" t="s">
+      <c r="E296" s="71" t="s">
         <v>916</v>
       </c>
       <c r="F296" s="36" t="s">
@@ -23456,7 +23447,7 @@
       <c r="G296" s="37" t="s">
         <v>917</v>
       </c>
-      <c r="H296" s="84" t="s">
+      <c r="H296" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23475,7 +23466,7 @@
         <f>+VLOOKUP(C297,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E297" s="84" t="s">
+      <c r="E297" s="71" t="s">
         <v>918</v>
       </c>
       <c r="F297" s="36" t="s">
@@ -23484,7 +23475,7 @@
       <c r="G297" s="37" t="s">
         <v>919</v>
       </c>
-      <c r="H297" s="84" t="s">
+      <c r="H297" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23503,7 +23494,7 @@
         <f>+VLOOKUP(C298,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E298" s="84" t="s">
+      <c r="E298" s="71" t="s">
         <v>920</v>
       </c>
       <c r="F298" s="36" t="s">
@@ -23512,7 +23503,7 @@
       <c r="G298" s="37" t="s">
         <v>921</v>
       </c>
-      <c r="H298" s="84" t="s">
+      <c r="H298" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23531,7 +23522,7 @@
         <f>+VLOOKUP(C299,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E299" s="84" t="s">
+      <c r="E299" s="71" t="s">
         <v>922</v>
       </c>
       <c r="F299" s="36" t="s">
@@ -23540,7 +23531,7 @@
       <c r="G299" s="37" t="s">
         <v>923</v>
       </c>
-      <c r="H299" s="84" t="s">
+      <c r="H299" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23559,7 +23550,7 @@
         <f>+VLOOKUP(C300,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Industrias Culturales en valores anuales</v>
       </c>
-      <c r="E300" s="84" t="s">
+      <c r="E300" s="71" t="s">
         <v>924</v>
       </c>
       <c r="F300" s="36" t="s">
@@ -23568,7 +23559,7 @@
       <c r="G300" s="37" t="s">
         <v>925</v>
       </c>
-      <c r="H300" s="84" t="s">
+      <c r="H300" s="71" t="s">
         <v>397</v>
       </c>
     </row>
@@ -23596,7 +23587,7 @@
       <c r="G301" s="37" t="s">
         <v>522</v>
       </c>
-      <c r="H301" s="82"/>
+      <c r="H301" s="69"/>
     </row>
     <row r="302" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A302" s="38" t="s">
@@ -23622,7 +23613,7 @@
       <c r="G302" s="37" t="s">
         <v>524</v>
       </c>
-      <c r="H302" s="82"/>
+      <c r="H302" s="69"/>
     </row>
     <row r="303" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A303" s="38" t="s">
@@ -23674,7 +23665,7 @@
       <c r="G304" s="37" t="s">
         <v>605</v>
       </c>
-      <c r="H304" s="82"/>
+      <c r="H304" s="69"/>
     </row>
     <row r="305" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A305" s="38" t="s">
@@ -23700,7 +23691,7 @@
       <c r="G305" s="37" t="s">
         <v>773</v>
       </c>
-      <c r="H305" s="82"/>
+      <c r="H305" s="69"/>
     </row>
     <row r="306" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A306" s="38" t="s">
@@ -23966,10 +23957,10 @@
       <c r="E315" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="F315" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G315" s="70" t="s">
+      <c r="F315" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G315" s="57" t="s">
         <v>536</v>
       </c>
       <c r="H315" s="37" t="s">
@@ -23994,10 +23985,10 @@
       <c r="E316" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="F316" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G316" s="70" t="s">
+      <c r="F316" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G316" s="57" t="s">
         <v>537</v>
       </c>
       <c r="H316" s="37" t="s">
@@ -24102,7 +24093,7 @@
       <c r="E320" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="F320" s="72" t="s">
+      <c r="F320" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G320" s="37" t="s">
@@ -24130,7 +24121,7 @@
       <c r="E321" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="F321" s="72" t="s">
+      <c r="F321" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="37" t="s">
@@ -24164,7 +24155,7 @@
       <c r="G322" s="37" t="s">
         <v>605</v>
       </c>
-      <c r="H322" s="82"/>
+      <c r="H322" s="69"/>
     </row>
     <row r="323" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A323" s="38" t="s">
@@ -24239,7 +24230,7 @@
       <c r="F325" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G325" s="85" t="s">
+      <c r="G325" s="72" t="s">
         <v>273</v>
       </c>
       <c r="H325" s="37" t="s">
@@ -24293,7 +24284,7 @@
       <c r="F327" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G327" s="86" t="s">
+      <c r="G327" s="73" t="s">
         <v>524</v>
       </c>
       <c r="H327" s="37"/>
@@ -24319,7 +24310,7 @@
       <c r="F328" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G328" s="85" t="s">
+      <c r="G328" s="72" t="s">
         <v>275</v>
       </c>
       <c r="H328" s="37" t="s">
@@ -24347,7 +24338,7 @@
       <c r="F329" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G329" s="85" t="s">
+      <c r="G329" s="72" t="s">
         <v>269</v>
       </c>
       <c r="H329" s="37" t="s">
@@ -24375,7 +24366,7 @@
       <c r="F330" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G330" s="85" t="s">
+      <c r="G330" s="72" t="s">
         <v>271</v>
       </c>
       <c r="H330" s="37" t="s">
@@ -24674,7 +24665,7 @@
       <c r="E341" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="F341" s="74" t="s">
+      <c r="F341" s="61" t="s">
         <v>10</v>
       </c>
       <c r="G341" s="37" t="s">
@@ -24702,7 +24693,7 @@
       <c r="E342" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="F342" s="74" t="s">
+      <c r="F342" s="61" t="s">
         <v>10</v>
       </c>
       <c r="G342" s="37" t="s">
@@ -24730,7 +24721,7 @@
       <c r="E343" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="F343" s="74" t="s">
+      <c r="F343" s="61" t="s">
         <v>10</v>
       </c>
       <c r="G343" s="37" t="s">
@@ -24814,7 +24805,7 @@
       <c r="E346" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="F346" s="74" t="s">
+      <c r="F346" s="61" t="s">
         <v>10</v>
       </c>
       <c r="G346" s="37" t="s">
@@ -24842,7 +24833,7 @@
       <c r="E347" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="F347" s="72" t="s">
+      <c r="F347" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G347" s="37" t="s">
@@ -24870,7 +24861,7 @@
       <c r="E348" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="F348" s="72" t="s">
+      <c r="F348" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G348" s="37" t="s">
@@ -24898,7 +24889,7 @@
       <c r="E349" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="F349" s="74" t="s">
+      <c r="F349" s="61" t="s">
         <v>10</v>
       </c>
       <c r="G349" s="37" t="s">
@@ -24926,7 +24917,7 @@
       <c r="E350" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F350" s="72" t="s">
+      <c r="F350" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G350" s="37" t="s">
@@ -24954,7 +24945,7 @@
       <c r="E351" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="F351" s="74" t="s">
+      <c r="F351" s="61" t="s">
         <v>10</v>
       </c>
       <c r="G351" s="37" t="s">
@@ -24982,7 +24973,7 @@
       <c r="E352" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="F352" s="75" t="s">
+      <c r="F352" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G352" s="37" t="s">
@@ -25010,7 +25001,7 @@
       <c r="E353" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="F353" s="72" t="s">
+      <c r="F353" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G353" s="37" t="s">
@@ -25038,7 +25029,7 @@
       <c r="E354" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="F354" s="72" t="s">
+      <c r="F354" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G354" s="37" t="s">
@@ -25066,7 +25057,7 @@
       <c r="E355" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="F355" s="75" t="s">
+      <c r="F355" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G355" s="37" t="s">
@@ -25094,7 +25085,7 @@
       <c r="E356" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="F356" s="72" t="s">
+      <c r="F356" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G356" s="37" t="s">
@@ -25122,7 +25113,7 @@
       <c r="E357" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="F357" s="75" t="s">
+      <c r="F357" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G357" s="37" t="s">
@@ -25200,7 +25191,7 @@
         <v>Indicadores de Manzana y Pera en valores anuales y mensuales</v>
       </c>
       <c r="E360" s="23" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="F360" s="26" t="s">
         <v>10</v>
@@ -25228,7 +25219,7 @@
         <v>Indicadores de Manzana y Pera en valores anuales y mensuales</v>
       </c>
       <c r="E361" s="23" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="F361" s="26" t="s">
         <v>10</v>
@@ -25538,7 +25529,7 @@
       <c r="G372" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="H372" s="87"/>
+      <c r="H372" s="74"/>
     </row>
     <row r="373" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A373" s="22" t="s">
@@ -25564,7 +25555,7 @@
       <c r="G373" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="H373" s="87"/>
+      <c r="H373" s="74"/>
     </row>
     <row r="374" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A374" s="22" t="s">
@@ -26138,10 +26129,10 @@
       <c r="E394" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="F394" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="G394" s="64" t="s">
+      <c r="F394" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G394" s="54" t="s">
         <v>536</v>
       </c>
       <c r="H394" s="9" t="s">
@@ -26166,10 +26157,10 @@
       <c r="E395" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="F395" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="G395" s="64" t="s">
+      <c r="F395" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G395" s="54" t="s">
         <v>536</v>
       </c>
       <c r="H395" s="9" t="s">
@@ -26194,10 +26185,10 @@
       <c r="E396" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="F396" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="G396" s="64" t="s">
+      <c r="F396" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G396" s="54" t="s">
         <v>536</v>
       </c>
       <c r="H396" s="9" t="s">
@@ -26271,7 +26262,7 @@
         <f>+VLOOKUP(C399,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Pesca Marítima en valores anuales, trimestrales y mensuales</v>
       </c>
-      <c r="E399" s="88" t="s">
+      <c r="E399" s="75" t="s">
         <v>347</v>
       </c>
       <c r="F399" s="26" t="s">
@@ -26386,7 +26377,7 @@
       <c r="G403" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="H403" s="89" t="s">
+      <c r="H403" s="76" t="s">
         <v>474</v>
       </c>
     </row>
@@ -26414,7 +26405,7 @@
       <c r="G404" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="H404" s="89" t="s">
+      <c r="H404" s="76" t="s">
         <v>474</v>
       </c>
     </row>
@@ -26442,7 +26433,7 @@
       <c r="G405" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="H405" s="89" t="s">
+      <c r="H405" s="76" t="s">
         <v>474</v>
       </c>
     </row>
@@ -26554,7 +26545,7 @@
       <c r="G409" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="H409" s="89" t="s">
+      <c r="H409" s="76" t="s">
         <v>475</v>
       </c>
     </row>
@@ -26582,7 +26573,7 @@
       <c r="G410" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="H410" s="89" t="s">
+      <c r="H410" s="76" t="s">
         <v>475</v>
       </c>
     </row>
@@ -26636,7 +26627,7 @@
       <c r="G412" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="H412" s="90" t="s">
+      <c r="H412" s="77" t="s">
         <v>381</v>
       </c>
     </row>
@@ -26690,7 +26681,7 @@
       <c r="G414" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="H414" s="89" t="s">
+      <c r="H414" s="76" t="s">
         <v>632</v>
       </c>
     </row>
@@ -26718,7 +26709,7 @@
       <c r="G415" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="H415" s="89" t="s">
+      <c r="H415" s="76" t="s">
         <v>475</v>
       </c>
     </row>
@@ -26746,7 +26737,7 @@
       <c r="G416" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="H416" s="89" t="s">
+      <c r="H416" s="76" t="s">
         <v>476</v>
       </c>
     </row>
@@ -26774,7 +26765,7 @@
       <c r="G417" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="H417" s="89" t="s">
+      <c r="H417" s="76" t="s">
         <v>475</v>
       </c>
     </row>
@@ -26802,7 +26793,7 @@
       <c r="G418" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="H418" s="89" t="s">
+      <c r="H418" s="76" t="s">
         <v>470</v>
       </c>
     </row>
@@ -26830,7 +26821,7 @@
       <c r="G419" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="H419" s="89" t="s">
+      <c r="H419" s="76" t="s">
         <v>475</v>
       </c>
     </row>
@@ -26858,7 +26849,7 @@
       <c r="G420" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="H420" s="89" t="s">
+      <c r="H420" s="76" t="s">
         <v>475</v>
       </c>
     </row>
@@ -26886,7 +26877,7 @@
       <c r="G421" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="H421" s="91" t="s">
+      <c r="H421" s="78" t="s">
         <v>397</v>
       </c>
     </row>
@@ -26914,7 +26905,7 @@
       <c r="G422" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="H422" s="90" t="s">
+      <c r="H422" s="77" t="s">
         <v>381</v>
       </c>
     </row>
@@ -26942,7 +26933,7 @@
       <c r="G423" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="H423" s="90" t="s">
+      <c r="H423" s="77" t="s">
         <v>381</v>
       </c>
     </row>
@@ -26970,7 +26961,7 @@
       <c r="G424" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="H424" s="90" t="s">
+      <c r="H424" s="77" t="s">
         <v>381</v>
       </c>
     </row>
@@ -26998,7 +26989,7 @@
       <c r="G425" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="H425" s="89" t="s">
+      <c r="H425" s="76" t="s">
         <v>471</v>
       </c>
     </row>
@@ -27026,7 +27017,7 @@
       <c r="G426" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="H426" s="89" t="s">
+      <c r="H426" s="76" t="s">
         <v>473</v>
       </c>
     </row>
@@ -27082,7 +27073,7 @@
       <c r="G428" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="H428" s="89" t="s">
+      <c r="H428" s="76" t="s">
         <v>471</v>
       </c>
     </row>
@@ -50065,14 +50056,14 @@
     </row>
     <row r="668" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A668" s="22" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B668" s="9" t="str">
         <f>+VLOOKUP(A668,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C668" s="23" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D668" s="23" t="str">
         <f>+VLOOKUP(C668,distribution!C$2:D$40,2,FALSE)</f>
@@ -50091,14 +50082,14 @@
     </row>
     <row r="669" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A669" s="22" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B669" s="9" t="str">
         <f>+VLOOKUP(A669,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C669" s="23" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D669" s="23" t="str">
         <f>+VLOOKUP(C669,distribution!C$2:D$40,2,FALSE)</f>
@@ -50117,14 +50108,14 @@
     </row>
     <row r="670" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A670" s="22" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B670" s="9" t="str">
         <f>+VLOOKUP(A670,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C670" s="23" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D670" s="23" t="str">
         <f>+VLOOKUP(C670,distribution!C$2:D$40,2,FALSE)</f>
@@ -50143,14 +50134,14 @@
     </row>
     <row r="671" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A671" s="22" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B671" s="9" t="str">
         <f>+VLOOKUP(A671,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C671" s="23" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D671" s="23" t="str">
         <f>+VLOOKUP(C671,distribution!C$2:D$40,2,FALSE)</f>
@@ -50169,14 +50160,14 @@
     </row>
     <row r="672" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A672" s="22" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B672" s="9" t="str">
         <f>+VLOOKUP(A672,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C672" s="23" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D672" s="23" t="str">
         <f>+VLOOKUP(C672,distribution!C$2:D$40,2,FALSE)</f>
@@ -50195,27 +50186,27 @@
     </row>
     <row r="673" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A673" s="22" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B673" s="9" t="str">
         <f>+VLOOKUP(A673,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C673" s="23" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D673" s="23" t="str">
         <f>+VLOOKUP(C673,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E673" s="23" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="F673" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G673" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H673" s="25" t="s">
         <v>382</v>
@@ -50223,27 +50214,27 @@
     </row>
     <row r="674" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A674" s="22" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B674" s="9" t="str">
         <f>+VLOOKUP(A674,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C674" s="23" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D674" s="23" t="str">
         <f>+VLOOKUP(C674,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E674" s="23" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="F674" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G674" s="9" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H674" s="25" t="s">
         <v>382</v>
@@ -50251,27 +50242,27 @@
     </row>
     <row r="675" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A675" s="22" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B675" s="9" t="str">
         <f>+VLOOKUP(A675,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C675" s="23" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D675" s="23" t="str">
         <f>+VLOOKUP(C675,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E675" s="23" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="F675" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G675" s="9" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H675" s="25" t="s">
         <v>389</v>
@@ -50279,27 +50270,27 @@
     </row>
     <row r="676" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A676" s="22" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B676" s="9" t="str">
         <f>+VLOOKUP(A676,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C676" s="23" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D676" s="23" t="str">
         <f>+VLOOKUP(C676,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E676" s="23" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F676" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G676" s="9" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H676" s="25" t="s">
         <v>389</v>
@@ -50307,83 +50298,83 @@
     </row>
     <row r="677" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A677" s="22" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B677" s="9" t="str">
         <f>+VLOOKUP(A677,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C677" s="23" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D677" s="23" t="str">
         <f>+VLOOKUP(C677,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E677" s="23" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F677" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G677" s="9" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H677" s="25" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="678" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A678" s="22" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B678" s="9" t="str">
         <f>+VLOOKUP(A678,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C678" s="23" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D678" s="23" t="str">
         <f>+VLOOKUP(C678,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E678" s="23" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F678" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G678" s="9" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H678" s="25" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="679" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A679" s="22" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B679" s="9" t="str">
         <f>+VLOOKUP(A679,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C679" s="23" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D679" s="23" t="str">
         <f>+VLOOKUP(C679,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E679" s="23" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F679" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G679" s="9" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H679" s="25" t="s">
         <v>409</v>
@@ -50391,27 +50382,27 @@
     </row>
     <row r="680" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A680" s="22" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B680" s="9" t="str">
         <f>+VLOOKUP(A680,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C680" s="23" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D680" s="23" t="str">
         <f>+VLOOKUP(C680,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E680" s="23" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F680" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G680" s="9" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H680" s="25" t="s">
         <v>409</v>
@@ -50419,27 +50410,27 @@
     </row>
     <row r="681" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A681" s="22" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B681" s="9" t="str">
         <f>+VLOOKUP(A681,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C681" s="23" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D681" s="23" t="str">
         <f>+VLOOKUP(C681,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E681" s="23" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F681" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G681" s="9" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H681" s="25" t="s">
         <v>409</v>
@@ -50447,14 +50438,14 @@
     </row>
     <row r="682" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A682" s="22" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B682" s="9" t="str">
         <f>+VLOOKUP(A682,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C682" s="23" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D682" s="23" t="str">
         <f>+VLOOKUP(C682,distribution!C$2:D$40,2,FALSE)</f>
@@ -50473,14 +50464,14 @@
     </row>
     <row r="683" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A683" s="22" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B683" s="9" t="str">
         <f>+VLOOKUP(A683,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C683" s="23" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D683" s="23" t="str">
         <f>+VLOOKUP(C683,distribution!C$2:D$40,2,FALSE)</f>
@@ -50499,14 +50490,14 @@
     </row>
     <row r="684" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A684" s="22" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B684" s="9" t="str">
         <f>+VLOOKUP(A684,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C684" s="23" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D684" s="23" t="str">
         <f>+VLOOKUP(C684,distribution!C$2:D$40,2,FALSE)</f>
@@ -50525,14 +50516,14 @@
     </row>
     <row r="685" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A685" s="22" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B685" s="9" t="str">
         <f>+VLOOKUP(A685,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C685" s="23" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D685" s="23" t="str">
         <f>+VLOOKUP(C685,distribution!C$2:D$40,2,FALSE)</f>
@@ -50551,14 +50542,14 @@
     </row>
     <row r="686" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A686" s="22" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B686" s="9" t="str">
         <f>+VLOOKUP(A686,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C686" s="23" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D686" s="23" t="str">
         <f>+VLOOKUP(C686,distribution!C$2:D$40,2,FALSE)</f>
@@ -50577,27 +50568,27 @@
     </row>
     <row r="687" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A687" s="22" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B687" s="9" t="str">
         <f>+VLOOKUP(A687,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C687" s="23" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D687" s="23" t="str">
         <f>+VLOOKUP(C687,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E687" s="23" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F687" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G687" s="9" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H687" s="25" t="s">
         <v>382</v>
@@ -50605,27 +50596,27 @@
     </row>
     <row r="688" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A688" s="22" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B688" s="9" t="str">
         <f>+VLOOKUP(A688,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C688" s="23" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D688" s="23" t="str">
         <f>+VLOOKUP(C688,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E688" s="23" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F688" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G688" s="9" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H688" s="25" t="s">
         <v>382</v>
@@ -50633,27 +50624,27 @@
     </row>
     <row r="689" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A689" s="22" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B689" s="9" t="str">
         <f>+VLOOKUP(A689,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C689" s="23" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D689" s="23" t="str">
         <f>+VLOOKUP(C689,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E689" s="23" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F689" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G689" s="9" t="s">
         <v>1542</v>
-      </c>
-      <c r="F689" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G689" s="9" t="s">
-        <v>1543</v>
       </c>
       <c r="H689" s="25" t="s">
         <v>389</v>
@@ -50661,27 +50652,27 @@
     </row>
     <row r="690" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A690" s="22" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B690" s="9" t="str">
         <f>+VLOOKUP(A690,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C690" s="23" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D690" s="23" t="str">
         <f>+VLOOKUP(C690,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E690" s="23" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F690" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G690" s="9" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H690" s="25" t="s">
         <v>410</v>
@@ -50689,70 +50680,70 @@
     </row>
     <row r="691" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A691" s="22" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B691" s="9" t="str">
         <f>+VLOOKUP(A691,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C691" s="23" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D691" s="23" t="str">
         <f>+VLOOKUP(C691,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E691" s="23" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="F691" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G691" s="9" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H691" s="25" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="692" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A692" s="22" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B692" s="9" t="str">
         <f>+VLOOKUP(A692,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C692" s="23" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D692" s="23" t="str">
         <f>+VLOOKUP(C692,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E692" s="23" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F692" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G692" s="9" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H692" s="25" t="s">
         <v>1539</v>
-      </c>
-      <c r="H692" s="25" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="693" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A693" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B693" s="9" t="str">
         <f>+VLOOKUP(A693,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C693" s="23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D693" s="23" t="str">
         <f>+VLOOKUP(C693,distribution!C$2:D$40,2,FALSE)</f>
@@ -50771,14 +50762,14 @@
     </row>
     <row r="694" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A694" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B694" s="9" t="str">
         <f>+VLOOKUP(A694,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C694" s="23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D694" s="23" t="str">
         <f>+VLOOKUP(C694,distribution!C$2:D$40,2,FALSE)</f>
@@ -50797,14 +50788,14 @@
     </row>
     <row r="695" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A695" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B695" s="9" t="str">
         <f>+VLOOKUP(A695,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C695" s="23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D695" s="23" t="str">
         <f>+VLOOKUP(C695,distribution!C$2:D$40,2,FALSE)</f>
@@ -50823,14 +50814,14 @@
     </row>
     <row r="696" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A696" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B696" s="9" t="str">
         <f>+VLOOKUP(A696,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C696" s="23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D696" s="23" t="str">
         <f>+VLOOKUP(C696,distribution!C$2:D$40,2,FALSE)</f>
@@ -50849,14 +50840,14 @@
     </row>
     <row r="697" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A697" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B697" s="9" t="str">
         <f>+VLOOKUP(A697,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C697" s="23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D697" s="23" t="str">
         <f>+VLOOKUP(C697,distribution!C$2:D$40,2,FALSE)</f>
@@ -50875,27 +50866,27 @@
     </row>
     <row r="698" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A698" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B698" s="9" t="str">
         <f>+VLOOKUP(A698,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C698" s="23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D698" s="23" t="str">
         <f>+VLOOKUP(C698,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E698" s="23" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F698" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G698" s="9" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H698" s="25" t="s">
         <v>382</v>
@@ -50903,27 +50894,27 @@
     </row>
     <row r="699" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A699" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B699" s="9" t="str">
         <f>+VLOOKUP(A699,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C699" s="23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D699" s="23" t="str">
         <f>+VLOOKUP(C699,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E699" s="23" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F699" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G699" s="9" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H699" s="25" t="s">
         <v>382</v>
@@ -50931,27 +50922,27 @@
     </row>
     <row r="700" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A700" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B700" s="9" t="str">
         <f>+VLOOKUP(A700,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C700" s="23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D700" s="23" t="str">
         <f>+VLOOKUP(C700,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E700" s="23" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F700" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G700" s="9" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H700" s="25" t="s">
         <v>382</v>
@@ -50959,27 +50950,27 @@
     </row>
     <row r="701" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A701" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B701" s="9" t="str">
         <f>+VLOOKUP(A701,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C701" s="23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D701" s="23" t="str">
         <f>+VLOOKUP(C701,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E701" s="23" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="F701" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G701" s="9" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H701" s="25" t="s">
         <v>382</v>
@@ -50987,27 +50978,27 @@
     </row>
     <row r="702" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A702" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B702" s="9" t="str">
         <f>+VLOOKUP(A702,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C702" s="23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D702" s="23" t="str">
         <f>+VLOOKUP(C702,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E702" s="23" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F702" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G702" s="9" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H702" s="25" t="s">
         <v>389</v>
@@ -51015,27 +51006,27 @@
     </row>
     <row r="703" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A703" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B703" s="9" t="str">
         <f>+VLOOKUP(A703,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C703" s="23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D703" s="23" t="str">
         <f>+VLOOKUP(C703,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E703" s="23" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="F703" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G703" s="9" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H703" s="25" t="s">
         <v>389</v>
@@ -51043,27 +51034,27 @@
     </row>
     <row r="704" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A704" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B704" s="9" t="str">
         <f>+VLOOKUP(A704,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C704" s="23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D704" s="23" t="str">
         <f>+VLOOKUP(C704,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E704" s="23" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F704" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G704" s="9" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H704" s="25" t="s">
         <v>389</v>
@@ -51071,27 +51062,27 @@
     </row>
     <row r="705" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A705" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B705" s="9" t="str">
         <f>+VLOOKUP(A705,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C705" s="23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D705" s="23" t="str">
         <f>+VLOOKUP(C705,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E705" s="23" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F705" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G705" s="9" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H705" s="25" t="s">
         <v>389</v>
@@ -51099,27 +51090,27 @@
     </row>
     <row r="706" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A706" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B706" s="9" t="str">
         <f>+VLOOKUP(A706,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C706" s="23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D706" s="23" t="str">
         <f>+VLOOKUP(C706,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E706" s="23" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F706" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G706" s="9" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H706" s="25" t="s">
         <v>389</v>
@@ -51127,27 +51118,27 @@
     </row>
     <row r="707" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A707" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B707" s="9" t="str">
         <f>+VLOOKUP(A707,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C707" s="23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D707" s="23" t="str">
         <f>+VLOOKUP(C707,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E707" s="23" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F707" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G707" s="9" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H707" s="25" t="s">
         <v>389</v>
@@ -51155,27 +51146,27 @@
     </row>
     <row r="708" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A708" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B708" s="9" t="str">
         <f>+VLOOKUP(A708,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C708" s="23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D708" s="23" t="str">
         <f>+VLOOKUP(C708,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E708" s="23" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F708" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G708" s="9" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H708" s="25" t="s">
         <v>399</v>
@@ -51183,27 +51174,27 @@
     </row>
     <row r="709" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A709" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B709" s="9" t="str">
         <f>+VLOOKUP(A709,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C709" s="23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D709" s="23" t="str">
         <f>+VLOOKUP(C709,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E709" s="23" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="F709" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G709" s="9" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H709" s="25" t="s">
         <v>399</v>
@@ -51211,14 +51202,14 @@
     </row>
     <row r="710" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A710" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B710" s="9" t="str">
         <f>+VLOOKUP(A710,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C710" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D710" s="23" t="str">
         <f>+VLOOKUP(C710,distribution!C$2:D$40,2,FALSE)</f>
@@ -51237,14 +51228,14 @@
     </row>
     <row r="711" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A711" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B711" s="9" t="str">
         <f>+VLOOKUP(A711,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C711" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D711" s="23" t="str">
         <f>+VLOOKUP(C711,distribution!C$2:D$40,2,FALSE)</f>
@@ -51263,14 +51254,14 @@
     </row>
     <row r="712" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A712" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B712" s="9" t="str">
         <f>+VLOOKUP(A712,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C712" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D712" s="23" t="str">
         <f>+VLOOKUP(C712,distribution!C$2:D$40,2,FALSE)</f>
@@ -51289,14 +51280,14 @@
     </row>
     <row r="713" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A713" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B713" s="9" t="str">
         <f>+VLOOKUP(A713,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C713" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D713" s="23" t="str">
         <f>+VLOOKUP(C713,distribution!C$2:D$40,2,FALSE)</f>
@@ -51315,14 +51306,14 @@
     </row>
     <row r="714" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A714" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B714" s="9" t="str">
         <f>+VLOOKUP(A714,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C714" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D714" s="23" t="str">
         <f>+VLOOKUP(C714,distribution!C$2:D$40,2,FALSE)</f>
@@ -51341,27 +51332,27 @@
     </row>
     <row r="715" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A715" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B715" s="9" t="str">
         <f>+VLOOKUP(A715,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C715" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D715" s="23" t="str">
         <f>+VLOOKUP(C715,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E715" s="23" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="F715" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G715" s="9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H715" s="9" t="s">
         <v>382</v>
@@ -51369,27 +51360,27 @@
     </row>
     <row r="716" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A716" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B716" s="9" t="str">
         <f>+VLOOKUP(A716,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C716" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D716" s="23" t="str">
         <f>+VLOOKUP(C716,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E716" s="23" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="F716" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G716" s="9" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H716" s="9" t="s">
         <v>382</v>
@@ -51397,27 +51388,27 @@
     </row>
     <row r="717" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A717" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B717" s="9" t="str">
         <f>+VLOOKUP(A717,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C717" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D717" s="23" t="str">
         <f>+VLOOKUP(C717,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E717" s="23" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F717" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G717" s="9" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H717" s="9" t="s">
         <v>382</v>
@@ -51425,27 +51416,27 @@
     </row>
     <row r="718" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A718" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B718" s="9" t="str">
         <f>+VLOOKUP(A718,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C718" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D718" s="23" t="str">
         <f>+VLOOKUP(C718,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E718" s="23" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="F718" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G718" s="9" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H718" s="9" t="s">
         <v>382</v>
@@ -51453,27 +51444,27 @@
     </row>
     <row r="719" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A719" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B719" s="9" t="str">
         <f>+VLOOKUP(A719,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C719" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D719" s="23" t="str">
         <f>+VLOOKUP(C719,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E719" s="23" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="F719" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G719" s="9" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H719" s="9" t="s">
         <v>382</v>
@@ -51481,27 +51472,27 @@
     </row>
     <row r="720" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A720" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B720" s="9" t="str">
         <f>+VLOOKUP(A720,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C720" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D720" s="23" t="str">
         <f>+VLOOKUP(C720,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E720" s="23" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="F720" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G720" s="9" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H720" s="9" t="s">
         <v>382</v>
@@ -51509,27 +51500,27 @@
     </row>
     <row r="721" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A721" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B721" s="9" t="str">
         <f>+VLOOKUP(A721,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C721" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D721" s="23" t="str">
         <f>+VLOOKUP(C721,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E721" s="23" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="F721" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G721" s="9" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H721" s="9" t="s">
         <v>382</v>
@@ -51537,27 +51528,27 @@
     </row>
     <row r="722" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A722" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B722" s="9" t="str">
         <f>+VLOOKUP(A722,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C722" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D722" s="23" t="str">
         <f>+VLOOKUP(C722,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E722" s="23" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="F722" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G722" s="9" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H722" s="9" t="s">
         <v>382</v>
@@ -51565,27 +51556,27 @@
     </row>
     <row r="723" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A723" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B723" s="9" t="str">
         <f>+VLOOKUP(A723,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C723" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D723" s="23" t="str">
         <f>+VLOOKUP(C723,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E723" s="23" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="F723" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G723" s="9" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H723" s="9" t="s">
         <v>389</v>
@@ -51593,27 +51584,27 @@
     </row>
     <row r="724" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A724" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B724" s="9" t="str">
         <f>+VLOOKUP(A724,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C724" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D724" s="23" t="str">
         <f>+VLOOKUP(C724,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E724" s="23" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="F724" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G724" s="9" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H724" s="9" t="s">
         <v>389</v>
@@ -51621,27 +51612,27 @@
     </row>
     <row r="725" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A725" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B725" s="9" t="str">
         <f>+VLOOKUP(A725,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C725" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D725" s="23" t="str">
         <f>+VLOOKUP(C725,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E725" s="23" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="F725" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G725" s="9" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H725" s="9" t="s">
         <v>389</v>
@@ -51649,27 +51640,27 @@
     </row>
     <row r="726" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A726" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B726" s="9" t="str">
         <f>+VLOOKUP(A726,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C726" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D726" s="23" t="str">
         <f>+VLOOKUP(C726,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E726" s="23" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="F726" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G726" s="9" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H726" s="9" t="s">
         <v>389</v>
@@ -51677,27 +51668,27 @@
     </row>
     <row r="727" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A727" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B727" s="9" t="str">
         <f>+VLOOKUP(A727,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C727" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D727" s="23" t="str">
         <f>+VLOOKUP(C727,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E727" s="23" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="F727" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G727" s="9" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H727" s="9" t="s">
         <v>399</v>
@@ -51705,27 +51696,27 @@
     </row>
     <row r="728" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A728" s="22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B728" s="9" t="str">
         <f>+VLOOKUP(A728,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C728" s="23" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D728" s="23" t="str">
         <f>+VLOOKUP(C728,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E728" s="23" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F728" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G728" s="9" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H728" s="9" t="s">
         <v>399</v>
@@ -51733,14 +51724,14 @@
     </row>
     <row r="729" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A729" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B729" s="9" t="str">
         <f>+VLOOKUP(A729,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C729" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D729" s="23" t="str">
         <f>+VLOOKUP(C729,distribution!C$2:D$40,2,FALSE)</f>
@@ -51759,14 +51750,14 @@
     </row>
     <row r="730" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A730" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B730" s="9" t="str">
         <f>+VLOOKUP(A730,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C730" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D730" s="23" t="str">
         <f>+VLOOKUP(C730,distribution!C$2:D$40,2,FALSE)</f>
@@ -51785,14 +51776,14 @@
     </row>
     <row r="731" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A731" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B731" s="9" t="str">
         <f>+VLOOKUP(A731,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C731" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D731" s="23" t="str">
         <f>+VLOOKUP(C731,distribution!C$2:D$40,2,FALSE)</f>
@@ -51811,14 +51802,14 @@
     </row>
     <row r="732" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A732" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B732" s="9" t="str">
         <f>+VLOOKUP(A732,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C732" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D732" s="23" t="str">
         <f>+VLOOKUP(C732,distribution!C$2:D$40,2,FALSE)</f>
@@ -51837,14 +51828,14 @@
     </row>
     <row r="733" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A733" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B733" s="9" t="str">
         <f>+VLOOKUP(A733,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C733" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D733" s="23" t="str">
         <f>+VLOOKUP(C733,distribution!C$2:D$40,2,FALSE)</f>
@@ -51863,27 +51854,27 @@
     </row>
     <row r="734" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A734" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B734" s="9" t="str">
         <f>+VLOOKUP(A734,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C734" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D734" s="23" t="str">
         <f>+VLOOKUP(C734,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E734" s="23" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="F734" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G734" s="9" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H734" s="25" t="s">
         <v>382</v>
@@ -51891,27 +51882,27 @@
     </row>
     <row r="735" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A735" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B735" s="9" t="str">
         <f>+VLOOKUP(A735,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C735" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D735" s="23" t="str">
         <f>+VLOOKUP(C735,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E735" s="23" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="F735" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G735" s="9" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H735" s="25" t="s">
         <v>382</v>
@@ -51919,27 +51910,27 @@
     </row>
     <row r="736" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A736" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B736" s="9" t="str">
         <f>+VLOOKUP(A736,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C736" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D736" s="23" t="str">
         <f>+VLOOKUP(C736,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E736" s="23" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F736" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G736" s="9" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H736" s="25" t="s">
         <v>389</v>
@@ -51947,27 +51938,27 @@
     </row>
     <row r="737" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A737" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B737" s="9" t="str">
         <f>+VLOOKUP(A737,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C737" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D737" s="23" t="str">
         <f>+VLOOKUP(C737,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E737" s="23" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="F737" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G737" s="9" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H737" s="25" t="s">
         <v>380</v>
@@ -51975,27 +51966,27 @@
     </row>
     <row r="738" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A738" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B738" s="9" t="str">
         <f>+VLOOKUP(A738,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C738" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D738" s="23" t="str">
         <f>+VLOOKUP(C738,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E738" s="23" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="F738" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G738" s="9" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H738" s="25" t="s">
         <v>380</v>
@@ -52003,27 +51994,27 @@
     </row>
     <row r="739" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A739" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B739" s="9" t="str">
         <f>+VLOOKUP(A739,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C739" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D739" s="23" t="str">
         <f>+VLOOKUP(C739,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E739" s="23" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="F739" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G739" s="9" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H739" s="25" t="s">
         <v>447</v>
@@ -52031,27 +52022,27 @@
     </row>
     <row r="740" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A740" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B740" s="9" t="str">
         <f>+VLOOKUP(A740,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C740" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D740" s="23" t="str">
         <f>+VLOOKUP(C740,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E740" s="23" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="F740" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G740" s="9" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H740" s="25" t="s">
         <v>447</v>
@@ -52059,27 +52050,27 @@
     </row>
     <row r="741" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A741" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B741" s="9" t="str">
         <f>+VLOOKUP(A741,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C741" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D741" s="23" t="str">
         <f>+VLOOKUP(C741,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E741" s="23" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="F741" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G741" s="9" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H741" s="25" t="s">
         <v>380</v>
@@ -52087,27 +52078,27 @@
     </row>
     <row r="742" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A742" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B742" s="9" t="str">
         <f>+VLOOKUP(A742,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C742" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D742" s="23" t="str">
         <f>+VLOOKUP(C742,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E742" s="23" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="F742" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G742" s="9" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H742" s="25" t="s">
         <v>380</v>
@@ -52115,27 +52106,27 @@
     </row>
     <row r="743" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A743" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B743" s="9" t="str">
         <f>+VLOOKUP(A743,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C743" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D743" s="23" t="str">
         <f>+VLOOKUP(C743,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E743" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="F743" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G743" s="9" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H743" s="25" t="s">
         <v>447</v>
@@ -52143,27 +52134,27 @@
     </row>
     <row r="744" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A744" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B744" s="9" t="str">
         <f>+VLOOKUP(A744,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C744" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D744" s="23" t="str">
         <f>+VLOOKUP(C744,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E744" s="23" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="F744" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G744" s="9" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H744" s="25" t="s">
         <v>447</v>
@@ -52171,139 +52162,139 @@
     </row>
     <row r="745" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A745" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B745" s="9" t="str">
         <f>+VLOOKUP(A745,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C745" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D745" s="23" t="str">
         <f>+VLOOKUP(C745,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E745" s="23" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="F745" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G745" s="9" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H745" s="25" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="746" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A746" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B746" s="9" t="str">
         <f>+VLOOKUP(A746,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C746" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D746" s="23" t="str">
         <f>+VLOOKUP(C746,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E746" s="23" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="F746" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G746" s="9" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H746" s="25" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="747" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A747" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B747" s="9" t="str">
         <f>+VLOOKUP(A747,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C747" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D747" s="23" t="str">
         <f>+VLOOKUP(C747,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E747" s="23" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="F747" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G747" s="9" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H747" s="25" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="748" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A748" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B748" s="9" t="str">
         <f>+VLOOKUP(A748,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C748" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D748" s="23" t="str">
         <f>+VLOOKUP(C748,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E748" s="23" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="F748" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G748" s="9" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H748" s="25" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="749" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A749" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B749" s="9" t="str">
         <f>+VLOOKUP(A749,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C749" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D749" s="23" t="str">
         <f>+VLOOKUP(C749,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E749" s="23" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="F749" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G749" s="9" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H749" s="25" t="s">
         <v>397</v>
@@ -52311,27 +52302,27 @@
     </row>
     <row r="750" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A750" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B750" s="9" t="str">
         <f>+VLOOKUP(A750,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C750" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D750" s="23" t="str">
         <f>+VLOOKUP(C750,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E750" s="23" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="F750" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G750" s="9" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H750" s="25" t="s">
         <v>397</v>
@@ -52339,27 +52330,27 @@
     </row>
     <row r="751" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A751" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B751" s="9" t="str">
         <f>+VLOOKUP(A751,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C751" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D751" s="23" t="str">
         <f>+VLOOKUP(C751,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E751" s="23" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="F751" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G751" s="9" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H751" s="25" t="s">
         <v>398</v>
@@ -52367,27 +52358,27 @@
     </row>
     <row r="752" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A752" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B752" s="9" t="str">
         <f>+VLOOKUP(A752,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C752" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D752" s="23" t="str">
         <f>+VLOOKUP(C752,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E752" s="23" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="F752" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G752" s="9" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H752" s="25" t="s">
         <v>398</v>
@@ -52395,27 +52386,27 @@
     </row>
     <row r="753" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A753" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B753" s="9" t="str">
         <f>+VLOOKUP(A753,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C753" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D753" s="23" t="str">
         <f>+VLOOKUP(C753,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E753" s="23" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="F753" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G753" s="9" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H753" s="25" t="s">
         <v>395</v>
@@ -52423,27 +52414,27 @@
     </row>
     <row r="754" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A754" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B754" s="9" t="str">
         <f>+VLOOKUP(A754,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C754" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D754" s="23" t="str">
         <f>+VLOOKUP(C754,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E754" s="23" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="F754" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G754" s="9" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H754" s="25" t="s">
         <v>395</v>
@@ -52451,55 +52442,55 @@
     </row>
     <row r="755" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A755" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B755" s="9" t="str">
         <f>+VLOOKUP(A755,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C755" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D755" s="23" t="str">
         <f>+VLOOKUP(C755,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E755" s="23" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="F755" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G755" s="9" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H755" s="25" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="756" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A756" s="22" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B756" s="9" t="str">
         <f>+VLOOKUP(A756,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C756" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D756" s="23" t="str">
         <f>+VLOOKUP(C756,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E756" s="23" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="F756" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G756" s="9" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H756" s="25" t="s">
         <v>411</v>
@@ -52526,7 +52517,7 @@
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1:E6520"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -52539,120 +52530,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="93"/>
+      <c r="D1" s="79"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="81" t="s">
         <v>364</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="81" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="81" t="s">
         <v>366</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="81" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="81" t="s">
         <v>367</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="81" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="81" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="80" t="s">
         <v>369</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="81" t="s">
         <v>370</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="81" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="80" t="s">
         <v>372</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="81" t="s">
         <v>373</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="81" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="80" t="s">
         <v>375</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="81" t="s">
         <v>376</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="81" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="83" t="s">
         <v>378</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="83" t="s">
         <v>379</v>
       </c>
-      <c r="D9" s="98"/>
+      <c r="D9" s="84"/>
     </row>
     <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="93"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="98"/>
+      <c r="A10" s="79"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="84"/>
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
+      <c r="A11" s="84"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="98"/>
+      <c r="D11" s="84"/>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="98"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="98"/>
+      <c r="A12" s="84"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52670,1328 +52661,1328 @@
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F36" sqref="F36"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="104" customWidth="1"/>
-    <col min="2" max="2" width="46.5" style="104" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="104"/>
-    <col min="4" max="4" width="24.5" style="104" customWidth="1"/>
-    <col min="5" max="16384" width="16.83203125" style="104"/>
+    <col min="1" max="1" width="20.83203125" style="90" customWidth="1"/>
+    <col min="2" max="2" width="46.5" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="90"/>
+    <col min="4" max="4" width="24.5" style="90" customWidth="1"/>
+    <col min="5" max="16384" width="16.83203125" style="90"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="86" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="87" t="s">
         <v>429</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="88" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="88" t="s">
         <v>431</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="88" t="s">
         <v>432</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="88" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="103"/>
+      <c r="G1" s="89"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="105">
+      <c r="A2" s="91">
         <v>1</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="92" t="s">
         <v>434</v>
       </c>
-      <c r="C2" s="107">
+      <c r="C2" s="93">
         <v>1993</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="93" t="s">
         <v>435</v>
       </c>
-      <c r="E2" s="108">
+      <c r="E2" s="94">
         <v>1000000</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="93" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="105">
+      <c r="A3" s="91">
         <v>2</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="107">
+      <c r="C3" s="93">
         <v>2004</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="93" t="s">
         <v>435</v>
       </c>
-      <c r="E3" s="108">
+      <c r="E3" s="94">
         <v>1000000</v>
       </c>
-      <c r="F3" s="107" t="s">
+      <c r="F3" s="93" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="105">
+      <c r="A4" s="91">
         <v>3</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="92" t="s">
         <v>381</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="107" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="93" t="s">
         <v>437</v>
       </c>
-      <c r="E4" s="108">
+      <c r="E4" s="94">
         <v>1000000</v>
       </c>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="93" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="105">
+      <c r="A5" s="91">
         <v>4</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="96" t="s">
         <v>438</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107">
+      <c r="C5" s="95"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93">
         <v>1</v>
       </c>
-      <c r="F5" s="107"/>
+      <c r="F5" s="93"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105">
+      <c r="A6" s="91">
         <v>5</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="96" t="s">
         <v>382</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107">
+      <c r="C6" s="95"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93">
         <v>1</v>
       </c>
-      <c r="F6" s="107"/>
+      <c r="F6" s="93"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="105">
+      <c r="A7" s="91">
         <v>6</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="96" t="s">
         <v>383</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113">
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99">
         <v>1000</v>
       </c>
-      <c r="F7" s="113"/>
+      <c r="F7" s="99"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="105">
+      <c r="A8" s="91">
         <v>7</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="96" t="s">
         <v>439</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="113">
+      <c r="C8" s="92"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="99">
         <v>1000</v>
       </c>
-      <c r="F8" s="113"/>
+      <c r="F8" s="99"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="105">
+      <c r="A9" s="91">
         <v>8</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="96" t="s">
         <v>384</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113">
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99">
         <v>1000</v>
       </c>
-      <c r="F9" s="113"/>
+      <c r="F9" s="99"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105">
+      <c r="A10" s="91">
         <v>9</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="96" t="s">
         <v>440</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113">
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="99">
         <v>1000</v>
       </c>
-      <c r="F10" s="113"/>
+      <c r="F10" s="99"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="105">
-        <v>10</v>
-      </c>
-      <c r="B11" s="110" t="s">
+      <c r="A11" s="91">
+        <v>10</v>
+      </c>
+      <c r="B11" s="96" t="s">
         <v>385</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="113">
+      <c r="C11" s="92"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="99">
         <v>1000</v>
       </c>
-      <c r="F11" s="113"/>
+      <c r="F11" s="99"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="105">
+      <c r="A12" s="91">
         <v>11</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="96" t="s">
         <v>441</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113">
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="99">
         <v>1000</v>
       </c>
-      <c r="F12" s="113"/>
+      <c r="F12" s="99"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="105">
+      <c r="A13" s="91">
         <v>12</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="96" t="s">
         <v>386</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113">
+      <c r="C13" s="97"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99">
         <v>1000</v>
       </c>
-      <c r="F13" s="113"/>
+      <c r="F13" s="99"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="105">
+      <c r="A14" s="91">
         <v>13</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="96" t="s">
         <v>442</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="113">
+      <c r="C14" s="92"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="99">
         <v>1000</v>
       </c>
-      <c r="F14" s="113"/>
+      <c r="F14" s="99"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="105">
+      <c r="A15" s="91">
         <v>14</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="96" t="s">
         <v>443</v>
       </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="108">
+      <c r="C15" s="97"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="94">
         <v>1000000</v>
       </c>
-      <c r="F15" s="113"/>
+      <c r="F15" s="99"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="105">
+      <c r="A16" s="91">
         <v>15</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="96" t="s">
         <v>444</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="108">
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="94">
         <v>1000000</v>
       </c>
-      <c r="F16" s="113"/>
+      <c r="F16" s="99"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="105">
+      <c r="A17" s="91">
         <v>16</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="96" t="s">
         <v>387</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="108">
+      <c r="C17" s="92"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="94">
         <v>1000000</v>
       </c>
-      <c r="F17" s="113"/>
+      <c r="F17" s="99"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="105">
+      <c r="A18" s="91">
         <v>17</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="96" t="s">
         <v>388</v>
       </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113">
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99">
         <v>100</v>
       </c>
-      <c r="F18" s="113"/>
+      <c r="F18" s="99"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="105">
+      <c r="A19" s="91">
         <v>18</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="96" t="s">
         <v>445</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="105">
+      <c r="A20" s="91">
         <v>19</v>
       </c>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="96" t="s">
         <v>389</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="113">
+      <c r="C20" s="92"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="99">
         <v>1</v>
       </c>
-      <c r="F20" s="113"/>
+      <c r="F20" s="99"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="105">
+      <c r="A21" s="91">
         <v>20</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="96" t="s">
         <v>390</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="113">
+      <c r="C21" s="97"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99">
         <v>1</v>
       </c>
-      <c r="F21" s="113"/>
+      <c r="F21" s="99"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="105">
+      <c r="A22" s="91">
         <v>21</v>
       </c>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="96" t="s">
         <v>446</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113">
+      <c r="C22" s="97"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="99">
         <v>1</v>
       </c>
-      <c r="F22" s="113"/>
+      <c r="F22" s="99"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="105">
+      <c r="A23" s="91">
         <v>22</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="96" t="s">
         <v>447</v>
       </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="107" t="s">
+      <c r="C23" s="97"/>
+      <c r="D23" s="93" t="s">
         <v>437</v>
       </c>
-      <c r="E23" s="108">
+      <c r="E23" s="94">
         <v>1000000</v>
       </c>
-      <c r="F23" s="107" t="s">
+      <c r="F23" s="93" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="105">
+      <c r="A24" s="91">
         <v>23</v>
       </c>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="96" t="s">
         <v>448</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="105">
+      <c r="A25" s="91">
         <v>24</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="96" t="s">
         <v>391</v>
       </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="107" t="s">
+      <c r="C25" s="92"/>
+      <c r="D25" s="93" t="s">
         <v>437</v>
       </c>
-      <c r="E25" s="113">
+      <c r="E25" s="99">
         <v>1</v>
       </c>
-      <c r="F25" s="113" t="s">
+      <c r="F25" s="99" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="105">
+      <c r="A26" s="91">
         <v>25</v>
       </c>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="90" t="s">
         <v>392</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107" t="s">
+      <c r="C26" s="92"/>
+      <c r="D26" s="93" t="s">
         <v>437</v>
       </c>
-      <c r="E26" s="108">
+      <c r="E26" s="94">
         <v>1000000</v>
       </c>
-      <c r="F26" s="113" t="s">
+      <c r="F26" s="99" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="105">
+      <c r="A27" s="91">
         <v>26</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="96" t="s">
         <v>449</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
     </row>
     <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="105">
+      <c r="A28" s="91">
         <v>27</v>
       </c>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="96" t="s">
         <v>393</v>
       </c>
-      <c r="C28" s="111"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113">
+      <c r="C28" s="97"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="99">
         <v>1</v>
       </c>
-      <c r="F28" s="113"/>
+      <c r="F28" s="99"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="114">
+      <c r="A29" s="100">
         <v>28</v>
       </c>
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="101" t="s">
         <v>450</v>
       </c>
-      <c r="C29" s="116"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117">
+      <c r="C29" s="102"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="103">
         <v>1</v>
       </c>
-      <c r="F29" s="117"/>
+      <c r="F29" s="103"/>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="118">
+      <c r="A30" s="104">
         <v>29</v>
       </c>
-      <c r="B30" s="119" t="s">
+      <c r="B30" s="105" t="s">
         <v>394</v>
       </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="121">
+      <c r="C30" s="106"/>
+      <c r="D30" s="107">
         <v>1000</v>
       </c>
-      <c r="E30" s="119"/>
-      <c r="F30" s="122"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="108"/>
     </row>
     <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="123">
+      <c r="A31" s="109">
         <v>30</v>
       </c>
-      <c r="B31" s="124" t="s">
+      <c r="B31" s="110" t="s">
         <v>395</v>
       </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="126" t="s">
+      <c r="C31" s="111"/>
+      <c r="D31" s="112" t="s">
         <v>437</v>
       </c>
-      <c r="E31" s="124"/>
-      <c r="F31" s="127"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="113"/>
     </row>
     <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="123">
+      <c r="A32" s="109">
         <v>31</v>
       </c>
-      <c r="B32" s="124" t="s">
+      <c r="B32" s="110" t="s">
         <v>451</v>
       </c>
-      <c r="C32" s="128"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="127"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="113"/>
     </row>
     <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="123">
+      <c r="A33" s="109">
         <v>32</v>
       </c>
-      <c r="B33" s="124" t="s">
+      <c r="B33" s="110" t="s">
         <v>452</v>
       </c>
-      <c r="C33" s="125"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="127"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="113"/>
     </row>
     <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="123">
+      <c r="A34" s="109">
         <v>33</v>
       </c>
-      <c r="B34" s="124" t="s">
+      <c r="B34" s="110" t="s">
         <v>453</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="127"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="113"/>
     </row>
     <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="123">
+      <c r="A35" s="109">
         <v>34</v>
       </c>
-      <c r="B35" s="124" t="s">
+      <c r="B35" s="110" t="s">
         <v>452</v>
       </c>
-      <c r="C35" s="128"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="127"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="113"/>
     </row>
     <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="123">
+      <c r="A36" s="109">
         <v>35</v>
       </c>
-      <c r="B36" s="124" t="s">
+      <c r="B36" s="110" t="s">
         <v>453</v>
       </c>
-      <c r="C36" s="125"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="127"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="113"/>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="123">
+      <c r="A37" s="109">
         <v>36</v>
       </c>
-      <c r="B37" s="124" t="s">
+      <c r="B37" s="110" t="s">
         <v>454</v>
       </c>
-      <c r="C37" s="125"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="127"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="113"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="132">
+      <c r="A38" s="118">
         <v>37</v>
       </c>
-      <c r="B38" s="133" t="s">
+      <c r="B38" s="119" t="s">
         <v>455</v>
       </c>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="135"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="121"/>
     </row>
     <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="118">
+      <c r="A39" s="104">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C39" s="136"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="122"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="108"/>
     </row>
     <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="137">
+      <c r="A40" s="123">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C40" s="138"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="127"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="113"/>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="123">
+      <c r="A41" s="109">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C41" s="138"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="127"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="113"/>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="137">
+      <c r="A42" s="123">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C42" s="138"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="127"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="113"/>
     </row>
     <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="123">
+      <c r="A43" s="109">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C43" s="138"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="127"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="113"/>
     </row>
     <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="137">
+      <c r="A44" s="123">
         <v>43</v>
       </c>
-      <c r="B44" s="139" t="s">
+      <c r="B44" s="125" t="s">
         <v>461</v>
       </c>
-      <c r="C44" s="138"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="127"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="113"/>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="123">
+      <c r="A45" s="109">
         <v>44</v>
       </c>
-      <c r="B45" s="139" t="s">
+      <c r="B45" s="125" t="s">
         <v>462</v>
       </c>
-      <c r="C45" s="138"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="138"/>
-      <c r="F45" s="127"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="113"/>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="137">
+      <c r="A46" s="123">
         <v>45</v>
       </c>
-      <c r="B46" s="139" t="s">
+      <c r="B46" s="125" t="s">
         <v>463</v>
       </c>
-      <c r="C46" s="138"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="127"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="113"/>
     </row>
     <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="123">
+      <c r="A47" s="109">
         <v>46</v>
       </c>
-      <c r="B47" s="139" t="s">
+      <c r="B47" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="C47" s="138"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="127"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="113"/>
     </row>
     <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="137">
+      <c r="A48" s="123">
         <v>47</v>
       </c>
-      <c r="B48" s="139" t="s">
+      <c r="B48" s="125" t="s">
         <v>465</v>
       </c>
-      <c r="C48" s="138"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="127"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="113"/>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="123">
+      <c r="A49" s="109">
         <v>48</v>
       </c>
-      <c r="B49" s="139" t="s">
+      <c r="B49" s="125" t="s">
         <v>466</v>
       </c>
-      <c r="C49" s="138"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="138"/>
-      <c r="F49" s="127"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="113"/>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="137">
+      <c r="A50" s="123">
         <v>49</v>
       </c>
-      <c r="B50" s="139" t="s">
+      <c r="B50" s="125" t="s">
         <v>461</v>
       </c>
-      <c r="C50" s="138"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="138"/>
-      <c r="F50" s="127"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="113"/>
     </row>
     <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="123">
+      <c r="A51" s="109">
         <v>50</v>
       </c>
-      <c r="B51" s="139" t="s">
+      <c r="B51" s="125" t="s">
         <v>462</v>
       </c>
-      <c r="C51" s="138"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="138"/>
-      <c r="F51" s="127"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="113"/>
     </row>
     <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="137">
+      <c r="A52" s="123">
         <v>51</v>
       </c>
-      <c r="B52" s="139" t="s">
+      <c r="B52" s="125" t="s">
         <v>467</v>
       </c>
-      <c r="C52" s="138"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="138"/>
-      <c r="F52" s="127"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="113"/>
     </row>
     <row r="53" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="140">
+      <c r="A53" s="126">
         <v>52</v>
       </c>
-      <c r="B53" s="141" t="s">
+      <c r="B53" s="127" t="s">
         <v>468</v>
       </c>
-      <c r="C53" s="142"/>
-      <c r="D53" s="143"/>
-      <c r="E53" s="142"/>
-      <c r="F53" s="144"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="130"/>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="105">
+      <c r="A54" s="91">
         <v>53</v>
       </c>
-      <c r="B54" s="138" t="s">
+      <c r="B54" s="124" t="s">
         <v>396</v>
       </c>
-      <c r="C54" s="106"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="113">
+      <c r="C54" s="92"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="99">
         <v>1</v>
       </c>
-      <c r="F54" s="113"/>
+      <c r="F54" s="99"/>
     </row>
     <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="145">
+      <c r="A55" s="131">
         <v>54</v>
       </c>
-      <c r="B55" s="146" t="s">
+      <c r="B55" s="132" t="s">
         <v>397</v>
       </c>
-      <c r="C55" s="147"/>
-      <c r="D55" s="145"/>
-      <c r="E55" s="147"/>
-      <c r="F55" s="147"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="133"/>
+      <c r="F55" s="133"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="145">
+      <c r="A56" s="131">
         <v>55</v>
       </c>
-      <c r="B56" s="146" t="s">
+      <c r="B56" s="132" t="s">
         <v>398</v>
       </c>
-      <c r="C56" s="147"/>
-      <c r="D56" s="145"/>
-      <c r="E56" s="147"/>
-      <c r="F56" s="147"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="145">
+      <c r="A57" s="131">
         <v>56</v>
       </c>
-      <c r="B57" s="147" t="s">
+      <c r="B57" s="133" t="s">
         <v>469</v>
       </c>
-      <c r="C57" s="147"/>
-      <c r="D57" s="147"/>
-      <c r="E57" s="148">
+      <c r="C57" s="133"/>
+      <c r="D57" s="133"/>
+      <c r="E57" s="134">
         <v>1</v>
       </c>
-      <c r="F57" s="147"/>
+      <c r="F57" s="133"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="145">
+      <c r="A58" s="131">
         <v>57</v>
       </c>
-      <c r="B58" s="146" t="s">
+      <c r="B58" s="132" t="s">
         <v>399</v>
       </c>
-      <c r="C58" s="149"/>
-      <c r="D58" s="145"/>
-      <c r="E58" s="149">
+      <c r="C58" s="135"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="135">
         <v>1</v>
       </c>
-      <c r="F58" s="149" t="s">
+      <c r="F58" s="135" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="149">
+      <c r="A59" s="135">
         <v>58</v>
       </c>
-      <c r="B59" s="150" t="s">
+      <c r="B59" s="136" t="s">
         <v>400</v>
       </c>
-      <c r="C59" s="149"/>
-      <c r="D59" s="149"/>
-      <c r="E59" s="149">
+      <c r="C59" s="135"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="135">
         <v>1</v>
       </c>
-      <c r="F59" s="149"/>
+      <c r="F59" s="135"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="145">
+      <c r="A60" s="131">
         <v>59</v>
       </c>
-      <c r="B60" s="150" t="s">
+      <c r="B60" s="136" t="s">
         <v>401</v>
       </c>
-      <c r="C60" s="149"/>
-      <c r="D60" s="149"/>
-      <c r="E60" s="149"/>
-      <c r="F60" s="149"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="135"/>
+      <c r="F60" s="135"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="145">
+      <c r="A61" s="131">
         <v>60</v>
       </c>
-      <c r="B61" s="150" t="s">
+      <c r="B61" s="136" t="s">
         <v>402</v>
       </c>
-      <c r="C61" s="149"/>
-      <c r="D61" s="149"/>
-      <c r="E61" s="149"/>
-      <c r="F61" s="149"/>
+      <c r="C61" s="135"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="135"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="145">
+      <c r="A62" s="131">
         <v>61</v>
       </c>
-      <c r="B62" s="150" t="s">
+      <c r="B62" s="136" t="s">
         <v>403</v>
       </c>
-      <c r="C62" s="149"/>
-      <c r="D62" s="149"/>
-      <c r="E62" s="149"/>
-      <c r="F62" s="149"/>
+      <c r="C62" s="135"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="135"/>
+      <c r="F62" s="135"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="145">
+      <c r="A63" s="131">
         <v>62</v>
       </c>
-      <c r="B63" s="150" t="s">
+      <c r="B63" s="136" t="s">
         <v>404</v>
       </c>
-      <c r="C63" s="149"/>
-      <c r="D63" s="149"/>
-      <c r="E63" s="149">
+      <c r="C63" s="135"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="135">
         <v>1000</v>
       </c>
-      <c r="F63" s="149"/>
+      <c r="F63" s="135"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="145">
+      <c r="A64" s="131">
         <v>63</v>
       </c>
-      <c r="B64" s="150" t="s">
+      <c r="B64" s="136" t="s">
         <v>405</v>
       </c>
-      <c r="C64" s="149"/>
-      <c r="D64" s="149"/>
-      <c r="E64" s="149"/>
-      <c r="F64" s="149"/>
+      <c r="C64" s="135"/>
+      <c r="D64" s="135"/>
+      <c r="E64" s="135"/>
+      <c r="F64" s="135"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="145">
+      <c r="A65" s="131">
         <v>64</v>
       </c>
-      <c r="B65" s="150" t="s">
+      <c r="B65" s="136" t="s">
         <v>406</v>
       </c>
-      <c r="C65" s="149"/>
-      <c r="D65" s="149"/>
-      <c r="E65" s="149"/>
-      <c r="F65" s="149"/>
+      <c r="C65" s="135"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="135"/>
+      <c r="F65" s="135"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="145">
+      <c r="A66" s="131">
         <v>65</v>
       </c>
-      <c r="B66" s="150" t="s">
+      <c r="B66" s="136" t="s">
         <v>407</v>
       </c>
-      <c r="C66" s="149"/>
-      <c r="D66" s="149"/>
-      <c r="E66" s="149"/>
-      <c r="F66" s="149"/>
+      <c r="C66" s="135"/>
+      <c r="D66" s="135"/>
+      <c r="E66" s="135"/>
+      <c r="F66" s="135"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="145">
+      <c r="A67" s="131">
         <v>66</v>
       </c>
-      <c r="B67" s="150" t="s">
+      <c r="B67" s="136" t="s">
         <v>408</v>
       </c>
-      <c r="C67" s="149"/>
-      <c r="D67" s="149"/>
-      <c r="E67" s="149"/>
-      <c r="F67" s="149"/>
+      <c r="C67" s="135"/>
+      <c r="D67" s="135"/>
+      <c r="E67" s="135"/>
+      <c r="F67" s="135"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="145">
+      <c r="A68" s="131">
         <v>67</v>
       </c>
-      <c r="B68" s="150" t="s">
+      <c r="B68" s="136" t="s">
         <v>409</v>
       </c>
-      <c r="C68" s="149"/>
-      <c r="D68" s="149"/>
-      <c r="E68" s="149">
+      <c r="C68" s="135"/>
+      <c r="D68" s="135"/>
+      <c r="E68" s="135">
         <v>1</v>
       </c>
-      <c r="F68" s="149" t="s">
+      <c r="F68" s="135" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="145">
+      <c r="A69" s="131">
         <v>68</v>
       </c>
-      <c r="B69" s="150" t="s">
+      <c r="B69" s="136" t="s">
         <v>410</v>
       </c>
-      <c r="C69" s="149"/>
-      <c r="D69" s="149"/>
-      <c r="E69" s="149">
+      <c r="C69" s="135"/>
+      <c r="D69" s="135"/>
+      <c r="E69" s="135">
         <v>1</v>
       </c>
-      <c r="F69" s="149" t="s">
+      <c r="F69" s="135" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="145">
+      <c r="A70" s="131">
         <v>69</v>
       </c>
-      <c r="B70" s="150" t="s">
+      <c r="B70" s="136" t="s">
         <v>411</v>
       </c>
-      <c r="C70" s="149"/>
-      <c r="D70" s="149"/>
-      <c r="E70" s="149">
+      <c r="C70" s="135"/>
+      <c r="D70" s="135"/>
+      <c r="E70" s="135">
         <v>1</v>
       </c>
-      <c r="F70" s="149" t="s">
+      <c r="F70" s="135" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="145">
+      <c r="A71" s="131">
         <v>70</v>
       </c>
-      <c r="B71" s="150" t="s">
+      <c r="B71" s="136" t="s">
         <v>412</v>
       </c>
-      <c r="C71" s="149"/>
-      <c r="D71" s="149"/>
-      <c r="E71" s="149">
+      <c r="C71" s="135"/>
+      <c r="D71" s="135"/>
+      <c r="E71" s="135">
         <v>1</v>
       </c>
-      <c r="F71" s="149"/>
+      <c r="F71" s="135"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="145">
+      <c r="A72" s="131">
         <v>71</v>
       </c>
-      <c r="B72" s="150" t="s">
+      <c r="B72" s="136" t="s">
         <v>470</v>
       </c>
-      <c r="C72" s="147"/>
-      <c r="D72" s="147"/>
-      <c r="E72" s="148">
+      <c r="C72" s="133"/>
+      <c r="D72" s="133"/>
+      <c r="E72" s="134">
         <v>1</v>
       </c>
-      <c r="F72" s="147"/>
+      <c r="F72" s="133"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="145">
+      <c r="A73" s="131">
         <v>72</v>
       </c>
-      <c r="B73" s="151" t="s">
+      <c r="B73" s="137" t="s">
         <v>471</v>
       </c>
-      <c r="C73" s="147"/>
-      <c r="D73" s="147"/>
-      <c r="E73" s="149">
+      <c r="C73" s="133"/>
+      <c r="D73" s="133"/>
+      <c r="E73" s="135">
         <v>1000</v>
       </c>
-      <c r="F73" s="147"/>
+      <c r="F73" s="133"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="145">
+      <c r="A74" s="131">
         <v>73</v>
       </c>
-      <c r="B74" s="151" t="s">
+      <c r="B74" s="137" t="s">
         <v>472</v>
       </c>
-      <c r="C74" s="147"/>
-      <c r="D74" s="147"/>
-      <c r="E74" s="149">
+      <c r="C74" s="133"/>
+      <c r="D74" s="133"/>
+      <c r="E74" s="135">
         <v>10000</v>
       </c>
-      <c r="F74" s="147"/>
+      <c r="F74" s="133"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="145">
+      <c r="A75" s="131">
         <v>74</v>
       </c>
-      <c r="B75" s="151" t="s">
+      <c r="B75" s="137" t="s">
         <v>473</v>
       </c>
-      <c r="C75" s="147"/>
-      <c r="D75" s="147"/>
-      <c r="E75" s="147"/>
-      <c r="F75" s="147"/>
+      <c r="C75" s="133"/>
+      <c r="D75" s="133"/>
+      <c r="E75" s="133"/>
+      <c r="F75" s="133"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="145">
+      <c r="A76" s="131">
         <v>75</v>
       </c>
-      <c r="B76" s="151" t="s">
+      <c r="B76" s="137" t="s">
         <v>474</v>
       </c>
-      <c r="C76" s="147"/>
-      <c r="D76" s="147"/>
-      <c r="E76" s="149">
+      <c r="C76" s="133"/>
+      <c r="D76" s="133"/>
+      <c r="E76" s="135">
         <v>1</v>
       </c>
-      <c r="F76" s="147"/>
+      <c r="F76" s="133"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="145">
+      <c r="A77" s="131">
         <v>76</v>
       </c>
-      <c r="B77" s="151" t="s">
+      <c r="B77" s="137" t="s">
         <v>475</v>
       </c>
-      <c r="C77" s="147"/>
-      <c r="D77" s="147"/>
-      <c r="E77" s="149">
+      <c r="C77" s="133"/>
+      <c r="D77" s="133"/>
+      <c r="E77" s="135">
         <v>1000</v>
       </c>
-      <c r="F77" s="149" t="s">
+      <c r="F77" s="135" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="145">
+      <c r="A78" s="131">
         <v>77</v>
       </c>
-      <c r="B78" s="151" t="s">
+      <c r="B78" s="137" t="s">
         <v>476</v>
       </c>
-      <c r="C78" s="151"/>
-      <c r="D78" s="151"/>
-      <c r="E78" s="149">
+      <c r="C78" s="137"/>
+      <c r="D78" s="137"/>
+      <c r="E78" s="135">
         <v>1000</v>
       </c>
-      <c r="F78" s="149" t="s">
+      <c r="F78" s="135" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="145">
+      <c r="A79" s="131">
         <v>78</v>
       </c>
-      <c r="B79" s="151" t="s">
+      <c r="B79" s="137" t="s">
         <v>632</v>
       </c>
-      <c r="C79" s="149">
+      <c r="C79" s="135">
         <v>1993</v>
       </c>
-      <c r="D79" s="151" t="s">
+      <c r="D79" s="137" t="s">
         <v>435</v>
       </c>
-      <c r="E79" s="149"/>
-      <c r="F79" s="149"/>
+      <c r="E79" s="135"/>
+      <c r="F79" s="135"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="145">
+      <c r="A80" s="131">
         <v>79</v>
       </c>
-      <c r="B80" s="151" t="s">
+      <c r="B80" s="137" t="s">
         <v>1001</v>
       </c>
-      <c r="C80" s="152"/>
-      <c r="D80" s="151" t="s">
+      <c r="C80" s="138"/>
+      <c r="D80" s="137" t="s">
         <v>437</v>
       </c>
-      <c r="E80" s="149">
+      <c r="E80" s="135">
         <v>1000000</v>
       </c>
-      <c r="F80" s="149" t="s">
+      <c r="F80" s="135" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="145">
+      <c r="A81" s="131">
         <v>80</v>
       </c>
-      <c r="B81" s="151" t="s">
+      <c r="B81" s="137" t="s">
         <v>1002</v>
       </c>
-      <c r="C81" s="152"/>
-      <c r="D81" s="151"/>
-      <c r="E81" s="149"/>
-      <c r="F81" s="149"/>
+      <c r="C81" s="138"/>
+      <c r="D81" s="137"/>
+      <c r="E81" s="135"/>
+      <c r="F81" s="135"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="145">
+      <c r="A82" s="131">
         <v>81</v>
       </c>
-      <c r="B82" s="151" t="s">
+      <c r="B82" s="137" t="s">
         <v>1003</v>
       </c>
-      <c r="C82" s="152"/>
-      <c r="D82" s="151"/>
-      <c r="E82" s="149"/>
-      <c r="F82" s="149"/>
+      <c r="C82" s="138"/>
+      <c r="D82" s="137"/>
+      <c r="E82" s="135"/>
+      <c r="F82" s="135"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="145">
+      <c r="A83" s="131">
         <v>82</v>
       </c>
-      <c r="B83" s="151" t="s">
+      <c r="B83" s="137" t="s">
         <v>1195</v>
       </c>
-      <c r="C83" s="152"/>
-      <c r="D83" s="151"/>
-      <c r="E83" s="149"/>
-      <c r="F83" s="149"/>
+      <c r="C83" s="138"/>
+      <c r="D83" s="137"/>
+      <c r="E83" s="135"/>
+      <c r="F83" s="135"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="145">
+      <c r="A84" s="131">
         <v>83</v>
       </c>
-      <c r="B84" s="151" t="s">
+      <c r="B84" s="137" t="s">
         <v>1196</v>
       </c>
-      <c r="C84" s="152"/>
-      <c r="D84" s="151"/>
-      <c r="E84" s="149"/>
-      <c r="F84" s="149"/>
+      <c r="C84" s="138"/>
+      <c r="D84" s="137"/>
+      <c r="E84" s="135"/>
+      <c r="F84" s="135"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="145">
+      <c r="A85" s="131">
         <v>84</v>
       </c>
-      <c r="B85" s="151" t="s">
+      <c r="B85" s="137" t="s">
         <v>1264</v>
       </c>
-      <c r="C85" s="152"/>
-      <c r="D85" s="151" t="s">
+      <c r="C85" s="138"/>
+      <c r="D85" s="137" t="s">
         <v>1265</v>
       </c>
-      <c r="E85" s="149">
+      <c r="E85" s="135">
         <v>1000</v>
       </c>
-      <c r="F85" s="149" t="s">
+      <c r="F85" s="135" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="145">
+      <c r="A86" s="131">
         <v>85</v>
       </c>
-      <c r="B86" s="151" t="s">
+      <c r="B86" s="137" t="s">
         <v>1302</v>
       </c>
-      <c r="C86" s="152"/>
-      <c r="D86" s="151" t="s">
+      <c r="C86" s="138"/>
+      <c r="D86" s="137" t="s">
         <v>1265</v>
       </c>
-      <c r="E86" s="149">
+      <c r="E86" s="135">
         <v>1000000</v>
       </c>
-      <c r="F86" s="149" t="s">
+      <c r="F86" s="135" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="145">
+      <c r="A87" s="131">
         <v>86</v>
       </c>
-      <c r="B87" s="151" t="s">
+      <c r="B87" s="137" t="s">
         <v>1300</v>
       </c>
-      <c r="C87" s="152"/>
-      <c r="D87" s="151"/>
-      <c r="E87" s="149"/>
-      <c r="F87" s="149"/>
+      <c r="C87" s="138"/>
+      <c r="D87" s="137"/>
+      <c r="E87" s="135"/>
+      <c r="F87" s="135"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="145">
+      <c r="A88" s="131">
         <v>87</v>
       </c>
-      <c r="B88" s="151" t="s">
+      <c r="B88" s="137" t="s">
         <v>1301</v>
       </c>
-      <c r="C88" s="152"/>
-      <c r="D88" s="151"/>
-      <c r="E88" s="149"/>
-      <c r="F88" s="149"/>
+      <c r="C88" s="138"/>
+      <c r="D88" s="137"/>
+      <c r="E88" s="135"/>
+      <c r="F88" s="135"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="145">
+      <c r="A89" s="131">
         <v>88</v>
       </c>
-      <c r="B89" s="151" t="s">
+      <c r="B89" s="137" t="s">
         <v>1479</v>
       </c>
-      <c r="C89" s="152"/>
-      <c r="D89" s="151"/>
-      <c r="E89" s="149"/>
-      <c r="F89" s="149"/>
+      <c r="C89" s="138"/>
+      <c r="D89" s="137"/>
+      <c r="E89" s="135"/>
+      <c r="F89" s="135"/>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="145">
+      <c r="A90" s="131">
         <v>89</v>
       </c>
-      <c r="B90" s="151" t="s">
+      <c r="B90" s="137" t="s">
         <v>1480</v>
       </c>
-      <c r="C90" s="152"/>
-      <c r="D90" s="151"/>
-      <c r="E90" s="149"/>
-      <c r="F90" s="149"/>
+      <c r="C90" s="138"/>
+      <c r="D90" s="137"/>
+      <c r="E90" s="135"/>
+      <c r="F90" s="135"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="145">
+      <c r="A91" s="131">
         <v>90</v>
       </c>
-      <c r="B91" s="151" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C91" s="152"/>
-      <c r="D91" s="151"/>
-      <c r="E91" s="149"/>
-      <c r="F91" s="149"/>
+      <c r="B91" s="137" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C91" s="138"/>
+      <c r="D91" s="137"/>
+      <c r="E91" s="135"/>
+      <c r="F91" s="135"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="145">
+      <c r="A92" s="131">
         <v>91</v>
       </c>
-      <c r="B92" s="151" t="s">
+      <c r="B92" s="137" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C92" s="138"/>
+      <c r="D92" s="137"/>
+      <c r="E92" s="135"/>
+      <c r="F92" s="135"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="131">
+        <v>92</v>
+      </c>
+      <c r="B93" s="137" t="s">
         <v>1540</v>
       </c>
-      <c r="C92" s="152"/>
-      <c r="D92" s="151"/>
-      <c r="E92" s="149"/>
-      <c r="F92" s="149"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="145">
-        <v>92</v>
-      </c>
-      <c r="B93" s="151" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C93" s="152"/>
-      <c r="D93" s="151"/>
-      <c r="E93" s="149"/>
-      <c r="F93" s="149"/>
+      <c r="C93" s="138"/>
+      <c r="D93" s="137"/>
+      <c r="E93" s="135"/>
+      <c r="F93" s="135"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="145">
+      <c r="A94" s="131">
         <v>93</v>
       </c>
-      <c r="B94" s="150" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C94" s="149"/>
-      <c r="D94" s="149"/>
-      <c r="E94" s="149">
+      <c r="B94" s="136" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C94" s="135"/>
+      <c r="D94" s="135"/>
+      <c r="E94" s="135">
         <v>1</v>
       </c>
-      <c r="F94" s="149" t="s">
+      <c r="F94" s="135" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="145">
+      <c r="A95" s="131">
         <v>94</v>
       </c>
-      <c r="B95" s="150" t="s">
+      <c r="B95" s="136" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C95" s="135"/>
+      <c r="D95" s="135"/>
+      <c r="E95" s="135"/>
+      <c r="F95" s="135"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="131">
+        <v>95</v>
+      </c>
+      <c r="B96" s="136" t="s">
         <v>1673</v>
       </c>
-      <c r="C95" s="149"/>
-      <c r="D95" s="149"/>
-      <c r="E95" s="149"/>
-      <c r="F95" s="149"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="145">
-        <v>95</v>
-      </c>
-      <c r="B96" s="150" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C96" s="149"/>
-      <c r="D96" s="149"/>
-      <c r="E96" s="149"/>
-      <c r="F96" s="149"/>
+      <c r="C96" s="135"/>
+      <c r="D96" s="135"/>
+      <c r="E96" s="135"/>
+      <c r="F96" s="135"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sspmi/data.xlsx
+++ b/sspmi/data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6006" uniqueCount="1887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6006" uniqueCount="1885">
   <si>
     <t>distribution_identifier</t>
   </si>
@@ -4173,9 +4173,6 @@
     <t>nuclear, eólica, biogás, biomasa, solar, potencia, generación</t>
   </si>
   <si>
-    <t>1996-01-01/2017-11-01</t>
-  </si>
-  <si>
     <t>CAMMESA, MTEySS</t>
   </si>
   <si>
@@ -4869,9 +4866,6 @@
     <t>Indicadores de Industrias Culturales en valores anuales y trimestrales</t>
   </si>
   <si>
-    <t>1996-01-01/2017-04-01</t>
-  </si>
-  <si>
     <t>Indicadores de Industrias Metálicas Básicas en valores anuales, mensuales  y trimestrales</t>
   </si>
   <si>
@@ -5493,12 +5487,6 @@
     <t>Puestos de trabajo totales de la rama 34 Automotores registrados en el sector privado</t>
   </si>
   <si>
-    <t>1992-01-01/2017-12-31</t>
-  </si>
-  <si>
-    <t>2018-02-01</t>
-  </si>
-  <si>
     <t>Capturas: crustáceos</t>
   </si>
   <si>
@@ -5682,12 +5670,6 @@
     <t>Indicadores de Ovinos - Lana y Carne en valores anuales, trimestrales y mensuales</t>
   </si>
   <si>
-    <t>2018-02-15</t>
-  </si>
-  <si>
-    <t>2018-02-19</t>
-  </si>
-  <si>
     <t>1996-01-01/2017-07-01</t>
   </si>
   <si>
@@ -5695,6 +5677,18 @@
   </si>
   <si>
     <t>1995-12-31/2018-01-01</t>
+  </si>
+  <si>
+    <t>2018-02-20</t>
+  </si>
+  <si>
+    <t>1996-01-01/2018-01-01</t>
+  </si>
+  <si>
+    <t>2018-02-23</t>
+  </si>
+  <si>
+    <t>1992-01-01/2018-02-01</t>
   </si>
 </sst>
 </file>
@@ -9667,7 +9661,7 @@
     </row>
     <row r="2" spans="1:27" ht="72" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>342</v>
@@ -12614,10 +12608,10 @@
         <v>30</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="N2" s="43" t="s">
         <v>31</v>
@@ -12626,7 +12620,7 @@
         <v>32</v>
       </c>
       <c r="P2" s="43" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="Q2" s="45" t="s">
         <v>36</v>
@@ -12665,7 +12659,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>458</v>
@@ -12674,10 +12668,10 @@
         <v>30</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>31</v>
@@ -12686,7 +12680,7 @@
         <v>32</v>
       </c>
       <c r="P3" s="43" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="Q3" s="45" t="s">
         <v>36</v>
@@ -12734,10 +12728,10 @@
         <v>30</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="N4" s="26" t="s">
         <v>31</v>
@@ -12746,7 +12740,7 @@
         <v>32</v>
       </c>
       <c r="P4" s="26" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="Q4" s="29" t="s">
         <v>36</v>
@@ -12794,10 +12788,10 @@
         <v>30</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="N5" s="26" t="s">
         <v>31</v>
@@ -12806,7 +12800,7 @@
         <v>32</v>
       </c>
       <c r="P5" s="26" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="Q5" s="29" t="s">
         <v>36</v>
@@ -12854,10 +12848,10 @@
         <v>30</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="N6" s="26" t="s">
         <v>31</v>
@@ -12866,7 +12860,7 @@
         <v>32</v>
       </c>
       <c r="P6" s="26" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="Q6" s="29" t="s">
         <v>36</v>
@@ -12914,10 +12908,10 @@
         <v>30</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="N7" s="26" t="s">
         <v>31</v>
@@ -12926,7 +12920,7 @@
         <v>32</v>
       </c>
       <c r="P7" s="26" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="Q7" s="29" t="s">
         <v>36</v>
@@ -12974,10 +12968,10 @@
         <v>30</v>
       </c>
       <c r="L8" s="17" t="s">
+        <v>1788</v>
+      </c>
+      <c r="M8" s="17" t="s">
         <v>1790</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>1792</v>
       </c>
       <c r="N8" s="26" t="s">
         <v>31</v>
@@ -12986,7 +12980,7 @@
         <v>32</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="Q8" s="29" t="s">
         <v>36</v>
@@ -13034,10 +13028,10 @@
         <v>30</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="N9" s="26" t="s">
         <v>31</v>
@@ -13085,7 +13079,7 @@
         <v>29</v>
       </c>
       <c r="I10" s="46" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>464</v>
@@ -13094,10 +13088,10 @@
         <v>30</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="N10" s="26" t="s">
         <v>31</v>
@@ -13106,14 +13100,14 @@
         <v>32</v>
       </c>
       <c r="P10" s="26" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="Q10" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R10" s="17"/>
       <c r="S10" s="26" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="T10" s="26" t="s">
         <v>33</v>
@@ -13154,10 +13148,10 @@
         <v>30</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="N11" s="26" t="s">
         <v>31</v>
@@ -13214,10 +13208,10 @@
         <v>30</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="N12" s="26" t="s">
         <v>31</v>
@@ -13233,7 +13227,7 @@
       </c>
       <c r="R12" s="17"/>
       <c r="S12" s="17" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="T12" s="26" t="s">
         <v>33</v>
@@ -13274,10 +13268,10 @@
         <v>30</v>
       </c>
       <c r="L13" s="17" t="s">
+        <v>1788</v>
+      </c>
+      <c r="M13" s="17" t="s">
         <v>1790</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>1792</v>
       </c>
       <c r="N13" s="26" t="s">
         <v>31</v>
@@ -13286,7 +13280,7 @@
         <v>32</v>
       </c>
       <c r="P13" s="26" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="Q13" s="29" t="s">
         <v>36</v>
@@ -13334,10 +13328,10 @@
         <v>30</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="N14" s="26" t="s">
         <v>31</v>
@@ -13346,14 +13340,14 @@
         <v>32</v>
       </c>
       <c r="P14" s="26" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="Q14" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R14" s="17"/>
       <c r="S14" s="26" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="T14" s="26" t="s">
         <v>33</v>
@@ -13394,10 +13388,10 @@
         <v>30</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="N15" s="26" t="s">
         <v>31</v>
@@ -13406,7 +13400,7 @@
         <v>32</v>
       </c>
       <c r="P15" s="26" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="Q15" s="29" t="s">
         <v>36</v>
@@ -13454,10 +13448,10 @@
         <v>30</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="N16" s="26" t="s">
         <v>31</v>
@@ -13514,10 +13508,10 @@
         <v>30</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="N17" s="26" t="s">
         <v>31</v>
@@ -13526,7 +13520,7 @@
         <v>32</v>
       </c>
       <c r="P17" s="26" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="Q17" s="29" t="s">
         <v>36</v>
@@ -13574,10 +13568,10 @@
         <v>30</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>1792</v>
+        <v>1883</v>
       </c>
       <c r="N18" s="26" t="s">
         <v>31</v>
@@ -13586,7 +13580,7 @@
         <v>32</v>
       </c>
       <c r="P18" s="26" t="s">
-        <v>1611</v>
+        <v>1201</v>
       </c>
       <c r="Q18" s="29" t="s">
         <v>36</v>
@@ -13634,10 +13628,10 @@
         <v>30</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>1820</v>
+        <v>1883</v>
       </c>
       <c r="N19" s="26" t="s">
         <v>31</v>
@@ -13646,7 +13640,7 @@
         <v>32</v>
       </c>
       <c r="P19" s="26" t="s">
-        <v>1819</v>
+        <v>1884</v>
       </c>
       <c r="Q19" s="29" t="s">
         <v>36</v>
@@ -13694,10 +13688,10 @@
         <v>30</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="N20" s="26" t="s">
         <v>31</v>
@@ -13754,10 +13748,10 @@
         <v>30</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="N21" s="26" t="s">
         <v>31</v>
@@ -13766,7 +13760,7 @@
         <v>32</v>
       </c>
       <c r="P21" s="26" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="Q21" s="29" t="s">
         <v>36</v>
@@ -13814,10 +13808,10 @@
         <v>30</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="N22" s="26" t="s">
         <v>31</v>
@@ -13826,7 +13820,7 @@
         <v>32</v>
       </c>
       <c r="P22" s="26" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="Q22" s="29" t="s">
         <v>36</v>
@@ -13874,10 +13868,10 @@
         <v>30</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>1792</v>
+        <v>1883</v>
       </c>
       <c r="N23" s="26" t="s">
         <v>31</v>
@@ -13886,7 +13880,7 @@
         <v>32</v>
       </c>
       <c r="P23" s="26" t="s">
-        <v>1379</v>
+        <v>1882</v>
       </c>
       <c r="Q23" s="29" t="s">
         <v>36</v>
@@ -13934,10 +13928,10 @@
         <v>30</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="N24" s="26" t="s">
         <v>31</v>
@@ -13994,10 +13988,10 @@
         <v>30</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="M25" s="17" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="N25" s="26" t="s">
         <v>31</v>
@@ -14006,7 +14000,7 @@
         <v>32</v>
       </c>
       <c r="P25" s="26" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="Q25" s="29" t="s">
         <v>36</v>
@@ -14054,10 +14048,10 @@
         <v>30</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="M26" s="17" t="s">
-        <v>1792</v>
+        <v>1883</v>
       </c>
       <c r="N26" s="26" t="s">
         <v>31</v>
@@ -14066,7 +14060,7 @@
         <v>32</v>
       </c>
       <c r="P26" s="26" t="s">
-        <v>1379</v>
+        <v>1201</v>
       </c>
       <c r="Q26" s="29" t="s">
         <v>36</v>
@@ -14114,10 +14108,10 @@
         <v>30</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="N27" s="26" t="s">
         <v>31</v>
@@ -14174,10 +14168,10 @@
         <v>30</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="N28" s="26" t="s">
         <v>31</v>
@@ -14234,10 +14228,10 @@
         <v>30</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="M29" s="17" t="s">
-        <v>1792</v>
+        <v>1883</v>
       </c>
       <c r="N29" s="26" t="s">
         <v>31</v>
@@ -14246,14 +14240,14 @@
         <v>32</v>
       </c>
       <c r="P29" s="26" t="s">
-        <v>1201</v>
+        <v>1882</v>
       </c>
       <c r="Q29" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R29" s="17"/>
       <c r="S29" s="17" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="T29" s="26" t="s">
         <v>33</v>
@@ -14261,13 +14255,13 @@
     </row>
     <row r="30" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>1424</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>1425</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>1426</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>34</v>
@@ -14288,16 +14282,16 @@
         <v>101</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="K30" s="26" t="s">
         <v>30</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="N30" s="26" t="s">
         <v>31</v>
@@ -14306,7 +14300,7 @@
         <v>32</v>
       </c>
       <c r="P30" s="26" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="Q30" s="29" t="s">
         <v>36</v>
@@ -14321,13 +14315,13 @@
     </row>
     <row r="31" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>1452</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>1453</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>1454</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>34</v>
@@ -14348,16 +14342,16 @@
         <v>101</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="K31" s="26" t="s">
         <v>30</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="N31" s="26" t="s">
         <v>31</v>
@@ -14366,14 +14360,14 @@
         <v>32</v>
       </c>
       <c r="P31" s="26" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="Q31" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R31" s="17"/>
       <c r="S31" s="17" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="T31" s="26" t="s">
         <v>33</v>
@@ -14381,13 +14375,13 @@
     </row>
     <row r="32" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>1474</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>1475</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>1476</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>34</v>
@@ -14408,16 +14402,16 @@
         <v>101</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="K32" s="26" t="s">
         <v>30</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="N32" s="26" t="s">
         <v>31</v>
@@ -14426,14 +14420,14 @@
         <v>32</v>
       </c>
       <c r="P32" s="26" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="Q32" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R32" s="17"/>
       <c r="S32" s="17" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="T32" s="26" t="s">
         <v>33</v>
@@ -14441,13 +14435,13 @@
     </row>
     <row r="33" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>1506</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>1507</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>1508</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>34</v>
@@ -14468,16 +14462,16 @@
         <v>101</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="K33" s="26" t="s">
         <v>30</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="N33" s="26" t="s">
         <v>31</v>
@@ -14486,14 +14480,14 @@
         <v>32</v>
       </c>
       <c r="P33" s="26" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="Q33" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R33" s="17"/>
       <c r="S33" s="17" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="T33" s="26" t="s">
         <v>33</v>
@@ -14501,13 +14495,13 @@
     </row>
     <row r="34" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>1546</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>1547</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>1548</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>34</v>
@@ -14525,19 +14519,19 @@
         <v>29</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="K34" s="26" t="s">
         <v>30</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="N34" s="26" t="s">
         <v>31</v>
@@ -14546,14 +14540,14 @@
         <v>32</v>
       </c>
       <c r="P34" s="26" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q34" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R34" s="17"/>
       <c r="S34" s="17" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="T34" s="26" t="s">
         <v>33</v>
@@ -14561,13 +14555,13 @@
     </row>
     <row r="35" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>1614</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>1616</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>34</v>
@@ -14585,19 +14579,19 @@
         <v>29</v>
       </c>
       <c r="I35" s="27" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="K35" s="26" t="s">
         <v>30</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="N35" s="26" t="s">
         <v>31</v>
@@ -14606,14 +14600,14 @@
         <v>32</v>
       </c>
       <c r="P35" s="26" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="Q35" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R35" s="17"/>
       <c r="S35" s="17" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="T35" s="26" t="s">
         <v>33</v>
@@ -14959,7 +14953,7 @@
       </c>
       <c r="M7" s="139" t="str">
         <f>+VLOOKUP(A7,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-19</v>
+        <v>2018-02-20</v>
       </c>
       <c r="N7" s="17"/>
     </row>
@@ -14975,7 +14969,7 @@
         <v>785</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>786</v>
@@ -15076,7 +15070,7 @@
       </c>
       <c r="M10" s="139" t="str">
         <f>+VLOOKUP(A10,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-15</v>
+        <v>2018-02-20</v>
       </c>
       <c r="N10" s="17"/>
     </row>
@@ -15131,7 +15125,7 @@
         <v>614</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>707</v>
@@ -15170,7 +15164,7 @@
         <v>774</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>775</v>
@@ -15232,7 +15226,7 @@
       </c>
       <c r="M14" s="139" t="str">
         <f>+VLOOKUP(A14,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-15</v>
+        <v>2018-02-20</v>
       </c>
       <c r="N14" s="17"/>
     </row>
@@ -15271,7 +15265,7 @@
       </c>
       <c r="M15" s="139" t="str">
         <f>+VLOOKUP(A15,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-19</v>
+        <v>2018-02-20</v>
       </c>
       <c r="N15" s="17"/>
     </row>
@@ -15349,7 +15343,7 @@
       </c>
       <c r="M17" s="139" t="str">
         <f>+VLOOKUP(A17,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-19</v>
+        <v>2018-02-20</v>
       </c>
       <c r="N17" s="17"/>
     </row>
@@ -15365,7 +15359,7 @@
         <v>293</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>599</v>
@@ -15388,7 +15382,7 @@
       </c>
       <c r="M18" s="139" t="str">
         <f>+VLOOKUP(A18,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-01-31</v>
+        <v>2018-02-23</v>
       </c>
       <c r="N18" s="9"/>
     </row>
@@ -15465,7 +15459,7 @@
       </c>
       <c r="M20" s="139" t="str">
         <f>+VLOOKUP(A20,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-15</v>
+        <v>2018-02-20</v>
       </c>
       <c r="N20" s="17"/>
     </row>
@@ -15543,7 +15537,7 @@
       </c>
       <c r="M22" s="139" t="str">
         <f>+VLOOKUP(A22,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-19</v>
+        <v>2018-02-20</v>
       </c>
       <c r="N22" s="17"/>
     </row>
@@ -15582,7 +15576,7 @@
       </c>
       <c r="M23" s="139" t="str">
         <f>+VLOOKUP(A23,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-01-31</v>
+        <v>2018-02-23</v>
       </c>
       <c r="N23" s="17"/>
     </row>
@@ -15637,7 +15631,7 @@
         <v>1097</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>1098</v>
@@ -15699,7 +15693,7 @@
       </c>
       <c r="M26" s="139" t="str">
         <f>+VLOOKUP(A26,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-01-31</v>
+        <v>2018-02-23</v>
       </c>
       <c r="N26" s="17"/>
     </row>
@@ -15790,16 +15784,16 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C29" s="23" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>1381</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="E29" s="17" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F29" s="24" t="s">
         <v>1382</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>1382</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>1383</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>47</v>
@@ -15816,29 +15810,29 @@
       </c>
       <c r="M29" s="139" t="str">
         <f>+VLOOKUP(A29,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-01-31</v>
+        <v>2018-02-23</v>
       </c>
       <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B30" s="11" t="str">
         <f>+VLOOKUP(A30,dataset!A30:B47,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>1429</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="F30" s="24" t="s">
         <v>1430</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>1431</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>47</v>
@@ -15855,29 +15849,29 @@
       </c>
       <c r="M30" s="139" t="str">
         <f>+VLOOKUP(A30,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-15</v>
+        <v>2018-02-20</v>
       </c>
       <c r="N30" s="17"/>
     </row>
     <row r="31" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B31" s="11" t="str">
         <f>+VLOOKUP(A31,dataset!A31:B48,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C31" s="17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>1456</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="E31" s="17" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>1457</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>1458</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>47</v>
@@ -15894,29 +15888,29 @@
       </c>
       <c r="M31" s="139" t="str">
         <f>+VLOOKUP(A31,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-15</v>
+        <v>2018-02-20</v>
       </c>
       <c r="N31" s="17"/>
     </row>
     <row r="32" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B32" s="11" t="str">
         <f>+VLOOKUP(A32,dataset!A32:B49,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C32" s="17" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>1479</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>1480</v>
-      </c>
       <c r="E32" s="17" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>47</v>
@@ -15933,29 +15927,29 @@
       </c>
       <c r="M32" s="139" t="str">
         <f>+VLOOKUP(A32,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-19</v>
+        <v>2018-02-20</v>
       </c>
       <c r="N32" s="17"/>
     </row>
     <row r="33" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B33" s="11" t="str">
         <f>+VLOOKUP(A33,dataset!A33:B50,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C33" s="17" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>1511</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="E33" s="17" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F33" s="24" t="s">
         <v>1512</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>1512</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>1513</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>47</v>
@@ -15978,23 +15972,23 @@
     </row>
     <row r="34" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B34" s="11" t="str">
         <f>+VLOOKUP(A34,dataset!A34:B51,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C34" s="17" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>1551</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="E34" s="17" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F34" s="24" t="s">
         <v>1552</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>1552</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>1553</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>47</v>
@@ -16017,23 +16011,23 @@
     </row>
     <row r="35" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B35" s="11" t="str">
         <f>+VLOOKUP(A35,dataset!A35:B52,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C35" s="17" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F35" s="24" t="s">
         <v>1618</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>1619</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>1620</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>47</v>
@@ -16853,7 +16847,7 @@
         <v>674</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -16881,7 +16875,7 @@
         <v>675</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -17012,7 +17006,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>378</v>
@@ -17120,7 +17114,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>389</v>
@@ -17260,7 +17254,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H42" s="31" t="s">
         <v>381</v>
@@ -17310,13 +17304,13 @@
         <v>Indicadores de azúcar en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F44" s="19" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="57" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H44" s="31" t="s">
         <v>379</v>
@@ -17338,13 +17332,13 @@
         <v>Indicadores de azúcar en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E45" s="23" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="31" t="s">
         <v>1412</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>1413</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>376</v>
@@ -17478,7 +17472,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="51" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="H50" s="51" t="s">
         <v>378</v>
@@ -17506,7 +17500,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="51" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="H51" s="51" t="s">
         <v>378</v>
@@ -17534,7 +17528,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="51" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="H52" s="51" t="s">
         <v>378</v>
@@ -17614,7 +17608,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="H55" s="31" t="s">
         <v>371</v>
@@ -17642,7 +17636,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="H56" s="31" t="s">
         <v>371</v>
@@ -17670,7 +17664,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="H57" s="9" t="s">
         <v>371</v>
@@ -17698,7 +17692,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>371</v>
@@ -17726,7 +17720,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>371</v>
@@ -17754,7 +17748,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>371</v>
@@ -17782,7 +17776,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>371</v>
@@ -17810,7 +17804,7 @@
         <v>10</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>371</v>
@@ -18778,14 +18772,14 @@
     </row>
     <row r="98" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A98" s="32" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B98" s="31" t="str">
         <f>+VLOOKUP(A98,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D98" s="23" t="str">
         <f>+VLOOKUP(C98,distribution!C$2:D$40,2,FALSE)</f>
@@ -18804,14 +18798,14 @@
     </row>
     <row r="99" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A99" s="32" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B99" s="31" t="str">
         <f>+VLOOKUP(A99,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D99" s="23" t="str">
         <f>+VLOOKUP(C99,distribution!C$2:D$40,2,FALSE)</f>
@@ -18830,14 +18824,14 @@
     </row>
     <row r="100" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A100" s="32" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B100" s="31" t="str">
         <f>+VLOOKUP(A100,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D100" s="23" t="str">
         <f>+VLOOKUP(C100,distribution!C$2:D$40,2,FALSE)</f>
@@ -18856,14 +18850,14 @@
     </row>
     <row r="101" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A101" s="32" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B101" s="31" t="str">
         <f>+VLOOKUP(A101,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D101" s="23" t="str">
         <f>+VLOOKUP(C101,distribution!C$2:D$40,2,FALSE)</f>
@@ -18882,14 +18876,14 @@
     </row>
     <row r="102" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A102" s="32" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B102" s="31" t="str">
         <f>+VLOOKUP(A102,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D102" s="23" t="str">
         <f>+VLOOKUP(C102,distribution!C$2:D$40,2,FALSE)</f>
@@ -18908,27 +18902,27 @@
     </row>
     <row r="103" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A103" s="32" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B103" s="31" t="str">
         <f>+VLOOKUP(A103,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D103" s="23" t="str">
         <f>+VLOOKUP(C103,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F103" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="31" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H103" s="30" t="s">
         <v>363</v>
@@ -18936,27 +18930,27 @@
     </row>
     <row r="104" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A104" s="32" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B104" s="31" t="str">
         <f>+VLOOKUP(A104,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D104" s="23" t="str">
         <f>+VLOOKUP(C104,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F104" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="31" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H104" s="30" t="s">
         <v>363</v>
@@ -18964,27 +18958,27 @@
     </row>
     <row r="105" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A105" s="32" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B105" s="31" t="str">
         <f>+VLOOKUP(A105,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D105" s="23" t="str">
         <f>+VLOOKUP(C105,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="F105" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="31" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H105" s="30" t="s">
         <v>363</v>
@@ -18992,27 +18986,27 @@
     </row>
     <row r="106" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A106" s="32" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B106" s="31" t="str">
         <f>+VLOOKUP(A106,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D106" s="23" t="str">
         <f>+VLOOKUP(C106,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="F106" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="31" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H106" s="30" t="s">
         <v>363</v>
@@ -19020,27 +19014,27 @@
     </row>
     <row r="107" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A107" s="32" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B107" s="31" t="str">
         <f>+VLOOKUP(A107,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D107" s="23" t="str">
         <f>+VLOOKUP(C107,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="F107" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="31" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H107" s="30" t="s">
         <v>370</v>
@@ -19048,27 +19042,27 @@
     </row>
     <row r="108" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A108" s="32" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B108" s="31" t="str">
         <f>+VLOOKUP(A108,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D108" s="23" t="str">
         <f>+VLOOKUP(C108,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="F108" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="31" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H108" s="30" t="s">
         <v>370</v>
@@ -19076,27 +19070,27 @@
     </row>
     <row r="109" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A109" s="32" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B109" s="31" t="str">
         <f>+VLOOKUP(A109,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D109" s="23" t="str">
         <f>+VLOOKUP(C109,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E109" s="23" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="F109" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="31" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H109" s="30" t="s">
         <v>370</v>
@@ -19104,27 +19098,27 @@
     </row>
     <row r="110" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A110" s="32" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B110" s="31" t="str">
         <f>+VLOOKUP(A110,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D110" s="23" t="str">
         <f>+VLOOKUP(C110,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E110" s="23" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="F110" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="31" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H110" s="30" t="s">
         <v>370</v>
@@ -19132,27 +19126,27 @@
     </row>
     <row r="111" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A111" s="32" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B111" s="31" t="str">
         <f>+VLOOKUP(A111,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D111" s="23" t="str">
         <f>+VLOOKUP(C111,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="F111" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="31" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H111" s="30" t="s">
         <v>370</v>
@@ -19160,27 +19154,27 @@
     </row>
     <row r="112" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A112" s="32" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B112" s="31" t="str">
         <f>+VLOOKUP(A112,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D112" s="23" t="str">
         <f>+VLOOKUP(C112,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="F112" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="31" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H112" s="30" t="s">
         <v>370</v>
@@ -19188,27 +19182,27 @@
     </row>
     <row r="113" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A113" s="32" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B113" s="31" t="str">
         <f>+VLOOKUP(A113,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D113" s="23" t="str">
         <f>+VLOOKUP(C113,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F113" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="31" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H113" s="30" t="s">
         <v>380</v>
@@ -19216,27 +19210,27 @@
     </row>
     <row r="114" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A114" s="32" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B114" s="31" t="str">
         <f>+VLOOKUP(A114,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D114" s="23" t="str">
         <f>+VLOOKUP(C114,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E114" s="23" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F114" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="31" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H114" s="30" t="s">
         <v>380</v>
@@ -22218,16 +22212,16 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E223" s="23" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="F223" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="31" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="H223" s="31" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -22246,13 +22240,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E224" s="23" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="F224" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="31" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="H224" s="31" t="s">
         <v>363</v>
@@ -22274,13 +22268,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E225" s="23" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="F225" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="31" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="H225" s="31" t="s">
         <v>384</v>
@@ -22302,13 +22296,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E226" s="23" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="F226" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="31" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="H226" s="31" t="s">
         <v>384</v>
@@ -22330,13 +22324,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E227" s="23" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="F227" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="31" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="H227" s="31" t="s">
         <v>384</v>
@@ -22358,13 +22352,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E228" s="23" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="F228" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="31" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="H228" s="31" t="s">
         <v>384</v>
@@ -22392,7 +22386,7 @@
         <v>10</v>
       </c>
       <c r="G229" s="31" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="H229" s="31" t="s">
         <v>383</v>
@@ -22420,7 +22414,7 @@
         <v>10</v>
       </c>
       <c r="G230" s="31" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="H230" s="31" t="s">
         <v>383</v>
@@ -22448,7 +22442,7 @@
         <v>10</v>
       </c>
       <c r="G231" s="31" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="H231" s="31" t="s">
         <v>383</v>
@@ -22476,7 +22470,7 @@
         <v>10</v>
       </c>
       <c r="G232" s="31" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="H232" s="31" t="s">
         <v>370</v>
@@ -22526,13 +22520,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E234" s="23" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="F234" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="31" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H234" s="31" t="s">
         <v>383</v>
@@ -22554,13 +22548,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E235" s="23" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="F235" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="31" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="H235" s="31" t="s">
         <v>383</v>
@@ -22582,13 +22576,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E236" s="23" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="F236" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="31" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="H236" s="31" t="s">
         <v>383</v>
@@ -22610,13 +22604,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E237" s="23" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="F237" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="31" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="H237" s="31" t="s">
         <v>383</v>
@@ -22638,13 +22632,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E238" s="23" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="F238" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="31" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="H238" s="31" t="s">
         <v>383</v>
@@ -22666,16 +22660,16 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E239" s="23" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="F239" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="31" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="H239" s="31" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -22694,13 +22688,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E240" s="23" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="F240" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="31" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="H240" s="31" t="s">
         <v>388</v>
@@ -22722,13 +22716,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E241" s="23" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="F241" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="31" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="H241" s="31" t="s">
         <v>388</v>
@@ -22750,13 +22744,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E242" s="23" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="F242" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="31" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="H242" s="31" t="s">
         <v>388</v>
@@ -22806,13 +22800,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E244" s="23" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="F244" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="31" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
       <c r="H244" s="31" t="s">
         <v>370</v>
@@ -22834,16 +22828,16 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E245" s="23" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
       <c r="F245" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="31" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="H245" s="31" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
@@ -26378,13 +26372,13 @@
         <v>Indicadores de Yerba Mate en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E373" s="17" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F373" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G373" s="9" t="s">
         <v>1419</v>
-      </c>
-      <c r="F373" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G373" s="9" t="s">
-        <v>1420</v>
       </c>
       <c r="H373" s="19" t="s">
         <v>363</v>
@@ -26406,13 +26400,13 @@
         <v>Indicadores de Yerba Mate en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E374" s="17" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F374" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G374" s="9" t="s">
         <v>1421</v>
-      </c>
-      <c r="F374" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G374" s="9" t="s">
-        <v>1422</v>
       </c>
       <c r="H374" s="19" t="s">
         <v>363</v>
@@ -27548,14 +27542,14 @@
     </row>
     <row r="416" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A416" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B416" s="9" t="str">
         <f>+VLOOKUP(A416,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C416" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D416" s="17" t="str">
         <f>+VLOOKUP(C416,distribution!C$2:D$40,2,FALSE)</f>
@@ -27574,14 +27568,14 @@
     </row>
     <row r="417" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A417" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B417" s="9" t="str">
         <f>+VLOOKUP(A417,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C417" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D417" s="17" t="str">
         <f>+VLOOKUP(C417,distribution!C$2:D$40,2,FALSE)</f>
@@ -27600,14 +27594,14 @@
     </row>
     <row r="418" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A418" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B418" s="9" t="str">
         <f>+VLOOKUP(A418,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C418" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D418" s="17" t="str">
         <f>+VLOOKUP(C418,distribution!C$2:D$40,2,FALSE)</f>
@@ -27626,14 +27620,14 @@
     </row>
     <row r="419" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A419" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B419" s="9" t="str">
         <f>+VLOOKUP(A419,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C419" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D419" s="17" t="str">
         <f>+VLOOKUP(C419,distribution!C$2:D$40,2,FALSE)</f>
@@ -27652,14 +27646,14 @@
     </row>
     <row r="420" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A420" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B420" s="9" t="str">
         <f>+VLOOKUP(A420,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C420" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D420" s="17" t="str">
         <f>+VLOOKUP(C420,distribution!C$2:D$40,2,FALSE)</f>
@@ -27678,27 +27672,27 @@
     </row>
     <row r="421" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A421" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B421" s="9" t="str">
         <f>+VLOOKUP(A421,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C421" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D421" s="17" t="str">
         <f>+VLOOKUP(C421,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E421" s="17" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F421" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G421" s="9" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H421" s="9" t="s">
         <v>363</v>
@@ -27706,27 +27700,27 @@
     </row>
     <row r="422" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A422" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B422" s="9" t="str">
         <f>+VLOOKUP(A422,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C422" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D422" s="17" t="str">
         <f>+VLOOKUP(C422,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E422" s="17" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F422" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G422" s="9" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H422" s="9" t="s">
         <v>363</v>
@@ -27734,27 +27728,27 @@
     </row>
     <row r="423" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A423" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B423" s="9" t="str">
         <f>+VLOOKUP(A423,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C423" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D423" s="17" t="str">
         <f>+VLOOKUP(C423,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E423" s="17" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F423" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G423" s="9" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H423" s="9" t="s">
         <v>363</v>
@@ -27762,27 +27756,27 @@
     </row>
     <row r="424" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A424" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B424" s="9" t="str">
         <f>+VLOOKUP(A424,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C424" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D424" s="17" t="str">
         <f>+VLOOKUP(C424,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E424" s="17" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F424" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G424" s="9" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H424" s="9" t="s">
         <v>363</v>
@@ -27790,27 +27784,27 @@
     </row>
     <row r="425" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A425" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B425" s="9" t="str">
         <f>+VLOOKUP(A425,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C425" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D425" s="17" t="str">
         <f>+VLOOKUP(C425,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E425" s="17" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="F425" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G425" s="9" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H425" s="9" t="s">
         <v>363</v>
@@ -27818,27 +27812,27 @@
     </row>
     <row r="426" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A426" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B426" s="9" t="str">
         <f>+VLOOKUP(A426,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C426" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D426" s="17" t="str">
         <f>+VLOOKUP(C426,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E426" s="17" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="F426" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G426" s="9" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H426" s="9" t="s">
         <v>363</v>
@@ -27846,27 +27840,27 @@
     </row>
     <row r="427" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A427" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B427" s="9" t="str">
         <f>+VLOOKUP(A427,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C427" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D427" s="17" t="str">
         <f>+VLOOKUP(C427,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E427" s="17" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="F427" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G427" s="9" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H427" s="9" t="s">
         <v>363</v>
@@ -27874,27 +27868,27 @@
     </row>
     <row r="428" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A428" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B428" s="9" t="str">
         <f>+VLOOKUP(A428,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C428" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D428" s="17" t="str">
         <f>+VLOOKUP(C428,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E428" s="17" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="F428" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G428" s="9" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H428" s="9" t="s">
         <v>363</v>
@@ -27902,27 +27896,27 @@
     </row>
     <row r="429" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A429" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B429" s="9" t="str">
         <f>+VLOOKUP(A429,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C429" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D429" s="17" t="str">
         <f>+VLOOKUP(C429,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E429" s="17" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="F429" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G429" s="9" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H429" s="9" t="s">
         <v>370</v>
@@ -27930,27 +27924,27 @@
     </row>
     <row r="430" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A430" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B430" s="9" t="str">
         <f>+VLOOKUP(A430,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C430" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D430" s="17" t="str">
         <f>+VLOOKUP(C430,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E430" s="17" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="F430" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G430" s="9" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H430" s="9" t="s">
         <v>370</v>
@@ -27958,27 +27952,27 @@
     </row>
     <row r="431" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A431" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B431" s="9" t="str">
         <f>+VLOOKUP(A431,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C431" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D431" s="17" t="str">
         <f>+VLOOKUP(C431,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E431" s="17" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="F431" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G431" s="9" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H431" s="9" t="s">
         <v>370</v>
@@ -27986,27 +27980,27 @@
     </row>
     <row r="432" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A432" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B432" s="9" t="str">
         <f>+VLOOKUP(A432,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C432" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D432" s="17" t="str">
         <f>+VLOOKUP(C432,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E432" s="17" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="F432" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G432" s="9" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H432" s="9" t="s">
         <v>370</v>
@@ -28014,27 +28008,27 @@
     </row>
     <row r="433" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A433" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B433" s="9" t="str">
         <f>+VLOOKUP(A433,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C433" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D433" s="17" t="str">
         <f>+VLOOKUP(C433,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E433" s="17" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="F433" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G433" s="9" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H433" s="9" t="s">
         <v>380</v>
@@ -28042,27 +28036,27 @@
     </row>
     <row r="434" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A434" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B434" s="9" t="str">
         <f>+VLOOKUP(A434,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C434" s="17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D434" s="17" t="str">
         <f>+VLOOKUP(C434,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E434" s="17" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="F434" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G434" s="9" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H434" s="9" t="s">
         <v>380</v>
@@ -29398,7 +29392,7 @@
         <v>Indicadores de Manzana y Pera en valores anuales y mensuales</v>
       </c>
       <c r="E483" s="17" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F483" s="20" t="s">
         <v>10</v>
@@ -29426,7 +29420,7 @@
         <v>Indicadores de Manzana y Pera en valores anuales y mensuales</v>
       </c>
       <c r="E484" s="17" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="F484" s="20" t="s">
         <v>10</v>
@@ -29857,7 +29851,7 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C500" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D500" s="17" t="str">
         <f>+VLOOKUP(C500,distribution!C$2:D$40,2,FALSE)</f>
@@ -29883,7 +29877,7 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C501" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D501" s="17" t="str">
         <f>+VLOOKUP(C501,distribution!C$2:D$40,2,FALSE)</f>
@@ -29909,7 +29903,7 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C502" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D502" s="17" t="str">
         <f>+VLOOKUP(C502,distribution!C$2:D$40,2,FALSE)</f>
@@ -29935,7 +29929,7 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C503" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D503" s="17" t="str">
         <f>+VLOOKUP(C503,distribution!C$2:D$40,2,FALSE)</f>
@@ -29961,7 +29955,7 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C504" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D504" s="17" t="str">
         <f>+VLOOKUP(C504,distribution!C$2:D$40,2,FALSE)</f>
@@ -29987,23 +29981,23 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C505" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D505" s="17" t="str">
         <f>+VLOOKUP(C505,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E505" s="17" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F505" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G505" s="9" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H505" s="19" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="506" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -30015,23 +30009,23 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C506" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D506" s="17" t="str">
         <f>+VLOOKUP(C506,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E506" s="17" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F506" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G506" s="9" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H506" s="19" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="507" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -30043,23 +30037,23 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C507" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D507" s="17" t="str">
         <f>+VLOOKUP(C507,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E507" s="17" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F507" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G507" s="9" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H507" s="19" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="508" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -30071,23 +30065,23 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C508" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D508" s="17" t="str">
         <f>+VLOOKUP(C508,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E508" s="17" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F508" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G508" s="9" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H508" s="19" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="509" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -30099,23 +30093,23 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C509" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D509" s="17" t="str">
         <f>+VLOOKUP(C509,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E509" s="17" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F509" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G509" s="9" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H509" s="19" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="510" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -30127,23 +30121,23 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C510" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D510" s="17" t="str">
         <f>+VLOOKUP(C510,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E510" s="17" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F510" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G510" s="9" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H510" s="19" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="511" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -30155,23 +30149,23 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C511" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D511" s="17" t="str">
         <f>+VLOOKUP(C511,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E511" s="17" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F511" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G511" s="9" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H511" s="19" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="512" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -30183,23 +30177,23 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C512" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D512" s="17" t="str">
         <f>+VLOOKUP(C512,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E512" s="17" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F512" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G512" s="9" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H512" s="19" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="513" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -30211,23 +30205,23 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C513" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D513" s="17" t="str">
         <f>+VLOOKUP(C513,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E513" s="17" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F513" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G513" s="9" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H513" s="19" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="514" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -30239,23 +30233,23 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C514" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D514" s="17" t="str">
         <f>+VLOOKUP(C514,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E514" s="17" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F514" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G514" s="9" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H514" s="19" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="515" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -30267,23 +30261,23 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C515" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D515" s="17" t="str">
         <f>+VLOOKUP(C515,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E515" s="17" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F515" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G515" s="9" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H515" s="19" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="516" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -30295,20 +30289,20 @@
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C516" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D516" s="17" t="str">
         <f>+VLOOKUP(C516,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E516" s="17" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F516" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G516" s="9" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H516" s="19" t="s">
         <v>378</v>
@@ -30852,7 +30846,7 @@
         <v>10</v>
       </c>
       <c r="G536" s="9" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="H536" s="9" t="s">
         <v>370</v>
@@ -30880,7 +30874,7 @@
         <v>10</v>
       </c>
       <c r="G537" s="9" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="H537" s="9" t="s">
         <v>370</v>
@@ -30908,7 +30902,7 @@
         <v>10</v>
       </c>
       <c r="G538" s="9" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="H538" s="9" t="s">
         <v>370</v>
@@ -30936,7 +30930,7 @@
         <v>10</v>
       </c>
       <c r="G539" s="9" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="H539" s="9" t="s">
         <v>370</v>
@@ -30964,7 +30958,7 @@
         <v>10</v>
       </c>
       <c r="G540" s="9" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="H540" s="9" t="s">
         <v>370</v>
@@ -30992,7 +30986,7 @@
         <v>10</v>
       </c>
       <c r="G541" s="9" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="H541" s="9" t="s">
         <v>370</v>
@@ -31020,7 +31014,7 @@
         <v>10</v>
       </c>
       <c r="G542" s="9" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="H542" s="9" t="s">
         <v>370</v>
@@ -31192,14 +31186,14 @@
     </row>
     <row r="549" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A549" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B549" s="9" t="str">
         <f>+VLOOKUP(A549,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C549" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D549" s="17" t="str">
         <f>+VLOOKUP(C549,distribution!C$2:D$40,2,FALSE)</f>
@@ -31218,14 +31212,14 @@
     </row>
     <row r="550" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A550" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B550" s="31" t="str">
         <f>+VLOOKUP(A550,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C550" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D550" s="23" t="str">
         <f>+VLOOKUP(C550,distribution!C$2:D$40,2,FALSE)</f>
@@ -31244,14 +31238,14 @@
     </row>
     <row r="551" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A551" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B551" s="31" t="str">
         <f>+VLOOKUP(A551,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C551" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D551" s="23" t="str">
         <f>+VLOOKUP(C551,distribution!C$2:D$40,2,FALSE)</f>
@@ -31270,14 +31264,14 @@
     </row>
     <row r="552" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A552" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B552" s="31" t="str">
         <f>+VLOOKUP(A552,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C552" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D552" s="23" t="str">
         <f>+VLOOKUP(C552,distribution!C$2:D$40,2,FALSE)</f>
@@ -31296,14 +31290,14 @@
     </row>
     <row r="553" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A553" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B553" s="31" t="str">
         <f>+VLOOKUP(A553,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C553" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D553" s="23" t="str">
         <f>+VLOOKUP(C553,distribution!C$2:D$40,2,FALSE)</f>
@@ -31322,27 +31316,27 @@
     </row>
     <row r="554" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A554" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B554" s="31" t="str">
         <f>+VLOOKUP(A554,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C554" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D554" s="23" t="str">
         <f>+VLOOKUP(C554,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E554" s="17" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F554" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G554" s="9" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H554" s="19" t="s">
         <v>363</v>
@@ -31350,27 +31344,27 @@
     </row>
     <row r="555" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A555" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B555" s="31" t="str">
         <f>+VLOOKUP(A555,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C555" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D555" s="23" t="str">
         <f>+VLOOKUP(C555,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E555" s="17" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F555" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G555" s="9" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H555" s="19" t="s">
         <v>363</v>
@@ -31378,27 +31372,27 @@
     </row>
     <row r="556" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A556" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B556" s="31" t="str">
         <f>+VLOOKUP(A556,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C556" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D556" s="23" t="str">
         <f>+VLOOKUP(C556,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E556" s="17" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="F556" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G556" s="9" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H556" s="19" t="s">
         <v>370</v>
@@ -31406,27 +31400,27 @@
     </row>
     <row r="557" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A557" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B557" s="31" t="str">
         <f>+VLOOKUP(A557,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C557" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D557" s="23" t="str">
         <f>+VLOOKUP(C557,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E557" s="17" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="F557" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G557" s="9" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H557" s="19" t="s">
         <v>361</v>
@@ -31434,27 +31428,27 @@
     </row>
     <row r="558" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A558" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B558" s="31" t="str">
         <f>+VLOOKUP(A558,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C558" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D558" s="23" t="str">
         <f>+VLOOKUP(C558,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E558" s="17" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F558" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G558" s="9" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H558" s="19" t="s">
         <v>361</v>
@@ -31462,27 +31456,27 @@
     </row>
     <row r="559" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A559" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B559" s="31" t="str">
         <f>+VLOOKUP(A559,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C559" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D559" s="23" t="str">
         <f>+VLOOKUP(C559,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E559" s="17" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="F559" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G559" s="9" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H559" s="19" t="s">
         <v>427</v>
@@ -31490,27 +31484,27 @@
     </row>
     <row r="560" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A560" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B560" s="31" t="str">
         <f>+VLOOKUP(A560,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C560" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D560" s="23" t="str">
         <f>+VLOOKUP(C560,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E560" s="17" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F560" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G560" s="9" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H560" s="19" t="s">
         <v>427</v>
@@ -31518,27 +31512,27 @@
     </row>
     <row r="561" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A561" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B561" s="31" t="str">
         <f>+VLOOKUP(A561,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C561" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D561" s="23" t="str">
         <f>+VLOOKUP(C561,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E561" s="17" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F561" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G561" s="9" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H561" s="19" t="s">
         <v>361</v>
@@ -31546,27 +31540,27 @@
     </row>
     <row r="562" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A562" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B562" s="31" t="str">
         <f>+VLOOKUP(A562,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C562" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D562" s="23" t="str">
         <f>+VLOOKUP(C562,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E562" s="17" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F562" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G562" s="9" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H562" s="19" t="s">
         <v>361</v>
@@ -31574,27 +31568,27 @@
     </row>
     <row r="563" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A563" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B563" s="31" t="str">
         <f>+VLOOKUP(A563,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C563" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D563" s="23" t="str">
         <f>+VLOOKUP(C563,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E563" s="17" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F563" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G563" s="9" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H563" s="19" t="s">
         <v>427</v>
@@ -31602,27 +31596,27 @@
     </row>
     <row r="564" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A564" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B564" s="31" t="str">
         <f>+VLOOKUP(A564,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C564" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D564" s="23" t="str">
         <f>+VLOOKUP(C564,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E564" s="17" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F564" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G564" s="9" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H564" s="19" t="s">
         <v>427</v>
@@ -31630,139 +31624,139 @@
     </row>
     <row r="565" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A565" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B565" s="31" t="str">
         <f>+VLOOKUP(A565,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C565" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D565" s="23" t="str">
         <f>+VLOOKUP(C565,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E565" s="17" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="F565" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G565" s="9" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H565" s="19" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="566" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A566" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B566" s="31" t="str">
         <f>+VLOOKUP(A566,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C566" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D566" s="23" t="str">
         <f>+VLOOKUP(C566,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E566" s="17" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F566" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G566" s="9" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H566" s="19" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="567" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A567" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B567" s="31" t="str">
         <f>+VLOOKUP(A567,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C567" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D567" s="23" t="str">
         <f>+VLOOKUP(C567,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E567" s="17" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="F567" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G567" s="9" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H567" s="19" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="568" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A568" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B568" s="31" t="str">
         <f>+VLOOKUP(A568,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C568" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D568" s="23" t="str">
         <f>+VLOOKUP(C568,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E568" s="17" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="F568" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G568" s="9" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H568" s="19" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="569" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A569" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B569" s="31" t="str">
         <f>+VLOOKUP(A569,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C569" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D569" s="23" t="str">
         <f>+VLOOKUP(C569,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E569" s="17" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F569" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G569" s="9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H569" s="19" t="s">
         <v>378</v>
@@ -31770,27 +31764,27 @@
     </row>
     <row r="570" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A570" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B570" s="31" t="str">
         <f>+VLOOKUP(A570,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C570" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D570" s="23" t="str">
         <f>+VLOOKUP(C570,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E570" s="17" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="F570" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G570" s="9" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H570" s="19" t="s">
         <v>378</v>
@@ -31798,27 +31792,27 @@
     </row>
     <row r="571" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A571" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B571" s="31" t="str">
         <f>+VLOOKUP(A571,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C571" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D571" s="23" t="str">
         <f>+VLOOKUP(C571,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E571" s="17" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F571" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G571" s="9" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H571" s="19" t="s">
         <v>379</v>
@@ -31826,27 +31820,27 @@
     </row>
     <row r="572" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A572" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B572" s="31" t="str">
         <f>+VLOOKUP(A572,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C572" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D572" s="23" t="str">
         <f>+VLOOKUP(C572,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E572" s="17" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="F572" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G572" s="9" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H572" s="19" t="s">
         <v>379</v>
@@ -31854,27 +31848,27 @@
     </row>
     <row r="573" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A573" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B573" s="31" t="str">
         <f>+VLOOKUP(A573,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C573" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D573" s="23" t="str">
         <f>+VLOOKUP(C573,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E573" s="17" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="F573" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G573" s="9" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H573" s="19" t="s">
         <v>376</v>
@@ -31882,27 +31876,27 @@
     </row>
     <row r="574" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A574" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B574" s="31" t="str">
         <f>+VLOOKUP(A574,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C574" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D574" s="23" t="str">
         <f>+VLOOKUP(C574,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E574" s="17" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F574" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G574" s="9" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H574" s="19" t="s">
         <v>376</v>
@@ -31910,55 +31904,55 @@
     </row>
     <row r="575" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A575" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B575" s="31" t="str">
         <f>+VLOOKUP(A575,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C575" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D575" s="23" t="str">
         <f>+VLOOKUP(C575,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E575" s="17" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F575" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G575" s="9" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H575" s="19" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="576" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A576" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B576" s="31" t="str">
         <f>+VLOOKUP(A576,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C576" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D576" s="23" t="str">
         <f>+VLOOKUP(C576,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E576" s="17" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F576" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G576" s="9" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H576" s="19" t="s">
         <v>392</v>
@@ -32992,14 +32986,14 @@
     </row>
     <row r="614" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A614" s="16" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B614" s="9" t="str">
         <f>+VLOOKUP(A614,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C614" s="17" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D614" s="17" t="str">
         <f>+VLOOKUP(C614,distribution!C$2:D$40,2,FALSE)</f>
@@ -33018,14 +33012,14 @@
     </row>
     <row r="615" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A615" s="16" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B615" s="9" t="str">
         <f>+VLOOKUP(A615,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C615" s="17" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D615" s="17" t="str">
         <f>+VLOOKUP(C615,distribution!C$2:D$40,2,FALSE)</f>
@@ -33044,14 +33038,14 @@
     </row>
     <row r="616" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A616" s="16" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B616" s="9" t="str">
         <f>+VLOOKUP(A616,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C616" s="17" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D616" s="17" t="str">
         <f>+VLOOKUP(C616,distribution!C$2:D$40,2,FALSE)</f>
@@ -33070,14 +33064,14 @@
     </row>
     <row r="617" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A617" s="16" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B617" s="9" t="str">
         <f>+VLOOKUP(A617,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C617" s="17" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D617" s="17" t="str">
         <f>+VLOOKUP(C617,distribution!C$2:D$40,2,FALSE)</f>
@@ -33096,14 +33090,14 @@
     </row>
     <row r="618" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A618" s="16" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B618" s="9" t="str">
         <f>+VLOOKUP(A618,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C618" s="17" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D618" s="17" t="str">
         <f>+VLOOKUP(C618,distribution!C$2:D$40,2,FALSE)</f>
@@ -33122,27 +33116,27 @@
     </row>
     <row r="619" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A619" s="16" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B619" s="9" t="str">
         <f>+VLOOKUP(A619,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C619" s="17" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D619" s="17" t="str">
         <f>+VLOOKUP(C619,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E619" s="17" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="F619" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G619" s="9" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H619" s="19" t="s">
         <v>363</v>
@@ -33150,27 +33144,27 @@
     </row>
     <row r="620" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A620" s="16" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B620" s="9" t="str">
         <f>+VLOOKUP(A620,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C620" s="17" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D620" s="17" t="str">
         <f>+VLOOKUP(C620,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E620" s="17" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F620" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G620" s="9" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H620" s="19" t="s">
         <v>363</v>
@@ -33178,27 +33172,27 @@
     </row>
     <row r="621" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A621" s="16" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B621" s="9" t="str">
         <f>+VLOOKUP(A621,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C621" s="17" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D621" s="17" t="str">
         <f>+VLOOKUP(C621,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E621" s="17" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F621" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G621" s="9" t="s">
         <v>1470</v>
-      </c>
-      <c r="F621" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G621" s="9" t="s">
-        <v>1471</v>
       </c>
       <c r="H621" s="19" t="s">
         <v>370</v>
@@ -33206,27 +33200,27 @@
     </row>
     <row r="622" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A622" s="16" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B622" s="9" t="str">
         <f>+VLOOKUP(A622,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C622" s="17" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D622" s="17" t="str">
         <f>+VLOOKUP(C622,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E622" s="17" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="F622" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G622" s="9" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H622" s="19" t="s">
         <v>391</v>
@@ -33234,58 +33228,58 @@
     </row>
     <row r="623" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A623" s="16" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B623" s="9" t="str">
         <f>+VLOOKUP(A623,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C623" s="17" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D623" s="17" t="str">
         <f>+VLOOKUP(C623,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E623" s="17" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F623" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G623" s="9" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H623" s="19" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="624" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A624" s="16" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B624" s="9" t="str">
         <f>+VLOOKUP(A624,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C624" s="17" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D624" s="17" t="str">
         <f>+VLOOKUP(C624,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E624" s="17" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F624" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G624" s="9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H624" s="19" t="s">
         <v>1467</v>
-      </c>
-      <c r="H624" s="19" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="625" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
@@ -34260,14 +34254,14 @@
     </row>
     <row r="660" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A660" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B660" s="9" t="str">
         <f>+VLOOKUP(A660,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C660" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D660" s="17" t="str">
         <f>+VLOOKUP(C660,distribution!C$2:D$40,2,FALSE)</f>
@@ -34286,14 +34280,14 @@
     </row>
     <row r="661" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A661" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B661" s="9" t="str">
         <f>+VLOOKUP(A661,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C661" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D661" s="17" t="str">
         <f>+VLOOKUP(C661,distribution!C$2:D$40,2,FALSE)</f>
@@ -34312,14 +34306,14 @@
     </row>
     <row r="662" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A662" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B662" s="9" t="str">
         <f>+VLOOKUP(A662,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C662" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D662" s="17" t="str">
         <f>+VLOOKUP(C662,distribution!C$2:D$40,2,FALSE)</f>
@@ -34338,14 +34332,14 @@
     </row>
     <row r="663" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A663" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B663" s="9" t="str">
         <f>+VLOOKUP(A663,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C663" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D663" s="17" t="str">
         <f>+VLOOKUP(C663,distribution!C$2:D$40,2,FALSE)</f>
@@ -34364,14 +34358,14 @@
     </row>
     <row r="664" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A664" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B664" s="9" t="str">
         <f>+VLOOKUP(A664,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C664" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D664" s="17" t="str">
         <f>+VLOOKUP(C664,distribution!C$2:D$40,2,FALSE)</f>
@@ -34390,27 +34384,27 @@
     </row>
     <row r="665" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A665" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B665" s="9" t="str">
         <f>+VLOOKUP(A665,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C665" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D665" s="17" t="str">
         <f>+VLOOKUP(C665,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E665" s="17" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="F665" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G665" s="9" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="H665" s="19" t="s">
         <v>363</v>
@@ -34418,27 +34412,27 @@
     </row>
     <row r="666" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A666" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B666" s="9" t="str">
         <f>+VLOOKUP(A666,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C666" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D666" s="17" t="str">
         <f>+VLOOKUP(C666,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E666" s="17" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="F666" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G666" s="9" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="H666" s="19" t="s">
         <v>363</v>
@@ -34446,27 +34440,27 @@
     </row>
     <row r="667" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A667" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B667" s="9" t="str">
         <f>+VLOOKUP(A667,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C667" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D667" s="17" t="str">
         <f>+VLOOKUP(C667,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E667" s="17" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="F667" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G667" s="9" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="H667" s="19" t="s">
         <v>363</v>
@@ -34474,27 +34468,27 @@
     </row>
     <row r="668" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A668" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B668" s="9" t="str">
         <f>+VLOOKUP(A668,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C668" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D668" s="17" t="str">
         <f>+VLOOKUP(C668,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E668" s="17" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="F668" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G668" s="9" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="H668" s="19" t="s">
         <v>363</v>
@@ -34502,27 +34496,27 @@
     </row>
     <row r="669" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A669" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B669" s="9" t="str">
         <f>+VLOOKUP(A669,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C669" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D669" s="17" t="str">
         <f>+VLOOKUP(C669,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E669" s="17" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="F669" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G669" s="9" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="H669" s="19" t="s">
         <v>363</v>
@@ -34530,27 +34524,27 @@
     </row>
     <row r="670" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A670" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B670" s="9" t="str">
         <f>+VLOOKUP(A670,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C670" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D670" s="17" t="str">
         <f>+VLOOKUP(C670,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E670" s="17" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="F670" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G670" s="9" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="H670" s="19" t="s">
         <v>363</v>
@@ -34558,27 +34552,27 @@
     </row>
     <row r="671" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A671" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B671" s="9" t="str">
         <f>+VLOOKUP(A671,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C671" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D671" s="17" t="str">
         <f>+VLOOKUP(C671,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E671" s="17" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="F671" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G671" s="9" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="H671" s="19" t="s">
         <v>363</v>
@@ -34586,27 +34580,27 @@
     </row>
     <row r="672" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A672" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B672" s="9" t="str">
         <f>+VLOOKUP(A672,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C672" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D672" s="17" t="str">
         <f>+VLOOKUP(C672,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E672" s="17" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="F672" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G672" s="9" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="H672" s="19" t="s">
         <v>363</v>
@@ -34614,27 +34608,27 @@
     </row>
     <row r="673" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A673" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B673" s="9" t="str">
         <f>+VLOOKUP(A673,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C673" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D673" s="17" t="str">
         <f>+VLOOKUP(C673,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E673" s="17" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="F673" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G673" s="9" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="H673" s="19" t="s">
         <v>363</v>
@@ -34642,27 +34636,27 @@
     </row>
     <row r="674" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A674" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B674" s="9" t="str">
         <f>+VLOOKUP(A674,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C674" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D674" s="17" t="str">
         <f>+VLOOKUP(C674,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E674" s="17" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="F674" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G674" s="9" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="H674" s="19" t="s">
         <v>363</v>
@@ -34670,27 +34664,27 @@
     </row>
     <row r="675" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A675" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B675" s="9" t="str">
         <f>+VLOOKUP(A675,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C675" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D675" s="17" t="str">
         <f>+VLOOKUP(C675,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E675" s="17" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="F675" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G675" s="9" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="H675" s="19" t="s">
         <v>363</v>
@@ -34698,27 +34692,27 @@
     </row>
     <row r="676" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A676" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B676" s="9" t="str">
         <f>+VLOOKUP(A676,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C676" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D676" s="17" t="str">
         <f>+VLOOKUP(C676,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E676" s="17" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="F676" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G676" s="9" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="H676" s="19" t="s">
         <v>363</v>
@@ -34726,27 +34720,27 @@
     </row>
     <row r="677" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A677" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B677" s="9" t="str">
         <f>+VLOOKUP(A677,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C677" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D677" s="17" t="str">
         <f>+VLOOKUP(C677,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E677" s="17" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="F677" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G677" s="9" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="H677" s="19" t="s">
         <v>363</v>
@@ -34754,27 +34748,27 @@
     </row>
     <row r="678" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A678" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B678" s="9" t="str">
         <f>+VLOOKUP(A678,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C678" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D678" s="17" t="str">
         <f>+VLOOKUP(C678,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E678" s="17" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="F678" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G678" s="9" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="H678" s="19" t="s">
         <v>363</v>
@@ -34782,27 +34776,27 @@
     </row>
     <row r="679" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A679" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B679" s="9" t="str">
         <f>+VLOOKUP(A679,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C679" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D679" s="17" t="str">
         <f>+VLOOKUP(C679,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E679" s="17" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="F679" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G679" s="9" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="H679" s="19" t="s">
         <v>363</v>
@@ -34810,27 +34804,27 @@
     </row>
     <row r="680" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A680" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B680" s="9" t="str">
         <f>+VLOOKUP(A680,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C680" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D680" s="17" t="str">
         <f>+VLOOKUP(C680,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E680" s="17" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="F680" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G680" s="9" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="H680" s="19" t="s">
         <v>363</v>
@@ -34838,27 +34832,27 @@
     </row>
     <row r="681" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A681" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B681" s="9" t="str">
         <f>+VLOOKUP(A681,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C681" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D681" s="17" t="str">
         <f>+VLOOKUP(C681,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E681" s="17" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="F681" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G681" s="9" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="H681" s="19" t="s">
         <v>363</v>
@@ -34866,27 +34860,27 @@
     </row>
     <row r="682" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A682" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B682" s="9" t="str">
         <f>+VLOOKUP(A682,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C682" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D682" s="17" t="str">
         <f>+VLOOKUP(C682,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E682" s="17" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="F682" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G682" s="9" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="H682" s="19" t="s">
         <v>363</v>
@@ -34894,27 +34888,27 @@
     </row>
     <row r="683" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A683" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B683" s="9" t="str">
         <f>+VLOOKUP(A683,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C683" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D683" s="17" t="str">
         <f>+VLOOKUP(C683,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E683" s="17" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="F683" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G683" s="9" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="H683" s="19" t="s">
         <v>363</v>
@@ -34922,27 +34916,27 @@
     </row>
     <row r="684" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A684" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B684" s="9" t="str">
         <f>+VLOOKUP(A684,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C684" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D684" s="17" t="str">
         <f>+VLOOKUP(C684,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E684" s="17" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="F684" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G684" s="9" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="H684" s="19" t="s">
         <v>363</v>
@@ -34950,27 +34944,27 @@
     </row>
     <row r="685" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A685" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B685" s="9" t="str">
         <f>+VLOOKUP(A685,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C685" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D685" s="17" t="str">
         <f>+VLOOKUP(C685,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E685" s="17" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="F685" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G685" s="9" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="H685" s="19" t="s">
         <v>370</v>
@@ -34978,27 +34972,27 @@
     </row>
     <row r="686" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A686" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B686" s="9" t="str">
         <f>+VLOOKUP(A686,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C686" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D686" s="17" t="str">
         <f>+VLOOKUP(C686,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E686" s="17" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="F686" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G686" s="9" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="H686" s="19" t="s">
         <v>370</v>
@@ -35006,27 +35000,27 @@
     </row>
     <row r="687" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A687" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B687" s="9" t="str">
         <f>+VLOOKUP(A687,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C687" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D687" s="17" t="str">
         <f>+VLOOKUP(C687,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E687" s="17" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="F687" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G687" s="9" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="H687" s="19" t="s">
         <v>370</v>
@@ -35034,27 +35028,27 @@
     </row>
     <row r="688" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A688" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B688" s="9" t="str">
         <f>+VLOOKUP(A688,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C688" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D688" s="17" t="str">
         <f>+VLOOKUP(C688,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E688" s="17" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="F688" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G688" s="9" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="H688" s="19" t="s">
         <v>370</v>
@@ -35062,27 +35056,27 @@
     </row>
     <row r="689" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A689" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B689" s="9" t="str">
         <f>+VLOOKUP(A689,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C689" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D689" s="17" t="str">
         <f>+VLOOKUP(C689,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E689" s="17" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="F689" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G689" s="9" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="H689" s="19" t="s">
         <v>370</v>
@@ -35090,27 +35084,27 @@
     </row>
     <row r="690" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A690" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B690" s="9" t="str">
         <f>+VLOOKUP(A690,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C690" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D690" s="17" t="str">
         <f>+VLOOKUP(C690,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E690" s="17" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="F690" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G690" s="9" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="H690" s="19" t="s">
         <v>370</v>
@@ -35118,27 +35112,27 @@
     </row>
     <row r="691" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A691" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B691" s="9" t="str">
         <f>+VLOOKUP(A691,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C691" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D691" s="17" t="str">
         <f>+VLOOKUP(C691,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E691" s="17" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="F691" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G691" s="9" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="H691" s="19" t="s">
         <v>370</v>
@@ -35146,27 +35140,27 @@
     </row>
     <row r="692" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A692" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B692" s="9" t="str">
         <f>+VLOOKUP(A692,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C692" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D692" s="17" t="str">
         <f>+VLOOKUP(C692,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E692" s="17" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="F692" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G692" s="9" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="H692" s="19" t="s">
         <v>370</v>
@@ -35174,27 +35168,27 @@
     </row>
     <row r="693" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A693" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B693" s="9" t="str">
         <f>+VLOOKUP(A693,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C693" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D693" s="17" t="str">
         <f>+VLOOKUP(C693,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E693" s="17" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="F693" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G693" s="9" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="H693" s="19" t="s">
         <v>370</v>
@@ -35202,27 +35196,27 @@
     </row>
     <row r="694" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A694" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B694" s="9" t="str">
         <f>+VLOOKUP(A694,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C694" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D694" s="17" t="str">
         <f>+VLOOKUP(C694,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E694" s="17" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="F694" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G694" s="9" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="H694" s="19" t="s">
         <v>370</v>
@@ -35230,27 +35224,27 @@
     </row>
     <row r="695" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A695" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B695" s="9" t="str">
         <f>+VLOOKUP(A695,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C695" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D695" s="17" t="str">
         <f>+VLOOKUP(C695,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E695" s="17" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="F695" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G695" s="9" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="H695" s="19" t="s">
         <v>361</v>
@@ -35258,27 +35252,27 @@
     </row>
     <row r="696" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A696" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B696" s="9" t="str">
         <f>+VLOOKUP(A696,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C696" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D696" s="17" t="str">
         <f>+VLOOKUP(C696,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E696" s="17" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="F696" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G696" s="9" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="H696" s="19" t="s">
         <v>933</v>
@@ -35286,27 +35280,27 @@
     </row>
     <row r="697" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A697" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B697" s="9" t="str">
         <f>+VLOOKUP(A697,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C697" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D697" s="17" t="str">
         <f>+VLOOKUP(C697,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E697" s="17" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="F697" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G697" s="9" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="H697" s="19" t="s">
         <v>361</v>
@@ -35314,27 +35308,27 @@
     </row>
     <row r="698" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A698" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B698" s="9" t="str">
         <f>+VLOOKUP(A698,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C698" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D698" s="17" t="str">
         <f>+VLOOKUP(C698,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E698" s="17" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="F698" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G698" s="9" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="H698" s="19" t="s">
         <v>933</v>
@@ -35342,83 +35336,83 @@
     </row>
     <row r="699" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A699" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B699" s="9" t="str">
         <f>+VLOOKUP(A699,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C699" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D699" s="17" t="str">
         <f>+VLOOKUP(C699,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E699" s="17" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="F699" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G699" s="9" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="H699" s="19" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="700" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A700" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B700" s="9" t="str">
         <f>+VLOOKUP(A700,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C700" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D700" s="17" t="str">
         <f>+VLOOKUP(C700,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E700" s="17" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="F700" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G700" s="9" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="H700" s="19" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="701" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A701" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B701" s="9" t="str">
         <f>+VLOOKUP(A701,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C701" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D701" s="17" t="str">
         <f>+VLOOKUP(C701,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E701" s="17" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="F701" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G701" s="9" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="H701" s="19" t="s">
         <v>378</v>
@@ -35426,27 +35420,27 @@
     </row>
     <row r="702" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A702" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B702" s="9" t="str">
         <f>+VLOOKUP(A702,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C702" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D702" s="17" t="str">
         <f>+VLOOKUP(C702,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E702" s="17" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="F702" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G702" s="9" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="H702" s="19" t="s">
         <v>379</v>
@@ -35454,27 +35448,27 @@
     </row>
     <row r="703" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A703" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B703" s="9" t="str">
         <f>+VLOOKUP(A703,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C703" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D703" s="17" t="str">
         <f>+VLOOKUP(C703,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E703" s="17" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="F703" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G703" s="9" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="H703" s="19" t="s">
         <v>376</v>
@@ -35482,111 +35476,111 @@
     </row>
     <row r="704" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A704" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B704" s="9" t="str">
         <f>+VLOOKUP(A704,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C704" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D704" s="17" t="str">
         <f>+VLOOKUP(C704,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E704" s="17" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="F704" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G704" s="9" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="H704" s="19" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="705" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A705" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B705" s="9" t="str">
         <f>+VLOOKUP(A705,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C705" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D705" s="17" t="str">
         <f>+VLOOKUP(C705,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E705" s="17" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="F705" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G705" s="9" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="H705" s="19" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="706" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A706" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B706" s="9" t="str">
         <f>+VLOOKUP(A706,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C706" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D706" s="17" t="str">
         <f>+VLOOKUP(C706,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E706" s="17" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="F706" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G706" s="9" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="H706" s="19" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="707" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A707" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B707" s="9" t="str">
         <f>+VLOOKUP(A707,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C707" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D707" s="17" t="str">
         <f>+VLOOKUP(C707,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E707" s="17" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="F707" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G707" s="9" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="H707" s="19" t="s">
         <v>430</v>
@@ -35594,27 +35588,27 @@
     </row>
     <row r="708" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A708" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B708" s="9" t="str">
         <f>+VLOOKUP(A708,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C708" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D708" s="17" t="str">
         <f>+VLOOKUP(C708,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E708" s="17" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="F708" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G708" s="9" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="H708" s="19" t="s">
         <v>430</v>
@@ -35622,27 +35616,27 @@
     </row>
     <row r="709" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A709" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B709" s="9" t="str">
         <f>+VLOOKUP(A709,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C709" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D709" s="17" t="str">
         <f>+VLOOKUP(C709,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E709" s="17" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="F709" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G709" s="9" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="H709" s="19" t="s">
         <v>430</v>
@@ -35650,27 +35644,27 @@
     </row>
     <row r="710" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A710" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B710" s="9" t="str">
         <f>+VLOOKUP(A710,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C710" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D710" s="17" t="str">
         <f>+VLOOKUP(C710,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E710" s="17" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="F710" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G710" s="9" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="H710" s="19" t="s">
         <v>430</v>
@@ -35678,27 +35672,27 @@
     </row>
     <row r="711" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A711" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B711" s="9" t="str">
         <f>+VLOOKUP(A711,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C711" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D711" s="17" t="str">
         <f>+VLOOKUP(C711,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E711" s="17" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="F711" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G711" s="9" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="H711" s="19" t="s">
         <v>430</v>
@@ -35706,27 +35700,27 @@
     </row>
     <row r="712" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A712" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B712" s="9" t="str">
         <f>+VLOOKUP(A712,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C712" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D712" s="17" t="str">
         <f>+VLOOKUP(C712,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E712" s="17" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="F712" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G712" s="9" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="H712" s="19" t="s">
         <v>376</v>
@@ -35734,27 +35728,27 @@
     </row>
     <row r="713" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A713" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B713" s="9" t="str">
         <f>+VLOOKUP(A713,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C713" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D713" s="17" t="str">
         <f>+VLOOKUP(C713,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E713" s="17" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="F713" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G713" s="9" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="H713" s="19" t="s">
         <v>449</v>
@@ -35762,27 +35756,27 @@
     </row>
     <row r="714" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A714" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B714" s="9" t="str">
         <f>+VLOOKUP(A714,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C714" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D714" s="17" t="str">
         <f>+VLOOKUP(C714,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E714" s="17" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="F714" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G714" s="9" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="H714" s="19" t="s">
         <v>449</v>
@@ -35790,27 +35784,27 @@
     </row>
     <row r="715" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A715" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B715" s="9" t="str">
         <f>+VLOOKUP(A715,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C715" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D715" s="17" t="str">
         <f>+VLOOKUP(C715,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E715" s="17" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F715" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G715" s="9" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="H715" s="19" t="s">
         <v>449</v>
@@ -35818,27 +35812,27 @@
     </row>
     <row r="716" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A716" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B716" s="9" t="str">
         <f>+VLOOKUP(A716,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C716" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D716" s="17" t="str">
         <f>+VLOOKUP(C716,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E716" s="17" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="F716" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G716" s="9" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="H716" s="19" t="s">
         <v>449</v>
@@ -35846,27 +35840,27 @@
     </row>
     <row r="717" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A717" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B717" s="9" t="str">
         <f>+VLOOKUP(A717,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C717" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D717" s="17" t="str">
         <f>+VLOOKUP(C717,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E717" s="17" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="F717" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G717" s="9" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="H717" s="19" t="s">
         <v>449</v>
@@ -35874,27 +35868,27 @@
     </row>
     <row r="718" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A718" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B718" s="9" t="str">
         <f>+VLOOKUP(A718,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C718" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D718" s="17" t="str">
         <f>+VLOOKUP(C718,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E718" s="17" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F718" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G718" s="9" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="H718" s="19" t="s">
         <v>449</v>
@@ -35902,27 +35896,27 @@
     </row>
     <row r="719" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A719" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B719" s="9" t="str">
         <f>+VLOOKUP(A719,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C719" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D719" s="17" t="str">
         <f>+VLOOKUP(C719,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E719" s="17" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="F719" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G719" s="9" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="H719" s="19" t="s">
         <v>449</v>
@@ -35930,27 +35924,27 @@
     </row>
     <row r="720" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A720" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B720" s="9" t="str">
         <f>+VLOOKUP(A720,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C720" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D720" s="17" t="str">
         <f>+VLOOKUP(C720,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E720" s="17" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F720" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G720" s="9" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="H720" s="19" t="s">
         <v>449</v>
@@ -35958,27 +35952,27 @@
     </row>
     <row r="721" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A721" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B721" s="9" t="str">
         <f>+VLOOKUP(A721,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C721" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D721" s="17" t="str">
         <f>+VLOOKUP(C721,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E721" s="17" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="F721" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G721" s="9" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="H721" s="19" t="s">
         <v>449</v>
@@ -35986,27 +35980,27 @@
     </row>
     <row r="722" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A722" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B722" s="9" t="str">
         <f>+VLOOKUP(A722,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C722" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D722" s="17" t="str">
         <f>+VLOOKUP(C722,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E722" s="17" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="F722" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G722" s="9" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="H722" s="19" t="s">
         <v>376</v>
@@ -36014,27 +36008,27 @@
     </row>
     <row r="723" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A723" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B723" s="9" t="str">
         <f>+VLOOKUP(A723,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C723" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D723" s="17" t="str">
         <f>+VLOOKUP(C723,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E723" s="17" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="F723" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G723" s="9" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="H723" s="19" t="s">
         <v>376</v>
@@ -36042,27 +36036,27 @@
     </row>
     <row r="724" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A724" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B724" s="9" t="str">
         <f>+VLOOKUP(A724,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C724" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D724" s="17" t="str">
         <f>+VLOOKUP(C724,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E724" s="17" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="F724" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G724" s="9" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="H724" s="19" t="s">
         <v>376</v>
@@ -36070,27 +36064,27 @@
     </row>
     <row r="725" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A725" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B725" s="9" t="str">
         <f>+VLOOKUP(A725,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D725" s="17" t="str">
         <f>+VLOOKUP(C725,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E725" s="17" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="F725" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G725" s="9" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="H725" s="19" t="s">
         <v>376</v>
@@ -36098,27 +36092,27 @@
     </row>
     <row r="726" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A726" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B726" s="9" t="str">
         <f>+VLOOKUP(A726,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C726" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D726" s="17" t="str">
         <f>+VLOOKUP(C726,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E726" s="17" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="F726" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G726" s="9" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="H726" s="19" t="s">
         <v>376</v>
@@ -36126,27 +36120,27 @@
     </row>
     <row r="727" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A727" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B727" s="9" t="str">
         <f>+VLOOKUP(A727,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C727" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D727" s="17" t="str">
         <f>+VLOOKUP(C727,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E727" s="17" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="F727" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G727" s="9" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="H727" s="19" t="s">
         <v>376</v>
@@ -36154,27 +36148,27 @@
     </row>
     <row r="728" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A728" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B728" s="9" t="str">
         <f>+VLOOKUP(A728,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C728" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D728" s="17" t="str">
         <f>+VLOOKUP(C728,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E728" s="17" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="F728" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G728" s="9" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="H728" s="19" t="s">
         <v>376</v>
@@ -36182,27 +36176,27 @@
     </row>
     <row r="729" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A729" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B729" s="9" t="str">
         <f>+VLOOKUP(A729,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C729" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D729" s="17" t="str">
         <f>+VLOOKUP(C729,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E729" s="17" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F729" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G729" s="9" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="H729" s="19" t="s">
         <v>376</v>
@@ -36210,27 +36204,27 @@
     </row>
     <row r="730" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A730" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B730" s="9" t="str">
         <f>+VLOOKUP(A730,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C730" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D730" s="17" t="str">
         <f>+VLOOKUP(C730,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E730" s="17" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="F730" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G730" s="9" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="H730" s="19" t="s">
         <v>376</v>
@@ -36238,27 +36232,27 @@
     </row>
     <row r="731" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A731" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B731" s="9" t="str">
         <f>+VLOOKUP(A731,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C731" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D731" s="17" t="str">
         <f>+VLOOKUP(C731,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E731" s="17" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="F731" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G731" s="9" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="H731" s="19" t="s">
         <v>376</v>
@@ -36266,27 +36260,27 @@
     </row>
     <row r="732" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A732" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B732" s="9" t="str">
         <f>+VLOOKUP(A732,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C732" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D732" s="17" t="str">
         <f>+VLOOKUP(C732,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E732" s="17" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="F732" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G732" s="9" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="H732" s="19" t="s">
         <v>376</v>
@@ -36294,27 +36288,27 @@
     </row>
     <row r="733" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A733" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B733" s="9" t="str">
         <f>+VLOOKUP(A733,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C733" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D733" s="17" t="str">
         <f>+VLOOKUP(C733,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E733" s="17" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="F733" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G733" s="9" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="H733" s="19" t="s">
         <v>376</v>
@@ -36322,27 +36316,27 @@
     </row>
     <row r="734" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A734" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B734" s="9" t="str">
         <f>+VLOOKUP(A734,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C734" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D734" s="17" t="str">
         <f>+VLOOKUP(C734,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E734" s="17" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="F734" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G734" s="9" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="H734" s="19" t="s">
         <v>376</v>
@@ -36350,27 +36344,27 @@
     </row>
     <row r="735" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A735" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B735" s="9" t="str">
         <f>+VLOOKUP(A735,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C735" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D735" s="17" t="str">
         <f>+VLOOKUP(C735,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E735" s="17" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="F735" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G735" s="9" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="H735" s="19" t="s">
         <v>376</v>
@@ -36378,27 +36372,27 @@
     </row>
     <row r="736" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A736" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B736" s="9" t="str">
         <f>+VLOOKUP(A736,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C736" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D736" s="17" t="str">
         <f>+VLOOKUP(C736,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E736" s="17" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="F736" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G736" s="9" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="H736" s="19" t="s">
         <v>376</v>
@@ -36406,27 +36400,27 @@
     </row>
     <row r="737" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A737" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B737" s="9" t="str">
         <f>+VLOOKUP(A737,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C737" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D737" s="17" t="str">
         <f>+VLOOKUP(C737,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E737" s="17" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="F737" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G737" s="9" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="H737" s="19" t="s">
         <v>376</v>
@@ -36434,27 +36428,27 @@
     </row>
     <row r="738" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A738" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B738" s="9" t="str">
         <f>+VLOOKUP(A738,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C738" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D738" s="17" t="str">
         <f>+VLOOKUP(C738,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E738" s="17" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F738" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G738" s="9" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="H738" s="19" t="s">
         <v>376</v>
@@ -36462,27 +36456,27 @@
     </row>
     <row r="739" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A739" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B739" s="9" t="str">
         <f>+VLOOKUP(A739,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C739" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D739" s="17" t="str">
         <f>+VLOOKUP(C739,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E739" s="17" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="F739" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G739" s="9" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="H739" s="19" t="s">
         <v>376</v>
@@ -36490,14 +36484,14 @@
     </row>
     <row r="740" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A740" s="16" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B740" s="9" t="str">
         <f>+VLOOKUP(A740,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C740" s="17" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D740" s="17" t="str">
         <f>+VLOOKUP(C740,distribution!C$2:D$40,2,FALSE)</f>
@@ -36516,14 +36510,14 @@
     </row>
     <row r="741" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A741" s="16" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B741" s="9" t="str">
         <f>+VLOOKUP(A741,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C741" s="17" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D741" s="17" t="str">
         <f>+VLOOKUP(C741,distribution!C$2:D$40,2,FALSE)</f>
@@ -36542,14 +36536,14 @@
     </row>
     <row r="742" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A742" s="16" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B742" s="9" t="str">
         <f>+VLOOKUP(A742,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C742" s="17" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D742" s="17" t="str">
         <f>+VLOOKUP(C742,distribution!C$2:D$40,2,FALSE)</f>
@@ -36568,14 +36562,14 @@
     </row>
     <row r="743" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A743" s="16" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B743" s="9" t="str">
         <f>+VLOOKUP(A743,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C743" s="17" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D743" s="17" t="str">
         <f>+VLOOKUP(C743,distribution!C$2:D$40,2,FALSE)</f>
@@ -36594,14 +36588,14 @@
     </row>
     <row r="744" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A744" s="16" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B744" s="9" t="str">
         <f>+VLOOKUP(A744,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C744" s="17" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D744" s="17" t="str">
         <f>+VLOOKUP(C744,distribution!C$2:D$40,2,FALSE)</f>
@@ -36620,27 +36614,27 @@
     </row>
     <row r="745" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A745" s="16" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B745" s="9" t="str">
         <f>+VLOOKUP(A745,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C745" s="17" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D745" s="17" t="str">
         <f>+VLOOKUP(C745,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E745" s="17" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F745" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G745" s="9" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H745" s="19" t="s">
         <v>363</v>
@@ -36648,27 +36642,27 @@
     </row>
     <row r="746" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A746" s="16" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B746" s="9" t="str">
         <f>+VLOOKUP(A746,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C746" s="17" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D746" s="17" t="str">
         <f>+VLOOKUP(C746,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E746" s="17" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="F746" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G746" s="9" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H746" s="19" t="s">
         <v>363</v>
@@ -36676,27 +36670,27 @@
     </row>
     <row r="747" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A747" s="16" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B747" s="9" t="str">
         <f>+VLOOKUP(A747,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C747" s="17" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D747" s="17" t="str">
         <f>+VLOOKUP(C747,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E747" s="17" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="F747" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G747" s="9" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H747" s="19" t="s">
         <v>370</v>
@@ -36704,27 +36698,27 @@
     </row>
     <row r="748" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A748" s="16" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B748" s="9" t="str">
         <f>+VLOOKUP(A748,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C748" s="17" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D748" s="17" t="str">
         <f>+VLOOKUP(C748,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E748" s="17" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F748" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G748" s="9" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H748" s="19" t="s">
         <v>370</v>
@@ -36732,83 +36726,83 @@
     </row>
     <row r="749" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A749" s="16" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B749" s="9" t="str">
         <f>+VLOOKUP(A749,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C749" s="17" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D749" s="17" t="str">
         <f>+VLOOKUP(C749,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E749" s="17" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F749" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G749" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H749" s="19" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="750" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A750" s="16" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B750" s="9" t="str">
         <f>+VLOOKUP(A750,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C750" s="17" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D750" s="17" t="str">
         <f>+VLOOKUP(C750,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E750" s="17" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="F750" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G750" s="9" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H750" s="19" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="751" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A751" s="16" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B751" s="9" t="str">
         <f>+VLOOKUP(A751,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C751" s="17" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D751" s="17" t="str">
         <f>+VLOOKUP(C751,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E751" s="17" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F751" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G751" s="9" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H751" s="19" t="s">
         <v>390</v>
@@ -36816,27 +36810,27 @@
     </row>
     <row r="752" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A752" s="16" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B752" s="9" t="str">
         <f>+VLOOKUP(A752,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C752" s="17" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D752" s="17" t="str">
         <f>+VLOOKUP(C752,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E752" s="17" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F752" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G752" s="9" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H752" s="19" t="s">
         <v>390</v>
@@ -36844,27 +36838,27 @@
     </row>
     <row r="753" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A753" s="16" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B753" s="9" t="str">
         <f>+VLOOKUP(A753,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C753" s="17" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D753" s="17" t="str">
         <f>+VLOOKUP(C753,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E753" s="17" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="F753" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G753" s="9" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H753" s="19" t="s">
         <v>390</v>
@@ -37464,7 +37458,7 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E775" s="17" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="F775" s="9" t="s">
         <v>10</v>
@@ -39032,13 +39026,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E831" s="23" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="F831" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G831" s="31" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="H831" s="150" t="s">
         <v>378</v>
@@ -39060,13 +39054,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E832" s="23" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="F832" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G832" s="31" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="H832" s="150" t="s">
         <v>378</v>
@@ -39088,13 +39082,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E833" s="23" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="F833" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G833" s="31" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="H833" s="150" t="s">
         <v>378</v>
@@ -39116,13 +39110,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E834" s="23" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="F834" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G834" s="31" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="H834" s="150" t="s">
         <v>378</v>
@@ -39144,13 +39138,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E835" s="23" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F835" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G835" s="31" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="H835" s="150" t="s">
         <v>378</v>
@@ -39172,13 +39166,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E836" s="23" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="F836" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G836" s="31" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="H836" s="150" t="s">
         <v>378</v>
@@ -39200,7 +39194,7 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E837" s="23" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="F837" s="31" t="s">
         <v>10</v>
@@ -39256,13 +39250,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E839" s="23" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="F839" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G839" s="31" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="H839" s="150" t="s">
         <v>378</v>
@@ -39284,13 +39278,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E840" s="23" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="F840" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G840" s="31" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="H840" s="150" t="s">
         <v>378</v>
@@ -39312,13 +39306,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E841" s="23" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="F841" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G841" s="31" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="H841" s="150" t="s">
         <v>378</v>
@@ -39340,13 +39334,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E842" s="23" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="F842" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G842" s="31" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="H842" s="150" t="s">
         <v>378</v>
@@ -39368,13 +39362,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E843" s="23" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="F843" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G843" s="31" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="H843" s="150" t="s">
         <v>378</v>
@@ -39396,13 +39390,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E844" s="23" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F844" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G844" s="31" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="H844" s="150" t="s">
         <v>378</v>
@@ -39424,13 +39418,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E845" s="23" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="F845" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G845" s="31" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="H845" s="150" t="s">
         <v>378</v>
@@ -39452,13 +39446,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E846" s="23" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="F846" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G846" s="31" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="H846" s="150" t="s">
         <v>378</v>
@@ -40856,7 +40850,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="125" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C89" s="126"/>
       <c r="D89" s="125"/>
@@ -40868,7 +40862,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="125" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C90" s="126"/>
       <c r="D90" s="125"/>
@@ -40880,7 +40874,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="125" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C91" s="126"/>
       <c r="D91" s="125"/>
@@ -40892,7 +40886,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="125" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C92" s="126"/>
       <c r="D92" s="125"/>
@@ -40904,7 +40898,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="125" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C93" s="126"/>
       <c r="D93" s="125"/>
@@ -40916,7 +40910,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="124" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C94" s="123"/>
       <c r="D94" s="123"/>
@@ -40932,7 +40926,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="124" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C95" s="123"/>
       <c r="D95" s="123"/>
@@ -40944,7 +40938,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="124" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C96" s="123"/>
       <c r="D96" s="123"/>
@@ -40956,7 +40950,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="124" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C97" s="123"/>
       <c r="D97" s="123"/>
@@ -40968,7 +40962,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="124" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="C98" s="123"/>
       <c r="D98" s="123"/>
@@ -41016,7 +41010,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="124" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="C102" s="123"/>
       <c r="D102" s="123"/>
@@ -41028,7 +41022,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="124" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="C103" s="123"/>
       <c r="D103" s="123"/>

--- a/sspmi/data.xlsx
+++ b/sspmi/data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6006" uniqueCount="1884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6006" uniqueCount="1881">
   <si>
     <t>distribution_identifier</t>
   </si>
@@ -4149,9 +4149,6 @@
     <t>Remuneración promedio: CIIU 72 Actividades de informática</t>
   </si>
   <si>
-    <t>1995-01-01/2017-06-01</t>
-  </si>
-  <si>
     <t>1991-01-01/2018-12-31</t>
   </si>
   <si>
@@ -4275,9 +4272,6 @@
     <t>Empleo industria azucarera</t>
   </si>
   <si>
-    <t>1990-01-01/2018-01-01</t>
-  </si>
-  <si>
     <t>produccion_actividad, mercado_laboral, agentes, precios</t>
   </si>
   <si>
@@ -5490,15 +5484,6 @@
     <t>Capturas: calamar illex</t>
   </si>
   <si>
-    <t>2018-02-05</t>
-  </si>
-  <si>
-    <t>1997-01-01/2017-12-31</t>
-  </si>
-  <si>
-    <t>2018-02-06</t>
-  </si>
-  <si>
     <t>INDEC, CAFIN, MTEySS</t>
   </si>
   <si>
@@ -5616,9 +5601,6 @@
     <t>INV, MTEySS, BCM, OVA</t>
   </si>
   <si>
-    <t>1990-12-31/2018-01-01</t>
-  </si>
-  <si>
     <t>Exportaciones de mosto concentrado en toneladas</t>
   </si>
   <si>
@@ -5640,24 +5622,12 @@
     <t>Indicadores de Ovinos - Lana y Carne en valores anuales, trimestrales y mensuales</t>
   </si>
   <si>
-    <t>1996-01-01/2017-07-01</t>
-  </si>
-  <si>
     <t>1995-12-31/2018-12-31</t>
   </si>
   <si>
-    <t>1995-12-31/2018-01-01</t>
-  </si>
-  <si>
-    <t>2018-02-20</t>
-  </si>
-  <si>
     <t>1996-01-01/2018-01-01</t>
   </si>
   <si>
-    <t>2018-02-23</t>
-  </si>
-  <si>
     <t>1992-01-01/2018-02-01</t>
   </si>
   <si>
@@ -5686,6 +5656,27 @@
   </si>
   <si>
     <t>1990-12-31/2018-02-01</t>
+  </si>
+  <si>
+    <t>1997-01-01/2018-02-01</t>
+  </si>
+  <si>
+    <t>1995-12-31/2018-02-01</t>
+  </si>
+  <si>
+    <t>1996-01-01/2018-02-01</t>
+  </si>
+  <si>
+    <t>2018-03-23</t>
+  </si>
+  <si>
+    <t>1995-01-01/2017-12-31</t>
+  </si>
+  <si>
+    <t>1993-01-01/2017-12-31</t>
+  </si>
+  <si>
+    <t>1990-12-31/2018-03-01</t>
   </si>
 </sst>
 </file>
@@ -9608,7 +9599,7 @@
     <col min="9" max="9" width="14.83203125" style="36" customWidth="1"/>
     <col min="10" max="10" width="19.83203125" style="36" customWidth="1"/>
     <col min="11" max="11" width="18.1640625" style="36" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="36" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="36" customWidth="1"/>
     <col min="13" max="16384" width="16.83203125" style="36"/>
   </cols>
   <sheetData>
@@ -9667,7 +9658,7 @@
     </row>
     <row r="2" spans="1:27" ht="72" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>341</v>
@@ -12486,7 +12477,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -12614,10 +12605,10 @@
         <v>30</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>1881</v>
+        <v>1871</v>
       </c>
       <c r="N2" s="43" t="s">
         <v>31</v>
@@ -12626,7 +12617,7 @@
         <v>32</v>
       </c>
       <c r="P2" s="43" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="Q2" s="45" t="s">
         <v>36</v>
@@ -12674,10 +12665,10 @@
         <v>30</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>1881</v>
+        <v>1871</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>31</v>
@@ -12686,7 +12677,7 @@
         <v>32</v>
       </c>
       <c r="P3" s="43" t="s">
-        <v>1875</v>
+        <v>1865</v>
       </c>
       <c r="Q3" s="45" t="s">
         <v>36</v>
@@ -12725,7 +12716,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>457</v>
@@ -12734,10 +12725,10 @@
         <v>30</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>1881</v>
+        <v>1871</v>
       </c>
       <c r="N4" s="26" t="s">
         <v>31</v>
@@ -12746,7 +12737,7 @@
         <v>32</v>
       </c>
       <c r="P4" s="26" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="Q4" s="29" t="s">
         <v>36</v>
@@ -12794,10 +12785,10 @@
         <v>30</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>1881</v>
+        <v>1871</v>
       </c>
       <c r="N5" s="26" t="s">
         <v>31</v>
@@ -12806,7 +12797,7 @@
         <v>32</v>
       </c>
       <c r="P5" s="26" t="s">
-        <v>1879</v>
+        <v>1869</v>
       </c>
       <c r="Q5" s="29" t="s">
         <v>36</v>
@@ -12854,10 +12845,10 @@
         <v>30</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>1818</v>
+        <v>1877</v>
       </c>
       <c r="N6" s="26" t="s">
         <v>31</v>
@@ -12866,7 +12857,7 @@
         <v>32</v>
       </c>
       <c r="P6" s="26" t="s">
-        <v>1819</v>
+        <v>1874</v>
       </c>
       <c r="Q6" s="29" t="s">
         <v>36</v>
@@ -12914,10 +12905,10 @@
         <v>30</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>1881</v>
+        <v>1871</v>
       </c>
       <c r="N7" s="26" t="s">
         <v>31</v>
@@ -12926,7 +12917,7 @@
         <v>32</v>
       </c>
       <c r="P7" s="26" t="s">
-        <v>1882</v>
+        <v>1872</v>
       </c>
       <c r="Q7" s="29" t="s">
         <v>36</v>
@@ -12941,13 +12932,13 @@
     </row>
     <row r="8" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>1470</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>1472</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>34</v>
@@ -12968,16 +12959,16 @@
         <v>101</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="K8" s="26" t="s">
         <v>30</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>1871</v>
+        <v>1877</v>
       </c>
       <c r="N8" s="26" t="s">
         <v>31</v>
@@ -12986,14 +12977,14 @@
         <v>32</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="Q8" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R8" s="17"/>
       <c r="S8" s="17" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="T8" s="26" t="s">
         <v>33</v>
@@ -13034,10 +13025,10 @@
         <v>30</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>1871</v>
+        <v>1877</v>
       </c>
       <c r="N9" s="26" t="s">
         <v>31</v>
@@ -13046,7 +13037,7 @@
         <v>32</v>
       </c>
       <c r="P9" s="26" t="s">
-        <v>1868</v>
+        <v>1199</v>
       </c>
       <c r="Q9" s="29" t="s">
         <v>36</v>
@@ -13094,10 +13085,10 @@
         <v>30</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>1881</v>
+        <v>1871</v>
       </c>
       <c r="N10" s="26" t="s">
         <v>31</v>
@@ -13106,7 +13097,7 @@
         <v>32</v>
       </c>
       <c r="P10" s="26" t="s">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="Q10" s="29" t="s">
         <v>36</v>
@@ -13154,10 +13145,10 @@
         <v>30</v>
       </c>
       <c r="L11" s="17" t="s">
+        <v>1781</v>
+      </c>
+      <c r="M11" s="17" t="s">
         <v>1783</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>1785</v>
       </c>
       <c r="N11" s="26" t="s">
         <v>31</v>
@@ -13166,7 +13157,7 @@
         <v>32</v>
       </c>
       <c r="P11" s="26" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="Q11" s="29" t="s">
         <v>36</v>
@@ -13214,10 +13205,10 @@
         <v>30</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="N12" s="26" t="s">
         <v>31</v>
@@ -13274,10 +13265,10 @@
         <v>30</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>1785</v>
+        <v>1877</v>
       </c>
       <c r="N13" s="26" t="s">
         <v>31</v>
@@ -13286,7 +13277,7 @@
         <v>32</v>
       </c>
       <c r="P13" s="26" t="s">
-        <v>1371</v>
+        <v>1878</v>
       </c>
       <c r="Q13" s="29" t="s">
         <v>36</v>
@@ -13325,7 +13316,7 @@
         <v>29</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>463</v>
@@ -13334,10 +13325,10 @@
         <v>30</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="N14" s="26" t="s">
         <v>31</v>
@@ -13346,14 +13337,14 @@
         <v>32</v>
       </c>
       <c r="P14" s="26" t="s">
-        <v>1883</v>
+        <v>1873</v>
       </c>
       <c r="Q14" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R14" s="17"/>
       <c r="S14" s="26" t="s">
-        <v>1859</v>
+        <v>1854</v>
       </c>
       <c r="T14" s="26" t="s">
         <v>33</v>
@@ -13394,10 +13385,10 @@
         <v>30</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="N15" s="26" t="s">
         <v>31</v>
@@ -13454,10 +13445,10 @@
         <v>30</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>1820</v>
+        <v>1877</v>
       </c>
       <c r="N16" s="26" t="s">
         <v>31</v>
@@ -13466,14 +13457,14 @@
         <v>32</v>
       </c>
       <c r="P16" s="26" t="s">
-        <v>188</v>
+        <v>1879</v>
       </c>
       <c r="Q16" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R16" s="17"/>
       <c r="S16" s="17" t="s">
-        <v>1821</v>
+        <v>1816</v>
       </c>
       <c r="T16" s="26" t="s">
         <v>33</v>
@@ -13514,10 +13505,10 @@
         <v>30</v>
       </c>
       <c r="L17" s="17" t="s">
+        <v>1781</v>
+      </c>
+      <c r="M17" s="17" t="s">
         <v>1783</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>1785</v>
       </c>
       <c r="N17" s="26" t="s">
         <v>31</v>
@@ -13526,7 +13517,7 @@
         <v>32</v>
       </c>
       <c r="P17" s="26" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="Q17" s="29" t="s">
         <v>36</v>
@@ -13574,10 +13565,10 @@
         <v>30</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="N18" s="26" t="s">
         <v>31</v>
@@ -13586,14 +13577,14 @@
         <v>32</v>
       </c>
       <c r="P18" s="26" t="s">
-        <v>1599</v>
+        <v>1880</v>
       </c>
       <c r="Q18" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R18" s="17"/>
       <c r="S18" s="26" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="T18" s="26" t="s">
         <v>33</v>
@@ -13634,10 +13625,10 @@
         <v>30</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>1785</v>
+        <v>1877</v>
       </c>
       <c r="N19" s="26" t="s">
         <v>31</v>
@@ -13694,10 +13685,10 @@
         <v>30</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>1871</v>
+        <v>1877</v>
       </c>
       <c r="N20" s="26" t="s">
         <v>31</v>
@@ -13706,7 +13697,7 @@
         <v>32</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="Q20" s="29" t="s">
         <v>36</v>
@@ -13721,13 +13712,13 @@
     </row>
     <row r="21" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>1502</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>1504</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>34</v>
@@ -13748,16 +13739,16 @@
         <v>101</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="K21" s="26" t="s">
         <v>30</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>1881</v>
+        <v>1871</v>
       </c>
       <c r="N21" s="26" t="s">
         <v>31</v>
@@ -13766,14 +13757,14 @@
         <v>32</v>
       </c>
       <c r="P21" s="26" t="s">
-        <v>1876</v>
+        <v>1866</v>
       </c>
       <c r="Q21" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R21" s="17"/>
       <c r="S21" s="17" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="T21" s="26" t="s">
         <v>33</v>
@@ -13814,10 +13805,10 @@
         <v>30</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="N22" s="26" t="s">
         <v>31</v>
@@ -13826,7 +13817,7 @@
         <v>32</v>
       </c>
       <c r="P22" s="26" t="s">
-        <v>1868</v>
+        <v>1199</v>
       </c>
       <c r="Q22" s="29" t="s">
         <v>36</v>
@@ -13874,10 +13865,10 @@
         <v>30</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="N23" s="26" t="s">
         <v>31</v>
@@ -13886,7 +13877,7 @@
         <v>32</v>
       </c>
       <c r="P23" s="26" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="Q23" s="29" t="s">
         <v>36</v>
@@ -13934,10 +13925,10 @@
         <v>30</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>1871</v>
+        <v>1877</v>
       </c>
       <c r="N24" s="26" t="s">
         <v>31</v>
@@ -13946,7 +13937,7 @@
         <v>32</v>
       </c>
       <c r="P24" s="26" t="s">
-        <v>1869</v>
+        <v>1862</v>
       </c>
       <c r="Q24" s="29" t="s">
         <v>36</v>
@@ -13994,10 +13985,10 @@
         <v>30</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="M25" s="17" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="N25" s="26" t="s">
         <v>31</v>
@@ -14006,7 +13997,7 @@
         <v>32</v>
       </c>
       <c r="P25" s="26" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="Q25" s="29" t="s">
         <v>36</v>
@@ -14021,13 +14012,13 @@
     </row>
     <row r="26" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>1373</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>1374</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>1375</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>34</v>
@@ -14048,16 +14039,16 @@
         <v>1132</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="K26" s="26" t="s">
         <v>30</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="M26" s="17" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="N26" s="26" t="s">
         <v>31</v>
@@ -14066,14 +14057,14 @@
         <v>32</v>
       </c>
       <c r="P26" s="26" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="Q26" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R26" s="17"/>
       <c r="S26" s="17" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="T26" s="26" t="s">
         <v>33</v>
@@ -14114,10 +14105,10 @@
         <v>30</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="N27" s="26" t="s">
         <v>31</v>
@@ -14126,7 +14117,7 @@
         <v>32</v>
       </c>
       <c r="P27" s="26" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="Q27" s="29" t="s">
         <v>36</v>
@@ -14174,10 +14165,10 @@
         <v>30</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="N28" s="26" t="s">
         <v>31</v>
@@ -14186,7 +14177,7 @@
         <v>32</v>
       </c>
       <c r="P28" s="26" t="s">
-        <v>1874</v>
+        <v>1864</v>
       </c>
       <c r="Q28" s="29" t="s">
         <v>36</v>
@@ -14201,13 +14192,13 @@
     </row>
     <row r="29" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>1541</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>1543</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>34</v>
@@ -14225,19 +14216,19 @@
         <v>29</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="K29" s="26" t="s">
         <v>30</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="M29" s="17" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="N29" s="26" t="s">
         <v>31</v>
@@ -14246,14 +14237,14 @@
         <v>32</v>
       </c>
       <c r="P29" s="26" t="s">
-        <v>1413</v>
+        <v>1868</v>
       </c>
       <c r="Q29" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R29" s="17"/>
       <c r="S29" s="17" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="T29" s="26" t="s">
         <v>33</v>
@@ -14294,10 +14285,10 @@
         <v>30</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="N30" s="26" t="s">
         <v>31</v>
@@ -14306,7 +14297,7 @@
         <v>32</v>
       </c>
       <c r="P30" s="26" t="s">
-        <v>1877</v>
+        <v>1867</v>
       </c>
       <c r="Q30" s="29" t="s">
         <v>36</v>
@@ -14321,13 +14312,13 @@
     </row>
     <row r="31" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>1448</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>1450</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>34</v>
@@ -14348,16 +14339,16 @@
         <v>101</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="K31" s="26" t="s">
         <v>30</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>1871</v>
+        <v>1877</v>
       </c>
       <c r="N31" s="26" t="s">
         <v>31</v>
@@ -14366,14 +14357,14 @@
         <v>32</v>
       </c>
       <c r="P31" s="26" t="s">
-        <v>1413</v>
+        <v>1868</v>
       </c>
       <c r="Q31" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R31" s="17"/>
       <c r="S31" s="17" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="T31" s="26" t="s">
         <v>33</v>
@@ -14414,10 +14405,10 @@
         <v>30</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="N32" s="26" t="s">
         <v>31</v>
@@ -14426,7 +14417,7 @@
         <v>32</v>
       </c>
       <c r="P32" s="26" t="s">
-        <v>1199</v>
+        <v>1863</v>
       </c>
       <c r="Q32" s="29" t="s">
         <v>36</v>
@@ -14441,13 +14432,13 @@
     </row>
     <row r="33" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>1607</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>1608</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>1609</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>34</v>
@@ -14465,19 +14456,19 @@
         <v>29</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="K33" s="26" t="s">
         <v>30</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="N33" s="26" t="s">
         <v>31</v>
@@ -14486,14 +14477,14 @@
         <v>32</v>
       </c>
       <c r="P33" s="26" t="s">
-        <v>1860</v>
+        <v>1873</v>
       </c>
       <c r="Q33" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R33" s="17"/>
       <c r="S33" s="17" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="T33" s="26" t="s">
         <v>33</v>
@@ -14501,13 +14492,13 @@
     </row>
     <row r="34" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>1421</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>1423</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>34</v>
@@ -14528,16 +14519,16 @@
         <v>101</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="K34" s="26" t="s">
         <v>30</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="N34" s="26" t="s">
         <v>31</v>
@@ -14546,7 +14537,7 @@
         <v>32</v>
       </c>
       <c r="P34" s="26" t="s">
-        <v>1878</v>
+        <v>1868</v>
       </c>
       <c r="Q34" s="29" t="s">
         <v>36</v>
@@ -14594,10 +14585,10 @@
         <v>30</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>1871</v>
+        <v>1877</v>
       </c>
       <c r="N35" s="26" t="s">
         <v>31</v>
@@ -14606,7 +14597,7 @@
         <v>32</v>
       </c>
       <c r="P35" s="26" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="Q35" s="29" t="s">
         <v>36</v>
@@ -14744,7 +14735,7 @@
         <v>1095</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>1096</v>
@@ -14923,7 +14914,7 @@
       </c>
       <c r="M6" s="139" t="str">
         <f>+VLOOKUP(A6,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-05</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N6" s="17"/>
     </row>
@@ -14968,23 +14959,23 @@
     </row>
     <row r="8" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>+VLOOKUP(A8,dataset!A7:B24,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>47</v>
@@ -15001,7 +14992,7 @@
       </c>
       <c r="M8" s="139" t="str">
         <f>+VLOOKUP(A8,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-20</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N8" s="17"/>
     </row>
@@ -15040,7 +15031,7 @@
       </c>
       <c r="M9" s="139" t="str">
         <f>+VLOOKUP(A9,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-20</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N9" s="17"/>
     </row>
@@ -15095,7 +15086,7 @@
         <v>784</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>785</v>
@@ -15196,7 +15187,7 @@
       </c>
       <c r="M13" s="139" t="str">
         <f>+VLOOKUP(A13,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-01-31</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N13" s="17"/>
     </row>
@@ -15235,7 +15226,7 @@
       </c>
       <c r="M14" s="139" t="str">
         <f>+VLOOKUP(A14,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-03-09</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N14" s="17"/>
     </row>
@@ -15290,7 +15281,7 @@
         <v>613</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>706</v>
@@ -15313,7 +15304,7 @@
       </c>
       <c r="M16" s="139" t="str">
         <f>+VLOOKUP(A16,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-06</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N16" s="17"/>
     </row>
@@ -15329,7 +15320,7 @@
         <v>773</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>774</v>
@@ -15391,7 +15382,7 @@
       </c>
       <c r="M18" s="139" t="str">
         <f>+VLOOKUP(A18,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-03-09</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N18" s="17"/>
     </row>
@@ -15430,7 +15421,7 @@
       </c>
       <c r="M19" s="139" t="str">
         <f>+VLOOKUP(A19,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-01-31</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N19" s="17"/>
     </row>
@@ -15469,29 +15460,29 @@
       </c>
       <c r="M20" s="139" t="str">
         <f>+VLOOKUP(A20,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-20</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B21" s="11" t="str">
         <f>+VLOOKUP(A21,dataset!A20:B37,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C21" s="23" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>1506</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>1507</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>1508</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>47</v>
@@ -15547,7 +15538,7 @@
       </c>
       <c r="M22" s="139" t="str">
         <f>+VLOOKUP(A22,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-03-09</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N22" s="17"/>
     </row>
@@ -15586,7 +15577,7 @@
       </c>
       <c r="M23" s="139" t="str">
         <f>+VLOOKUP(A23,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-03-09</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N23" s="17"/>
     </row>
@@ -15625,7 +15616,7 @@
       </c>
       <c r="M24" s="139" t="str">
         <f>+VLOOKUP(A24,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-20</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N24" s="17"/>
     </row>
@@ -15664,29 +15655,29 @@
       </c>
       <c r="M25" s="139" t="str">
         <f>+VLOOKUP(A25,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-23</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N25" s="17"/>
     </row>
     <row r="26" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B26" s="11" t="str">
         <f>+VLOOKUP(A26,dataset!A25:B42,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C26" s="23" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>1378</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="E26" s="17" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F26" s="24" t="s">
         <v>1379</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>1379</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>1380</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>47</v>
@@ -15703,7 +15694,7 @@
       </c>
       <c r="M26" s="139" t="str">
         <f>+VLOOKUP(A26,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-23</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N26" s="17"/>
     </row>
@@ -15719,7 +15710,7 @@
         <v>292</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>598</v>
@@ -15742,7 +15733,7 @@
       </c>
       <c r="M27" s="139" t="str">
         <f>+VLOOKUP(A27,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-03-09</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N27" s="9"/>
     </row>
@@ -15786,23 +15777,23 @@
     </row>
     <row r="29" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B29" s="11" t="str">
         <f>+VLOOKUP(A29,dataset!A28:B45,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C29" s="23" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F29" s="24" t="s">
         <v>1546</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>1547</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>1547</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>1548</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>47</v>
@@ -15819,7 +15810,7 @@
       </c>
       <c r="M29" s="139" t="str">
         <f>+VLOOKUP(A29,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-03-09</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N29" s="17"/>
     </row>
@@ -15858,29 +15849,29 @@
       </c>
       <c r="M30" s="139" t="str">
         <f>+VLOOKUP(A30,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-03-09</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N30" s="17"/>
     </row>
     <row r="31" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B31" s="11" t="str">
         <f>+VLOOKUP(A31,dataset!A30:B47,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C31" s="17" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>1452</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>1453</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>1454</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>47</v>
@@ -15897,7 +15888,7 @@
       </c>
       <c r="M31" s="139" t="str">
         <f>+VLOOKUP(A31,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-20</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N31" s="17"/>
     </row>
@@ -15936,29 +15927,29 @@
       </c>
       <c r="M32" s="139" t="str">
         <f>+VLOOKUP(A32,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-23</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N32" s="17"/>
     </row>
     <row r="33" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B33" s="11" t="str">
         <f>+VLOOKUP(A33,dataset!A32:B49,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C33" s="17" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F33" s="24" t="s">
         <v>1611</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>1612</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>1613</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>47</v>
@@ -15975,29 +15966,29 @@
       </c>
       <c r="M33" s="139" t="str">
         <f>+VLOOKUP(A33,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-03-09</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N33" s="17"/>
     </row>
     <row r="34" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B34" s="11" t="str">
         <f>+VLOOKUP(A34,dataset!A33:B50,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F34" s="24" t="s">
         <v>1425</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>1427</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>47</v>
@@ -16014,7 +16005,7 @@
       </c>
       <c r="M34" s="139" t="str">
         <f>+VLOOKUP(A34,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-03-09</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N34" s="17"/>
     </row>
@@ -16053,7 +16044,7 @@
       </c>
       <c r="M35" s="139" t="str">
         <f>+VLOOKUP(A35,dataset!A$2:N$50,13,FALSE)</f>
-        <v>2018-02-20</v>
+        <v>2018-03-23</v>
       </c>
       <c r="N35" s="17"/>
     </row>
@@ -16859,7 +16850,7 @@
         <v>673</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -16887,7 +16878,7 @@
         <v>674</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -17018,7 +17009,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>377</v>
@@ -17126,7 +17117,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>388</v>
@@ -17266,7 +17257,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H42" s="31" t="s">
         <v>380</v>
@@ -17316,13 +17307,13 @@
         <v>Indicadores de azúcar en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="F44" s="19" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="57" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H44" s="31" t="s">
         <v>378</v>
@@ -17344,13 +17335,13 @@
         <v>Indicadores de azúcar en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E45" s="23" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="31" t="s">
         <v>1409</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>1410</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>375</v>
@@ -17484,7 +17475,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="51" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="H50" s="51" t="s">
         <v>377</v>
@@ -17512,7 +17503,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="51" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="H51" s="51" t="s">
         <v>377</v>
@@ -17540,7 +17531,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="51" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="H52" s="51" t="s">
         <v>377</v>
@@ -17620,7 +17611,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="H55" s="31" t="s">
         <v>370</v>
@@ -17648,7 +17639,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="H56" s="31" t="s">
         <v>370</v>
@@ -17676,7 +17667,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="H57" s="9" t="s">
         <v>370</v>
@@ -17704,7 +17695,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>370</v>
@@ -17732,7 +17723,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>370</v>
@@ -17760,7 +17751,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>370</v>
@@ -17788,7 +17779,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>370</v>
@@ -17816,7 +17807,7 @@
         <v>10</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>370</v>
@@ -18784,14 +18775,14 @@
     </row>
     <row r="98" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A98" s="32" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B98" s="31" t="str">
         <f>+VLOOKUP(A98,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D98" s="23" t="str">
         <f>+VLOOKUP(C98,distribution!C$2:D$40,2,FALSE)</f>
@@ -18810,14 +18801,14 @@
     </row>
     <row r="99" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A99" s="32" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B99" s="31" t="str">
         <f>+VLOOKUP(A99,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D99" s="23" t="str">
         <f>+VLOOKUP(C99,distribution!C$2:D$40,2,FALSE)</f>
@@ -18836,14 +18827,14 @@
     </row>
     <row r="100" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A100" s="32" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B100" s="31" t="str">
         <f>+VLOOKUP(A100,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D100" s="23" t="str">
         <f>+VLOOKUP(C100,distribution!C$2:D$40,2,FALSE)</f>
@@ -18862,14 +18853,14 @@
     </row>
     <row r="101" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A101" s="32" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B101" s="31" t="str">
         <f>+VLOOKUP(A101,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D101" s="23" t="str">
         <f>+VLOOKUP(C101,distribution!C$2:D$40,2,FALSE)</f>
@@ -18888,14 +18879,14 @@
     </row>
     <row r="102" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A102" s="32" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B102" s="31" t="str">
         <f>+VLOOKUP(A102,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D102" s="23" t="str">
         <f>+VLOOKUP(C102,distribution!C$2:D$40,2,FALSE)</f>
@@ -18914,27 +18905,27 @@
     </row>
     <row r="103" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A103" s="32" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B103" s="31" t="str">
         <f>+VLOOKUP(A103,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D103" s="23" t="str">
         <f>+VLOOKUP(C103,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="F103" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="31" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="H103" s="30" t="s">
         <v>362</v>
@@ -18942,27 +18933,27 @@
     </row>
     <row r="104" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A104" s="32" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B104" s="31" t="str">
         <f>+VLOOKUP(A104,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D104" s="23" t="str">
         <f>+VLOOKUP(C104,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="F104" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="31" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="H104" s="30" t="s">
         <v>362</v>
@@ -18970,27 +18961,27 @@
     </row>
     <row r="105" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A105" s="32" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B105" s="31" t="str">
         <f>+VLOOKUP(A105,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D105" s="23" t="str">
         <f>+VLOOKUP(C105,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="F105" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="31" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="H105" s="30" t="s">
         <v>362</v>
@@ -18998,27 +18989,27 @@
     </row>
     <row r="106" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A106" s="32" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B106" s="31" t="str">
         <f>+VLOOKUP(A106,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D106" s="23" t="str">
         <f>+VLOOKUP(C106,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="F106" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="31" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H106" s="30" t="s">
         <v>362</v>
@@ -19026,27 +19017,27 @@
     </row>
     <row r="107" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A107" s="32" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B107" s="31" t="str">
         <f>+VLOOKUP(A107,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D107" s="23" t="str">
         <f>+VLOOKUP(C107,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="F107" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="31" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="H107" s="30" t="s">
         <v>369</v>
@@ -19054,27 +19045,27 @@
     </row>
     <row r="108" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A108" s="32" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B108" s="31" t="str">
         <f>+VLOOKUP(A108,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D108" s="23" t="str">
         <f>+VLOOKUP(C108,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="F108" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="31" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="H108" s="30" t="s">
         <v>369</v>
@@ -19082,27 +19073,27 @@
     </row>
     <row r="109" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A109" s="32" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B109" s="31" t="str">
         <f>+VLOOKUP(A109,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D109" s="23" t="str">
         <f>+VLOOKUP(C109,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E109" s="23" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="F109" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="31" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="H109" s="30" t="s">
         <v>369</v>
@@ -19110,27 +19101,27 @@
     </row>
     <row r="110" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A110" s="32" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B110" s="31" t="str">
         <f>+VLOOKUP(A110,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D110" s="23" t="str">
         <f>+VLOOKUP(C110,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E110" s="23" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="F110" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="31" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="H110" s="30" t="s">
         <v>369</v>
@@ -19138,27 +19129,27 @@
     </row>
     <row r="111" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A111" s="32" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B111" s="31" t="str">
         <f>+VLOOKUP(A111,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D111" s="23" t="str">
         <f>+VLOOKUP(C111,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="F111" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="31" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="H111" s="30" t="s">
         <v>369</v>
@@ -19166,27 +19157,27 @@
     </row>
     <row r="112" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A112" s="32" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B112" s="31" t="str">
         <f>+VLOOKUP(A112,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D112" s="23" t="str">
         <f>+VLOOKUP(C112,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="F112" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="31" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="H112" s="30" t="s">
         <v>369</v>
@@ -19194,27 +19185,27 @@
     </row>
     <row r="113" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A113" s="32" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B113" s="31" t="str">
         <f>+VLOOKUP(A113,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D113" s="23" t="str">
         <f>+VLOOKUP(C113,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="F113" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="31" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="H113" s="30" t="s">
         <v>379</v>
@@ -19222,27 +19213,27 @@
     </row>
     <row r="114" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A114" s="32" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B114" s="31" t="str">
         <f>+VLOOKUP(A114,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Frutícola - Fruta de carozo</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D114" s="23" t="str">
         <f>+VLOOKUP(C114,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Frutícola - Fruta de carozo en valores anuales y mensuales</v>
       </c>
       <c r="E114" s="23" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="F114" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="31" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="H114" s="30" t="s">
         <v>379</v>
@@ -22224,16 +22215,16 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E223" s="23" t="s">
-        <v>1823</v>
+        <v>1818</v>
       </c>
       <c r="F223" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="31" t="s">
-        <v>1824</v>
+        <v>1819</v>
       </c>
       <c r="H223" s="31" t="s">
-        <v>1850</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -22252,13 +22243,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E224" s="23" t="s">
-        <v>1825</v>
+        <v>1820</v>
       </c>
       <c r="F224" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="31" t="s">
-        <v>1826</v>
+        <v>1821</v>
       </c>
       <c r="H224" s="31" t="s">
         <v>362</v>
@@ -22280,13 +22271,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E225" s="23" t="s">
-        <v>1827</v>
+        <v>1822</v>
       </c>
       <c r="F225" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="31" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
       <c r="H225" s="31" t="s">
         <v>383</v>
@@ -22308,13 +22299,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E226" s="23" t="s">
-        <v>1829</v>
+        <v>1824</v>
       </c>
       <c r="F226" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="31" t="s">
-        <v>1830</v>
+        <v>1825</v>
       </c>
       <c r="H226" s="31" t="s">
         <v>383</v>
@@ -22336,13 +22327,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E227" s="23" t="s">
-        <v>1831</v>
+        <v>1826</v>
       </c>
       <c r="F227" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="31" t="s">
-        <v>1832</v>
+        <v>1827</v>
       </c>
       <c r="H227" s="31" t="s">
         <v>383</v>
@@ -22364,13 +22355,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E228" s="23" t="s">
-        <v>1833</v>
+        <v>1828</v>
       </c>
       <c r="F228" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="31" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
       <c r="H228" s="31" t="s">
         <v>383</v>
@@ -22398,7 +22389,7 @@
         <v>10</v>
       </c>
       <c r="G229" s="31" t="s">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="H229" s="31" t="s">
         <v>382</v>
@@ -22426,7 +22417,7 @@
         <v>10</v>
       </c>
       <c r="G230" s="31" t="s">
-        <v>1836</v>
+        <v>1831</v>
       </c>
       <c r="H230" s="31" t="s">
         <v>382</v>
@@ -22454,7 +22445,7 @@
         <v>10</v>
       </c>
       <c r="G231" s="31" t="s">
-        <v>1837</v>
+        <v>1832</v>
       </c>
       <c r="H231" s="31" t="s">
         <v>382</v>
@@ -22482,7 +22473,7 @@
         <v>10</v>
       </c>
       <c r="G232" s="31" t="s">
-        <v>1838</v>
+        <v>1833</v>
       </c>
       <c r="H232" s="31" t="s">
         <v>369</v>
@@ -22532,13 +22523,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E234" s="23" t="s">
-        <v>1841</v>
+        <v>1836</v>
       </c>
       <c r="F234" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="31" t="s">
-        <v>1842</v>
+        <v>1837</v>
       </c>
       <c r="H234" s="31" t="s">
         <v>382</v>
@@ -22560,13 +22551,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E235" s="23" t="s">
-        <v>1843</v>
+        <v>1838</v>
       </c>
       <c r="F235" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="31" t="s">
-        <v>1844</v>
+        <v>1839</v>
       </c>
       <c r="H235" s="31" t="s">
         <v>382</v>
@@ -22588,13 +22579,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E236" s="23" t="s">
-        <v>1845</v>
+        <v>1840</v>
       </c>
       <c r="F236" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="31" t="s">
-        <v>1846</v>
+        <v>1841</v>
       </c>
       <c r="H236" s="31" t="s">
         <v>382</v>
@@ -22616,13 +22607,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E237" s="23" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
       <c r="F237" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="31" t="s">
-        <v>1840</v>
+        <v>1835</v>
       </c>
       <c r="H237" s="31" t="s">
         <v>382</v>
@@ -22644,13 +22635,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E238" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F238" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="31" t="s">
         <v>1852</v>
-      </c>
-      <c r="F238" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="31" t="s">
-        <v>1857</v>
       </c>
       <c r="H238" s="31" t="s">
         <v>382</v>
@@ -22672,16 +22663,16 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E239" s="23" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F239" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="31" t="s">
         <v>1853</v>
       </c>
-      <c r="F239" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="31" t="s">
-        <v>1858</v>
-      </c>
       <c r="H239" s="31" t="s">
-        <v>1851</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -22700,13 +22691,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E240" s="23" t="s">
-        <v>1854</v>
+        <v>1849</v>
       </c>
       <c r="F240" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="31" t="s">
-        <v>1847</v>
+        <v>1842</v>
       </c>
       <c r="H240" s="31" t="s">
         <v>387</v>
@@ -22728,13 +22719,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E241" s="23" t="s">
-        <v>1855</v>
+        <v>1850</v>
       </c>
       <c r="F241" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="31" t="s">
-        <v>1848</v>
+        <v>1843</v>
       </c>
       <c r="H241" s="31" t="s">
         <v>387</v>
@@ -22756,13 +22747,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E242" s="23" t="s">
-        <v>1856</v>
+        <v>1851</v>
       </c>
       <c r="F242" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="31" t="s">
-        <v>1849</v>
+        <v>1844</v>
       </c>
       <c r="H242" s="31" t="s">
         <v>387</v>
@@ -22812,13 +22803,13 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E244" s="23" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="F244" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="31" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="H244" s="31" t="s">
         <v>369</v>
@@ -22840,16 +22831,16 @@
         <v>Indicadores de la cadena de valor de vitivinicultura en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E245" s="23" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="F245" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="31" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
       <c r="H245" s="31" t="s">
-        <v>1851</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
@@ -26384,13 +26375,13 @@
         <v>Indicadores de Yerba Mate en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E373" s="17" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="F373" s="19" t="s">
         <v>10</v>
       </c>
       <c r="G373" s="9" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="H373" s="19" t="s">
         <v>362</v>
@@ -26412,13 +26403,13 @@
         <v>Indicadores de Yerba Mate en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E374" s="17" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="F374" s="19" t="s">
         <v>10</v>
       </c>
       <c r="G374" s="9" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="H374" s="19" t="s">
         <v>362</v>
@@ -27554,14 +27545,14 @@
     </row>
     <row r="416" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A416" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B416" s="9" t="str">
         <f>+VLOOKUP(A416,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C416" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D416" s="17" t="str">
         <f>+VLOOKUP(C416,distribution!C$2:D$40,2,FALSE)</f>
@@ -27580,14 +27571,14 @@
     </row>
     <row r="417" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A417" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B417" s="9" t="str">
         <f>+VLOOKUP(A417,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C417" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D417" s="17" t="str">
         <f>+VLOOKUP(C417,distribution!C$2:D$40,2,FALSE)</f>
@@ -27606,14 +27597,14 @@
     </row>
     <row r="418" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A418" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B418" s="9" t="str">
         <f>+VLOOKUP(A418,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C418" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D418" s="17" t="str">
         <f>+VLOOKUP(C418,distribution!C$2:D$40,2,FALSE)</f>
@@ -27632,14 +27623,14 @@
     </row>
     <row r="419" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A419" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B419" s="9" t="str">
         <f>+VLOOKUP(A419,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C419" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D419" s="17" t="str">
         <f>+VLOOKUP(C419,distribution!C$2:D$40,2,FALSE)</f>
@@ -27658,14 +27649,14 @@
     </row>
     <row r="420" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A420" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B420" s="9" t="str">
         <f>+VLOOKUP(A420,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C420" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D420" s="17" t="str">
         <f>+VLOOKUP(C420,distribution!C$2:D$40,2,FALSE)</f>
@@ -27684,27 +27675,27 @@
     </row>
     <row r="421" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A421" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B421" s="9" t="str">
         <f>+VLOOKUP(A421,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C421" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D421" s="17" t="str">
         <f>+VLOOKUP(C421,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E421" s="17" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="F421" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G421" s="9" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="H421" s="9" t="s">
         <v>362</v>
@@ -27712,27 +27703,27 @@
     </row>
     <row r="422" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A422" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B422" s="9" t="str">
         <f>+VLOOKUP(A422,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C422" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D422" s="17" t="str">
         <f>+VLOOKUP(C422,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E422" s="17" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="F422" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G422" s="9" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="H422" s="9" t="s">
         <v>362</v>
@@ -27740,27 +27731,27 @@
     </row>
     <row r="423" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A423" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B423" s="9" t="str">
         <f>+VLOOKUP(A423,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C423" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D423" s="17" t="str">
         <f>+VLOOKUP(C423,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E423" s="17" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="F423" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G423" s="9" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="H423" s="9" t="s">
         <v>362</v>
@@ -27768,27 +27759,27 @@
     </row>
     <row r="424" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A424" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B424" s="9" t="str">
         <f>+VLOOKUP(A424,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C424" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D424" s="17" t="str">
         <f>+VLOOKUP(C424,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E424" s="17" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="F424" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G424" s="9" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="H424" s="9" t="s">
         <v>362</v>
@@ -27796,27 +27787,27 @@
     </row>
     <row r="425" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A425" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B425" s="9" t="str">
         <f>+VLOOKUP(A425,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C425" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D425" s="17" t="str">
         <f>+VLOOKUP(C425,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E425" s="17" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="F425" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G425" s="9" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="H425" s="9" t="s">
         <v>362</v>
@@ -27824,27 +27815,27 @@
     </row>
     <row r="426" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A426" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B426" s="9" t="str">
         <f>+VLOOKUP(A426,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C426" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D426" s="17" t="str">
         <f>+VLOOKUP(C426,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E426" s="17" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="F426" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G426" s="9" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="H426" s="9" t="s">
         <v>362</v>
@@ -27852,27 +27843,27 @@
     </row>
     <row r="427" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A427" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B427" s="9" t="str">
         <f>+VLOOKUP(A427,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C427" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D427" s="17" t="str">
         <f>+VLOOKUP(C427,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E427" s="17" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="F427" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G427" s="9" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="H427" s="9" t="s">
         <v>362</v>
@@ -27880,27 +27871,27 @@
     </row>
     <row r="428" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A428" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B428" s="9" t="str">
         <f>+VLOOKUP(A428,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C428" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D428" s="17" t="str">
         <f>+VLOOKUP(C428,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E428" s="17" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="F428" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G428" s="9" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="H428" s="9" t="s">
         <v>362</v>
@@ -27908,27 +27899,27 @@
     </row>
     <row r="429" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A429" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B429" s="9" t="str">
         <f>+VLOOKUP(A429,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C429" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D429" s="17" t="str">
         <f>+VLOOKUP(C429,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E429" s="17" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="F429" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G429" s="9" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="H429" s="9" t="s">
         <v>369</v>
@@ -27936,27 +27927,27 @@
     </row>
     <row r="430" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A430" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B430" s="9" t="str">
         <f>+VLOOKUP(A430,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C430" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D430" s="17" t="str">
         <f>+VLOOKUP(C430,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E430" s="17" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F430" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G430" s="9" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="H430" s="9" t="s">
         <v>369</v>
@@ -27964,27 +27955,27 @@
     </row>
     <row r="431" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A431" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B431" s="9" t="str">
         <f>+VLOOKUP(A431,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C431" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D431" s="17" t="str">
         <f>+VLOOKUP(C431,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E431" s="17" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="F431" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G431" s="9" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="H431" s="9" t="s">
         <v>369</v>
@@ -27992,27 +27983,27 @@
     </row>
     <row r="432" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A432" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B432" s="9" t="str">
         <f>+VLOOKUP(A432,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C432" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D432" s="17" t="str">
         <f>+VLOOKUP(C432,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E432" s="17" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="F432" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G432" s="9" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="H432" s="9" t="s">
         <v>369</v>
@@ -28020,27 +28011,27 @@
     </row>
     <row r="433" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A433" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B433" s="9" t="str">
         <f>+VLOOKUP(A433,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C433" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D433" s="17" t="str">
         <f>+VLOOKUP(C433,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E433" s="17" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="F433" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G433" s="9" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="H433" s="9" t="s">
         <v>379</v>
@@ -28048,27 +28039,27 @@
     </row>
     <row r="434" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A434" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B434" s="9" t="str">
         <f>+VLOOKUP(A434,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Legumbres</v>
       </c>
       <c r="C434" s="17" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D434" s="17" t="str">
         <f>+VLOOKUP(C434,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Legumbres en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E434" s="17" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="F434" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G434" s="9" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="H434" s="9" t="s">
         <v>379</v>
@@ -29404,7 +29395,7 @@
         <v>Indicadores de Manzana y Pera en valores anuales y mensuales</v>
       </c>
       <c r="E483" s="17" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="F483" s="20" t="s">
         <v>10</v>
@@ -29432,7 +29423,7 @@
         <v>Indicadores de Manzana y Pera en valores anuales y mensuales</v>
       </c>
       <c r="E484" s="17" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="F484" s="20" t="s">
         <v>10</v>
@@ -29856,14 +29847,14 @@
     </row>
     <row r="500" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A500" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B500" s="9" t="str">
         <f>+VLOOKUP(A500,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C500" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D500" s="17" t="str">
         <f>+VLOOKUP(C500,distribution!C$2:D$40,2,FALSE)</f>
@@ -29882,14 +29873,14 @@
     </row>
     <row r="501" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A501" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B501" s="9" t="str">
         <f>+VLOOKUP(A501,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C501" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D501" s="17" t="str">
         <f>+VLOOKUP(C501,distribution!C$2:D$40,2,FALSE)</f>
@@ -29908,14 +29899,14 @@
     </row>
     <row r="502" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A502" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B502" s="9" t="str">
         <f>+VLOOKUP(A502,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C502" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D502" s="17" t="str">
         <f>+VLOOKUP(C502,distribution!C$2:D$40,2,FALSE)</f>
@@ -29934,14 +29925,14 @@
     </row>
     <row r="503" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A503" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B503" s="9" t="str">
         <f>+VLOOKUP(A503,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C503" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D503" s="17" t="str">
         <f>+VLOOKUP(C503,distribution!C$2:D$40,2,FALSE)</f>
@@ -29960,14 +29951,14 @@
     </row>
     <row r="504" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A504" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B504" s="9" t="str">
         <f>+VLOOKUP(A504,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C504" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D504" s="17" t="str">
         <f>+VLOOKUP(C504,distribution!C$2:D$40,2,FALSE)</f>
@@ -29986,335 +29977,335 @@
     </row>
     <row r="505" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A505" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B505" s="9" t="str">
         <f>+VLOOKUP(A505,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C505" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D505" s="17" t="str">
         <f>+VLOOKUP(C505,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E505" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F505" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G505" s="9" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H505" s="19" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="506" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A506" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B506" s="9" t="str">
         <f>+VLOOKUP(A506,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C506" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D506" s="17" t="str">
         <f>+VLOOKUP(C506,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E506" s="17" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F506" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G506" s="9" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H506" s="19" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="507" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A507" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B507" s="9" t="str">
         <f>+VLOOKUP(A507,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C507" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D507" s="17" t="str">
         <f>+VLOOKUP(C507,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E507" s="17" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F507" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G507" s="9" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H507" s="19" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="508" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A508" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B508" s="9" t="str">
         <f>+VLOOKUP(A508,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C508" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D508" s="17" t="str">
         <f>+VLOOKUP(C508,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E508" s="17" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F508" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G508" s="9" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H508" s="19" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="509" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A509" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B509" s="9" t="str">
         <f>+VLOOKUP(A509,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C509" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D509" s="17" t="str">
         <f>+VLOOKUP(C509,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E509" s="17" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F509" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G509" s="9" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H509" s="19" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="510" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A510" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B510" s="9" t="str">
         <f>+VLOOKUP(A510,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C510" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D510" s="17" t="str">
         <f>+VLOOKUP(C510,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E510" s="17" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F510" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G510" s="9" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H510" s="19" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="511" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A511" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B511" s="9" t="str">
         <f>+VLOOKUP(A511,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C511" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D511" s="17" t="str">
         <f>+VLOOKUP(C511,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E511" s="17" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F511" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G511" s="9" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H511" s="19" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="512" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A512" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B512" s="9" t="str">
         <f>+VLOOKUP(A512,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C512" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D512" s="17" t="str">
         <f>+VLOOKUP(C512,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E512" s="17" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F512" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G512" s="9" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H512" s="19" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="513" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A513" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B513" s="9" t="str">
         <f>+VLOOKUP(A513,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C513" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D513" s="17" t="str">
         <f>+VLOOKUP(C513,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E513" s="17" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F513" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G513" s="9" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H513" s="19" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="514" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A514" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B514" s="9" t="str">
         <f>+VLOOKUP(A514,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C514" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D514" s="17" t="str">
         <f>+VLOOKUP(C514,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E514" s="17" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F514" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G514" s="9" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H514" s="19" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="515" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A515" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B515" s="9" t="str">
         <f>+VLOOKUP(A515,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C515" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D515" s="17" t="str">
         <f>+VLOOKUP(C515,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E515" s="17" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F515" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G515" s="9" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H515" s="19" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="516" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A516" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B516" s="9" t="str">
         <f>+VLOOKUP(A516,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Energías alternativas</v>
       </c>
       <c r="C516" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D516" s="17" t="str">
         <f>+VLOOKUP(C516,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Energías alternativas en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E516" s="17" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F516" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G516" s="9" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H516" s="19" t="s">
         <v>377</v>
@@ -30858,7 +30849,7 @@
         <v>10</v>
       </c>
       <c r="G536" s="9" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="H536" s="9" t="s">
         <v>369</v>
@@ -30886,7 +30877,7 @@
         <v>10</v>
       </c>
       <c r="G537" s="9" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="H537" s="9" t="s">
         <v>369</v>
@@ -30914,7 +30905,7 @@
         <v>10</v>
       </c>
       <c r="G538" s="9" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="H538" s="9" t="s">
         <v>369</v>
@@ -30942,7 +30933,7 @@
         <v>10</v>
       </c>
       <c r="G539" s="9" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="H539" s="9" t="s">
         <v>369</v>
@@ -30970,7 +30961,7 @@
         <v>10</v>
       </c>
       <c r="G540" s="9" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="H540" s="9" t="s">
         <v>369</v>
@@ -30998,7 +30989,7 @@
         <v>10</v>
       </c>
       <c r="G541" s="9" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="H541" s="9" t="s">
         <v>369</v>
@@ -31026,7 +31017,7 @@
         <v>10</v>
       </c>
       <c r="G542" s="9" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="H542" s="9" t="s">
         <v>369</v>
@@ -31198,14 +31189,14 @@
     </row>
     <row r="549" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A549" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B549" s="9" t="str">
         <f>+VLOOKUP(A549,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C549" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D549" s="17" t="str">
         <f>+VLOOKUP(C549,distribution!C$2:D$40,2,FALSE)</f>
@@ -31224,14 +31215,14 @@
     </row>
     <row r="550" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A550" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B550" s="31" t="str">
         <f>+VLOOKUP(A550,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C550" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D550" s="23" t="str">
         <f>+VLOOKUP(C550,distribution!C$2:D$40,2,FALSE)</f>
@@ -31250,14 +31241,14 @@
     </row>
     <row r="551" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A551" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B551" s="31" t="str">
         <f>+VLOOKUP(A551,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C551" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D551" s="23" t="str">
         <f>+VLOOKUP(C551,distribution!C$2:D$40,2,FALSE)</f>
@@ -31276,14 +31267,14 @@
     </row>
     <row r="552" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A552" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B552" s="31" t="str">
         <f>+VLOOKUP(A552,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C552" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D552" s="23" t="str">
         <f>+VLOOKUP(C552,distribution!C$2:D$40,2,FALSE)</f>
@@ -31302,14 +31293,14 @@
     </row>
     <row r="553" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A553" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B553" s="31" t="str">
         <f>+VLOOKUP(A553,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C553" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D553" s="23" t="str">
         <f>+VLOOKUP(C553,distribution!C$2:D$40,2,FALSE)</f>
@@ -31328,27 +31319,27 @@
     </row>
     <row r="554" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A554" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B554" s="31" t="str">
         <f>+VLOOKUP(A554,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C554" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D554" s="23" t="str">
         <f>+VLOOKUP(C554,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E554" s="17" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="F554" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G554" s="9" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="H554" s="19" t="s">
         <v>362</v>
@@ -31356,27 +31347,27 @@
     </row>
     <row r="555" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A555" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B555" s="31" t="str">
         <f>+VLOOKUP(A555,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C555" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D555" s="23" t="str">
         <f>+VLOOKUP(C555,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E555" s="17" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="F555" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G555" s="9" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="H555" s="19" t="s">
         <v>362</v>
@@ -31384,27 +31375,27 @@
     </row>
     <row r="556" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A556" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B556" s="31" t="str">
         <f>+VLOOKUP(A556,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C556" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D556" s="23" t="str">
         <f>+VLOOKUP(C556,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E556" s="17" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="F556" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G556" s="9" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="H556" s="19" t="s">
         <v>369</v>
@@ -31412,27 +31403,27 @@
     </row>
     <row r="557" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A557" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B557" s="31" t="str">
         <f>+VLOOKUP(A557,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C557" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D557" s="23" t="str">
         <f>+VLOOKUP(C557,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E557" s="17" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="F557" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G557" s="9" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="H557" s="19" t="s">
         <v>360</v>
@@ -31440,27 +31431,27 @@
     </row>
     <row r="558" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A558" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B558" s="31" t="str">
         <f>+VLOOKUP(A558,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C558" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D558" s="23" t="str">
         <f>+VLOOKUP(C558,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E558" s="17" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="F558" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G558" s="9" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="H558" s="19" t="s">
         <v>360</v>
@@ -31468,27 +31459,27 @@
     </row>
     <row r="559" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A559" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B559" s="31" t="str">
         <f>+VLOOKUP(A559,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C559" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D559" s="23" t="str">
         <f>+VLOOKUP(C559,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E559" s="17" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="F559" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G559" s="9" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="H559" s="19" t="s">
         <v>426</v>
@@ -31496,27 +31487,27 @@
     </row>
     <row r="560" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A560" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B560" s="31" t="str">
         <f>+VLOOKUP(A560,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C560" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D560" s="23" t="str">
         <f>+VLOOKUP(C560,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E560" s="17" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="F560" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G560" s="9" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="H560" s="19" t="s">
         <v>426</v>
@@ -31524,27 +31515,27 @@
     </row>
     <row r="561" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A561" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B561" s="31" t="str">
         <f>+VLOOKUP(A561,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C561" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D561" s="23" t="str">
         <f>+VLOOKUP(C561,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E561" s="17" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="F561" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G561" s="9" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="H561" s="19" t="s">
         <v>360</v>
@@ -31552,27 +31543,27 @@
     </row>
     <row r="562" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A562" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B562" s="31" t="str">
         <f>+VLOOKUP(A562,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C562" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D562" s="23" t="str">
         <f>+VLOOKUP(C562,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E562" s="17" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="F562" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G562" s="9" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="H562" s="19" t="s">
         <v>360</v>
@@ -31580,27 +31571,27 @@
     </row>
     <row r="563" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A563" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B563" s="31" t="str">
         <f>+VLOOKUP(A563,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C563" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D563" s="23" t="str">
         <f>+VLOOKUP(C563,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E563" s="17" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="F563" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G563" s="9" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="H563" s="19" t="s">
         <v>426</v>
@@ -31608,27 +31599,27 @@
     </row>
     <row r="564" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A564" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B564" s="31" t="str">
         <f>+VLOOKUP(A564,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C564" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D564" s="23" t="str">
         <f>+VLOOKUP(C564,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E564" s="17" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="F564" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G564" s="9" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="H564" s="19" t="s">
         <v>426</v>
@@ -31636,139 +31627,139 @@
     </row>
     <row r="565" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A565" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B565" s="31" t="str">
         <f>+VLOOKUP(A565,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C565" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D565" s="23" t="str">
         <f>+VLOOKUP(C565,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E565" s="17" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="F565" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G565" s="9" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="H565" s="19" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="566" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A566" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B566" s="31" t="str">
         <f>+VLOOKUP(A566,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C566" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D566" s="23" t="str">
         <f>+VLOOKUP(C566,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E566" s="17" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="F566" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G566" s="9" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="H566" s="19" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="567" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A567" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B567" s="31" t="str">
         <f>+VLOOKUP(A567,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C567" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D567" s="23" t="str">
         <f>+VLOOKUP(C567,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E567" s="17" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="F567" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G567" s="9" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="H567" s="19" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="568" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A568" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B568" s="31" t="str">
         <f>+VLOOKUP(A568,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C568" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D568" s="23" t="str">
         <f>+VLOOKUP(C568,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E568" s="17" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="F568" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G568" s="9" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="H568" s="19" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="569" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A569" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B569" s="31" t="str">
         <f>+VLOOKUP(A569,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C569" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D569" s="23" t="str">
         <f>+VLOOKUP(C569,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E569" s="17" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="F569" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G569" s="9" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="H569" s="19" t="s">
         <v>377</v>
@@ -31776,27 +31767,27 @@
     </row>
     <row r="570" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A570" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B570" s="31" t="str">
         <f>+VLOOKUP(A570,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C570" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D570" s="23" t="str">
         <f>+VLOOKUP(C570,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E570" s="17" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="F570" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G570" s="9" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="H570" s="19" t="s">
         <v>377</v>
@@ -31804,27 +31795,27 @@
     </row>
     <row r="571" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A571" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B571" s="31" t="str">
         <f>+VLOOKUP(A571,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C571" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D571" s="23" t="str">
         <f>+VLOOKUP(C571,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E571" s="17" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="F571" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G571" s="9" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="H571" s="19" t="s">
         <v>378</v>
@@ -31832,27 +31823,27 @@
     </row>
     <row r="572" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A572" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B572" s="31" t="str">
         <f>+VLOOKUP(A572,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C572" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D572" s="23" t="str">
         <f>+VLOOKUP(C572,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E572" s="17" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="F572" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G572" s="9" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="H572" s="19" t="s">
         <v>378</v>
@@ -31860,27 +31851,27 @@
     </row>
     <row r="573" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A573" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B573" s="31" t="str">
         <f>+VLOOKUP(A573,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C573" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D573" s="23" t="str">
         <f>+VLOOKUP(C573,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E573" s="17" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="F573" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G573" s="9" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="H573" s="19" t="s">
         <v>375</v>
@@ -31888,27 +31879,27 @@
     </row>
     <row r="574" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A574" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B574" s="31" t="str">
         <f>+VLOOKUP(A574,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C574" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D574" s="23" t="str">
         <f>+VLOOKUP(C574,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E574" s="17" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="F574" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G574" s="9" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="H574" s="19" t="s">
         <v>375</v>
@@ -31916,55 +31907,55 @@
     </row>
     <row r="575" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A575" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B575" s="31" t="str">
         <f>+VLOOKUP(A575,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C575" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D575" s="23" t="str">
         <f>+VLOOKUP(C575,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E575" s="17" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="F575" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G575" s="9" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="H575" s="19" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="576" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A576" s="16" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B576" s="31" t="str">
         <f>+VLOOKUP(A576,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Algodonera - textil</v>
       </c>
       <c r="C576" s="17" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D576" s="23" t="str">
         <f>+VLOOKUP(C576,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Algodonera - textil en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E576" s="17" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="F576" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G576" s="9" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="H576" s="19" t="s">
         <v>391</v>
@@ -32998,14 +32989,14 @@
     </row>
     <row r="614" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A614" s="16" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B614" s="9" t="str">
         <f>+VLOOKUP(A614,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C614" s="17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D614" s="17" t="str">
         <f>+VLOOKUP(C614,distribution!C$2:D$40,2,FALSE)</f>
@@ -33024,14 +33015,14 @@
     </row>
     <row r="615" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A615" s="16" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B615" s="9" t="str">
         <f>+VLOOKUP(A615,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C615" s="17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D615" s="17" t="str">
         <f>+VLOOKUP(C615,distribution!C$2:D$40,2,FALSE)</f>
@@ -33050,14 +33041,14 @@
     </row>
     <row r="616" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A616" s="16" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B616" s="9" t="str">
         <f>+VLOOKUP(A616,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C616" s="17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D616" s="17" t="str">
         <f>+VLOOKUP(C616,distribution!C$2:D$40,2,FALSE)</f>
@@ -33076,14 +33067,14 @@
     </row>
     <row r="617" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A617" s="16" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B617" s="9" t="str">
         <f>+VLOOKUP(A617,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C617" s="17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D617" s="17" t="str">
         <f>+VLOOKUP(C617,distribution!C$2:D$40,2,FALSE)</f>
@@ -33102,14 +33093,14 @@
     </row>
     <row r="618" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A618" s="16" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B618" s="9" t="str">
         <f>+VLOOKUP(A618,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C618" s="17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D618" s="17" t="str">
         <f>+VLOOKUP(C618,distribution!C$2:D$40,2,FALSE)</f>
@@ -33128,27 +33119,27 @@
     </row>
     <row r="619" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A619" s="16" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B619" s="9" t="str">
         <f>+VLOOKUP(A619,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C619" s="17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D619" s="17" t="str">
         <f>+VLOOKUP(C619,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E619" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="F619" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G619" s="9" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="H619" s="19" t="s">
         <v>362</v>
@@ -33156,27 +33147,27 @@
     </row>
     <row r="620" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A620" s="16" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B620" s="9" t="str">
         <f>+VLOOKUP(A620,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C620" s="17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D620" s="17" t="str">
         <f>+VLOOKUP(C620,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E620" s="17" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="F620" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G620" s="9" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="H620" s="19" t="s">
         <v>362</v>
@@ -33184,27 +33175,27 @@
     </row>
     <row r="621" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A621" s="16" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B621" s="9" t="str">
         <f>+VLOOKUP(A621,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C621" s="17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D621" s="17" t="str">
         <f>+VLOOKUP(C621,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E621" s="17" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F621" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G621" s="9" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="H621" s="19" t="s">
         <v>369</v>
@@ -33212,27 +33203,27 @@
     </row>
     <row r="622" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A622" s="16" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B622" s="9" t="str">
         <f>+VLOOKUP(A622,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C622" s="17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D622" s="17" t="str">
         <f>+VLOOKUP(C622,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E622" s="17" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="F622" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G622" s="9" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="H622" s="19" t="s">
         <v>390</v>
@@ -33240,58 +33231,58 @@
     </row>
     <row r="623" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A623" s="16" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B623" s="9" t="str">
         <f>+VLOOKUP(A623,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C623" s="17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D623" s="17" t="str">
         <f>+VLOOKUP(C623,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E623" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="F623" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G623" s="9" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="H623" s="19" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="624" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A624" s="16" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B624" s="9" t="str">
         <f>+VLOOKUP(A624,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Té</v>
       </c>
       <c r="C624" s="17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D624" s="17" t="str">
         <f>+VLOOKUP(C624,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Té en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E624" s="17" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="F624" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G624" s="9" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="H624" s="19" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="625" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
@@ -34266,14 +34257,14 @@
     </row>
     <row r="660" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A660" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B660" s="9" t="str">
         <f>+VLOOKUP(A660,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C660" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D660" s="17" t="str">
         <f>+VLOOKUP(C660,distribution!C$2:D$40,2,FALSE)</f>
@@ -34292,14 +34283,14 @@
     </row>
     <row r="661" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A661" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B661" s="9" t="str">
         <f>+VLOOKUP(A661,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C661" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D661" s="17" t="str">
         <f>+VLOOKUP(C661,distribution!C$2:D$40,2,FALSE)</f>
@@ -34318,14 +34309,14 @@
     </row>
     <row r="662" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A662" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B662" s="9" t="str">
         <f>+VLOOKUP(A662,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C662" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D662" s="17" t="str">
         <f>+VLOOKUP(C662,distribution!C$2:D$40,2,FALSE)</f>
@@ -34344,14 +34335,14 @@
     </row>
     <row r="663" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A663" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B663" s="9" t="str">
         <f>+VLOOKUP(A663,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C663" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D663" s="17" t="str">
         <f>+VLOOKUP(C663,distribution!C$2:D$40,2,FALSE)</f>
@@ -34370,14 +34361,14 @@
     </row>
     <row r="664" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A664" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B664" s="9" t="str">
         <f>+VLOOKUP(A664,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C664" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D664" s="17" t="str">
         <f>+VLOOKUP(C664,distribution!C$2:D$40,2,FALSE)</f>
@@ -34396,27 +34387,27 @@
     </row>
     <row r="665" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A665" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B665" s="9" t="str">
         <f>+VLOOKUP(A665,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C665" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D665" s="17" t="str">
         <f>+VLOOKUP(C665,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E665" s="17" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="F665" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G665" s="9" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="H665" s="19" t="s">
         <v>362</v>
@@ -34424,27 +34415,27 @@
     </row>
     <row r="666" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A666" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B666" s="9" t="str">
         <f>+VLOOKUP(A666,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C666" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D666" s="17" t="str">
         <f>+VLOOKUP(C666,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E666" s="17" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="F666" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G666" s="9" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="H666" s="19" t="s">
         <v>362</v>
@@ -34452,27 +34443,27 @@
     </row>
     <row r="667" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A667" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B667" s="9" t="str">
         <f>+VLOOKUP(A667,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C667" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D667" s="17" t="str">
         <f>+VLOOKUP(C667,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E667" s="17" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="F667" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G667" s="9" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="H667" s="19" t="s">
         <v>362</v>
@@ -34480,27 +34471,27 @@
     </row>
     <row r="668" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A668" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B668" s="9" t="str">
         <f>+VLOOKUP(A668,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C668" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D668" s="17" t="str">
         <f>+VLOOKUP(C668,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E668" s="17" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F668" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G668" s="9" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="H668" s="19" t="s">
         <v>362</v>
@@ -34508,27 +34499,27 @@
     </row>
     <row r="669" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A669" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B669" s="9" t="str">
         <f>+VLOOKUP(A669,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C669" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D669" s="17" t="str">
         <f>+VLOOKUP(C669,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E669" s="17" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="F669" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G669" s="9" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="H669" s="19" t="s">
         <v>362</v>
@@ -34536,27 +34527,27 @@
     </row>
     <row r="670" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A670" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B670" s="9" t="str">
         <f>+VLOOKUP(A670,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C670" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D670" s="17" t="str">
         <f>+VLOOKUP(C670,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E670" s="17" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="F670" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G670" s="9" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="H670" s="19" t="s">
         <v>362</v>
@@ -34564,27 +34555,27 @@
     </row>
     <row r="671" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A671" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B671" s="9" t="str">
         <f>+VLOOKUP(A671,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C671" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D671" s="17" t="str">
         <f>+VLOOKUP(C671,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E671" s="17" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="F671" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G671" s="9" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="H671" s="19" t="s">
         <v>362</v>
@@ -34592,27 +34583,27 @@
     </row>
     <row r="672" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A672" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B672" s="9" t="str">
         <f>+VLOOKUP(A672,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C672" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D672" s="17" t="str">
         <f>+VLOOKUP(C672,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E672" s="17" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="F672" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G672" s="9" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="H672" s="19" t="s">
         <v>362</v>
@@ -34620,27 +34611,27 @@
     </row>
     <row r="673" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A673" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B673" s="9" t="str">
         <f>+VLOOKUP(A673,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C673" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D673" s="17" t="str">
         <f>+VLOOKUP(C673,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E673" s="17" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="F673" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G673" s="9" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="H673" s="19" t="s">
         <v>362</v>
@@ -34648,27 +34639,27 @@
     </row>
     <row r="674" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A674" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B674" s="9" t="str">
         <f>+VLOOKUP(A674,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C674" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D674" s="17" t="str">
         <f>+VLOOKUP(C674,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E674" s="17" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="F674" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G674" s="9" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="H674" s="19" t="s">
         <v>362</v>
@@ -34676,27 +34667,27 @@
     </row>
     <row r="675" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A675" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B675" s="9" t="str">
         <f>+VLOOKUP(A675,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C675" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D675" s="17" t="str">
         <f>+VLOOKUP(C675,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E675" s="17" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="F675" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G675" s="9" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="H675" s="19" t="s">
         <v>362</v>
@@ -34704,27 +34695,27 @@
     </row>
     <row r="676" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A676" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B676" s="9" t="str">
         <f>+VLOOKUP(A676,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C676" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D676" s="17" t="str">
         <f>+VLOOKUP(C676,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E676" s="17" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="F676" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G676" s="9" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="H676" s="19" t="s">
         <v>362</v>
@@ -34732,27 +34723,27 @@
     </row>
     <row r="677" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A677" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B677" s="9" t="str">
         <f>+VLOOKUP(A677,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C677" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D677" s="17" t="str">
         <f>+VLOOKUP(C677,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E677" s="17" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="F677" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G677" s="9" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="H677" s="19" t="s">
         <v>362</v>
@@ -34760,27 +34751,27 @@
     </row>
     <row r="678" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A678" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B678" s="9" t="str">
         <f>+VLOOKUP(A678,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C678" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D678" s="17" t="str">
         <f>+VLOOKUP(C678,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E678" s="17" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="F678" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G678" s="9" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="H678" s="19" t="s">
         <v>362</v>
@@ -34788,27 +34779,27 @@
     </row>
     <row r="679" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A679" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B679" s="9" t="str">
         <f>+VLOOKUP(A679,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C679" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D679" s="17" t="str">
         <f>+VLOOKUP(C679,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E679" s="17" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="F679" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G679" s="9" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="H679" s="19" t="s">
         <v>362</v>
@@ -34816,27 +34807,27 @@
     </row>
     <row r="680" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A680" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B680" s="9" t="str">
         <f>+VLOOKUP(A680,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C680" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D680" s="17" t="str">
         <f>+VLOOKUP(C680,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E680" s="17" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="F680" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G680" s="9" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="H680" s="19" t="s">
         <v>362</v>
@@ -34844,27 +34835,27 @@
     </row>
     <row r="681" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A681" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B681" s="9" t="str">
         <f>+VLOOKUP(A681,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C681" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D681" s="17" t="str">
         <f>+VLOOKUP(C681,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E681" s="17" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="F681" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G681" s="9" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="H681" s="19" t="s">
         <v>362</v>
@@ -34872,27 +34863,27 @@
     </row>
     <row r="682" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A682" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B682" s="9" t="str">
         <f>+VLOOKUP(A682,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C682" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D682" s="17" t="str">
         <f>+VLOOKUP(C682,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E682" s="17" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="F682" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G682" s="9" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="H682" s="19" t="s">
         <v>362</v>
@@ -34900,27 +34891,27 @@
     </row>
     <row r="683" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A683" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B683" s="9" t="str">
         <f>+VLOOKUP(A683,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C683" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D683" s="17" t="str">
         <f>+VLOOKUP(C683,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E683" s="17" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="F683" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G683" s="9" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="H683" s="19" t="s">
         <v>362</v>
@@ -34928,27 +34919,27 @@
     </row>
     <row r="684" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A684" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B684" s="9" t="str">
         <f>+VLOOKUP(A684,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C684" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D684" s="17" t="str">
         <f>+VLOOKUP(C684,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E684" s="17" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="F684" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G684" s="9" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="H684" s="19" t="s">
         <v>362</v>
@@ -34956,27 +34947,27 @@
     </row>
     <row r="685" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A685" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B685" s="9" t="str">
         <f>+VLOOKUP(A685,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C685" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D685" s="17" t="str">
         <f>+VLOOKUP(C685,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E685" s="17" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="F685" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G685" s="9" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="H685" s="19" t="s">
         <v>369</v>
@@ -34984,27 +34975,27 @@
     </row>
     <row r="686" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A686" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B686" s="9" t="str">
         <f>+VLOOKUP(A686,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C686" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D686" s="17" t="str">
         <f>+VLOOKUP(C686,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E686" s="17" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="F686" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G686" s="9" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="H686" s="19" t="s">
         <v>369</v>
@@ -35012,27 +35003,27 @@
     </row>
     <row r="687" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A687" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B687" s="9" t="str">
         <f>+VLOOKUP(A687,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C687" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D687" s="17" t="str">
         <f>+VLOOKUP(C687,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E687" s="17" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="F687" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G687" s="9" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="H687" s="19" t="s">
         <v>369</v>
@@ -35040,27 +35031,27 @@
     </row>
     <row r="688" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A688" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B688" s="9" t="str">
         <f>+VLOOKUP(A688,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C688" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D688" s="17" t="str">
         <f>+VLOOKUP(C688,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E688" s="17" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="F688" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G688" s="9" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="H688" s="19" t="s">
         <v>369</v>
@@ -35068,27 +35059,27 @@
     </row>
     <row r="689" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A689" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B689" s="9" t="str">
         <f>+VLOOKUP(A689,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C689" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D689" s="17" t="str">
         <f>+VLOOKUP(C689,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E689" s="17" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="F689" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G689" s="9" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="H689" s="19" t="s">
         <v>369</v>
@@ -35096,27 +35087,27 @@
     </row>
     <row r="690" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A690" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B690" s="9" t="str">
         <f>+VLOOKUP(A690,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C690" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D690" s="17" t="str">
         <f>+VLOOKUP(C690,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E690" s="17" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="F690" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G690" s="9" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="H690" s="19" t="s">
         <v>369</v>
@@ -35124,27 +35115,27 @@
     </row>
     <row r="691" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A691" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B691" s="9" t="str">
         <f>+VLOOKUP(A691,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C691" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D691" s="17" t="str">
         <f>+VLOOKUP(C691,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E691" s="17" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="F691" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G691" s="9" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="H691" s="19" t="s">
         <v>369</v>
@@ -35152,27 +35143,27 @@
     </row>
     <row r="692" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A692" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B692" s="9" t="str">
         <f>+VLOOKUP(A692,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C692" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D692" s="17" t="str">
         <f>+VLOOKUP(C692,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E692" s="17" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="F692" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G692" s="9" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="H692" s="19" t="s">
         <v>369</v>
@@ -35180,27 +35171,27 @@
     </row>
     <row r="693" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A693" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B693" s="9" t="str">
         <f>+VLOOKUP(A693,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C693" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D693" s="17" t="str">
         <f>+VLOOKUP(C693,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E693" s="17" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="F693" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G693" s="9" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="H693" s="19" t="s">
         <v>369</v>
@@ -35208,27 +35199,27 @@
     </row>
     <row r="694" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A694" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B694" s="9" t="str">
         <f>+VLOOKUP(A694,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C694" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D694" s="17" t="str">
         <f>+VLOOKUP(C694,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E694" s="17" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="F694" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G694" s="9" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="H694" s="19" t="s">
         <v>369</v>
@@ -35236,27 +35227,27 @@
     </row>
     <row r="695" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A695" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B695" s="9" t="str">
         <f>+VLOOKUP(A695,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C695" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D695" s="17" t="str">
         <f>+VLOOKUP(C695,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E695" s="17" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="F695" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G695" s="9" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="H695" s="19" t="s">
         <v>360</v>
@@ -35264,27 +35255,27 @@
     </row>
     <row r="696" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A696" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B696" s="9" t="str">
         <f>+VLOOKUP(A696,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C696" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D696" s="17" t="str">
         <f>+VLOOKUP(C696,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E696" s="17" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="F696" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G696" s="9" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="H696" s="19" t="s">
         <v>932</v>
@@ -35292,27 +35283,27 @@
     </row>
     <row r="697" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A697" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B697" s="9" t="str">
         <f>+VLOOKUP(A697,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C697" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D697" s="17" t="str">
         <f>+VLOOKUP(C697,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E697" s="17" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="F697" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G697" s="9" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="H697" s="19" t="s">
         <v>360</v>
@@ -35320,27 +35311,27 @@
     </row>
     <row r="698" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A698" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B698" s="9" t="str">
         <f>+VLOOKUP(A698,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C698" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D698" s="17" t="str">
         <f>+VLOOKUP(C698,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E698" s="17" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="F698" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G698" s="9" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="H698" s="19" t="s">
         <v>932</v>
@@ -35348,83 +35339,83 @@
     </row>
     <row r="699" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A699" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B699" s="9" t="str">
         <f>+VLOOKUP(A699,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C699" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D699" s="17" t="str">
         <f>+VLOOKUP(C699,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E699" s="17" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="F699" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G699" s="9" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="H699" s="19" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="700" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A700" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B700" s="9" t="str">
         <f>+VLOOKUP(A700,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C700" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D700" s="17" t="str">
         <f>+VLOOKUP(C700,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E700" s="17" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="F700" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G700" s="9" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="H700" s="19" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="701" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A701" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B701" s="9" t="str">
         <f>+VLOOKUP(A701,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C701" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D701" s="17" t="str">
         <f>+VLOOKUP(C701,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E701" s="17" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="F701" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G701" s="9" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="H701" s="19" t="s">
         <v>377</v>
@@ -35432,27 +35423,27 @@
     </row>
     <row r="702" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A702" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B702" s="9" t="str">
         <f>+VLOOKUP(A702,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C702" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D702" s="17" t="str">
         <f>+VLOOKUP(C702,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E702" s="17" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="F702" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G702" s="9" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="H702" s="19" t="s">
         <v>378</v>
@@ -35460,27 +35451,27 @@
     </row>
     <row r="703" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A703" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B703" s="9" t="str">
         <f>+VLOOKUP(A703,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C703" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D703" s="17" t="str">
         <f>+VLOOKUP(C703,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E703" s="17" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="F703" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G703" s="9" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="H703" s="19" t="s">
         <v>375</v>
@@ -35488,111 +35479,111 @@
     </row>
     <row r="704" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A704" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B704" s="9" t="str">
         <f>+VLOOKUP(A704,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C704" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D704" s="17" t="str">
         <f>+VLOOKUP(C704,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E704" s="17" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="F704" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G704" s="9" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="H704" s="19" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="705" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A705" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B705" s="9" t="str">
         <f>+VLOOKUP(A705,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C705" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D705" s="17" t="str">
         <f>+VLOOKUP(C705,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E705" s="17" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="F705" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G705" s="9" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="H705" s="19" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="706" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A706" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B706" s="9" t="str">
         <f>+VLOOKUP(A706,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C706" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D706" s="17" t="str">
         <f>+VLOOKUP(C706,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E706" s="17" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="F706" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G706" s="9" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="H706" s="19" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="707" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A707" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B707" s="9" t="str">
         <f>+VLOOKUP(A707,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C707" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D707" s="17" t="str">
         <f>+VLOOKUP(C707,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E707" s="17" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="F707" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G707" s="9" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="H707" s="19" t="s">
         <v>429</v>
@@ -35600,27 +35591,27 @@
     </row>
     <row r="708" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A708" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B708" s="9" t="str">
         <f>+VLOOKUP(A708,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C708" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D708" s="17" t="str">
         <f>+VLOOKUP(C708,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E708" s="17" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="F708" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G708" s="9" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="H708" s="19" t="s">
         <v>429</v>
@@ -35628,27 +35619,27 @@
     </row>
     <row r="709" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A709" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B709" s="9" t="str">
         <f>+VLOOKUP(A709,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C709" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D709" s="17" t="str">
         <f>+VLOOKUP(C709,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E709" s="17" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="F709" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G709" s="9" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="H709" s="19" t="s">
         <v>429</v>
@@ -35656,27 +35647,27 @@
     </row>
     <row r="710" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A710" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B710" s="9" t="str">
         <f>+VLOOKUP(A710,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C710" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D710" s="17" t="str">
         <f>+VLOOKUP(C710,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E710" s="17" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="F710" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G710" s="9" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="H710" s="19" t="s">
         <v>429</v>
@@ -35684,27 +35675,27 @@
     </row>
     <row r="711" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A711" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B711" s="9" t="str">
         <f>+VLOOKUP(A711,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C711" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D711" s="17" t="str">
         <f>+VLOOKUP(C711,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E711" s="17" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="F711" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G711" s="9" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="H711" s="19" t="s">
         <v>429</v>
@@ -35712,27 +35703,27 @@
     </row>
     <row r="712" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A712" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B712" s="9" t="str">
         <f>+VLOOKUP(A712,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C712" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D712" s="17" t="str">
         <f>+VLOOKUP(C712,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E712" s="17" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="F712" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G712" s="9" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="H712" s="19" t="s">
         <v>375</v>
@@ -35740,27 +35731,27 @@
     </row>
     <row r="713" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A713" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B713" s="9" t="str">
         <f>+VLOOKUP(A713,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C713" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D713" s="17" t="str">
         <f>+VLOOKUP(C713,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E713" s="17" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="F713" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G713" s="9" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="H713" s="19" t="s">
         <v>448</v>
@@ -35768,27 +35759,27 @@
     </row>
     <row r="714" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A714" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B714" s="9" t="str">
         <f>+VLOOKUP(A714,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C714" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D714" s="17" t="str">
         <f>+VLOOKUP(C714,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E714" s="17" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="F714" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G714" s="9" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="H714" s="19" t="s">
         <v>448</v>
@@ -35796,27 +35787,27 @@
     </row>
     <row r="715" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A715" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B715" s="9" t="str">
         <f>+VLOOKUP(A715,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C715" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D715" s="17" t="str">
         <f>+VLOOKUP(C715,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E715" s="17" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="F715" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G715" s="9" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="H715" s="19" t="s">
         <v>448</v>
@@ -35824,27 +35815,27 @@
     </row>
     <row r="716" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A716" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B716" s="9" t="str">
         <f>+VLOOKUP(A716,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C716" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D716" s="17" t="str">
         <f>+VLOOKUP(C716,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E716" s="17" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="F716" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G716" s="9" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="H716" s="19" t="s">
         <v>448</v>
@@ -35852,27 +35843,27 @@
     </row>
     <row r="717" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A717" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B717" s="9" t="str">
         <f>+VLOOKUP(A717,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C717" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D717" s="17" t="str">
         <f>+VLOOKUP(C717,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E717" s="17" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="F717" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G717" s="9" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="H717" s="19" t="s">
         <v>448</v>
@@ -35880,27 +35871,27 @@
     </row>
     <row r="718" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A718" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B718" s="9" t="str">
         <f>+VLOOKUP(A718,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C718" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D718" s="17" t="str">
         <f>+VLOOKUP(C718,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E718" s="17" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="F718" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G718" s="9" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="H718" s="19" t="s">
         <v>448</v>
@@ -35908,27 +35899,27 @@
     </row>
     <row r="719" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A719" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B719" s="9" t="str">
         <f>+VLOOKUP(A719,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C719" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D719" s="17" t="str">
         <f>+VLOOKUP(C719,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E719" s="17" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="F719" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G719" s="9" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="H719" s="19" t="s">
         <v>448</v>
@@ -35936,27 +35927,27 @@
     </row>
     <row r="720" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A720" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B720" s="9" t="str">
         <f>+VLOOKUP(A720,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C720" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D720" s="17" t="str">
         <f>+VLOOKUP(C720,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E720" s="17" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="F720" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G720" s="9" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="H720" s="19" t="s">
         <v>448</v>
@@ -35964,27 +35955,27 @@
     </row>
     <row r="721" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A721" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B721" s="9" t="str">
         <f>+VLOOKUP(A721,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C721" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D721" s="17" t="str">
         <f>+VLOOKUP(C721,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E721" s="17" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="F721" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G721" s="9" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="H721" s="19" t="s">
         <v>448</v>
@@ -35992,27 +35983,27 @@
     </row>
     <row r="722" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A722" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B722" s="9" t="str">
         <f>+VLOOKUP(A722,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C722" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D722" s="17" t="str">
         <f>+VLOOKUP(C722,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E722" s="17" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F722" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G722" s="9" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="H722" s="19" t="s">
         <v>375</v>
@@ -36020,27 +36011,27 @@
     </row>
     <row r="723" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A723" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B723" s="9" t="str">
         <f>+VLOOKUP(A723,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C723" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D723" s="17" t="str">
         <f>+VLOOKUP(C723,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E723" s="17" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="F723" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G723" s="9" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="H723" s="19" t="s">
         <v>375</v>
@@ -36048,27 +36039,27 @@
     </row>
     <row r="724" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A724" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B724" s="9" t="str">
         <f>+VLOOKUP(A724,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C724" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D724" s="17" t="str">
         <f>+VLOOKUP(C724,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E724" s="17" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="F724" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G724" s="9" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="H724" s="19" t="s">
         <v>375</v>
@@ -36076,27 +36067,27 @@
     </row>
     <row r="725" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A725" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B725" s="9" t="str">
         <f>+VLOOKUP(A725,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D725" s="17" t="str">
         <f>+VLOOKUP(C725,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E725" s="17" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F725" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G725" s="9" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="H725" s="19" t="s">
         <v>375</v>
@@ -36104,27 +36095,27 @@
     </row>
     <row r="726" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A726" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B726" s="9" t="str">
         <f>+VLOOKUP(A726,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C726" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D726" s="17" t="str">
         <f>+VLOOKUP(C726,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E726" s="17" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="F726" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G726" s="9" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="H726" s="19" t="s">
         <v>375</v>
@@ -36132,27 +36123,27 @@
     </row>
     <row r="727" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A727" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B727" s="9" t="str">
         <f>+VLOOKUP(A727,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C727" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D727" s="17" t="str">
         <f>+VLOOKUP(C727,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E727" s="17" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F727" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G727" s="9" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="H727" s="19" t="s">
         <v>375</v>
@@ -36160,27 +36151,27 @@
     </row>
     <row r="728" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A728" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B728" s="9" t="str">
         <f>+VLOOKUP(A728,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C728" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D728" s="17" t="str">
         <f>+VLOOKUP(C728,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E728" s="17" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="F728" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G728" s="9" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="H728" s="19" t="s">
         <v>375</v>
@@ -36188,27 +36179,27 @@
     </row>
     <row r="729" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A729" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B729" s="9" t="str">
         <f>+VLOOKUP(A729,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C729" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D729" s="17" t="str">
         <f>+VLOOKUP(C729,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E729" s="17" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="F729" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G729" s="9" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="H729" s="19" t="s">
         <v>375</v>
@@ -36216,27 +36207,27 @@
     </row>
     <row r="730" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A730" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B730" s="9" t="str">
         <f>+VLOOKUP(A730,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C730" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D730" s="17" t="str">
         <f>+VLOOKUP(C730,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E730" s="17" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="F730" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G730" s="9" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="H730" s="19" t="s">
         <v>375</v>
@@ -36244,27 +36235,27 @@
     </row>
     <row r="731" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A731" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B731" s="9" t="str">
         <f>+VLOOKUP(A731,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C731" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D731" s="17" t="str">
         <f>+VLOOKUP(C731,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E731" s="17" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="F731" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G731" s="9" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="H731" s="19" t="s">
         <v>375</v>
@@ -36272,27 +36263,27 @@
     </row>
     <row r="732" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A732" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B732" s="9" t="str">
         <f>+VLOOKUP(A732,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C732" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D732" s="17" t="str">
         <f>+VLOOKUP(C732,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E732" s="17" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="F732" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G732" s="9" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="H732" s="19" t="s">
         <v>375</v>
@@ -36300,27 +36291,27 @@
     </row>
     <row r="733" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A733" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B733" s="9" t="str">
         <f>+VLOOKUP(A733,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C733" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D733" s="17" t="str">
         <f>+VLOOKUP(C733,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E733" s="17" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="F733" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G733" s="9" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="H733" s="19" t="s">
         <v>375</v>
@@ -36328,27 +36319,27 @@
     </row>
     <row r="734" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A734" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B734" s="9" t="str">
         <f>+VLOOKUP(A734,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C734" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D734" s="17" t="str">
         <f>+VLOOKUP(C734,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E734" s="17" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="F734" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G734" s="9" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="H734" s="19" t="s">
         <v>375</v>
@@ -36356,27 +36347,27 @@
     </row>
     <row r="735" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A735" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B735" s="9" t="str">
         <f>+VLOOKUP(A735,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C735" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D735" s="17" t="str">
         <f>+VLOOKUP(C735,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E735" s="17" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="F735" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G735" s="9" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="H735" s="19" t="s">
         <v>375</v>
@@ -36384,27 +36375,27 @@
     </row>
     <row r="736" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A736" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B736" s="9" t="str">
         <f>+VLOOKUP(A736,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C736" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D736" s="17" t="str">
         <f>+VLOOKUP(C736,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E736" s="17" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F736" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G736" s="9" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="H736" s="19" t="s">
         <v>375</v>
@@ -36412,27 +36403,27 @@
     </row>
     <row r="737" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A737" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B737" s="9" t="str">
         <f>+VLOOKUP(A737,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C737" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D737" s="17" t="str">
         <f>+VLOOKUP(C737,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E737" s="17" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="F737" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G737" s="9" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="H737" s="19" t="s">
         <v>375</v>
@@ -36440,27 +36431,27 @@
     </row>
     <row r="738" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A738" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B738" s="9" t="str">
         <f>+VLOOKUP(A738,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C738" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D738" s="17" t="str">
         <f>+VLOOKUP(C738,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E738" s="17" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="F738" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G738" s="9" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="H738" s="19" t="s">
         <v>375</v>
@@ -36468,27 +36459,27 @@
     </row>
     <row r="739" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A739" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B739" s="9" t="str">
         <f>+VLOOKUP(A739,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Tabaco</v>
       </c>
       <c r="C739" s="17" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D739" s="17" t="str">
         <f>+VLOOKUP(C739,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Tabaco en valores anuales, trimestrales  y mensuales</v>
       </c>
       <c r="E739" s="17" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="F739" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G739" s="9" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="H739" s="19" t="s">
         <v>375</v>
@@ -36496,14 +36487,14 @@
     </row>
     <row r="740" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A740" s="16" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B740" s="9" t="str">
         <f>+VLOOKUP(A740,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C740" s="17" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D740" s="17" t="str">
         <f>+VLOOKUP(C740,distribution!C$2:D$40,2,FALSE)</f>
@@ -36522,14 +36513,14 @@
     </row>
     <row r="741" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A741" s="16" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B741" s="9" t="str">
         <f>+VLOOKUP(A741,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C741" s="17" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D741" s="17" t="str">
         <f>+VLOOKUP(C741,distribution!C$2:D$40,2,FALSE)</f>
@@ -36548,14 +36539,14 @@
     </row>
     <row r="742" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A742" s="16" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B742" s="9" t="str">
         <f>+VLOOKUP(A742,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C742" s="17" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D742" s="17" t="str">
         <f>+VLOOKUP(C742,distribution!C$2:D$40,2,FALSE)</f>
@@ -36574,14 +36565,14 @@
     </row>
     <row r="743" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A743" s="16" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B743" s="9" t="str">
         <f>+VLOOKUP(A743,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C743" s="17" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D743" s="17" t="str">
         <f>+VLOOKUP(C743,distribution!C$2:D$40,2,FALSE)</f>
@@ -36600,14 +36591,14 @@
     </row>
     <row r="744" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A744" s="16" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B744" s="9" t="str">
         <f>+VLOOKUP(A744,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C744" s="17" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D744" s="17" t="str">
         <f>+VLOOKUP(C744,distribution!C$2:D$40,2,FALSE)</f>
@@ -36626,27 +36617,27 @@
     </row>
     <row r="745" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A745" s="16" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B745" s="9" t="str">
         <f>+VLOOKUP(A745,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C745" s="17" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D745" s="17" t="str">
         <f>+VLOOKUP(C745,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E745" s="17" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="F745" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G745" s="9" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="H745" s="19" t="s">
         <v>362</v>
@@ -36654,27 +36645,27 @@
     </row>
     <row r="746" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A746" s="16" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B746" s="9" t="str">
         <f>+VLOOKUP(A746,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C746" s="17" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D746" s="17" t="str">
         <f>+VLOOKUP(C746,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E746" s="17" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="F746" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G746" s="9" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="H746" s="19" t="s">
         <v>362</v>
@@ -36682,27 +36673,27 @@
     </row>
     <row r="747" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A747" s="16" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B747" s="9" t="str">
         <f>+VLOOKUP(A747,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C747" s="17" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D747" s="17" t="str">
         <f>+VLOOKUP(C747,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E747" s="17" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="F747" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G747" s="9" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="H747" s="19" t="s">
         <v>369</v>
@@ -36710,27 +36701,27 @@
     </row>
     <row r="748" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A748" s="16" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B748" s="9" t="str">
         <f>+VLOOKUP(A748,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C748" s="17" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D748" s="17" t="str">
         <f>+VLOOKUP(C748,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E748" s="17" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="F748" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G748" s="9" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="H748" s="19" t="s">
         <v>369</v>
@@ -36738,83 +36729,83 @@
     </row>
     <row r="749" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A749" s="16" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B749" s="9" t="str">
         <f>+VLOOKUP(A749,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C749" s="17" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D749" s="17" t="str">
         <f>+VLOOKUP(C749,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E749" s="17" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="F749" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G749" s="9" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="H749" s="19" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="750" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A750" s="16" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B750" s="9" t="str">
         <f>+VLOOKUP(A750,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C750" s="17" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D750" s="17" t="str">
         <f>+VLOOKUP(C750,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E750" s="17" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="F750" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G750" s="9" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="H750" s="19" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="751" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A751" s="16" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B751" s="9" t="str">
         <f>+VLOOKUP(A751,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C751" s="17" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D751" s="17" t="str">
         <f>+VLOOKUP(C751,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E751" s="17" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="F751" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G751" s="9" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H751" s="19" t="s">
         <v>389</v>
@@ -36822,27 +36813,27 @@
     </row>
     <row r="752" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A752" s="16" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B752" s="9" t="str">
         <f>+VLOOKUP(A752,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C752" s="17" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D752" s="17" t="str">
         <f>+VLOOKUP(C752,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E752" s="17" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="F752" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G752" s="9" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="H752" s="19" t="s">
         <v>389</v>
@@ -36850,27 +36841,27 @@
     </row>
     <row r="753" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A753" s="16" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B753" s="9" t="str">
         <f>+VLOOKUP(A753,dataset!A$2:B$40,2,FALSE)</f>
         <v>Indicadores Sectoriales de Arroz</v>
       </c>
       <c r="C753" s="17" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D753" s="17" t="str">
         <f>+VLOOKUP(C753,distribution!C$2:D$40,2,FALSE)</f>
         <v>Indicadores de Arroz en valores anuales, trimestrales y mensuales</v>
       </c>
       <c r="E753" s="17" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="F753" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G753" s="9" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H753" s="19" t="s">
         <v>389</v>
@@ -37470,7 +37461,7 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E775" s="17" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="F775" s="9" t="s">
         <v>10</v>
@@ -39038,13 +39029,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E831" s="23" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="F831" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G831" s="31" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="H831" s="150" t="s">
         <v>377</v>
@@ -39066,13 +39057,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E832" s="23" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="F832" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G832" s="31" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="H832" s="150" t="s">
         <v>377</v>
@@ -39094,13 +39085,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E833" s="23" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="F833" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G833" s="31" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="H833" s="150" t="s">
         <v>377</v>
@@ -39122,13 +39113,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E834" s="23" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="F834" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G834" s="31" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="H834" s="150" t="s">
         <v>377</v>
@@ -39150,13 +39141,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E835" s="23" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="F835" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G835" s="31" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="H835" s="150" t="s">
         <v>377</v>
@@ -39178,13 +39169,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E836" s="23" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="F836" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G836" s="31" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="H836" s="150" t="s">
         <v>377</v>
@@ -39206,7 +39197,7 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E837" s="23" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="F837" s="31" t="s">
         <v>10</v>
@@ -39262,13 +39253,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E839" s="23" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="F839" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G839" s="31" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="H839" s="150" t="s">
         <v>377</v>
@@ -39290,13 +39281,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E840" s="23" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="F840" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G840" s="31" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="H840" s="150" t="s">
         <v>377</v>
@@ -39318,13 +39309,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E841" s="23" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="F841" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G841" s="31" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="H841" s="150" t="s">
         <v>377</v>
@@ -39346,13 +39337,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E842" s="23" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="F842" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G842" s="31" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="H842" s="150" t="s">
         <v>377</v>
@@ -39374,13 +39365,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E843" s="23" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F843" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G843" s="31" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="H843" s="150" t="s">
         <v>377</v>
@@ -39402,13 +39393,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E844" s="23" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="F844" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G844" s="31" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="H844" s="150" t="s">
         <v>377</v>
@@ -39430,13 +39421,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E845" s="23" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="F845" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G845" s="31" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="H845" s="150" t="s">
         <v>377</v>
@@ -39458,13 +39449,13 @@
         <v>Indicadores Provinciales Socioeconómicos en valores anuales, trimestrales y mensual acumulado</v>
       </c>
       <c r="E846" s="23" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="F846" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G846" s="31" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="H846" s="150" t="s">
         <v>377</v>
@@ -40862,7 +40853,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="125" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C89" s="126"/>
       <c r="D89" s="125"/>
@@ -40874,7 +40865,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="125" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C90" s="126"/>
       <c r="D90" s="125"/>
@@ -40886,7 +40877,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="125" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="C91" s="126"/>
       <c r="D91" s="125"/>
@@ -40898,7 +40889,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="125" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="C92" s="126"/>
       <c r="D92" s="125"/>
@@ -40910,7 +40901,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="125" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="C93" s="126"/>
       <c r="D93" s="125"/>
@@ -40922,7 +40913,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="124" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C94" s="123"/>
       <c r="D94" s="123"/>
@@ -40938,7 +40929,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="124" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="C95" s="123"/>
       <c r="D95" s="123"/>
@@ -40950,7 +40941,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="124" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C96" s="123"/>
       <c r="D96" s="123"/>
@@ -40962,7 +40953,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="124" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C97" s="123"/>
       <c r="D97" s="123"/>
@@ -40974,7 +40965,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="124" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="C98" s="123"/>
       <c r="D98" s="123"/>
@@ -41022,7 +41013,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="124" t="s">
-        <v>1850</v>
+        <v>1845</v>
       </c>
       <c r="C102" s="123"/>
       <c r="D102" s="123"/>
@@ -41034,7 +41025,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="124" t="s">
-        <v>1851</v>
+        <v>1846</v>
       </c>
       <c r="C103" s="123"/>
       <c r="D103" s="123"/>
